--- a/Weather_for_Penman/Penman_irrigation_results.xlsx
+++ b/Weather_for_Penman/Penman_irrigation_results.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC48"/>
+  <dimension ref="A1:AQ54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -570,22 +570,92 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
+          <t>CFRT (inch)</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>SFRT (inch)</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
           <t>CRZ (inch)</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>SRZ (inch)</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>AWHC (inch)</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>AWHS (inch)</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>CIWD (inch)</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>SIWD (inch)</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>CFWD (inch)</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>SFWD (inch)</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>CIWL (inch)</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>SIWL (inch)</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>CFWL (inch)</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>SFWL (inch)</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>CIWDP (%)</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>SIWDP (%)</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>CFWDP (%)</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>SFWDP (%)</t>
         </is>
       </c>
     </row>
@@ -666,16 +736,58 @@
         <v>0</v>
       </c>
       <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
         <v>4</v>
       </c>
-      <c r="AA2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>0.92</v>
       </c>
-      <c r="AC2" t="n">
-        <v>0.92</v>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,16 +867,58 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.92</v>
+        <v>4.4762</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.92</v>
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1.0295</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1.1017</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1.1017</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1.1017</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1.1017</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -844,16 +998,58 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.92</v>
+        <v>4.9524</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.92</v>
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1.139</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.1524</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.1524</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.1524</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.1524</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -933,16 +1129,58 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.92</v>
+        <v>5.4286</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.92</v>
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1.2486</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.1332</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.1332</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.1332</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.1332</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1022,16 +1260,58 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.92</v>
+        <v>5.9048</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.92</v>
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1.3581</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.0126</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.0126</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.0126</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.0126</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.9278</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.9278</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.9278</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.9278</v>
       </c>
     </row>
     <row r="7">
@@ -1111,16 +1391,58 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.92</v>
+        <v>6.381</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.92</v>
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1.4676</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.0332</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.0332</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.0332</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.0332</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>2.2648</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>2.2648</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>2.2648</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>2.2648</v>
       </c>
     </row>
     <row r="8">
@@ -1200,16 +1522,58 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.92</v>
+        <v>6.8571</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.92</v>
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1.5771</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.0332</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.0332</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.0332</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.0332</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>2.1075</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>2.1075</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>2.1075</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>2.1075</v>
       </c>
     </row>
     <row r="9">
@@ -1289,16 +1653,58 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>4.4762</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.0295</v>
+        <v>7.3333</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.92</v>
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1.6867</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.0675</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.0675</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.0675</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.0675</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.0011</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>4.0011</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>4.0011</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>4.0011</v>
       </c>
     </row>
     <row r="10">
@@ -1378,16 +1784,58 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>4.9524</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.139</v>
+        <v>7.8095</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.92</v>
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1.7962</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.1079</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.1079</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.1079</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.1079</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>6.0059</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>6.0059</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>6.0059</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>6.0059</v>
       </c>
     </row>
     <row r="11">
@@ -1467,16 +1915,58 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>5.4286</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.2486</v>
+        <v>8.2857</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.92</v>
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1.9057</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.1079</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.1079</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.1079</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.1079</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5.6607</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>5.6607</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>5.6607</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>5.6607</v>
       </c>
     </row>
     <row r="12">
@@ -1556,16 +2046,58 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>5.9048</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.3581</v>
+        <v>8.761900000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.92</v>
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>2.0152</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.1079</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.1079</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.1079</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.1079</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.7723</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.7723</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.7723</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.7723</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>5.3531</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>5.3531</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>5.3531</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>5.3531</v>
       </c>
     </row>
     <row r="13">
@@ -1645,16 +2177,58 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.381</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.4676</v>
+        <v>9.238099999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.92</v>
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>2.1248</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.1079</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.1079</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.1079</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.1079</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.2091</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.2091</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.2091</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.2091</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>5.0772</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>5.0772</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>5.0772</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>5.0772</v>
       </c>
     </row>
     <row r="14">
@@ -1734,16 +2308,58 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>6.8571</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.5771</v>
+        <v>9.7143</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.92</v>
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>2.2343</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.1415</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.1415</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.1415</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.1415</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>6.331</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>6.331</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>6.331</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>6.331</v>
       </c>
     </row>
     <row r="15">
@@ -1823,16 +2439,58 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>7.3333</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.6867</v>
+        <v>10.1905</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.92</v>
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>2.3438</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>8.4954</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>8.4954</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>8.4954</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>8.4954</v>
       </c>
     </row>
     <row r="16">
@@ -1909,19 +2567,61 @@
         <v>0.228</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.1368</v>
+        <v>0.228</v>
       </c>
       <c r="Z16" t="n">
-        <v>7.8095</v>
+        <v>0.228</v>
       </c>
       <c r="AA16" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>10.6667</v>
+      </c>
+      <c r="AC16" t="n">
         <v>4</v>
       </c>
-      <c r="AB16" t="n">
-        <v>1.7962</v>
-      </c>
-      <c r="AC16" t="n">
+      <c r="AD16" t="n">
+        <v>2.4533</v>
+      </c>
+      <c r="AE16" t="n">
         <v>0.92</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.1752</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.1867</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.1752</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.1867</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>8.116099999999999</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>8.116099999999999</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>8.116099999999999</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>8.116099999999999</v>
       </c>
     </row>
     <row r="17">
@@ -1995,22 +2695,64 @@
         <v>0.052</v>
       </c>
       <c r="X17" t="n">
-        <v>0.0912</v>
+        <v>0.0456</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>0.228</v>
       </c>
       <c r="Z17" t="n">
-        <v>8.2857</v>
+        <v>0.0456</v>
       </c>
       <c r="AA17" t="n">
-        <v>4</v>
+        <v>0.228</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.9057</v>
+        <v>11.1429</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.92</v>
+        <v>4.4762</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2.5629</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1.0295</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>8.1927</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>7.7693</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>8.1927</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>7.7693</v>
       </c>
     </row>
     <row r="18">
@@ -2084,22 +2826,64 @@
         <v>0.036</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>0.228</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.1824</v>
+        <v>0.228</v>
       </c>
       <c r="Z18" t="n">
-        <v>8.761900000000001</v>
+        <v>0.228</v>
       </c>
       <c r="AA18" t="n">
-        <v>4</v>
+        <v>0.228</v>
       </c>
       <c r="AB18" t="n">
-        <v>2.0152</v>
+        <v>11.619</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.92</v>
+        <v>4.9524</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>2.6724</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1.139</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>7.8569</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>7.4509</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>7.8569</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>7.4509</v>
       </c>
     </row>
     <row r="19">
@@ -2173,22 +2957,64 @@
         <v>0.0259</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>0.0912</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.1824</v>
+        <v>0.0912</v>
       </c>
       <c r="Z19" t="n">
-        <v>9.238099999999999</v>
+        <v>0.0912</v>
       </c>
       <c r="AA19" t="n">
-        <v>4</v>
+        <v>0.228</v>
       </c>
       <c r="AB19" t="n">
-        <v>2.1248</v>
+        <v>12.0952</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.92</v>
+        <v>5.4286</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1.2486</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.4053</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.5421</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>7.5528</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>7.1625</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>7.5528</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>7.1625</v>
       </c>
     </row>
     <row r="20">
@@ -2262,22 +3088,64 @@
         <v>0.024</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>0.0912</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>0.0912</v>
       </c>
       <c r="Z20" t="n">
-        <v>9.7143</v>
+        <v>0.1824</v>
       </c>
       <c r="AA20" t="n">
-        <v>4</v>
+        <v>0.228</v>
       </c>
       <c r="AB20" t="n">
-        <v>2.2343</v>
+        <v>12.5714</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.92</v>
+        <v>5.9048</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1.3581</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.1606</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.1672</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>7.2905</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>6.9138</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>7.2905</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>6.9138</v>
       </c>
     </row>
     <row r="21">
@@ -2351,22 +3219,64 @@
         <v>0.0262</v>
       </c>
       <c r="X21" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.0456</v>
+      </c>
+      <c r="Z21" t="n">
         <v>0.1368</v>
       </c>
-      <c r="Y21" t="n">
-        <v>0.0912</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>10.1905</v>
-      </c>
       <c r="AA21" t="n">
-        <v>4</v>
+        <v>0.0456</v>
       </c>
       <c r="AB21" t="n">
-        <v>2.3438</v>
+        <v>13.0476</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.92</v>
+        <v>6.381</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1.4676</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.1945</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.0194</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.1033</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.0194</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>7.0459</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>6.6818</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>7.0459</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>6.6818</v>
       </c>
     </row>
     <row r="22">
@@ -2440,22 +3350,64 @@
         <v>0.0275</v>
       </c>
       <c r="X22" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.1824</v>
+      </c>
+      <c r="Z22" t="n">
         <v>0.1368</v>
       </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>10.6667</v>
-      </c>
       <c r="AA22" t="n">
-        <v>4</v>
+        <v>0.228</v>
       </c>
       <c r="AB22" t="n">
-        <v>2.4533</v>
+        <v>13.5238</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.92</v>
+        <v>6.8571</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1.5771</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.1929</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.1549</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.1017</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.2005</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>6.8171</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>6.4648</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>6.8171</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>6.4648</v>
       </c>
     </row>
     <row r="23">
@@ -2529,22 +3481,64 @@
         <v>0.0374</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>0.0912</v>
       </c>
       <c r="Y23" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.1368</v>
+      </c>
+      <c r="AA23" t="n">
         <v>0.0912</v>
       </c>
-      <c r="Z23" t="n">
-        <v>11.1429</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>4.4762</v>
-      </c>
       <c r="AB23" t="n">
-        <v>2.5629</v>
+        <v>14</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.0295</v>
+        <v>7.3333</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1.6867</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0.0276</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0.1906</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0.0732</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0.0538</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>6.6027</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>6.2615</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>6.6027</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>6.2615</v>
       </c>
     </row>
     <row r="24">
@@ -2618,22 +3612,64 @@
         <v>0.019</v>
       </c>
       <c r="X24" t="n">
+        <v>0.0456</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.0456</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.0456</v>
+      </c>
+      <c r="AA24" t="n">
         <v>0.228</v>
       </c>
-      <c r="Y24" t="n">
-        <v>0.0912</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>11.619</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>4.9524</v>
-      </c>
       <c r="AB24" t="n">
-        <v>2.6724</v>
+        <v>14.4762</v>
       </c>
       <c r="AC24" t="n">
-        <v>1.139</v>
+        <v>7.8095</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.7962</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.2132</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.2266</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.2132</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.409</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>6.4014</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>6.0706</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>6.4014</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>6.0706</v>
       </c>
     </row>
     <row r="25">
@@ -2707,22 +3743,64 @@
         <v>0.0162</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>0.228</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>0.228</v>
       </c>
       <c r="Z25" t="n">
-        <v>12.0952</v>
+        <v>0.228</v>
       </c>
       <c r="AA25" t="n">
-        <v>5.4286</v>
+        <v>0.0912</v>
       </c>
       <c r="AB25" t="n">
-        <v>2.78</v>
+        <v>14.9524</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.2486</v>
+        <v>8.2857</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1.9057</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.2004</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.2118</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.2004</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>6.212</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>5.891</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>6.212</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>5.891</v>
       </c>
     </row>
     <row r="26">
@@ -2796,22 +3874,64 @@
         <v>0.0252</v>
       </c>
       <c r="X26" t="n">
-        <v>0.0912</v>
+        <v>0.228</v>
       </c>
       <c r="Y26" t="n">
         <v>0.0456</v>
       </c>
       <c r="Z26" t="n">
-        <v>12.5714</v>
+        <v>0.1824</v>
       </c>
       <c r="AA26" t="n">
-        <v>5.9048</v>
+        <v>0.228</v>
       </c>
       <c r="AB26" t="n">
-        <v>2.88</v>
+        <v>15.4286</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.3581</v>
+        <v>8.761900000000001</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>2.0152</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.1851</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.0204</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.1395</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.2028</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>6.0335</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>5.7217</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>6.0335</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>5.7217</v>
       </c>
     </row>
     <row r="27">
@@ -2885,22 +4005,64 @@
         <v>0.0261</v>
       </c>
       <c r="X27" t="n">
+        <v>0.0912</v>
+      </c>
+      <c r="Y27" t="n">
         <v>0.1368</v>
       </c>
-      <c r="Y27" t="n">
-        <v>0</v>
-      </c>
       <c r="Z27" t="n">
-        <v>13.0476</v>
+        <v>0.1368</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.381</v>
+        <v>0.0912</v>
       </c>
       <c r="AB27" t="n">
-        <v>2.98</v>
+        <v>15.9048</v>
       </c>
       <c r="AC27" t="n">
-        <v>1.4676</v>
+        <v>9.238099999999999</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>2.1248</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0.2967</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0.3607</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.3151</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>5.865</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>5.5619</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>5.865</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>5.5619</v>
       </c>
     </row>
     <row r="28">
@@ -2974,22 +4136,64 @@
         <v>0.0357</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>0.0912</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.1824</v>
+        <v>0.228</v>
       </c>
       <c r="Z28" t="n">
-        <v>13.5238</v>
+        <v>0.0456</v>
       </c>
       <c r="AA28" t="n">
-        <v>6.8571</v>
+        <v>0.228</v>
       </c>
       <c r="AB28" t="n">
-        <v>3.08</v>
+        <v>16.381</v>
       </c>
       <c r="AC28" t="n">
-        <v>1.5771</v>
+        <v>9.7143</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>2.2343</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0.2405</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.4023</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0.1949</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.4023</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>5.7056</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>5.4108</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>5.7056</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>5.4108</v>
       </c>
     </row>
     <row r="29">
@@ -3063,22 +4267,64 @@
         <v>0.0448</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>0.0912</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>0.1368</v>
       </c>
       <c r="Z29" t="n">
-        <v>14</v>
+        <v>0.228</v>
       </c>
       <c r="AA29" t="n">
-        <v>7.3333</v>
+        <v>0.228</v>
       </c>
       <c r="AB29" t="n">
-        <v>3.18</v>
+        <v>16.8571</v>
       </c>
       <c r="AC29" t="n">
-        <v>1.6867</v>
+        <v>10.1905</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>2.3438</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0.07489999999999999</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0.2117</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0.2432</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>5.5547</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>5.2676</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>5.5547</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>5.2676</v>
       </c>
     </row>
     <row r="30">
@@ -3152,22 +4398,64 @@
         <v>0.0245</v>
       </c>
       <c r="X30" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.0456</v>
+      </c>
+      <c r="AA30" t="n">
         <v>0.1824</v>
       </c>
-      <c r="Y30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>14.4762</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>7.8095</v>
-      </c>
       <c r="AB30" t="n">
-        <v>3.28</v>
+        <v>17.3333</v>
       </c>
       <c r="AC30" t="n">
-        <v>1.7962</v>
+        <v>10.6667</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>2.4533</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0.4453</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0.4635</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0.2629</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0.4179</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>5.4115</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>5.1319</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>5.4115</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>5.1319</v>
       </c>
     </row>
     <row r="31">
@@ -3241,22 +4529,64 @@
         <v>0.0557</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>0.228</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.1368</v>
+        <v>0.0912</v>
       </c>
       <c r="Z31" t="n">
-        <v>14.9524</v>
+        <v>0.228</v>
       </c>
       <c r="AA31" t="n">
-        <v>8.2857</v>
+        <v>0.228</v>
       </c>
       <c r="AB31" t="n">
-        <v>3.38</v>
+        <v>17.8095</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.9057</v>
+        <v>11.1429</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>2.5629</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0.1309</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0.0355</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0.1309</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0.1723</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>5.2755</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>5.0029</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>5.2755</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>5.0029</v>
       </c>
     </row>
     <row r="32">
@@ -3330,22 +4660,64 @@
         <v>0.0767</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>0.228</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>0.228</v>
       </c>
       <c r="Z32" t="n">
-        <v>15.4286</v>
+        <v>0.0456</v>
       </c>
       <c r="AA32" t="n">
-        <v>8.761900000000001</v>
+        <v>0.1368</v>
       </c>
       <c r="AB32" t="n">
-        <v>3.48</v>
+        <v>18.2857</v>
       </c>
       <c r="AC32" t="n">
-        <v>2.0152</v>
+        <v>11.619</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>4.0771</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>2.6724</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0.2982</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0.09420000000000001</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0.1513</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0.0601</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>24.527</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>49.054</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>7.3134</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>24.527</v>
       </c>
     </row>
     <row r="33">
@@ -3419,22 +4791,64 @@
         <v>0.074</v>
       </c>
       <c r="X33" t="n">
+        <v>0.0456</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.1368</v>
+      </c>
+      <c r="Z33" t="n">
         <v>0.228</v>
       </c>
-      <c r="Y33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>15.9048</v>
-      </c>
       <c r="AA33" t="n">
-        <v>9.238099999999999</v>
+        <v>0.0912</v>
       </c>
       <c r="AB33" t="n">
-        <v>3.58</v>
+        <v>18.7619</v>
       </c>
       <c r="AC33" t="n">
-        <v>2.1248</v>
+        <v>12.0952</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>4.1724</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1.0836</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1.9372</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0.2982</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0.9828</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0.0988</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>25.9708</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>46.4303</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>7.1464</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>23.556</v>
       </c>
     </row>
     <row r="34">
@@ -3508,22 +4922,64 @@
         <v>0.0527</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>0.228</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.0456</v>
+        <v>0.228</v>
       </c>
       <c r="Z34" t="n">
-        <v>16.381</v>
+        <v>0.228</v>
       </c>
       <c r="AA34" t="n">
-        <v>9.7143</v>
+        <v>0.228</v>
       </c>
       <c r="AB34" t="n">
-        <v>3.68</v>
+        <v>19.2381</v>
       </c>
       <c r="AC34" t="n">
-        <v>2.2343</v>
+        <v>12.5714</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>4.2676</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1.0836</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1.9372</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0.2982</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0.9828</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0.1953</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0.1953</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>25.3912</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>45.3941</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>6.987</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>23.0303</v>
       </c>
     </row>
     <row r="35">
@@ -3597,22 +5053,64 @@
         <v>0.0631</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>0.228</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>0.228</v>
       </c>
       <c r="Z35" t="n">
-        <v>16.8571</v>
+        <v>0.228</v>
       </c>
       <c r="AA35" t="n">
-        <v>10.1905</v>
+        <v>0.228</v>
       </c>
       <c r="AB35" t="n">
-        <v>3.78</v>
+        <v>19.7143</v>
       </c>
       <c r="AC35" t="n">
-        <v>2.3438</v>
+        <v>13.0476</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>4.3629</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1.0836</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>1.9372</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.2982</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.9828</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.1178</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.1649</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0.1178</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0.1649</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>24.8369</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>44.4032</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>6.8344</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>22.5276</v>
       </c>
     </row>
     <row r="36">
@@ -3692,16 +5190,58 @@
         <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>17.3333</v>
+        <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>10.6667</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>3.88</v>
+        <v>20.1905</v>
       </c>
       <c r="AC36" t="n">
-        <v>2.4533</v>
+        <v>13.5238</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>4.4581</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1.1407</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>1.9572</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0.3553</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>1.0028</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>25.5874</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>43.9015</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>7.9695</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>22.4933</v>
       </c>
     </row>
     <row r="37">
@@ -3781,16 +5321,58 @@
         <v>0</v>
       </c>
       <c r="Z37" t="n">
-        <v>17.8095</v>
+        <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>11.1429</v>
+        <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>3.98</v>
+        <v>20.6667</v>
       </c>
       <c r="AC37" t="n">
-        <v>2.5629</v>
+        <v>14</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>4.5533</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1.2703</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>2.0314</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0.4849</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>1.077</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>27.8983</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>44.6134</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>10.649</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>23.6529</v>
       </c>
     </row>
     <row r="38">
@@ -3870,16 +5452,58 @@
         <v>0</v>
       </c>
       <c r="Z38" t="n">
-        <v>18.2857</v>
+        <v>0</v>
       </c>
       <c r="AA38" t="n">
-        <v>11.619</v>
+        <v>0</v>
       </c>
       <c r="AB38" t="n">
-        <v>4.0771</v>
+        <v>21.1429</v>
       </c>
       <c r="AC38" t="n">
-        <v>2.6724</v>
+        <v>14.4762</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>4.6486</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1.2703</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>2.0314</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0.4849</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>1.077</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.0123</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.0711</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0.0123</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0.0711</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>27.3268</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>43.6993</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>10.4308</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>23.1683</v>
       </c>
     </row>
     <row r="39">
@@ -3959,16 +5583,58 @@
         <v>0</v>
       </c>
       <c r="Z39" t="n">
-        <v>18.7619</v>
+        <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>12.0952</v>
+        <v>0</v>
       </c>
       <c r="AB39" t="n">
-        <v>4.1724</v>
+        <v>21.619</v>
       </c>
       <c r="AC39" t="n">
-        <v>2.78</v>
+        <v>14.9524</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>4.7438</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>2.1114</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0.6246</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>1.157</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>29.7239</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>44.5091</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>13.1671</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>24.3903</v>
       </c>
     </row>
     <row r="40">
@@ -4048,16 +5714,58 @@
         <v>0</v>
       </c>
       <c r="Z40" t="n">
-        <v>19.2381</v>
+        <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>12.5714</v>
+        <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>4.2676</v>
+        <v>22.0952</v>
       </c>
       <c r="AC40" t="n">
-        <v>2.88</v>
+        <v>15.4286</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>4.839</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>2.1114</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0.6246</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>1.157</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0.1785</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.1962</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0.1785</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0.1962</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>29.1389</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>43.6331</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>12.908</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>23.9103</v>
       </c>
     </row>
     <row r="41">
@@ -4137,16 +5845,58 @@
         <v>0</v>
       </c>
       <c r="Z41" t="n">
-        <v>19.7143</v>
+        <v>0</v>
       </c>
       <c r="AA41" t="n">
-        <v>13.0476</v>
+        <v>0</v>
       </c>
       <c r="AB41" t="n">
-        <v>4.3629</v>
+        <v>22.5714</v>
       </c>
       <c r="AC41" t="n">
-        <v>2.98</v>
+        <v>15.9048</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>4.9343</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1.5105</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>2.1689</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0.7251</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>1.2145</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>30.6119</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>43.9567</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>14.6943</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>24.6145</v>
       </c>
     </row>
     <row r="42">
@@ -4226,16 +5976,58 @@
         <v>0</v>
       </c>
       <c r="Z42" t="n">
-        <v>20.1905</v>
+        <v>0</v>
       </c>
       <c r="AA42" t="n">
-        <v>13.5238</v>
+        <v>0</v>
       </c>
       <c r="AB42" t="n">
-        <v>4.4581</v>
+        <v>23.0476</v>
       </c>
       <c r="AC42" t="n">
-        <v>3.08</v>
+        <v>16.381</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>5.0295</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1.644</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>2.2283</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0.8586</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>1.2739</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>32.6867</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>44.3048</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>17.0705</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>25.3289</v>
       </c>
     </row>
     <row r="43">
@@ -4315,16 +6107,58 @@
         <v>0</v>
       </c>
       <c r="Z43" t="n">
-        <v>20.6667</v>
+        <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AB43" t="n">
-        <v>4.5533</v>
+        <v>23.5238</v>
       </c>
       <c r="AC43" t="n">
-        <v>3.18</v>
+        <v>16.8571</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>5.1248</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.8123</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>2.3247</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.0269</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>1.3703</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>35.364</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>45.3627</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>20.038</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>26.7394</v>
       </c>
     </row>
     <row r="44">
@@ -4404,16 +6238,58 @@
         <v>0</v>
       </c>
       <c r="Z44" t="n">
-        <v>21.1429</v>
+        <v>0</v>
       </c>
       <c r="AA44" t="n">
-        <v>14.4762</v>
+        <v>0</v>
       </c>
       <c r="AB44" t="n">
-        <v>4.6486</v>
+        <v>24</v>
       </c>
       <c r="AC44" t="n">
-        <v>3.28</v>
+        <v>17.3333</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>2.0205</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>2.4513</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1.2351</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>1.4969</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>38.7072</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>46.9596</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>23.6608</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>28.6761</v>
       </c>
     </row>
     <row r="45">
@@ -4493,16 +6369,58 @@
         <v>0</v>
       </c>
       <c r="Z45" t="n">
-        <v>21.619</v>
+        <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>14.9524</v>
+        <v>0</v>
       </c>
       <c r="AB45" t="n">
-        <v>4.7438</v>
+        <v>24.4762</v>
       </c>
       <c r="AC45" t="n">
-        <v>3.38</v>
+        <v>17.8095</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>2.0932</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>2.4916</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1.3078</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>1.5372</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>40.0994</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>47.7308</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>25.053</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>29.4473</v>
       </c>
     </row>
     <row r="46">
@@ -4582,16 +6500,58 @@
         <v>0</v>
       </c>
       <c r="Z46" t="n">
-        <v>22.0952</v>
+        <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>15.4286</v>
+        <v>0</v>
       </c>
       <c r="AB46" t="n">
-        <v>4.839</v>
+        <v>24.9524</v>
       </c>
       <c r="AC46" t="n">
-        <v>3.48</v>
+        <v>18.2857</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>4.0771</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>2.0932</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>2.4916</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.3078</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>1.5372</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0.1759</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>0.1759</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>40.0994</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>47.7308</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>25.053</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>29.4473</v>
       </c>
     </row>
     <row r="47">
@@ -4671,16 +6631,58 @@
         <v>0</v>
       </c>
       <c r="Z47" t="n">
-        <v>22.5714</v>
+        <v>0</v>
       </c>
       <c r="AA47" t="n">
-        <v>15.9048</v>
+        <v>0</v>
       </c>
       <c r="AB47" t="n">
-        <v>4.9343</v>
+        <v>25.4286</v>
       </c>
       <c r="AC47" t="n">
-        <v>3.58</v>
+        <v>18.7619</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>4.1724</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>2.196</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>2.554</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1.4106</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>1.5996</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>42.0689</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>48.9281</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>27.0225</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>30.6446</v>
       </c>
     </row>
     <row r="48">
@@ -4688,25 +6690,25 @@
         <v>45429</v>
       </c>
       <c r="B48" t="n">
-        <v>3.2292</v>
+        <v>3.5915</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>278.6875</v>
       </c>
       <c r="E48" t="n">
-        <v>16.9308</v>
+        <v>20.5875</v>
       </c>
       <c r="F48" t="n">
-        <v>92.4969</v>
+        <v>76.9448</v>
       </c>
       <c r="G48" t="n">
-        <v>1.9292</v>
+        <v>2.4247</v>
       </c>
       <c r="H48" t="n">
-        <v>17.8449</v>
+        <v>18.6567</v>
       </c>
       <c r="I48" t="n">
         <v>0.7445000000000001</v>
@@ -4715,22 +6717,22 @@
         <v>137</v>
       </c>
       <c r="K48" t="n">
-        <v>97.51900000000001</v>
+        <v>97.54900000000001</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0645</v>
+        <v>0.0648</v>
       </c>
       <c r="M48" t="n">
-        <v>0.1447</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="N48" t="n">
-        <v>0.1223</v>
+        <v>0.1494</v>
       </c>
       <c r="O48" t="n">
-        <v>1.855</v>
+        <v>13.3657</v>
       </c>
       <c r="P48" t="n">
-        <v>0.0228</v>
+        <v>0.1568</v>
       </c>
       <c r="Q48" t="n">
         <v>20</v>
@@ -4748,10 +6750,10 @@
         <v>0.5775</v>
       </c>
       <c r="V48" t="n">
-        <v>0.0216</v>
+        <v>0.149</v>
       </c>
       <c r="W48" t="n">
-        <v>0.0131</v>
+        <v>0.0906</v>
       </c>
       <c r="X48" t="n">
         <v>0</v>
@@ -4760,16 +6762,844 @@
         <v>0</v>
       </c>
       <c r="Z48" t="n">
-        <v>23.0476</v>
+        <v>0</v>
       </c>
       <c r="AA48" t="n">
-        <v>16.381</v>
+        <v>0</v>
       </c>
       <c r="AB48" t="n">
-        <v>5.0295</v>
+        <v>25.9048</v>
       </c>
       <c r="AC48" t="n">
-        <v>3.68</v>
+        <v>19.2381</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>4.2676</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>2.345</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>2.6446</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.5595</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>1.6902</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>44.9225</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>50.6628</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>29.8761</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>32.3792</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45430</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>287.9167</v>
+      </c>
+      <c r="E49" t="n">
+        <v>22.6271</v>
+      </c>
+      <c r="F49" t="n">
+        <v>69.5354</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2.7467</v>
+      </c>
+      <c r="H49" t="n">
+        <v>19.0992</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.7445000000000001</v>
+      </c>
+      <c r="J49" t="n">
+        <v>138</v>
+      </c>
+      <c r="K49" t="n">
+        <v>97.566</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.0649</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.8368</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.1666</v>
+      </c>
+      <c r="O49" t="n">
+        <v>13.6799</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.1842</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>20</v>
+      </c>
+      <c r="R49" t="n">
+        <v>7</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.5775</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.1064</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>26.381</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>19.7143</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>4.3629</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>2.5199</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>2.751</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1.7345</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>1.7966</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>48.2743</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>52.7003</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>33.2279</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>34.4167</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45431</v>
+      </c>
+      <c r="B50" t="n">
+        <v>5.0131</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="D50" t="n">
+        <v>263.6458</v>
+      </c>
+      <c r="E50" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="F50" t="n">
+        <v>66.5073</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2.9306</v>
+      </c>
+      <c r="H50" t="n">
+        <v>19.4907</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.7445000000000001</v>
+      </c>
+      <c r="J50" t="n">
+        <v>139</v>
+      </c>
+      <c r="K50" t="n">
+        <v>97.574</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.9815</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.1763</v>
+      </c>
+      <c r="O50" t="n">
+        <v>12.6856</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.2045</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>20</v>
+      </c>
+      <c r="R50" t="n">
+        <v>7</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.5775</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.1943</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.1181</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>26.8571</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>20.1905</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>4.4581</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>2.6842</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>2.8391</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1.8988</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>1.8847</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>51.4218</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>54.3883</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>36.3754</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>36.1047</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B51" t="n">
+        <v>6.2042</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>317.0417</v>
+      </c>
+      <c r="E51" t="n">
+        <v>24.4771</v>
+      </c>
+      <c r="F51" t="n">
+        <v>62.7127</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3.0704</v>
+      </c>
+      <c r="H51" t="n">
+        <v>19.2556</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.7445000000000001</v>
+      </c>
+      <c r="J51" t="n">
+        <v>140</v>
+      </c>
+      <c r="K51" t="n">
+        <v>97.581</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.1448</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.1836</v>
+      </c>
+      <c r="O51" t="n">
+        <v>14.7502</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.2497</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>21</v>
+      </c>
+      <c r="R51" t="n">
+        <v>8</v>
+      </c>
+      <c r="S51" t="n">
+        <v>6</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.9542</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.2382</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.1823</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>27.3333</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>20.6667</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>4.5533</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>2.9224</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>3.0213</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>2.137</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>2.0669</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>55.9854</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>57.8798</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>40.939</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>39.5963</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B52" t="n">
+        <v>6.4715</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>393.9375</v>
+      </c>
+      <c r="E52" t="n">
+        <v>25.1479</v>
+      </c>
+      <c r="F52" t="n">
+        <v>60.5671</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3.1958</v>
+      </c>
+      <c r="H52" t="n">
+        <v>19.356</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.7445000000000001</v>
+      </c>
+      <c r="J52" t="n">
+        <v>141</v>
+      </c>
+      <c r="K52" t="n">
+        <v>97.586</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.06510000000000001</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.2602</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.1901</v>
+      </c>
+      <c r="O52" t="n">
+        <v>17.808</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.2891</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>21</v>
+      </c>
+      <c r="R52" t="n">
+        <v>8</v>
+      </c>
+      <c r="S52" t="n">
+        <v>6</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.9542</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.2759</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.2111</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>27.8095</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>21.1429</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>4.6486</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>3.1983</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>3.2324</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>2.4129</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>2.278</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>61.2704</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>61.9231</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>46.224</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>43.6396</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B53" t="n">
+        <v>11.8013</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>339.375</v>
+      </c>
+      <c r="E53" t="n">
+        <v>24.6583</v>
+      </c>
+      <c r="F53" t="n">
+        <v>55.6621</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3.1039</v>
+      </c>
+      <c r="H53" t="n">
+        <v>17.2768</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.7445000000000001</v>
+      </c>
+      <c r="J53" t="n">
+        <v>142</v>
+      </c>
+      <c r="K53" t="n">
+        <v>97.58199999999999</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.06510000000000001</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.3762</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.1854</v>
+      </c>
+      <c r="O53" t="n">
+        <v>15.1485</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.3298</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>21</v>
+      </c>
+      <c r="R53" t="n">
+        <v>8</v>
+      </c>
+      <c r="S53" t="n">
+        <v>6</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.9542</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.3147</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.2407</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>28.2857</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>21.619</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>4.7438</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>3.513</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>3.4731</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>2.7276</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>2.5187</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>67.2984</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>66.53489999999999</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>52.252</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>48.2514</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2.7548</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>66.2069</v>
+      </c>
+      <c r="E54" t="n">
+        <v>16.9172</v>
+      </c>
+      <c r="F54" t="n">
+        <v>69.2276</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.9276</v>
+      </c>
+      <c r="H54" t="n">
+        <v>13.3442</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.7445000000000001</v>
+      </c>
+      <c r="J54" t="n">
+        <v>143</v>
+      </c>
+      <c r="K54" t="n">
+        <v>97.518</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.0645</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.1222</v>
+      </c>
+      <c r="O54" t="n">
+        <v>4.6537</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.0832</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>21</v>
+      </c>
+      <c r="R54" t="n">
+        <v>8</v>
+      </c>
+      <c r="S54" t="n">
+        <v>6</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.9542</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.0794</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.0607</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>28.7619</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>22.0952</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>4.839</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>3.5923</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>3.5338</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>2.8069</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>2.5794</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>68.8189</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>67.6982</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>53.7725</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>49.4147</v>
       </c>
     </row>
   </sheetData>

--- a/Weather_for_Penman/Penman_irrigation_results.xlsx
+++ b/Weather_for_Penman/Penman_irrigation_results.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ54"/>
+  <dimension ref="A1:AQ79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -664,25 +664,25 @@
         <v>45383</v>
       </c>
       <c r="B2" t="n">
-        <v>8.164</v>
+        <v>10.034</v>
       </c>
       <c r="C2" t="n">
-        <v>8.890000000000001</v>
+        <v>16.51</v>
       </c>
       <c r="D2" t="n">
-        <v>62.05</v>
+        <v>59.9787</v>
       </c>
       <c r="E2" t="n">
-        <v>10.485</v>
+        <v>9.6608</v>
       </c>
       <c r="F2" t="n">
-        <v>91.864</v>
+        <v>92.4468</v>
       </c>
       <c r="G2" t="n">
-        <v>1.2684</v>
+        <v>1.2003</v>
       </c>
       <c r="H2" t="n">
-        <v>11.6525</v>
+        <v>11.0966</v>
       </c>
       <c r="I2" t="n">
         <v>0.8728</v>
@@ -691,22 +691,22 @@
         <v>91</v>
       </c>
       <c r="K2" t="n">
-        <v>97.46299999999999</v>
+        <v>97.456</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0641</v>
+        <v>0.064</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1031</v>
+        <v>0.0906</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0847</v>
+        <v>0.08069999999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>4.3224</v>
+        <v>4.2499</v>
       </c>
       <c r="P2" t="n">
-        <v>0.035</v>
+        <v>0.0322</v>
       </c>
       <c r="Q2" t="n">
         <v>14</v>
@@ -724,10 +724,10 @@
         <v>0.2</v>
       </c>
       <c r="V2" t="n">
-        <v>0.007</v>
+        <v>0.0064</v>
       </c>
       <c r="W2" t="n">
-        <v>0.007</v>
+        <v>0.0064</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -795,25 +795,25 @@
         <v>45384</v>
       </c>
       <c r="B3" t="n">
-        <v>9.6175</v>
+        <v>11.4458</v>
       </c>
       <c r="C3" t="n">
-        <v>28.194</v>
+        <v>25.146</v>
       </c>
       <c r="D3" t="n">
         <v>88.91670000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>10.7271</v>
+        <v>10.4653</v>
       </c>
       <c r="F3" t="n">
-        <v>91.0921</v>
+        <v>90.45829999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>1.2891</v>
+        <v>1.2668</v>
       </c>
       <c r="H3" t="n">
-        <v>11.7426</v>
+        <v>11.4591</v>
       </c>
       <c r="I3" t="n">
         <v>0.8728</v>
@@ -822,22 +822,22 @@
         <v>92</v>
       </c>
       <c r="K3" t="n">
-        <v>97.465</v>
+        <v>97.46299999999999</v>
       </c>
       <c r="L3" t="n">
         <v>0.0641</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1148</v>
+        <v>0.1209</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0859</v>
+        <v>0.08459999999999999</v>
       </c>
       <c r="O3" t="n">
-        <v>5.2986</v>
+        <v>5.2948</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0416</v>
+        <v>0.0429</v>
       </c>
       <c r="Q3" t="n">
         <v>14</v>
@@ -855,10 +855,10 @@
         <v>0.2</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0083</v>
+        <v>0.0086</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0083</v>
+        <v>0.0086</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -897,16 +897,16 @@
         <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.1017</v>
+        <v>0.9814000000000001</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.1017</v>
+        <v>0.9814000000000001</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.1017</v>
+        <v>0.9814000000000001</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.1017</v>
+        <v>0.9814000000000001</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
@@ -926,7 +926,7 @@
         <v>45385</v>
       </c>
       <c r="B4" t="n">
-        <v>13.2506</v>
+        <v>15.2021</v>
       </c>
       <c r="C4" t="n">
         <v>4.064</v>
@@ -935,16 +935,16 @@
         <v>112.6667</v>
       </c>
       <c r="E4" t="n">
-        <v>2.8833</v>
+        <v>2.8403</v>
       </c>
       <c r="F4" t="n">
-        <v>86.6452</v>
+        <v>87.02079999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7514999999999999</v>
+        <v>0.7492</v>
       </c>
       <c r="H4" t="n">
-        <v>6.5115</v>
+        <v>6.5198</v>
       </c>
       <c r="I4" t="n">
         <v>0.8728</v>
@@ -959,16 +959,16 @@
         <v>0.0636</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1003</v>
+        <v>0.09719999999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0534</v>
+        <v>0.0532</v>
       </c>
       <c r="O4" t="n">
-        <v>6.065</v>
+        <v>6.0664</v>
       </c>
       <c r="P4" t="n">
-        <v>0.038</v>
+        <v>0.0371</v>
       </c>
       <c r="Q4" t="n">
         <v>14</v>
@@ -986,10 +986,10 @@
         <v>0.2</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0076</v>
+        <v>0.0074</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0076</v>
+        <v>0.0074</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -1028,16 +1028,16 @@
         <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.1524</v>
+        <v>0.1526</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.1524</v>
+        <v>0.1526</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.1524</v>
+        <v>0.1526</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.1524</v>
+        <v>0.1526</v>
       </c>
       <c r="AN4" t="n">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>45386</v>
       </c>
       <c r="B5" t="n">
-        <v>11.4244</v>
+        <v>12.8583</v>
       </c>
       <c r="C5" t="n">
         <v>3.556</v>
@@ -1066,16 +1066,16 @@
         <v>71.58329999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>3.3687</v>
+        <v>3.4375</v>
       </c>
       <c r="F5" t="n">
-        <v>87.3896</v>
+        <v>87.39579999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7778</v>
+        <v>0.7816</v>
       </c>
       <c r="H5" t="n">
-        <v>6.7974</v>
+        <v>6.831</v>
       </c>
       <c r="I5" t="n">
         <v>0.8728</v>
@@ -1084,22 +1084,22 @@
         <v>94</v>
       </c>
       <c r="K5" t="n">
-        <v>97.398</v>
+        <v>97.399</v>
       </c>
       <c r="L5" t="n">
         <v>0.0636</v>
       </c>
       <c r="M5" t="n">
-        <v>0.09810000000000001</v>
+        <v>0.0985</v>
       </c>
       <c r="N5" t="n">
-        <v>0.055</v>
+        <v>0.0553</v>
       </c>
       <c r="O5" t="n">
-        <v>4.6858</v>
+        <v>4.6859</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0342</v>
+        <v>0.0345</v>
       </c>
       <c r="Q5" t="n">
         <v>14</v>
@@ -1117,10 +1117,10 @@
         <v>0.2</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0068</v>
+        <v>0.0069</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0068</v>
+        <v>0.0069</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1159,16 +1159,16 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.1332</v>
+        <v>0.1331</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.1332</v>
+        <v>0.1331</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.1332</v>
+        <v>0.1331</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.1332</v>
+        <v>0.1331</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>45387</v>
       </c>
       <c r="B6" t="n">
-        <v>8.589</v>
+        <v>9.6938</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>151.0208</v>
       </c>
       <c r="E6" t="n">
-        <v>4.9292</v>
+        <v>4.7951</v>
       </c>
       <c r="F6" t="n">
-        <v>78.1156</v>
+        <v>77.875</v>
       </c>
       <c r="G6" t="n">
-        <v>0.868</v>
+        <v>0.8599</v>
       </c>
       <c r="H6" t="n">
-        <v>6.7805</v>
+        <v>6.6966</v>
       </c>
       <c r="I6" t="n">
         <v>0.8728</v>
@@ -1215,22 +1215,22 @@
         <v>95</v>
       </c>
       <c r="K6" t="n">
-        <v>97.413</v>
+        <v>97.41200000000001</v>
       </c>
       <c r="L6" t="n">
         <v>0.06370000000000001</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1899</v>
+        <v>0.1902</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0606</v>
+        <v>0.0601</v>
       </c>
       <c r="O6" t="n">
-        <v>7.3476</v>
+        <v>7.3442</v>
       </c>
       <c r="P6" t="n">
-        <v>0.063</v>
+        <v>0.0636</v>
       </c>
       <c r="Q6" t="n">
         <v>14</v>
@@ -1248,10 +1248,10 @@
         <v>0.2</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0126</v>
+        <v>0.0127</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0126</v>
+        <v>0.0127</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1278,16 +1278,16 @@
         <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.0126</v>
+        <v>0.0127</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.0126</v>
+        <v>0.0127</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.0126</v>
+        <v>0.0127</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.0126</v>
+        <v>0.0127</v>
       </c>
       <c r="AJ6" t="n">
         <v>0</v>
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.9278</v>
+        <v>0.9368</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.9278</v>
+        <v>0.9368</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.9278</v>
+        <v>0.9368</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.9278</v>
+        <v>0.9368</v>
       </c>
     </row>
     <row r="7">
@@ -1319,7 +1319,7 @@
         <v>45388</v>
       </c>
       <c r="B7" t="n">
-        <v>3.2644</v>
+        <v>3.8125</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1328,16 +1328,16 @@
         <v>305.2083</v>
       </c>
       <c r="E7" t="n">
-        <v>6.0375</v>
+        <v>6.3113</v>
       </c>
       <c r="F7" t="n">
-        <v>64.53579999999999</v>
+        <v>63.7292</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9375</v>
+        <v>0.9555</v>
       </c>
       <c r="H7" t="n">
-        <v>6.0505</v>
+        <v>6.0891</v>
       </c>
       <c r="I7" t="n">
         <v>0.8728</v>
@@ -1346,22 +1346,22 @@
         <v>96</v>
       </c>
       <c r="K7" t="n">
-        <v>97.423</v>
+        <v>97.426</v>
       </c>
       <c r="L7" t="n">
         <v>0.0638</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3324</v>
+        <v>0.3466</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0649</v>
+        <v>0.066</v>
       </c>
       <c r="O7" t="n">
-        <v>12.1883</v>
+        <v>12.1686</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1032</v>
+        <v>0.1067</v>
       </c>
       <c r="Q7" t="n">
         <v>14</v>
@@ -1379,10 +1379,10 @@
         <v>0.2</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0206</v>
+        <v>0.0213</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0206</v>
+        <v>0.0213</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1409,16 +1409,16 @@
         <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.0332</v>
+        <v>0.0341</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.0332</v>
+        <v>0.0341</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.0332</v>
+        <v>0.0341</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.0332</v>
+        <v>0.0341</v>
       </c>
       <c r="AJ7" t="n">
         <v>0</v>
@@ -1433,16 +1433,16 @@
         <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.2648</v>
+        <v>2.3205</v>
       </c>
       <c r="AO7" t="n">
-        <v>2.2648</v>
+        <v>2.3205</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.2648</v>
+        <v>2.3205</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.2648</v>
+        <v>2.3205</v>
       </c>
     </row>
     <row r="8">
@@ -1450,7 +1450,7 @@
         <v>45389</v>
       </c>
       <c r="B8" t="n">
-        <v>8.7875</v>
+        <v>10.1562</v>
       </c>
       <c r="C8" t="n">
         <v>4.826</v>
@@ -1459,16 +1459,16 @@
         <v>126.4167</v>
       </c>
       <c r="E8" t="n">
-        <v>9.8771</v>
+        <v>10.0197</v>
       </c>
       <c r="F8" t="n">
-        <v>61.4935</v>
+        <v>61.875</v>
       </c>
       <c r="G8" t="n">
-        <v>1.2179</v>
+        <v>1.2296</v>
       </c>
       <c r="H8" t="n">
-        <v>7.4892</v>
+        <v>7.608</v>
       </c>
       <c r="I8" t="n">
         <v>0.8728</v>
@@ -1477,22 +1477,22 @@
         <v>97</v>
       </c>
       <c r="K8" t="n">
-        <v>97.458</v>
+        <v>97.459</v>
       </c>
       <c r="L8" t="n">
         <v>0.0641</v>
       </c>
       <c r="M8" t="n">
-        <v>0.469</v>
+        <v>0.4688</v>
       </c>
       <c r="N8" t="n">
-        <v>0.08169999999999999</v>
+        <v>0.0824</v>
       </c>
       <c r="O8" t="n">
-        <v>6.4719</v>
+        <v>6.4765</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1199</v>
+        <v>0.124</v>
       </c>
       <c r="Q8" t="n">
         <v>14</v>
@@ -1510,10 +1510,10 @@
         <v>0.2</v>
       </c>
       <c r="V8" t="n">
-        <v>0.024</v>
+        <v>0.0248</v>
       </c>
       <c r="W8" t="n">
-        <v>0.024</v>
+        <v>0.0248</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1540,40 +1540,40 @@
         <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0332</v>
+        <v>0.0341</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.0332</v>
+        <v>0.0341</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.0332</v>
+        <v>0.0341</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.0332</v>
+        <v>0.0341</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.166</v>
+        <v>0.1652</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.166</v>
+        <v>0.1652</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.166</v>
+        <v>0.1652</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.166</v>
+        <v>0.1652</v>
       </c>
       <c r="AN8" t="n">
-        <v>2.1075</v>
+        <v>2.1593</v>
       </c>
       <c r="AO8" t="n">
-        <v>2.1075</v>
+        <v>2.1593</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.1075</v>
+        <v>2.1593</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2.1075</v>
+        <v>2.1593</v>
       </c>
     </row>
     <row r="9">
@@ -1581,7 +1581,7 @@
         <v>45390</v>
       </c>
       <c r="B9" t="n">
-        <v>5.9064</v>
+        <v>6.683</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1590,16 +1590,16 @@
         <v>244.4468</v>
       </c>
       <c r="E9" t="n">
-        <v>15.5532</v>
+        <v>15.727</v>
       </c>
       <c r="F9" t="n">
-        <v>57.2809</v>
+        <v>56.1064</v>
       </c>
       <c r="G9" t="n">
-        <v>1.767</v>
+        <v>1.7868</v>
       </c>
       <c r="H9" t="n">
-        <v>10.1217</v>
+        <v>10.0252</v>
       </c>
       <c r="I9" t="n">
         <v>0.8728</v>
@@ -1608,22 +1608,22 @@
         <v>98</v>
       </c>
       <c r="K9" t="n">
-        <v>97.50700000000001</v>
+        <v>97.508</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0644</v>
+        <v>0.0645</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7548</v>
+        <v>0.7843</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1133</v>
+        <v>0.1144</v>
       </c>
       <c r="O9" t="n">
-        <v>10.386</v>
+        <v>10.352</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1712</v>
+        <v>0.181</v>
       </c>
       <c r="Q9" t="n">
         <v>15</v>
@@ -1641,10 +1641,10 @@
         <v>0.2</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0342</v>
+        <v>0.0362</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0342</v>
+        <v>0.0362</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1671,16 +1671,16 @@
         <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.0675</v>
+        <v>0.0703</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.0675</v>
+        <v>0.0703</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.0675</v>
+        <v>0.0703</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.0675</v>
+        <v>0.0703</v>
       </c>
       <c r="AJ9" t="n">
         <v>0</v>
@@ -1695,16 +1695,16 @@
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.0011</v>
+        <v>4.1653</v>
       </c>
       <c r="AO9" t="n">
-        <v>4.0011</v>
+        <v>4.1653</v>
       </c>
       <c r="AP9" t="n">
-        <v>4.0011</v>
+        <v>4.1653</v>
       </c>
       <c r="AQ9" t="n">
-        <v>4.0011</v>
+        <v>4.1653</v>
       </c>
     </row>
     <row r="10">
@@ -1712,7 +1712,7 @@
         <v>45391</v>
       </c>
       <c r="B10" t="n">
-        <v>6.1917</v>
+        <v>7.0625</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1721,16 +1721,16 @@
         <v>282.7083</v>
       </c>
       <c r="E10" t="n">
-        <v>16.5146</v>
+        <v>16.4016</v>
       </c>
       <c r="F10" t="n">
-        <v>51.8425</v>
+        <v>52.875</v>
       </c>
       <c r="G10" t="n">
-        <v>1.8789</v>
+        <v>1.8655</v>
       </c>
       <c r="H10" t="n">
-        <v>9.7408</v>
+        <v>9.8636</v>
       </c>
       <c r="I10" t="n">
         <v>0.8728</v>
@@ -1739,22 +1739,22 @@
         <v>99</v>
       </c>
       <c r="K10" t="n">
-        <v>97.515</v>
+        <v>97.514</v>
       </c>
       <c r="L10" t="n">
         <v>0.0645</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9048</v>
+        <v>0.8791</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1195</v>
+        <v>0.1188</v>
       </c>
       <c r="O10" t="n">
-        <v>11.4798</v>
+        <v>11.5227</v>
       </c>
       <c r="P10" t="n">
-        <v>0.202</v>
+        <v>0.2051</v>
       </c>
       <c r="Q10" t="n">
         <v>15</v>
@@ -1772,10 +1772,10 @@
         <v>0.2</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0404</v>
+        <v>0.041</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0404</v>
+        <v>0.041</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1802,16 +1802,16 @@
         <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.1079</v>
+        <v>0.1113</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.1079</v>
+        <v>0.1113</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.1079</v>
+        <v>0.1113</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.1079</v>
+        <v>0.1113</v>
       </c>
       <c r="AJ10" t="n">
         <v>0</v>
@@ -1826,16 +1826,16 @@
         <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.0059</v>
+        <v>6.1949</v>
       </c>
       <c r="AO10" t="n">
-        <v>6.0059</v>
+        <v>6.1949</v>
       </c>
       <c r="AP10" t="n">
-        <v>6.0059</v>
+        <v>6.1949</v>
       </c>
       <c r="AQ10" t="n">
-        <v>6.0059</v>
+        <v>6.1949</v>
       </c>
     </row>
     <row r="11">
@@ -1843,25 +1843,25 @@
         <v>45392</v>
       </c>
       <c r="B11" t="n">
-        <v>4.3533</v>
+        <v>5.4542</v>
       </c>
       <c r="C11" t="n">
-        <v>5.842</v>
+        <v>10.414</v>
       </c>
       <c r="D11" t="n">
         <v>141.6875</v>
       </c>
       <c r="E11" t="n">
-        <v>13.2125</v>
+        <v>13.2234</v>
       </c>
       <c r="F11" t="n">
-        <v>72.33920000000001</v>
+        <v>73.27079999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>1.5187</v>
+        <v>1.5198</v>
       </c>
       <c r="H11" t="n">
-        <v>10.9863</v>
+        <v>11.1357</v>
       </c>
       <c r="I11" t="n">
         <v>0.8728</v>
@@ -1876,16 +1876,16 @@
         <v>0.0643</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4201</v>
+        <v>0.4062</v>
       </c>
       <c r="N11" t="n">
         <v>0.0992</v>
       </c>
       <c r="O11" t="n">
-        <v>7.1916</v>
+        <v>7.2027</v>
       </c>
       <c r="P11" t="n">
-        <v>0.09520000000000001</v>
+        <v>0.09810000000000001</v>
       </c>
       <c r="Q11" t="n">
         <v>15</v>
@@ -1903,10 +1903,10 @@
         <v>0.2</v>
       </c>
       <c r="V11" t="n">
-        <v>0.019</v>
+        <v>0.0196</v>
       </c>
       <c r="W11" t="n">
-        <v>0.019</v>
+        <v>0.0196</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1933,40 +1933,40 @@
         <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.1079</v>
+        <v>0.1113</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.1079</v>
+        <v>0.1113</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.1079</v>
+        <v>0.1113</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.1079</v>
+        <v>0.1113</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.211</v>
+        <v>0.3904</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.211</v>
+        <v>0.3904</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.211</v>
+        <v>0.3904</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.211</v>
+        <v>0.3904</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.6607</v>
+        <v>5.8389</v>
       </c>
       <c r="AO11" t="n">
-        <v>5.6607</v>
+        <v>5.8389</v>
       </c>
       <c r="AP11" t="n">
-        <v>5.6607</v>
+        <v>5.8389</v>
       </c>
       <c r="AQ11" t="n">
-        <v>5.6607</v>
+        <v>5.8389</v>
       </c>
     </row>
     <row r="12">
@@ -1974,25 +1974,25 @@
         <v>45393</v>
       </c>
       <c r="B12" t="n">
-        <v>10.5048</v>
+        <v>12.0667</v>
       </c>
       <c r="C12" t="n">
-        <v>19.812</v>
+        <v>16.51</v>
       </c>
       <c r="D12" t="n">
         <v>51.5</v>
       </c>
       <c r="E12" t="n">
-        <v>10.8208</v>
+        <v>10.7118</v>
       </c>
       <c r="F12" t="n">
-        <v>90.67059999999999</v>
+        <v>90.41670000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>1.2972</v>
+        <v>1.2878</v>
       </c>
       <c r="H12" t="n">
-        <v>11.7614</v>
+        <v>11.6437</v>
       </c>
       <c r="I12" t="n">
         <v>0.8728</v>
@@ -2001,22 +2001,22 @@
         <v>101</v>
       </c>
       <c r="K12" t="n">
-        <v>97.46599999999999</v>
+        <v>97.465</v>
       </c>
       <c r="L12" t="n">
         <v>0.0641</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1211</v>
+        <v>0.1234</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0863</v>
+        <v>0.0858</v>
       </c>
       <c r="O12" t="n">
-        <v>3.9999</v>
+        <v>4.0014</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0383</v>
+        <v>0.0393</v>
       </c>
       <c r="Q12" t="n">
         <v>15</v>
@@ -2034,10 +2034,10 @@
         <v>0.2</v>
       </c>
       <c r="V12" t="n">
-        <v>0.0077</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0077</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -2064,40 +2064,40 @@
         <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.1079</v>
+        <v>0.1113</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.1079</v>
+        <v>0.1113</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.1079</v>
+        <v>0.1113</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.1079</v>
+        <v>0.1113</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.7723</v>
+        <v>0.6421</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.7723</v>
+        <v>0.6421</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.7723</v>
+        <v>0.6421</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.7723</v>
+        <v>0.6421</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.3531</v>
+        <v>5.5215</v>
       </c>
       <c r="AO12" t="n">
-        <v>5.3531</v>
+        <v>5.5215</v>
       </c>
       <c r="AP12" t="n">
-        <v>5.3531</v>
+        <v>5.5215</v>
       </c>
       <c r="AQ12" t="n">
-        <v>5.3531</v>
+        <v>5.5215</v>
       </c>
     </row>
     <row r="13">
@@ -2105,25 +2105,25 @@
         <v>45394</v>
       </c>
       <c r="B13" t="n">
-        <v>12.6315</v>
+        <v>14.2604</v>
       </c>
       <c r="C13" t="n">
-        <v>5.842</v>
+        <v>4.572</v>
       </c>
       <c r="D13" t="n">
         <v>229.5625</v>
       </c>
       <c r="E13" t="n">
-        <v>11.3458</v>
+        <v>11.2824</v>
       </c>
       <c r="F13" t="n">
-        <v>76.889</v>
+        <v>76.39579999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>1.3432</v>
+        <v>1.3376</v>
       </c>
       <c r="H13" t="n">
-        <v>10.3277</v>
+        <v>10.2184</v>
       </c>
       <c r="I13" t="n">
         <v>0.8728</v>
@@ -2138,16 +2138,16 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3104</v>
+        <v>0.3158</v>
       </c>
       <c r="N13" t="n">
-        <v>0.089</v>
+        <v>0.0887</v>
       </c>
       <c r="O13" t="n">
-        <v>10.3321</v>
+        <v>10.3176</v>
       </c>
       <c r="P13" t="n">
-        <v>0.1047</v>
+        <v>0.1066</v>
       </c>
       <c r="Q13" t="n">
         <v>15</v>
@@ -2165,10 +2165,10 @@
         <v>0.2</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0209</v>
+        <v>0.0213</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0209</v>
+        <v>0.0213</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -2195,40 +2195,40 @@
         <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.1079</v>
+        <v>0.1113</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.1079</v>
+        <v>0.1113</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.1079</v>
+        <v>0.1113</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.1079</v>
+        <v>0.1113</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.2091</v>
+        <v>0.1587</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.2091</v>
+        <v>0.1587</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.2091</v>
+        <v>0.1587</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.2091</v>
+        <v>0.1587</v>
       </c>
       <c r="AN13" t="n">
-        <v>5.0772</v>
+        <v>5.2369</v>
       </c>
       <c r="AO13" t="n">
-        <v>5.0772</v>
+        <v>5.2369</v>
       </c>
       <c r="AP13" t="n">
-        <v>5.0772</v>
+        <v>5.2369</v>
       </c>
       <c r="AQ13" t="n">
-        <v>5.0772</v>
+        <v>5.2369</v>
       </c>
     </row>
     <row r="14">
@@ -2236,7 +2236,7 @@
         <v>45395</v>
       </c>
       <c r="B14" t="n">
-        <v>5.9738</v>
+        <v>7.0271</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -2245,16 +2245,16 @@
         <v>314.4583</v>
       </c>
       <c r="E14" t="n">
-        <v>12.9125</v>
+        <v>13.1678</v>
       </c>
       <c r="F14" t="n">
-        <v>56.8085</v>
+        <v>55.6042</v>
       </c>
       <c r="G14" t="n">
-        <v>1.4892</v>
+        <v>1.5143</v>
       </c>
       <c r="H14" t="n">
-        <v>8.460000000000001</v>
+        <v>8.4201</v>
       </c>
       <c r="I14" t="n">
         <v>0.8728</v>
@@ -2263,22 +2263,22 @@
         <v>103</v>
       </c>
       <c r="K14" t="n">
-        <v>97.48399999999999</v>
+        <v>97.486</v>
       </c>
       <c r="L14" t="n">
         <v>0.0643</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6432</v>
+        <v>0.6723</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0975</v>
+        <v>0.0989</v>
       </c>
       <c r="O14" t="n">
-        <v>12.6653</v>
+        <v>12.6238</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1679</v>
+        <v>0.1776</v>
       </c>
       <c r="Q14" t="n">
         <v>15</v>
@@ -2296,10 +2296,10 @@
         <v>0.2</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0336</v>
+        <v>0.0355</v>
       </c>
       <c r="W14" t="n">
-        <v>0.0336</v>
+        <v>0.0355</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.1415</v>
+        <v>0.1468</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.1415</v>
+        <v>0.1468</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.1415</v>
+        <v>0.1468</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.1415</v>
+        <v>0.1468</v>
       </c>
       <c r="AJ14" t="n">
         <v>0</v>
@@ -2350,16 +2350,16 @@
         <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.331</v>
+        <v>6.5703</v>
       </c>
       <c r="AO14" t="n">
-        <v>6.331</v>
+        <v>6.5703</v>
       </c>
       <c r="AP14" t="n">
-        <v>6.331</v>
+        <v>6.5703</v>
       </c>
       <c r="AQ14" t="n">
-        <v>6.331</v>
+        <v>6.5703</v>
       </c>
     </row>
     <row r="15">
@@ -2367,7 +2367,7 @@
         <v>45396</v>
       </c>
       <c r="B15" t="n">
-        <v>10.6502</v>
+        <v>12.1021</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -2376,16 +2376,16 @@
         <v>293.9167</v>
       </c>
       <c r="E15" t="n">
-        <v>20.8375</v>
+        <v>20.9988</v>
       </c>
       <c r="F15" t="n">
-        <v>50.0221</v>
+        <v>50.8125</v>
       </c>
       <c r="G15" t="n">
-        <v>2.4623</v>
+        <v>2.4868</v>
       </c>
       <c r="H15" t="n">
-        <v>12.3169</v>
+        <v>12.6362</v>
       </c>
       <c r="I15" t="n">
         <v>0.8728</v>
@@ -2394,22 +2394,22 @@
         <v>104</v>
       </c>
       <c r="K15" t="n">
-        <v>97.551</v>
+        <v>97.55200000000001</v>
       </c>
       <c r="L15" t="n">
         <v>0.0648</v>
       </c>
       <c r="M15" t="n">
-        <v>1.2306</v>
+        <v>1.2232</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1514</v>
+        <v>0.1527</v>
       </c>
       <c r="O15" t="n">
-        <v>12.2117</v>
+        <v>12.2753</v>
       </c>
       <c r="P15" t="n">
-        <v>0.2883</v>
+        <v>0.2966</v>
       </c>
       <c r="Q15" t="n">
         <v>15</v>
@@ -2427,10 +2427,10 @@
         <v>0.2</v>
       </c>
       <c r="V15" t="n">
-        <v>0.0577</v>
+        <v>0.0593</v>
       </c>
       <c r="W15" t="n">
-        <v>0.0577</v>
+        <v>0.0593</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -2457,16 +2457,16 @@
         <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AJ15" t="n">
         <v>0</v>
@@ -2481,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>8.4954</v>
+        <v>8.793900000000001</v>
       </c>
       <c r="AO15" t="n">
-        <v>8.4954</v>
+        <v>8.793900000000001</v>
       </c>
       <c r="AP15" t="n">
-        <v>8.4954</v>
+        <v>8.793900000000001</v>
       </c>
       <c r="AQ15" t="n">
-        <v>8.4954</v>
+        <v>8.793900000000001</v>
       </c>
     </row>
     <row r="16">
@@ -2498,7 +2498,7 @@
         <v>45397</v>
       </c>
       <c r="B16" t="n">
-        <v>5.2288</v>
+        <v>6.1062</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -2507,16 +2507,16 @@
         <v>315.4375</v>
       </c>
       <c r="E16" t="n">
-        <v>19.0187</v>
+        <v>18.8634</v>
       </c>
       <c r="F16" t="n">
-        <v>57.7804</v>
+        <v>57.4375</v>
       </c>
       <c r="G16" t="n">
-        <v>2.2</v>
+        <v>2.1787</v>
       </c>
       <c r="H16" t="n">
-        <v>12.7115</v>
+        <v>12.5141</v>
       </c>
       <c r="I16" t="n">
         <v>0.8728</v>
@@ -2525,22 +2525,22 @@
         <v>105</v>
       </c>
       <c r="K16" t="n">
-        <v>97.536</v>
+        <v>97.535</v>
       </c>
       <c r="L16" t="n">
         <v>0.06469999999999999</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9288999999999999</v>
+        <v>0.9273</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1372</v>
+        <v>0.1361</v>
       </c>
       <c r="O16" t="n">
-        <v>13.2624</v>
+        <v>13.2267</v>
       </c>
       <c r="P16" t="n">
-        <v>0.2065</v>
+        <v>0.2133</v>
       </c>
       <c r="Q16" t="n">
         <v>16</v>
@@ -2558,10 +2558,10 @@
         <v>0.2</v>
       </c>
       <c r="V16" t="n">
-        <v>0.0528</v>
+        <v>0.0545</v>
       </c>
       <c r="W16" t="n">
-        <v>0.0413</v>
+        <v>0.0427</v>
       </c>
       <c r="X16" t="n">
         <v>0.228</v>
@@ -2588,40 +2588,40 @@
         <v>0.92</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.1752</v>
+        <v>0.1735</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.1867</v>
+        <v>0.1853</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.1752</v>
+        <v>0.1735</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.1867</v>
+        <v>0.1853</v>
       </c>
       <c r="AN16" t="n">
-        <v>8.116099999999999</v>
+        <v>8.401300000000001</v>
       </c>
       <c r="AO16" t="n">
-        <v>8.116099999999999</v>
+        <v>8.401300000000001</v>
       </c>
       <c r="AP16" t="n">
-        <v>8.116099999999999</v>
+        <v>8.401300000000001</v>
       </c>
       <c r="AQ16" t="n">
-        <v>8.116099999999999</v>
+        <v>8.401300000000001</v>
       </c>
     </row>
     <row r="17">
@@ -2629,25 +2629,25 @@
         <v>45398</v>
       </c>
       <c r="B17" t="n">
-        <v>8.7844</v>
+        <v>10.3125</v>
       </c>
       <c r="C17" t="n">
-        <v>0.254</v>
+        <v>0.508</v>
       </c>
       <c r="D17" t="n">
         <v>215.3542</v>
       </c>
       <c r="E17" t="n">
-        <v>20.4708</v>
+        <v>20.7083</v>
       </c>
       <c r="F17" t="n">
-        <v>48.5921</v>
+        <v>48.5833</v>
       </c>
       <c r="G17" t="n">
-        <v>2.4073</v>
+        <v>2.4428</v>
       </c>
       <c r="H17" t="n">
-        <v>11.6976</v>
+        <v>11.8679</v>
       </c>
       <c r="I17" t="n">
         <v>0.8728</v>
@@ -2656,22 +2656,22 @@
         <v>106</v>
       </c>
       <c r="K17" t="n">
-        <v>97.548</v>
+        <v>97.55</v>
       </c>
       <c r="L17" t="n">
         <v>0.0648</v>
       </c>
       <c r="M17" t="n">
-        <v>1.2375</v>
+        <v>1.256</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1485</v>
+        <v>0.1504</v>
       </c>
       <c r="O17" t="n">
-        <v>9.539199999999999</v>
+        <v>9.5517</v>
       </c>
       <c r="P17" t="n">
-        <v>0.2599</v>
+        <v>0.2763</v>
       </c>
       <c r="Q17" t="n">
         <v>16</v>
@@ -2689,10 +2689,10 @@
         <v>0.2</v>
       </c>
       <c r="V17" t="n">
-        <v>0.0665</v>
+        <v>0.0706</v>
       </c>
       <c r="W17" t="n">
-        <v>0.052</v>
+        <v>0.0553</v>
       </c>
       <c r="X17" t="n">
         <v>0.0456</v>
@@ -2719,40 +2719,40 @@
         <v>1.0295</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.21</v>
+        <v>0.2112</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.21</v>
+        <v>0.2112</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AJ17" t="n">
         <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.186</v>
+        <v>0.1927</v>
       </c>
       <c r="AL17" t="n">
         <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.186</v>
+        <v>0.1927</v>
       </c>
       <c r="AN17" t="n">
-        <v>8.1927</v>
+        <v>8.2392</v>
       </c>
       <c r="AO17" t="n">
-        <v>7.7693</v>
+        <v>8.042299999999999</v>
       </c>
       <c r="AP17" t="n">
-        <v>8.1927</v>
+        <v>8.2392</v>
       </c>
       <c r="AQ17" t="n">
-        <v>7.7693</v>
+        <v>8.042299999999999</v>
       </c>
     </row>
     <row r="18">
@@ -2760,25 +2760,25 @@
         <v>45399</v>
       </c>
       <c r="B18" t="n">
-        <v>12.704</v>
+        <v>14.4646</v>
       </c>
       <c r="C18" t="n">
-        <v>1.27</v>
+        <v>1.016</v>
       </c>
       <c r="D18" t="n">
         <v>165.2083</v>
       </c>
       <c r="E18" t="n">
-        <v>18.5271</v>
+        <v>18.1829</v>
       </c>
       <c r="F18" t="n">
-        <v>67.08</v>
+        <v>67.5</v>
       </c>
       <c r="G18" t="n">
-        <v>2.1334</v>
+        <v>2.0878</v>
       </c>
       <c r="H18" t="n">
-        <v>14.3108</v>
+        <v>14.0929</v>
       </c>
       <c r="I18" t="n">
         <v>0.8728</v>
@@ -2787,22 +2787,22 @@
         <v>107</v>
       </c>
       <c r="K18" t="n">
-        <v>97.532</v>
+        <v>97.529</v>
       </c>
       <c r="L18" t="n">
         <v>0.0646</v>
       </c>
       <c r="M18" t="n">
-        <v>0.7023</v>
+        <v>0.6785</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1336</v>
+        <v>0.1311</v>
       </c>
       <c r="O18" t="n">
-        <v>8.228999999999999</v>
+        <v>8.2217</v>
       </c>
       <c r="P18" t="n">
-        <v>0.1799</v>
+        <v>0.1804</v>
       </c>
       <c r="Q18" t="n">
         <v>16</v>
@@ -2820,10 +2820,10 @@
         <v>0.2</v>
       </c>
       <c r="V18" t="n">
-        <v>0.046</v>
+        <v>0.0461</v>
       </c>
       <c r="W18" t="n">
-        <v>0.036</v>
+        <v>0.0361</v>
       </c>
       <c r="X18" t="n">
         <v>0.228</v>
@@ -2850,40 +2850,40 @@
         <v>1.139</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.21</v>
+        <v>0.2112</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.21</v>
+        <v>0.2112</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.232</v>
+        <v>0.2219</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.242</v>
+        <v>0.2319</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.232</v>
+        <v>0.2219</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.242</v>
+        <v>0.2319</v>
       </c>
       <c r="AN18" t="n">
-        <v>7.8569</v>
+        <v>7.9015</v>
       </c>
       <c r="AO18" t="n">
-        <v>7.4509</v>
+        <v>7.7127</v>
       </c>
       <c r="AP18" t="n">
-        <v>7.8569</v>
+        <v>7.9015</v>
       </c>
       <c r="AQ18" t="n">
-        <v>7.4509</v>
+        <v>7.7127</v>
       </c>
     </row>
     <row r="19">
@@ -2891,25 +2891,25 @@
         <v>45400</v>
       </c>
       <c r="B19" t="n">
-        <v>5.0665</v>
+        <v>6.1167</v>
       </c>
       <c r="C19" t="n">
-        <v>8.635999999999999</v>
+        <v>11.176</v>
       </c>
       <c r="D19" t="n">
         <v>193.375</v>
       </c>
       <c r="E19" t="n">
-        <v>14.675</v>
+        <v>14.5752</v>
       </c>
       <c r="F19" t="n">
-        <v>66.4671</v>
+        <v>67.375</v>
       </c>
       <c r="G19" t="n">
-        <v>1.67</v>
+        <v>1.6593</v>
       </c>
       <c r="H19" t="n">
-        <v>11.0999</v>
+        <v>11.1793</v>
       </c>
       <c r="I19" t="n">
         <v>0.8728</v>
@@ -2924,16 +2924,16 @@
         <v>0.0644</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5414</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1078</v>
+        <v>0.1072</v>
       </c>
       <c r="O19" t="n">
-        <v>9.0732</v>
+        <v>9.088800000000001</v>
       </c>
       <c r="P19" t="n">
-        <v>0.1296</v>
+        <v>0.1323</v>
       </c>
       <c r="Q19" t="n">
         <v>16</v>
@@ -2951,10 +2951,10 @@
         <v>0.2</v>
       </c>
       <c r="V19" t="n">
-        <v>0.0332</v>
+        <v>0.0338</v>
       </c>
       <c r="W19" t="n">
-        <v>0.0259</v>
+        <v>0.0265</v>
       </c>
       <c r="X19" t="n">
         <v>0.0912</v>
@@ -2981,40 +2981,40 @@
         <v>1.2486</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.21</v>
+        <v>0.2112</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.21</v>
+        <v>0.2112</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.398</v>
+        <v>0.4974</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.4053</v>
+        <v>0.5047</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.398</v>
+        <v>0.4974</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.5421</v>
+        <v>0.6415</v>
       </c>
       <c r="AN19" t="n">
-        <v>7.5528</v>
+        <v>7.5956</v>
       </c>
       <c r="AO19" t="n">
-        <v>7.1625</v>
+        <v>7.4141</v>
       </c>
       <c r="AP19" t="n">
-        <v>7.5528</v>
+        <v>7.5956</v>
       </c>
       <c r="AQ19" t="n">
-        <v>7.1625</v>
+        <v>7.4141</v>
       </c>
     </row>
     <row r="20">
@@ -3022,25 +3022,25 @@
         <v>45401</v>
       </c>
       <c r="B20" t="n">
-        <v>10.1119</v>
+        <v>11.3438</v>
       </c>
       <c r="C20" t="n">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>236.1667</v>
       </c>
       <c r="E20" t="n">
-        <v>10.0146</v>
+        <v>9.9826</v>
       </c>
       <c r="F20" t="n">
-        <v>68.6254</v>
+        <v>67.33329999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>1.2292</v>
+        <v>1.2265</v>
       </c>
       <c r="H20" t="n">
-        <v>8.4352</v>
+        <v>8.258699999999999</v>
       </c>
       <c r="I20" t="n">
         <v>0.8728</v>
@@ -3049,22 +3049,22 @@
         <v>109</v>
       </c>
       <c r="K20" t="n">
-        <v>97.459</v>
+        <v>97.458</v>
       </c>
       <c r="L20" t="n">
         <v>0.0641</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3857</v>
+        <v>0.4006</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0824</v>
+        <v>0.0822</v>
       </c>
       <c r="O20" t="n">
-        <v>10.4498</v>
+        <v>10.4186</v>
       </c>
       <c r="P20" t="n">
-        <v>0.1199</v>
+        <v>0.1247</v>
       </c>
       <c r="Q20" t="n">
         <v>16</v>
@@ -3082,10 +3082,10 @@
         <v>0.2</v>
       </c>
       <c r="V20" t="n">
-        <v>0.0306</v>
+        <v>0.0319</v>
       </c>
       <c r="W20" t="n">
-        <v>0.024</v>
+        <v>0.0249</v>
       </c>
       <c r="X20" t="n">
         <v>0.0912</v>
@@ -3112,40 +3112,40 @@
         <v>1.3581</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.21</v>
+        <v>0.2112</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.21</v>
+        <v>0.2112</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.1606</v>
+        <v>0.0593</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.1672</v>
+        <v>0.0663</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.2518</v>
+        <v>0.1505</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.304</v>
+        <v>0.2031</v>
       </c>
       <c r="AN20" t="n">
-        <v>7.2905</v>
+        <v>7.3319</v>
       </c>
       <c r="AO20" t="n">
-        <v>6.9138</v>
+        <v>7.1566</v>
       </c>
       <c r="AP20" t="n">
-        <v>7.2905</v>
+        <v>7.3319</v>
       </c>
       <c r="AQ20" t="n">
-        <v>6.9138</v>
+        <v>7.1566</v>
       </c>
     </row>
     <row r="21">
@@ -3153,7 +3153,7 @@
         <v>45402</v>
       </c>
       <c r="B21" t="n">
-        <v>9.666499999999999</v>
+        <v>11.1688</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -3162,16 +3162,16 @@
         <v>254.1042</v>
       </c>
       <c r="E21" t="n">
-        <v>6.3938</v>
+        <v>6.2153</v>
       </c>
       <c r="F21" t="n">
-        <v>54.7167</v>
+        <v>54.5</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9609</v>
+        <v>0.9491000000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>5.2578</v>
+        <v>5.1728</v>
       </c>
       <c r="I21" t="n">
         <v>0.8728</v>
@@ -3180,22 +3180,22 @@
         <v>110</v>
       </c>
       <c r="K21" t="n">
-        <v>97.426</v>
+        <v>97.425</v>
       </c>
       <c r="L21" t="n">
         <v>0.0638</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4351</v>
+        <v>0.4318</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0663</v>
+        <v>0.06560000000000001</v>
       </c>
       <c r="O21" t="n">
-        <v>10.669</v>
+        <v>10.6635</v>
       </c>
       <c r="P21" t="n">
-        <v>0.1309</v>
+        <v>0.1328</v>
       </c>
       <c r="Q21" t="n">
         <v>16</v>
@@ -3213,10 +3213,10 @@
         <v>0.2</v>
       </c>
       <c r="V21" t="n">
-        <v>0.0335</v>
+        <v>0.034</v>
       </c>
       <c r="W21" t="n">
-        <v>0.0262</v>
+        <v>0.0266</v>
       </c>
       <c r="X21" t="n">
         <v>0.228</v>
@@ -3243,40 +3243,40 @@
         <v>1.4676</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.21</v>
+        <v>0.2112</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.21</v>
+        <v>0.2112</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.1945</v>
+        <v>0.194</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.0194</v>
+        <v>0.019</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.1033</v>
+        <v>0.1028</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.0194</v>
+        <v>0.019</v>
       </c>
       <c r="AN21" t="n">
-        <v>7.0459</v>
+        <v>7.0858</v>
       </c>
       <c r="AO21" t="n">
-        <v>6.6818</v>
+        <v>6.9165</v>
       </c>
       <c r="AP21" t="n">
-        <v>7.0459</v>
+        <v>7.0858</v>
       </c>
       <c r="AQ21" t="n">
-        <v>6.6818</v>
+        <v>6.9165</v>
       </c>
     </row>
     <row r="22">
@@ -3284,7 +3284,7 @@
         <v>45403</v>
       </c>
       <c r="B22" t="n">
-        <v>6.261</v>
+        <v>6.9188</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -3293,16 +3293,16 @@
         <v>319.6042</v>
       </c>
       <c r="E22" t="n">
-        <v>6.7312</v>
+        <v>6.706</v>
       </c>
       <c r="F22" t="n">
-        <v>52.0552</v>
+        <v>52.4792</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9835</v>
+        <v>0.9818</v>
       </c>
       <c r="H22" t="n">
-        <v>5.1197</v>
+        <v>5.1525</v>
       </c>
       <c r="I22" t="n">
         <v>0.8728</v>
@@ -3314,19 +3314,19 @@
         <v>97.429</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0639</v>
+        <v>0.0638</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4715</v>
+        <v>0.4666</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0677</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="O22" t="n">
-        <v>12.7105</v>
+        <v>12.725</v>
       </c>
       <c r="P22" t="n">
-        <v>0.1374</v>
+        <v>0.1384</v>
       </c>
       <c r="Q22" t="n">
         <v>16</v>
@@ -3344,10 +3344,10 @@
         <v>0.2</v>
       </c>
       <c r="V22" t="n">
-        <v>0.0351</v>
+        <v>0.0354</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0275</v>
+        <v>0.0277</v>
       </c>
       <c r="X22" t="n">
         <v>0.228</v>
@@ -3374,40 +3374,40 @@
         <v>1.5771</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.21</v>
+        <v>0.2112</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.21</v>
+        <v>0.2112</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0.1929</v>
+        <v>0.1926</v>
       </c>
       <c r="AK22" t="n">
-        <v>0.1549</v>
+        <v>0.1547</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.1017</v>
+        <v>0.1014</v>
       </c>
       <c r="AM22" t="n">
-        <v>0.2005</v>
+        <v>0.2003</v>
       </c>
       <c r="AN22" t="n">
-        <v>6.8171</v>
+        <v>6.8558</v>
       </c>
       <c r="AO22" t="n">
-        <v>6.4648</v>
+        <v>6.6919</v>
       </c>
       <c r="AP22" t="n">
-        <v>6.8171</v>
+        <v>6.8558</v>
       </c>
       <c r="AQ22" t="n">
-        <v>6.4648</v>
+        <v>6.6919</v>
       </c>
     </row>
     <row r="23">
@@ -3415,7 +3415,7 @@
         <v>45404</v>
       </c>
       <c r="B23" t="n">
-        <v>5.7021</v>
+        <v>6.7896</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -3424,16 +3424,16 @@
         <v>305.6042</v>
       </c>
       <c r="E23" t="n">
-        <v>10.4833</v>
+        <v>10.8102</v>
       </c>
       <c r="F23" t="n">
-        <v>50.1354</v>
+        <v>49.3333</v>
       </c>
       <c r="G23" t="n">
-        <v>1.2683</v>
+        <v>1.2962</v>
       </c>
       <c r="H23" t="n">
-        <v>6.3587</v>
+        <v>6.3948</v>
       </c>
       <c r="I23" t="n">
         <v>0.8728</v>
@@ -3442,22 +3442,22 @@
         <v>112</v>
       </c>
       <c r="K23" t="n">
-        <v>97.46299999999999</v>
+        <v>97.46599999999999</v>
       </c>
       <c r="L23" t="n">
         <v>0.0641</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6324</v>
+        <v>0.6567</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0847</v>
+        <v>0.0863</v>
       </c>
       <c r="O23" t="n">
-        <v>12.2504</v>
+        <v>12.2243</v>
       </c>
       <c r="P23" t="n">
-        <v>0.1625</v>
+        <v>0.1723</v>
       </c>
       <c r="Q23" t="n">
         <v>17</v>
@@ -3475,10 +3475,10 @@
         <v>0.23</v>
       </c>
       <c r="V23" t="n">
-        <v>0.0636</v>
+        <v>0.0675</v>
       </c>
       <c r="W23" t="n">
-        <v>0.0374</v>
+        <v>0.0396</v>
       </c>
       <c r="X23" t="n">
         <v>0.0912</v>
@@ -3505,40 +3505,40 @@
         <v>1.6867</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.21</v>
+        <v>0.2112</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.21</v>
+        <v>0.2112</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.0276</v>
+        <v>0.0237</v>
       </c>
       <c r="AK23" t="n">
-        <v>0.1906</v>
+        <v>0.1884</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.0732</v>
+        <v>0.0693</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.0538</v>
+        <v>0.0516</v>
       </c>
       <c r="AN23" t="n">
-        <v>6.6027</v>
+        <v>6.6402</v>
       </c>
       <c r="AO23" t="n">
-        <v>6.2615</v>
+        <v>6.4815</v>
       </c>
       <c r="AP23" t="n">
-        <v>6.6027</v>
+        <v>6.6402</v>
       </c>
       <c r="AQ23" t="n">
-        <v>6.2615</v>
+        <v>6.4815</v>
       </c>
     </row>
     <row r="24">
@@ -3546,7 +3546,7 @@
         <v>45405</v>
       </c>
       <c r="B24" t="n">
-        <v>8.4717</v>
+        <v>9.7521</v>
       </c>
       <c r="C24" t="n">
         <v>30.48</v>
@@ -3555,16 +3555,16 @@
         <v>46</v>
       </c>
       <c r="E24" t="n">
-        <v>11.0417</v>
+        <v>10.9838</v>
       </c>
       <c r="F24" t="n">
-        <v>73.5956</v>
+        <v>75.45829999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>1.3164</v>
+        <v>1.3113</v>
       </c>
       <c r="H24" t="n">
-        <v>9.687799999999999</v>
+        <v>9.8949</v>
       </c>
       <c r="I24" t="n">
         <v>0.8728</v>
@@ -3573,22 +3573,22 @@
         <v>113</v>
       </c>
       <c r="K24" t="n">
-        <v>97.468</v>
+        <v>97.467</v>
       </c>
       <c r="L24" t="n">
         <v>0.0641</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3476</v>
+        <v>0.3218</v>
       </c>
       <c r="N24" t="n">
-        <v>0.08749999999999999</v>
+        <v>0.0872</v>
       </c>
       <c r="O24" t="n">
-        <v>3.8961</v>
+        <v>3.8894</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0827</v>
+        <v>0.0806</v>
       </c>
       <c r="Q24" t="n">
         <v>17</v>
@@ -3606,10 +3606,10 @@
         <v>0.23</v>
       </c>
       <c r="V24" t="n">
-        <v>0.0324</v>
+        <v>0.0316</v>
       </c>
       <c r="W24" t="n">
-        <v>0.019</v>
+        <v>0.0185</v>
       </c>
       <c r="X24" t="n">
         <v>0.0456</v>
@@ -3636,40 +3636,40 @@
         <v>1.7962</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.21</v>
+        <v>0.2112</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.21</v>
+        <v>0.2112</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1.2132</v>
+        <v>1.214</v>
       </c>
       <c r="AK24" t="n">
-        <v>1.2266</v>
+        <v>1.2271</v>
       </c>
       <c r="AL24" t="n">
-        <v>1.2132</v>
+        <v>1.214</v>
       </c>
       <c r="AM24" t="n">
-        <v>1.409</v>
+        <v>1.4095</v>
       </c>
       <c r="AN24" t="n">
-        <v>6.4014</v>
+        <v>6.4377</v>
       </c>
       <c r="AO24" t="n">
-        <v>6.0706</v>
+        <v>6.2839</v>
       </c>
       <c r="AP24" t="n">
-        <v>6.4014</v>
+        <v>6.4377</v>
       </c>
       <c r="AQ24" t="n">
-        <v>6.0706</v>
+        <v>6.2839</v>
       </c>
     </row>
     <row r="25">
@@ -3677,7 +3677,7 @@
         <v>45406</v>
       </c>
       <c r="B25" t="n">
-        <v>8.544600000000001</v>
+        <v>9.5875</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -3686,16 +3686,16 @@
         <v>203.7292</v>
       </c>
       <c r="E25" t="n">
-        <v>6.6479</v>
+        <v>6.2836</v>
       </c>
       <c r="F25" t="n">
-        <v>80.83920000000001</v>
+        <v>80.72920000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9779</v>
+        <v>0.9536</v>
       </c>
       <c r="H25" t="n">
-        <v>7.9052</v>
+        <v>7.6985</v>
       </c>
       <c r="I25" t="n">
         <v>0.8728</v>
@@ -3704,22 +3704,22 @@
         <v>114</v>
       </c>
       <c r="K25" t="n">
-        <v>97.429</v>
+        <v>97.425</v>
       </c>
       <c r="L25" t="n">
         <v>0.0638</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1874</v>
+        <v>0.1837</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0673</v>
+        <v>0.0659</v>
       </c>
       <c r="O25" t="n">
-        <v>9.5166</v>
+        <v>9.507099999999999</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0704</v>
+        <v>0.0693</v>
       </c>
       <c r="Q25" t="n">
         <v>17</v>
@@ -3737,10 +3737,10 @@
         <v>0.23</v>
       </c>
       <c r="V25" t="n">
-        <v>0.0276</v>
+        <v>0.0271</v>
       </c>
       <c r="W25" t="n">
-        <v>0.0162</v>
+        <v>0.0159</v>
       </c>
       <c r="X25" t="n">
         <v>0.228</v>
@@ -3767,40 +3767,40 @@
         <v>1.9057</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.21</v>
+        <v>0.2112</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.21</v>
+        <v>0.2112</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.2004</v>
+        <v>0.2009</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.2118</v>
+        <v>0.2121</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.2004</v>
+        <v>0.2009</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.075</v>
+        <v>0.07530000000000001</v>
       </c>
       <c r="AN25" t="n">
-        <v>6.212</v>
+        <v>6.2473</v>
       </c>
       <c r="AO25" t="n">
-        <v>5.891</v>
+        <v>6.098</v>
       </c>
       <c r="AP25" t="n">
-        <v>6.212</v>
+        <v>6.2473</v>
       </c>
       <c r="AQ25" t="n">
-        <v>5.891</v>
+        <v>6.098</v>
       </c>
     </row>
     <row r="26">
@@ -3808,7 +3808,7 @@
         <v>45407</v>
       </c>
       <c r="B26" t="n">
-        <v>5.0636</v>
+        <v>6.1719</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -3817,16 +3817,16 @@
         <v>326.25</v>
       </c>
       <c r="E26" t="n">
-        <v>7.1625</v>
+        <v>7.4549</v>
       </c>
       <c r="F26" t="n">
-        <v>69.90730000000001</v>
+        <v>68.47920000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>1.0131</v>
+        <v>1.0336</v>
       </c>
       <c r="H26" t="n">
-        <v>7.0823</v>
+        <v>7.0779</v>
       </c>
       <c r="I26" t="n">
         <v>0.8728</v>
@@ -3835,22 +3835,22 @@
         <v>115</v>
       </c>
       <c r="K26" t="n">
-        <v>97.43300000000001</v>
+        <v>97.43600000000001</v>
       </c>
       <c r="L26" t="n">
         <v>0.0639</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3049</v>
+        <v>0.3258</v>
       </c>
       <c r="N26" t="n">
-        <v>0.06950000000000001</v>
+        <v>0.0707</v>
       </c>
       <c r="O26" t="n">
-        <v>13.5964</v>
+        <v>13.5611</v>
       </c>
       <c r="P26" t="n">
-        <v>0.1096</v>
+        <v>0.1141</v>
       </c>
       <c r="Q26" t="n">
         <v>17</v>
@@ -3868,10 +3868,10 @@
         <v>0.23</v>
       </c>
       <c r="V26" t="n">
-        <v>0.0429</v>
+        <v>0.0446</v>
       </c>
       <c r="W26" t="n">
-        <v>0.0252</v>
+        <v>0.0262</v>
       </c>
       <c r="X26" t="n">
         <v>0.228</v>
@@ -3898,40 +3898,40 @@
         <v>2.0152</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.21</v>
+        <v>0.2112</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.21</v>
+        <v>0.2112</v>
       </c>
       <c r="AI26" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0.1851</v>
+        <v>0.1834</v>
       </c>
       <c r="AK26" t="n">
-        <v>0.0204</v>
+        <v>0.0194</v>
       </c>
       <c r="AL26" t="n">
-        <v>0.1395</v>
+        <v>0.1378</v>
       </c>
       <c r="AM26" t="n">
-        <v>0.2028</v>
+        <v>0.2018</v>
       </c>
       <c r="AN26" t="n">
-        <v>6.0335</v>
+        <v>6.0678</v>
       </c>
       <c r="AO26" t="n">
-        <v>5.7217</v>
+        <v>5.9227</v>
       </c>
       <c r="AP26" t="n">
-        <v>6.0335</v>
+        <v>6.0678</v>
       </c>
       <c r="AQ26" t="n">
-        <v>5.7217</v>
+        <v>5.9227</v>
       </c>
     </row>
     <row r="27">
@@ -3939,7 +3939,7 @@
         <v>45408</v>
       </c>
       <c r="B27" t="n">
-        <v>7.8448</v>
+        <v>9.033300000000001</v>
       </c>
       <c r="C27" t="n">
         <v>6.35</v>
@@ -3948,16 +3948,16 @@
         <v>143.2292</v>
       </c>
       <c r="E27" t="n">
-        <v>11.85</v>
+        <v>12.2025</v>
       </c>
       <c r="F27" t="n">
-        <v>68.2371</v>
+        <v>68.875</v>
       </c>
       <c r="G27" t="n">
-        <v>1.3888</v>
+        <v>1.4214</v>
       </c>
       <c r="H27" t="n">
-        <v>9.4764</v>
+        <v>9.789899999999999</v>
       </c>
       <c r="I27" t="n">
         <v>0.8728</v>
@@ -3966,22 +3966,22 @@
         <v>116</v>
       </c>
       <c r="K27" t="n">
-        <v>97.47499999999999</v>
+        <v>97.47799999999999</v>
       </c>
       <c r="L27" t="n">
         <v>0.06419999999999999</v>
       </c>
       <c r="M27" t="n">
-        <v>0.4412</v>
+        <v>0.4424</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0917</v>
+        <v>0.0936</v>
       </c>
       <c r="O27" t="n">
-        <v>7.3394</v>
+        <v>7.3527</v>
       </c>
       <c r="P27" t="n">
-        <v>0.1136</v>
+        <v>0.1172</v>
       </c>
       <c r="Q27" t="n">
         <v>17</v>
@@ -3999,10 +3999,10 @@
         <v>0.23</v>
       </c>
       <c r="V27" t="n">
-        <v>0.0445</v>
+        <v>0.0459</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0261</v>
+        <v>0.027</v>
       </c>
       <c r="X27" t="n">
         <v>0.0912</v>
@@ -4029,40 +4029,40 @@
         <v>2.1248</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.21</v>
+        <v>0.2112</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.21</v>
+        <v>0.2112</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0.2967</v>
+        <v>0.2953</v>
       </c>
       <c r="AK27" t="n">
-        <v>0.3607</v>
+        <v>0.3598</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.3423</v>
+        <v>0.3409</v>
       </c>
       <c r="AM27" t="n">
-        <v>0.3151</v>
+        <v>0.3142</v>
       </c>
       <c r="AN27" t="n">
-        <v>5.865</v>
+        <v>5.8983</v>
       </c>
       <c r="AO27" t="n">
-        <v>5.5619</v>
+        <v>5.7573</v>
       </c>
       <c r="AP27" t="n">
-        <v>5.865</v>
+        <v>5.8983</v>
       </c>
       <c r="AQ27" t="n">
-        <v>5.5619</v>
+        <v>5.7573</v>
       </c>
     </row>
     <row r="28">
@@ -4070,25 +4070,25 @@
         <v>45409</v>
       </c>
       <c r="B28" t="n">
-        <v>10.096</v>
+        <v>11.4125</v>
       </c>
       <c r="C28" t="n">
-        <v>5.334</v>
+        <v>5.588</v>
       </c>
       <c r="D28" t="n">
         <v>212.125</v>
       </c>
       <c r="E28" t="n">
-        <v>19.9833</v>
+        <v>20.0058</v>
       </c>
       <c r="F28" t="n">
-        <v>75.8094</v>
+        <v>76.47920000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>2.3359</v>
+        <v>2.3391</v>
       </c>
       <c r="H28" t="n">
-        <v>17.7081</v>
+        <v>17.8894</v>
       </c>
       <c r="I28" t="n">
         <v>0.8728</v>
@@ -4103,16 +4103,16 @@
         <v>0.06469999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>0.5651</v>
+        <v>0.5502</v>
       </c>
       <c r="N28" t="n">
-        <v>0.1446</v>
+        <v>0.1448</v>
       </c>
       <c r="O28" t="n">
-        <v>10.4482</v>
+        <v>10.4697</v>
       </c>
       <c r="P28" t="n">
-        <v>0.155</v>
+        <v>0.1551</v>
       </c>
       <c r="Q28" t="n">
         <v>17</v>
@@ -4160,40 +4160,40 @@
         <v>2.2343</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.21</v>
+        <v>0.2112</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.21</v>
+        <v>0.2112</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0.2405</v>
+        <v>0.2505</v>
       </c>
       <c r="AK28" t="n">
-        <v>0.4023</v>
+        <v>0.4123</v>
       </c>
       <c r="AL28" t="n">
-        <v>0.1949</v>
+        <v>0.2049</v>
       </c>
       <c r="AM28" t="n">
-        <v>0.4023</v>
+        <v>0.4123</v>
       </c>
       <c r="AN28" t="n">
-        <v>5.7056</v>
+        <v>5.738</v>
       </c>
       <c r="AO28" t="n">
-        <v>5.4108</v>
+        <v>5.6009</v>
       </c>
       <c r="AP28" t="n">
-        <v>5.7056</v>
+        <v>5.738</v>
       </c>
       <c r="AQ28" t="n">
-        <v>5.4108</v>
+        <v>5.6009</v>
       </c>
     </row>
     <row r="29">
@@ -4201,25 +4201,25 @@
         <v>45410</v>
       </c>
       <c r="B29" t="n">
-        <v>9.970599999999999</v>
+        <v>11.5083</v>
       </c>
       <c r="C29" t="n">
-        <v>1.524</v>
+        <v>1.27</v>
       </c>
       <c r="D29" t="n">
         <v>218.2708</v>
       </c>
       <c r="E29" t="n">
-        <v>21.4479</v>
+        <v>21.5417</v>
       </c>
       <c r="F29" t="n">
-        <v>69.1108</v>
+        <v>68.125</v>
       </c>
       <c r="G29" t="n">
-        <v>2.5563</v>
+        <v>2.571</v>
       </c>
       <c r="H29" t="n">
-        <v>17.6665</v>
+        <v>17.5147</v>
       </c>
       <c r="I29" t="n">
         <v>0.8728</v>
@@ -4228,22 +4228,22 @@
         <v>118</v>
       </c>
       <c r="K29" t="n">
-        <v>97.556</v>
+        <v>97.557</v>
       </c>
       <c r="L29" t="n">
         <v>0.0648</v>
       </c>
       <c r="M29" t="n">
-        <v>0.7896</v>
+        <v>0.8195</v>
       </c>
       <c r="N29" t="n">
-        <v>0.1565</v>
+        <v>0.1573</v>
       </c>
       <c r="O29" t="n">
-        <v>10.6206</v>
+        <v>10.5953</v>
       </c>
       <c r="P29" t="n">
-        <v>0.1948</v>
+        <v>0.2062</v>
       </c>
       <c r="Q29" t="n">
         <v>17</v>
@@ -4261,10 +4261,10 @@
         <v>0.23</v>
       </c>
       <c r="V29" t="n">
-        <v>0.07630000000000001</v>
+        <v>0.08069999999999999</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0448</v>
+        <v>0.0474</v>
       </c>
       <c r="X29" t="n">
         <v>0.0912</v>
@@ -4291,40 +4291,40 @@
         <v>2.3438</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.21</v>
+        <v>0.2112</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.21</v>
+        <v>0.2112</v>
       </c>
       <c r="AI29" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0.07489999999999999</v>
+        <v>0.0605</v>
       </c>
       <c r="AK29" t="n">
-        <v>0.152</v>
+        <v>0.1394</v>
       </c>
       <c r="AL29" t="n">
-        <v>0.2117</v>
+        <v>0.1973</v>
       </c>
       <c r="AM29" t="n">
-        <v>0.2432</v>
+        <v>0.2306</v>
       </c>
       <c r="AN29" t="n">
-        <v>5.5547</v>
+        <v>5.5862</v>
       </c>
       <c r="AO29" t="n">
-        <v>5.2676</v>
+        <v>5.4527</v>
       </c>
       <c r="AP29" t="n">
-        <v>5.5547</v>
+        <v>5.5862</v>
       </c>
       <c r="AQ29" t="n">
-        <v>5.2676</v>
+        <v>5.4527</v>
       </c>
     </row>
     <row r="30">
@@ -4332,7 +4332,7 @@
         <v>45411</v>
       </c>
       <c r="B30" t="n">
-        <v>6.5238</v>
+        <v>7.5271</v>
       </c>
       <c r="C30" t="n">
         <v>6.604</v>
@@ -4341,16 +4341,16 @@
         <v>71.1875</v>
       </c>
       <c r="E30" t="n">
-        <v>17.8812</v>
+        <v>17.7049</v>
       </c>
       <c r="F30" t="n">
-        <v>83.8115</v>
+        <v>84.97920000000001</v>
       </c>
       <c r="G30" t="n">
-        <v>2.0486</v>
+        <v>2.026</v>
       </c>
       <c r="H30" t="n">
-        <v>17.1699</v>
+        <v>17.2168</v>
       </c>
       <c r="I30" t="n">
         <v>0.8728</v>
@@ -4359,22 +4359,22 @@
         <v>119</v>
       </c>
       <c r="K30" t="n">
-        <v>97.527</v>
+        <v>97.52500000000001</v>
       </c>
       <c r="L30" t="n">
         <v>0.0646</v>
       </c>
       <c r="M30" t="n">
-        <v>0.3316</v>
+        <v>0.3043</v>
       </c>
       <c r="N30" t="n">
-        <v>0.1289</v>
+        <v>0.1277</v>
       </c>
       <c r="O30" t="n">
-        <v>4.8023</v>
+        <v>4.802</v>
       </c>
       <c r="P30" t="n">
-        <v>0.0747</v>
+        <v>0.073</v>
       </c>
       <c r="Q30" t="n">
         <v>18</v>
@@ -4392,10 +4392,10 @@
         <v>0.3275</v>
       </c>
       <c r="V30" t="n">
-        <v>0.0427</v>
+        <v>0.0417</v>
       </c>
       <c r="W30" t="n">
-        <v>0.0245</v>
+        <v>0.0239</v>
       </c>
       <c r="X30" t="n">
         <v>0.228</v>
@@ -4422,40 +4422,40 @@
         <v>2.4533</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.21</v>
+        <v>0.2112</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.21</v>
+        <v>0.2112</v>
       </c>
       <c r="AI30" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0.4453</v>
+        <v>0.4463</v>
       </c>
       <c r="AK30" t="n">
-        <v>0.4635</v>
+        <v>0.4641</v>
       </c>
       <c r="AL30" t="n">
-        <v>0.2629</v>
+        <v>0.2639</v>
       </c>
       <c r="AM30" t="n">
-        <v>0.4179</v>
+        <v>0.4185</v>
       </c>
       <c r="AN30" t="n">
-        <v>5.4115</v>
+        <v>5.4422</v>
       </c>
       <c r="AO30" t="n">
-        <v>5.1319</v>
+        <v>5.3122</v>
       </c>
       <c r="AP30" t="n">
-        <v>5.4115</v>
+        <v>5.4422</v>
       </c>
       <c r="AQ30" t="n">
-        <v>5.1319</v>
+        <v>5.3122</v>
       </c>
     </row>
     <row r="31">
@@ -4463,7 +4463,7 @@
         <v>45412</v>
       </c>
       <c r="B31" t="n">
-        <v>3.9404</v>
+        <v>4.4667</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -4472,16 +4472,16 @@
         <v>340.6875</v>
       </c>
       <c r="E31" t="n">
-        <v>17.7229</v>
+        <v>17.7917</v>
       </c>
       <c r="F31" t="n">
-        <v>70.845</v>
+        <v>69.60420000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>2.0283</v>
+        <v>2.0371</v>
       </c>
       <c r="H31" t="n">
-        <v>14.3695</v>
+        <v>14.1791</v>
       </c>
       <c r="I31" t="n">
         <v>0.8728</v>
@@ -4490,22 +4490,22 @@
         <v>120</v>
       </c>
       <c r="K31" t="n">
-        <v>97.52500000000001</v>
+        <v>97.526</v>
       </c>
       <c r="L31" t="n">
         <v>0.0646</v>
       </c>
       <c r="M31" t="n">
-        <v>0.5914</v>
+        <v>0.6192</v>
       </c>
       <c r="N31" t="n">
-        <v>0.1278</v>
+        <v>0.1283</v>
       </c>
       <c r="O31" t="n">
-        <v>15.0358</v>
+        <v>14.9791</v>
       </c>
       <c r="P31" t="n">
-        <v>0.17</v>
+        <v>0.1747</v>
       </c>
       <c r="Q31" t="n">
         <v>18</v>
@@ -4523,10 +4523,10 @@
         <v>0.3275</v>
       </c>
       <c r="V31" t="n">
-        <v>0.09710000000000001</v>
+        <v>0.0998</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0557</v>
+        <v>0.0572</v>
       </c>
       <c r="X31" t="n">
         <v>0.228</v>
@@ -4553,40 +4553,40 @@
         <v>2.5629</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.21</v>
+        <v>0.2112</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.21</v>
+        <v>0.2112</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.1991</v>
+        <v>0.2061</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0.1309</v>
+        <v>0.1282</v>
       </c>
       <c r="AK31" t="n">
-        <v>0.0355</v>
+        <v>0.034</v>
       </c>
       <c r="AL31" t="n">
-        <v>0.1309</v>
+        <v>0.1282</v>
       </c>
       <c r="AM31" t="n">
-        <v>0.1723</v>
+        <v>0.1708</v>
       </c>
       <c r="AN31" t="n">
-        <v>5.2755</v>
+        <v>5.3055</v>
       </c>
       <c r="AO31" t="n">
-        <v>5.0029</v>
+        <v>5.1787</v>
       </c>
       <c r="AP31" t="n">
-        <v>5.2755</v>
+        <v>5.3055</v>
       </c>
       <c r="AQ31" t="n">
-        <v>5.0029</v>
+        <v>5.1787</v>
       </c>
     </row>
     <row r="32">
@@ -4594,25 +4594,25 @@
         <v>45413</v>
       </c>
       <c r="B32" t="n">
-        <v>6.3807</v>
+        <v>7.0854</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>338</v>
+        <v>323.9167</v>
       </c>
       <c r="E32" t="n">
-        <v>20.1783</v>
+        <v>19.9225</v>
       </c>
       <c r="F32" t="n">
-        <v>57.6333</v>
+        <v>58.3125</v>
       </c>
       <c r="G32" t="n">
-        <v>2.3642</v>
+        <v>2.3271</v>
       </c>
       <c r="H32" t="n">
-        <v>13.6257</v>
+        <v>13.5698</v>
       </c>
       <c r="I32" t="n">
         <v>0.7445000000000001</v>
@@ -4621,22 +4621,22 @@
         <v>121</v>
       </c>
       <c r="K32" t="n">
-        <v>97.54600000000001</v>
+        <v>97.544</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0648</v>
+        <v>0.06469999999999999</v>
       </c>
       <c r="M32" t="n">
-        <v>1.0016</v>
+        <v>0.9701</v>
       </c>
       <c r="N32" t="n">
-        <v>0.1461</v>
+        <v>0.1441</v>
       </c>
       <c r="O32" t="n">
-        <v>14.4885</v>
+        <v>13.9901</v>
       </c>
       <c r="P32" t="n">
-        <v>0.2342</v>
+        <v>0.2316</v>
       </c>
       <c r="Q32" t="n">
         <v>18</v>
@@ -4654,10 +4654,10 @@
         <v>0.3275</v>
       </c>
       <c r="V32" t="n">
-        <v>0.1338</v>
+        <v>0.1323</v>
       </c>
       <c r="W32" t="n">
-        <v>0.0767</v>
+        <v>0.07580000000000001</v>
       </c>
       <c r="X32" t="n">
         <v>0.228</v>
@@ -4690,22 +4690,22 @@
         <v>2</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.2982</v>
+        <v>0.2979</v>
       </c>
       <c r="AI32" t="n">
         <v>1</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0.09420000000000001</v>
+        <v>0.09569999999999999</v>
       </c>
       <c r="AK32" t="n">
-        <v>0.1513</v>
+        <v>0.1522</v>
       </c>
       <c r="AL32" t="n">
         <v>0</v>
       </c>
       <c r="AM32" t="n">
-        <v>0.0601</v>
+        <v>0.061</v>
       </c>
       <c r="AN32" t="n">
         <v>24.527</v>
@@ -4714,7 +4714,7 @@
         <v>49.054</v>
       </c>
       <c r="AP32" t="n">
-        <v>7.3134</v>
+        <v>7.3066</v>
       </c>
       <c r="AQ32" t="n">
         <v>24.527</v>
@@ -4725,7 +4725,7 @@
         <v>45414</v>
       </c>
       <c r="B33" t="n">
-        <v>5.5677</v>
+        <v>6.4854</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -4734,16 +4734,16 @@
         <v>286.9375</v>
       </c>
       <c r="E33" t="n">
-        <v>21.3979</v>
+        <v>21.7558</v>
       </c>
       <c r="F33" t="n">
-        <v>56.9777</v>
+        <v>56.5417</v>
       </c>
       <c r="G33" t="n">
-        <v>2.5484</v>
+        <v>2.6048</v>
       </c>
       <c r="H33" t="n">
-        <v>14.5205</v>
+        <v>14.7281</v>
       </c>
       <c r="I33" t="n">
         <v>0.7445000000000001</v>
@@ -4752,22 +4752,22 @@
         <v>122</v>
       </c>
       <c r="K33" t="n">
-        <v>97.556</v>
+        <v>97.559</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0648</v>
+        <v>0.0649</v>
       </c>
       <c r="M33" t="n">
-        <v>1.0964</v>
+        <v>1.132</v>
       </c>
       <c r="N33" t="n">
-        <v>0.156</v>
+        <v>0.1591</v>
       </c>
       <c r="O33" t="n">
-        <v>12.736</v>
+        <v>12.7498</v>
       </c>
       <c r="P33" t="n">
-        <v>0.2261</v>
+        <v>0.2396</v>
       </c>
       <c r="Q33" t="n">
         <v>18</v>
@@ -4785,10 +4785,10 @@
         <v>0.3275</v>
       </c>
       <c r="V33" t="n">
-        <v>0.1292</v>
+        <v>0.1369</v>
       </c>
       <c r="W33" t="n">
-        <v>0.074</v>
+        <v>0.0785</v>
       </c>
       <c r="X33" t="n">
         <v>0.0456</v>
@@ -4815,16 +4815,16 @@
         <v>2.78</v>
       </c>
       <c r="AF33" t="n">
-        <v>1.0836</v>
+        <v>1.0913</v>
       </c>
       <c r="AG33" t="n">
-        <v>1.9372</v>
+        <v>1.9417</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.2982</v>
+        <v>0.2979</v>
       </c>
       <c r="AI33" t="n">
-        <v>0.9828</v>
+        <v>0.9873</v>
       </c>
       <c r="AJ33" t="n">
         <v>0</v>
@@ -4833,22 +4833,22 @@
         <v>0</v>
       </c>
       <c r="AL33" t="n">
-        <v>0.0988</v>
+        <v>0.0911</v>
       </c>
       <c r="AM33" t="n">
         <v>0</v>
       </c>
       <c r="AN33" t="n">
-        <v>25.9708</v>
+        <v>26.1555</v>
       </c>
       <c r="AO33" t="n">
-        <v>46.4303</v>
+        <v>46.5361</v>
       </c>
       <c r="AP33" t="n">
-        <v>7.1464</v>
+        <v>7.1398</v>
       </c>
       <c r="AQ33" t="n">
-        <v>23.556</v>
+        <v>23.6619</v>
       </c>
     </row>
     <row r="34">
@@ -4856,7 +4856,7 @@
         <v>45415</v>
       </c>
       <c r="B34" t="n">
-        <v>5.7348</v>
+        <v>6.675</v>
       </c>
       <c r="C34" t="n">
         <v>0.508</v>
@@ -4865,16 +4865,16 @@
         <v>237.125</v>
       </c>
       <c r="E34" t="n">
-        <v>20.1062</v>
+        <v>19.7755</v>
       </c>
       <c r="F34" t="n">
-        <v>72.2744</v>
+        <v>72.66670000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>2.3537</v>
+        <v>2.306</v>
       </c>
       <c r="H34" t="n">
-        <v>17.0113</v>
+        <v>16.7568</v>
       </c>
       <c r="I34" t="n">
         <v>0.7445000000000001</v>
@@ -4883,22 +4883,22 @@
         <v>123</v>
       </c>
       <c r="K34" t="n">
-        <v>97.545</v>
+        <v>97.542</v>
       </c>
       <c r="L34" t="n">
         <v>0.06469999999999999</v>
       </c>
       <c r="M34" t="n">
-        <v>0.6526</v>
+        <v>0.6303</v>
       </c>
       <c r="N34" t="n">
-        <v>0.1456</v>
+        <v>0.143</v>
       </c>
       <c r="O34" t="n">
-        <v>11.3882</v>
+        <v>11.3699</v>
       </c>
       <c r="P34" t="n">
-        <v>0.161</v>
+        <v>0.1618</v>
       </c>
       <c r="Q34" t="n">
         <v>18</v>
@@ -4916,10 +4916,10 @@
         <v>0.3275</v>
       </c>
       <c r="V34" t="n">
-        <v>0.092</v>
+        <v>0.0924</v>
       </c>
       <c r="W34" t="n">
-        <v>0.0527</v>
+        <v>0.053</v>
       </c>
       <c r="X34" t="n">
         <v>0.228</v>
@@ -4946,40 +4946,40 @@
         <v>2.88</v>
       </c>
       <c r="AF34" t="n">
-        <v>1.0836</v>
+        <v>1.0913</v>
       </c>
       <c r="AG34" t="n">
-        <v>1.9372</v>
+        <v>1.9417</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.2982</v>
+        <v>0.2979</v>
       </c>
       <c r="AI34" t="n">
-        <v>0.9828</v>
+        <v>0.9873</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0.156</v>
+        <v>0.1556</v>
       </c>
       <c r="AK34" t="n">
-        <v>0.1953</v>
+        <v>0.195</v>
       </c>
       <c r="AL34" t="n">
-        <v>0.156</v>
+        <v>0.1556</v>
       </c>
       <c r="AM34" t="n">
-        <v>0.1953</v>
+        <v>0.195</v>
       </c>
       <c r="AN34" t="n">
-        <v>25.3912</v>
+        <v>25.5718</v>
       </c>
       <c r="AO34" t="n">
-        <v>45.3941</v>
+        <v>45.4976</v>
       </c>
       <c r="AP34" t="n">
-        <v>6.987</v>
+        <v>6.9805</v>
       </c>
       <c r="AQ34" t="n">
-        <v>23.0303</v>
+        <v>23.1339</v>
       </c>
     </row>
     <row r="35">
@@ -4987,25 +4987,25 @@
         <v>45416</v>
       </c>
       <c r="B35" t="n">
-        <v>3.6819</v>
+        <v>4.3979</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.762</v>
       </c>
       <c r="D35" t="n">
         <v>314.3333</v>
       </c>
       <c r="E35" t="n">
-        <v>20.5833</v>
+        <v>20.7222</v>
       </c>
       <c r="F35" t="n">
-        <v>64.3383</v>
+        <v>64.95829999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>2.4241</v>
+        <v>2.4449</v>
       </c>
       <c r="H35" t="n">
-        <v>15.596</v>
+        <v>15.8816</v>
       </c>
       <c r="I35" t="n">
         <v>0.7445000000000001</v>
@@ -5014,22 +5014,22 @@
         <v>124</v>
       </c>
       <c r="K35" t="n">
-        <v>97.54900000000001</v>
+        <v>97.55</v>
       </c>
       <c r="L35" t="n">
         <v>0.0648</v>
       </c>
       <c r="M35" t="n">
-        <v>0.8645</v>
+        <v>0.8567</v>
       </c>
       <c r="N35" t="n">
-        <v>0.1494</v>
+        <v>0.1505</v>
       </c>
       <c r="O35" t="n">
-        <v>14.0932</v>
+        <v>14.1462</v>
       </c>
       <c r="P35" t="n">
-        <v>0.1928</v>
+        <v>0.1981</v>
       </c>
       <c r="Q35" t="n">
         <v>18</v>
@@ -5047,10 +5047,10 @@
         <v>0.3275</v>
       </c>
       <c r="V35" t="n">
-        <v>0.1102</v>
+        <v>0.1132</v>
       </c>
       <c r="W35" t="n">
-        <v>0.0631</v>
+        <v>0.0649</v>
       </c>
       <c r="X35" t="n">
         <v>0.228</v>
@@ -5077,40 +5077,40 @@
         <v>2.98</v>
       </c>
       <c r="AF35" t="n">
-        <v>1.0836</v>
+        <v>1.0913</v>
       </c>
       <c r="AG35" t="n">
-        <v>1.9372</v>
+        <v>1.9417</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.2982</v>
+        <v>0.2979</v>
       </c>
       <c r="AI35" t="n">
-        <v>0.9828</v>
+        <v>0.9873</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0.1178</v>
+        <v>0.1448</v>
       </c>
       <c r="AK35" t="n">
-        <v>0.1649</v>
+        <v>0.1931</v>
       </c>
       <c r="AL35" t="n">
-        <v>0.1178</v>
+        <v>0.1448</v>
       </c>
       <c r="AM35" t="n">
-        <v>0.1649</v>
+        <v>0.1931</v>
       </c>
       <c r="AN35" t="n">
-        <v>24.8369</v>
+        <v>25.0136</v>
       </c>
       <c r="AO35" t="n">
-        <v>44.4032</v>
+        <v>44.5044</v>
       </c>
       <c r="AP35" t="n">
-        <v>6.8344</v>
+        <v>6.8281</v>
       </c>
       <c r="AQ35" t="n">
-        <v>22.5276</v>
+        <v>22.6289</v>
       </c>
     </row>
     <row r="36">
@@ -5118,25 +5118,25 @@
         <v>45417</v>
       </c>
       <c r="B36" t="n">
-        <v>6.1717</v>
+        <v>6.8833</v>
       </c>
       <c r="C36" t="n">
-        <v>0.762</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>290.9583</v>
       </c>
       <c r="E36" t="n">
-        <v>16.5438</v>
+        <v>16.3495</v>
       </c>
       <c r="F36" t="n">
-        <v>72.9098</v>
+        <v>72.375</v>
       </c>
       <c r="G36" t="n">
-        <v>1.8824</v>
+        <v>1.8593</v>
       </c>
       <c r="H36" t="n">
-        <v>13.7246</v>
+        <v>13.4565</v>
       </c>
       <c r="I36" t="n">
         <v>0.7445000000000001</v>
@@ -5145,22 +5145,22 @@
         <v>125</v>
       </c>
       <c r="K36" t="n">
-        <v>97.515</v>
+        <v>97.514</v>
       </c>
       <c r="L36" t="n">
         <v>0.0645</v>
       </c>
       <c r="M36" t="n">
-        <v>0.5099</v>
+        <v>0.5135999999999999</v>
       </c>
       <c r="N36" t="n">
-        <v>0.1197</v>
+        <v>0.1184</v>
       </c>
       <c r="O36" t="n">
-        <v>13.1599</v>
+        <v>13.1199</v>
       </c>
       <c r="P36" t="n">
-        <v>0.1524</v>
+        <v>0.1542</v>
       </c>
       <c r="Q36" t="n">
         <v>18</v>
@@ -5178,10 +5178,10 @@
         <v>0.3275</v>
       </c>
       <c r="V36" t="n">
-        <v>0.0871</v>
+        <v>0.0881</v>
       </c>
       <c r="W36" t="n">
-        <v>0.0499</v>
+        <v>0.0505</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -5208,16 +5208,16 @@
         <v>3.08</v>
       </c>
       <c r="AF36" t="n">
-        <v>1.1407</v>
+        <v>1.1794</v>
       </c>
       <c r="AG36" t="n">
-        <v>1.9572</v>
+        <v>1.9921</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.3553</v>
+        <v>0.386</v>
       </c>
       <c r="AI36" t="n">
-        <v>1.0028</v>
+        <v>1.0377</v>
       </c>
       <c r="AJ36" t="n">
         <v>0</v>
@@ -5232,16 +5232,16 @@
         <v>0</v>
       </c>
       <c r="AN36" t="n">
-        <v>25.5874</v>
+        <v>26.4551</v>
       </c>
       <c r="AO36" t="n">
-        <v>43.9015</v>
+        <v>44.6861</v>
       </c>
       <c r="AP36" t="n">
-        <v>7.9695</v>
+        <v>8.658099999999999</v>
       </c>
       <c r="AQ36" t="n">
-        <v>22.4933</v>
+        <v>23.2779</v>
       </c>
     </row>
     <row r="37">
@@ -5249,7 +5249,7 @@
         <v>45418</v>
       </c>
       <c r="B37" t="n">
-        <v>6.6212</v>
+        <v>7.7146</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -5258,16 +5258,16 @@
         <v>267.6042</v>
       </c>
       <c r="E37" t="n">
-        <v>17.8208</v>
+        <v>18.0023</v>
       </c>
       <c r="F37" t="n">
-        <v>69.9002</v>
+        <v>69.52079999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>2.0409</v>
+        <v>2.0643</v>
       </c>
       <c r="H37" t="n">
-        <v>14.2656</v>
+        <v>14.3511</v>
       </c>
       <c r="I37" t="n">
         <v>0.7445000000000001</v>
@@ -5276,22 +5276,22 @@
         <v>126</v>
       </c>
       <c r="K37" t="n">
-        <v>97.526</v>
+        <v>97.52800000000001</v>
       </c>
       <c r="L37" t="n">
         <v>0.0646</v>
       </c>
       <c r="M37" t="n">
-        <v>0.6143</v>
+        <v>0.6292</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1285</v>
+        <v>0.1298</v>
       </c>
       <c r="O37" t="n">
-        <v>12.2849</v>
+        <v>12.2872</v>
       </c>
       <c r="P37" t="n">
-        <v>0.1649</v>
+        <v>0.1711</v>
       </c>
       <c r="Q37" t="n">
         <v>19</v>
@@ -5309,10 +5309,10 @@
         <v>0.45</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1296</v>
+        <v>0.1344</v>
       </c>
       <c r="W37" t="n">
-        <v>0.0742</v>
+        <v>0.077</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -5339,16 +5339,16 @@
         <v>3.18</v>
       </c>
       <c r="AF37" t="n">
-        <v>1.2703</v>
+        <v>1.3138</v>
       </c>
       <c r="AG37" t="n">
-        <v>2.0314</v>
+        <v>2.0691</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.4849</v>
+        <v>0.5204</v>
       </c>
       <c r="AI37" t="n">
-        <v>1.077</v>
+        <v>1.1147</v>
       </c>
       <c r="AJ37" t="n">
         <v>0</v>
@@ -5363,16 +5363,16 @@
         <v>0</v>
       </c>
       <c r="AN37" t="n">
-        <v>27.8983</v>
+        <v>28.8539</v>
       </c>
       <c r="AO37" t="n">
-        <v>44.6134</v>
+        <v>45.4422</v>
       </c>
       <c r="AP37" t="n">
-        <v>10.649</v>
+        <v>11.4291</v>
       </c>
       <c r="AQ37" t="n">
-        <v>23.6529</v>
+        <v>24.4817</v>
       </c>
     </row>
     <row r="38">
@@ -5380,7 +5380,7 @@
         <v>45419</v>
       </c>
       <c r="B38" t="n">
-        <v>7.6698</v>
+        <v>8.722899999999999</v>
       </c>
       <c r="C38" t="n">
         <v>3.81</v>
@@ -5389,16 +5389,16 @@
         <v>211.2708</v>
       </c>
       <c r="E38" t="n">
-        <v>20.5562</v>
+        <v>20.5405</v>
       </c>
       <c r="F38" t="n">
-        <v>69.6135</v>
+        <v>69.8125</v>
       </c>
       <c r="G38" t="n">
-        <v>2.42</v>
+        <v>2.4177</v>
       </c>
       <c r="H38" t="n">
-        <v>16.8466</v>
+        <v>16.8784</v>
       </c>
       <c r="I38" t="n">
         <v>0.7445000000000001</v>
@@ -5413,16 +5413,16 @@
         <v>0.0648</v>
       </c>
       <c r="M38" t="n">
-        <v>0.7353</v>
+        <v>0.7299</v>
       </c>
       <c r="N38" t="n">
-        <v>0.1492</v>
+        <v>0.149</v>
       </c>
       <c r="O38" t="n">
-        <v>10.3415</v>
+        <v>10.3463</v>
       </c>
       <c r="P38" t="n">
-        <v>0.1752</v>
+        <v>0.1793</v>
       </c>
       <c r="Q38" t="n">
         <v>19</v>
@@ -5440,10 +5440,10 @@
         <v>0.45</v>
       </c>
       <c r="V38" t="n">
-        <v>0.1377</v>
+        <v>0.1408</v>
       </c>
       <c r="W38" t="n">
-        <v>0.0789</v>
+        <v>0.08069999999999999</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -5470,40 +5470,40 @@
         <v>3.28</v>
       </c>
       <c r="AF38" t="n">
-        <v>1.2703</v>
+        <v>1.3138</v>
       </c>
       <c r="AG38" t="n">
-        <v>2.0314</v>
+        <v>2.0691</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.4849</v>
+        <v>0.5204</v>
       </c>
       <c r="AI38" t="n">
-        <v>1.077</v>
+        <v>1.1147</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0.0123</v>
+        <v>0.0092</v>
       </c>
       <c r="AK38" t="n">
-        <v>0.0711</v>
+        <v>0.0693</v>
       </c>
       <c r="AL38" t="n">
-        <v>0.0123</v>
+        <v>0.0092</v>
       </c>
       <c r="AM38" t="n">
-        <v>0.0711</v>
+        <v>0.0693</v>
       </c>
       <c r="AN38" t="n">
-        <v>27.3268</v>
+        <v>28.2627</v>
       </c>
       <c r="AO38" t="n">
-        <v>43.6993</v>
+        <v>44.5112</v>
       </c>
       <c r="AP38" t="n">
-        <v>10.4308</v>
+        <v>11.195</v>
       </c>
       <c r="AQ38" t="n">
-        <v>23.1683</v>
+        <v>23.9802</v>
       </c>
     </row>
     <row r="39">
@@ -5511,7 +5511,7 @@
         <v>45420</v>
       </c>
       <c r="B39" t="n">
-        <v>3.4227</v>
+        <v>4.0938</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -5520,16 +5520,16 @@
         <v>245.1875</v>
       </c>
       <c r="E39" t="n">
-        <v>20.5562</v>
+        <v>20.6551</v>
       </c>
       <c r="F39" t="n">
-        <v>59.5346</v>
+        <v>59.5625</v>
       </c>
       <c r="G39" t="n">
-        <v>2.42</v>
+        <v>2.4348</v>
       </c>
       <c r="H39" t="n">
-        <v>14.4075</v>
+        <v>14.5023</v>
       </c>
       <c r="I39" t="n">
         <v>0.7445000000000001</v>
@@ -5538,22 +5538,22 @@
         <v>128</v>
       </c>
       <c r="K39" t="n">
-        <v>97.54900000000001</v>
+        <v>97.55</v>
       </c>
       <c r="L39" t="n">
         <v>0.0648</v>
       </c>
       <c r="M39" t="n">
-        <v>0.9792</v>
+        <v>0.9846</v>
       </c>
       <c r="N39" t="n">
-        <v>0.1492</v>
+        <v>0.15</v>
       </c>
       <c r="O39" t="n">
-        <v>11.2832</v>
+        <v>11.2926</v>
       </c>
       <c r="P39" t="n">
-        <v>0.1779</v>
+        <v>0.1867</v>
       </c>
       <c r="Q39" t="n">
         <v>19</v>
@@ -5571,10 +5571,10 @@
         <v>0.45</v>
       </c>
       <c r="V39" t="n">
-        <v>0.1397</v>
+        <v>0.1467</v>
       </c>
       <c r="W39" t="n">
-        <v>0.08</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -5601,16 +5601,16 @@
         <v>3.38</v>
       </c>
       <c r="AF39" t="n">
-        <v>1.41</v>
+        <v>1.4605</v>
       </c>
       <c r="AG39" t="n">
-        <v>2.1114</v>
+        <v>2.1531</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.6246</v>
+        <v>0.6671</v>
       </c>
       <c r="AI39" t="n">
-        <v>1.157</v>
+        <v>1.1987</v>
       </c>
       <c r="AJ39" t="n">
         <v>0</v>
@@ -5625,16 +5625,16 @@
         <v>0</v>
       </c>
       <c r="AN39" t="n">
-        <v>29.7239</v>
+        <v>30.787</v>
       </c>
       <c r="AO39" t="n">
-        <v>44.5091</v>
+        <v>45.3883</v>
       </c>
       <c r="AP39" t="n">
-        <v>13.1671</v>
+        <v>14.0619</v>
       </c>
       <c r="AQ39" t="n">
-        <v>24.3903</v>
+        <v>25.2694</v>
       </c>
     </row>
     <row r="40">
@@ -5642,7 +5642,7 @@
         <v>45421</v>
       </c>
       <c r="B40" t="n">
-        <v>6.8358</v>
+        <v>7.9292</v>
       </c>
       <c r="C40" t="n">
         <v>5.588</v>
@@ -5651,16 +5651,16 @@
         <v>51.4167</v>
       </c>
       <c r="E40" t="n">
-        <v>15.3604</v>
+        <v>15.0174</v>
       </c>
       <c r="F40" t="n">
-        <v>88.0052</v>
+        <v>88.79170000000001</v>
       </c>
       <c r="G40" t="n">
-        <v>1.7453</v>
+        <v>1.7073</v>
       </c>
       <c r="H40" t="n">
-        <v>15.3597</v>
+        <v>15.159</v>
       </c>
       <c r="I40" t="n">
         <v>0.7445000000000001</v>
@@ -5669,22 +5669,22 @@
         <v>129</v>
       </c>
       <c r="K40" t="n">
-        <v>97.505</v>
+        <v>97.502</v>
       </c>
       <c r="L40" t="n">
         <v>0.0644</v>
       </c>
       <c r="M40" t="n">
-        <v>0.2093</v>
+        <v>0.1914</v>
       </c>
       <c r="N40" t="n">
-        <v>0.112</v>
+        <v>0.1099</v>
       </c>
       <c r="O40" t="n">
-        <v>4.0322</v>
+        <v>4.0334</v>
       </c>
       <c r="P40" t="n">
-        <v>0.0529</v>
+        <v>0.0512</v>
       </c>
       <c r="Q40" t="n">
         <v>19</v>
@@ -5702,10 +5702,10 @@
         <v>0.45</v>
       </c>
       <c r="V40" t="n">
-        <v>0.0415</v>
+        <v>0.0403</v>
       </c>
       <c r="W40" t="n">
-        <v>0.0238</v>
+        <v>0.0231</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -5732,40 +5732,40 @@
         <v>3.48</v>
       </c>
       <c r="AF40" t="n">
-        <v>1.41</v>
+        <v>1.4605</v>
       </c>
       <c r="AG40" t="n">
-        <v>2.1114</v>
+        <v>2.1531</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.6246</v>
+        <v>0.6671</v>
       </c>
       <c r="AI40" t="n">
-        <v>1.157</v>
+        <v>1.1987</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0.1785</v>
+        <v>0.1797</v>
       </c>
       <c r="AK40" t="n">
-        <v>0.1962</v>
+        <v>0.1969</v>
       </c>
       <c r="AL40" t="n">
-        <v>0.1785</v>
+        <v>0.1797</v>
       </c>
       <c r="AM40" t="n">
-        <v>0.1962</v>
+        <v>0.1969</v>
       </c>
       <c r="AN40" t="n">
-        <v>29.1389</v>
+        <v>30.181</v>
       </c>
       <c r="AO40" t="n">
-        <v>43.6331</v>
+        <v>44.495</v>
       </c>
       <c r="AP40" t="n">
-        <v>12.908</v>
+        <v>13.7851</v>
       </c>
       <c r="AQ40" t="n">
-        <v>23.9103</v>
+        <v>24.7721</v>
       </c>
     </row>
     <row r="41">
@@ -5773,7 +5773,7 @@
         <v>45422</v>
       </c>
       <c r="B41" t="n">
-        <v>5.3204</v>
+        <v>6.0208</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -5782,16 +5782,16 @@
         <v>258.5625</v>
       </c>
       <c r="E41" t="n">
-        <v>14.0375</v>
+        <v>14.1146</v>
       </c>
       <c r="F41" t="n">
-        <v>73.5025</v>
+        <v>72.77079999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>1.6025</v>
+        <v>1.6105</v>
       </c>
       <c r="H41" t="n">
-        <v>11.7788</v>
+        <v>11.72</v>
       </c>
       <c r="I41" t="n">
         <v>0.7445000000000001</v>
@@ -5800,22 +5800,22 @@
         <v>130</v>
       </c>
       <c r="K41" t="n">
-        <v>97.494</v>
+        <v>97.495</v>
       </c>
       <c r="L41" t="n">
         <v>0.0643</v>
       </c>
       <c r="M41" t="n">
-        <v>0.4246</v>
+        <v>0.4385</v>
       </c>
       <c r="N41" t="n">
-        <v>0.104</v>
+        <v>0.1044</v>
       </c>
       <c r="O41" t="n">
-        <v>11.7912</v>
+        <v>11.7744</v>
       </c>
       <c r="P41" t="n">
-        <v>0.1278</v>
+        <v>0.1313</v>
       </c>
       <c r="Q41" t="n">
         <v>19</v>
@@ -5833,10 +5833,10 @@
         <v>0.45</v>
       </c>
       <c r="V41" t="n">
-        <v>0.1004</v>
+        <v>0.1032</v>
       </c>
       <c r="W41" t="n">
-        <v>0.0575</v>
+        <v>0.0591</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -5863,16 +5863,16 @@
         <v>3.58</v>
       </c>
       <c r="AF41" t="n">
-        <v>1.5105</v>
+        <v>1.5637</v>
       </c>
       <c r="AG41" t="n">
-        <v>2.1689</v>
+        <v>2.2122</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.7251</v>
+        <v>0.7703</v>
       </c>
       <c r="AI41" t="n">
-        <v>1.2145</v>
+        <v>1.2578</v>
       </c>
       <c r="AJ41" t="n">
         <v>0</v>
@@ -5887,16 +5887,16 @@
         <v>0</v>
       </c>
       <c r="AN41" t="n">
-        <v>30.6119</v>
+        <v>31.6899</v>
       </c>
       <c r="AO41" t="n">
-        <v>43.9567</v>
+        <v>44.8339</v>
       </c>
       <c r="AP41" t="n">
-        <v>14.6943</v>
+        <v>15.6104</v>
       </c>
       <c r="AQ41" t="n">
-        <v>24.6145</v>
+        <v>25.4917</v>
       </c>
     </row>
     <row r="42">
@@ -5904,7 +5904,7 @@
         <v>45423</v>
       </c>
       <c r="B42" t="n">
-        <v>10.1967</v>
+        <v>11.5312</v>
       </c>
       <c r="C42" t="n">
         <v>1.016</v>
@@ -5913,16 +5913,16 @@
         <v>335.5833</v>
       </c>
       <c r="E42" t="n">
-        <v>16.3792</v>
+        <v>16.2708</v>
       </c>
       <c r="F42" t="n">
-        <v>57.0688</v>
+        <v>57.1458</v>
       </c>
       <c r="G42" t="n">
-        <v>1.8628</v>
+        <v>1.85</v>
       </c>
       <c r="H42" t="n">
-        <v>10.6307</v>
+        <v>10.5719</v>
       </c>
       <c r="I42" t="n">
         <v>0.7445000000000001</v>
@@ -5931,22 +5931,22 @@
         <v>131</v>
       </c>
       <c r="K42" t="n">
-        <v>97.514</v>
+        <v>97.51300000000001</v>
       </c>
       <c r="L42" t="n">
         <v>0.0645</v>
       </c>
       <c r="M42" t="n">
-        <v>0.7997</v>
+        <v>0.7927999999999999</v>
       </c>
       <c r="N42" t="n">
-        <v>0.1186</v>
+        <v>0.1179</v>
       </c>
       <c r="O42" t="n">
-        <v>14.0835</v>
+        <v>14.0791</v>
       </c>
       <c r="P42" t="n">
-        <v>0.2208</v>
+        <v>0.224</v>
       </c>
       <c r="Q42" t="n">
         <v>19</v>
@@ -5964,10 +5964,10 @@
         <v>0.45</v>
       </c>
       <c r="V42" t="n">
-        <v>0.1735</v>
+        <v>0.176</v>
       </c>
       <c r="W42" t="n">
-        <v>0.0994</v>
+        <v>0.1008</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -5994,16 +5994,16 @@
         <v>3.68</v>
       </c>
       <c r="AF42" t="n">
-        <v>1.644</v>
+        <v>1.6996</v>
       </c>
       <c r="AG42" t="n">
-        <v>2.2283</v>
+        <v>2.273</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.8586</v>
+        <v>0.9062</v>
       </c>
       <c r="AI42" t="n">
-        <v>1.2739</v>
+        <v>1.3186</v>
       </c>
       <c r="AJ42" t="n">
         <v>0</v>
@@ -6018,16 +6018,16 @@
         <v>0</v>
       </c>
       <c r="AN42" t="n">
-        <v>32.6867</v>
+        <v>33.7931</v>
       </c>
       <c r="AO42" t="n">
-        <v>44.3048</v>
+        <v>45.1934</v>
       </c>
       <c r="AP42" t="n">
-        <v>17.0705</v>
+        <v>18.0181</v>
       </c>
       <c r="AQ42" t="n">
-        <v>25.3289</v>
+        <v>26.2175</v>
       </c>
     </row>
     <row r="43">
@@ -6035,7 +6035,7 @@
         <v>45424</v>
       </c>
       <c r="B43" t="n">
-        <v>4.6812</v>
+        <v>5.5646</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -6044,16 +6044,16 @@
         <v>347.75</v>
       </c>
       <c r="E43" t="n">
-        <v>18.2646</v>
+        <v>18.603</v>
       </c>
       <c r="F43" t="n">
-        <v>54.8267</v>
+        <v>53.8125</v>
       </c>
       <c r="G43" t="n">
-        <v>2.0986</v>
+        <v>2.1436</v>
       </c>
       <c r="H43" t="n">
-        <v>11.5058</v>
+        <v>11.535</v>
       </c>
       <c r="I43" t="n">
         <v>0.7445000000000001</v>
@@ -6062,22 +6062,22 @@
         <v>132</v>
       </c>
       <c r="K43" t="n">
-        <v>97.53</v>
+        <v>97.533</v>
       </c>
       <c r="L43" t="n">
         <v>0.0646</v>
       </c>
       <c r="M43" t="n">
-        <v>0.948</v>
+        <v>0.9901</v>
       </c>
       <c r="N43" t="n">
-        <v>0.1317</v>
+        <v>0.1341</v>
       </c>
       <c r="O43" t="n">
-        <v>14.5512</v>
+        <v>14.5199</v>
       </c>
       <c r="P43" t="n">
-        <v>0.2142</v>
+        <v>0.2272</v>
       </c>
       <c r="Q43" t="n">
         <v>19</v>
@@ -6095,10 +6095,10 @@
         <v>0.45</v>
       </c>
       <c r="V43" t="n">
-        <v>0.1683</v>
+        <v>0.1785</v>
       </c>
       <c r="W43" t="n">
-        <v>0.0964</v>
+        <v>0.1023</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -6125,16 +6125,16 @@
         <v>3.78</v>
       </c>
       <c r="AF43" t="n">
-        <v>1.8123</v>
+        <v>1.8782</v>
       </c>
       <c r="AG43" t="n">
-        <v>2.3247</v>
+        <v>2.3753</v>
       </c>
       <c r="AH43" t="n">
-        <v>1.0269</v>
+        <v>1.0848</v>
       </c>
       <c r="AI43" t="n">
-        <v>1.3703</v>
+        <v>1.4209</v>
       </c>
       <c r="AJ43" t="n">
         <v>0</v>
@@ -6149,16 +6149,16 @@
         <v>0</v>
       </c>
       <c r="AN43" t="n">
-        <v>35.364</v>
+        <v>36.6488</v>
       </c>
       <c r="AO43" t="n">
-        <v>45.3627</v>
+        <v>46.3488</v>
       </c>
       <c r="AP43" t="n">
-        <v>20.038</v>
+        <v>21.167</v>
       </c>
       <c r="AQ43" t="n">
-        <v>26.7394</v>
+        <v>27.7255</v>
       </c>
     </row>
     <row r="44">
@@ -6166,7 +6166,7 @@
         <v>45425</v>
       </c>
       <c r="B44" t="n">
-        <v>6.1033</v>
+        <v>7.2188</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -6175,16 +6175,16 @@
         <v>245.9792</v>
       </c>
       <c r="E44" t="n">
-        <v>20.6958</v>
+        <v>20.6273</v>
       </c>
       <c r="F44" t="n">
-        <v>55.8779</v>
+        <v>57.2083</v>
       </c>
       <c r="G44" t="n">
-        <v>2.4409</v>
+        <v>2.4306</v>
       </c>
       <c r="H44" t="n">
-        <v>13.6393</v>
+        <v>13.9053</v>
       </c>
       <c r="I44" t="n">
         <v>0.7445000000000001</v>
@@ -6193,22 +6193,22 @@
         <v>133</v>
       </c>
       <c r="K44" t="n">
-        <v>97.55</v>
+        <v>97.54900000000001</v>
       </c>
       <c r="L44" t="n">
         <v>0.0648</v>
       </c>
       <c r="M44" t="n">
-        <v>1.077</v>
+        <v>1.0401</v>
       </c>
       <c r="N44" t="n">
-        <v>0.1503</v>
+        <v>0.1497</v>
       </c>
       <c r="O44" t="n">
-        <v>11.1914</v>
+        <v>11.2427</v>
       </c>
       <c r="P44" t="n">
-        <v>0.2192</v>
+        <v>0.2247</v>
       </c>
       <c r="Q44" t="n">
         <v>20</v>
@@ -6226,10 +6226,10 @@
         <v>0.5775</v>
       </c>
       <c r="V44" t="n">
-        <v>0.2082</v>
+        <v>0.2135</v>
       </c>
       <c r="W44" t="n">
-        <v>0.1266</v>
+        <v>0.1298</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -6256,16 +6256,16 @@
         <v>3.88</v>
       </c>
       <c r="AF44" t="n">
-        <v>2.0205</v>
+        <v>2.0917</v>
       </c>
       <c r="AG44" t="n">
-        <v>2.4513</v>
+        <v>2.5051</v>
       </c>
       <c r="AH44" t="n">
-        <v>1.2351</v>
+        <v>1.2983</v>
       </c>
       <c r="AI44" t="n">
-        <v>1.4969</v>
+        <v>1.5507</v>
       </c>
       <c r="AJ44" t="n">
         <v>0</v>
@@ -6280,16 +6280,16 @@
         <v>0</v>
       </c>
       <c r="AN44" t="n">
-        <v>38.7072</v>
+        <v>40.0703</v>
       </c>
       <c r="AO44" t="n">
-        <v>46.9596</v>
+        <v>47.9895</v>
       </c>
       <c r="AP44" t="n">
-        <v>23.6608</v>
+        <v>24.8709</v>
       </c>
       <c r="AQ44" t="n">
-        <v>28.6761</v>
+        <v>29.706</v>
       </c>
     </row>
     <row r="45">
@@ -6297,7 +6297,7 @@
         <v>45426</v>
       </c>
       <c r="B45" t="n">
-        <v>4.7546</v>
+        <v>5.2583</v>
       </c>
       <c r="C45" t="n">
         <v>0.254</v>
@@ -6306,16 +6306,16 @@
         <v>119.0833</v>
       </c>
       <c r="E45" t="n">
-        <v>17.9479</v>
+        <v>17.9051</v>
       </c>
       <c r="F45" t="n">
-        <v>82.52249999999999</v>
+        <v>83.04170000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>2.0572</v>
+        <v>2.0517</v>
       </c>
       <c r="H45" t="n">
-        <v>16.9769</v>
+        <v>17.0377</v>
       </c>
       <c r="I45" t="n">
         <v>0.7445000000000001</v>
@@ -6330,13 +6330,13 @@
         <v>0.0646</v>
       </c>
       <c r="M45" t="n">
-        <v>0.3595</v>
+        <v>0.3479</v>
       </c>
       <c r="N45" t="n">
-        <v>0.1294</v>
+        <v>0.1291</v>
       </c>
       <c r="O45" t="n">
-        <v>6.7699</v>
+        <v>6.7729</v>
       </c>
       <c r="P45" t="n">
         <v>0.08699999999999999</v>
@@ -6357,10 +6357,10 @@
         <v>0.5775</v>
       </c>
       <c r="V45" t="n">
-        <v>0.0827</v>
+        <v>0.08260000000000001</v>
       </c>
       <c r="W45" t="n">
-        <v>0.0503</v>
+        <v>0.0502</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -6387,16 +6387,16 @@
         <v>3.98</v>
       </c>
       <c r="AF45" t="n">
-        <v>2.0932</v>
+        <v>2.1643</v>
       </c>
       <c r="AG45" t="n">
-        <v>2.4916</v>
+        <v>2.5453</v>
       </c>
       <c r="AH45" t="n">
-        <v>1.3078</v>
+        <v>1.3709</v>
       </c>
       <c r="AI45" t="n">
-        <v>1.5372</v>
+        <v>1.5909</v>
       </c>
       <c r="AJ45" t="n">
         <v>0</v>
@@ -6411,16 +6411,16 @@
         <v>0</v>
       </c>
       <c r="AN45" t="n">
-        <v>40.0994</v>
+        <v>41.4619</v>
       </c>
       <c r="AO45" t="n">
-        <v>47.7308</v>
+        <v>48.7603</v>
       </c>
       <c r="AP45" t="n">
-        <v>25.053</v>
+        <v>26.2625</v>
       </c>
       <c r="AQ45" t="n">
-        <v>29.4473</v>
+        <v>30.4768</v>
       </c>
     </row>
     <row r="46">
@@ -6428,7 +6428,7 @@
         <v>45427</v>
       </c>
       <c r="B46" t="n">
-        <v>6.815</v>
+        <v>7.85</v>
       </c>
       <c r="C46" t="n">
         <v>5.842</v>
@@ -6437,16 +6437,16 @@
         <v>168.0208</v>
       </c>
       <c r="E46" t="n">
-        <v>17.5021</v>
+        <v>17.3889</v>
       </c>
       <c r="F46" t="n">
-        <v>85.4688</v>
+        <v>84.875</v>
       </c>
       <c r="G46" t="n">
-        <v>2.0003</v>
+        <v>1.986</v>
       </c>
       <c r="H46" t="n">
-        <v>17.0959</v>
+        <v>16.8562</v>
       </c>
       <c r="I46" t="n">
         <v>0.7445000000000001</v>
@@ -6455,22 +6455,22 @@
         <v>135</v>
       </c>
       <c r="K46" t="n">
-        <v>97.523</v>
+        <v>97.52200000000001</v>
       </c>
       <c r="L46" t="n">
         <v>0.0646</v>
       </c>
       <c r="M46" t="n">
-        <v>0.2907</v>
+        <v>0.3004</v>
       </c>
       <c r="N46" t="n">
-        <v>0.1263</v>
+        <v>0.1255</v>
       </c>
       <c r="O46" t="n">
-        <v>8.7819</v>
+        <v>8.766</v>
       </c>
       <c r="P46" t="n">
-        <v>0.09370000000000001</v>
+        <v>0.0959</v>
       </c>
       <c r="Q46" t="n">
         <v>20</v>
@@ -6488,10 +6488,10 @@
         <v>0.5775</v>
       </c>
       <c r="V46" t="n">
-        <v>0.089</v>
+        <v>0.0911</v>
       </c>
       <c r="W46" t="n">
-        <v>0.0541</v>
+        <v>0.0554</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -6518,40 +6518,40 @@
         <v>4.0771</v>
       </c>
       <c r="AF46" t="n">
-        <v>2.0932</v>
+        <v>2.1643</v>
       </c>
       <c r="AG46" t="n">
-        <v>2.4916</v>
+        <v>2.5453</v>
       </c>
       <c r="AH46" t="n">
-        <v>1.3078</v>
+        <v>1.3709</v>
       </c>
       <c r="AI46" t="n">
-        <v>1.5372</v>
+        <v>1.5909</v>
       </c>
       <c r="AJ46" t="n">
-        <v>0.141</v>
+        <v>0.1389</v>
       </c>
       <c r="AK46" t="n">
-        <v>0.1759</v>
+        <v>0.1746</v>
       </c>
       <c r="AL46" t="n">
-        <v>0.141</v>
+        <v>0.1389</v>
       </c>
       <c r="AM46" t="n">
-        <v>0.1759</v>
+        <v>0.1746</v>
       </c>
       <c r="AN46" t="n">
-        <v>40.0994</v>
+        <v>41.4619</v>
       </c>
       <c r="AO46" t="n">
-        <v>47.7308</v>
+        <v>48.7603</v>
       </c>
       <c r="AP46" t="n">
-        <v>25.053</v>
+        <v>26.2625</v>
       </c>
       <c r="AQ46" t="n">
-        <v>29.4473</v>
+        <v>30.4768</v>
       </c>
     </row>
     <row r="47">
@@ -6559,7 +6559,7 @@
         <v>45428</v>
       </c>
       <c r="B47" t="n">
-        <v>3.8673</v>
+        <v>4.3792</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -6568,16 +6568,16 @@
         <v>188.0833</v>
       </c>
       <c r="E47" t="n">
-        <v>17.225</v>
+        <v>17.3981</v>
       </c>
       <c r="F47" t="n">
-        <v>79.62730000000001</v>
+        <v>80</v>
       </c>
       <c r="G47" t="n">
-        <v>1.9655</v>
+        <v>1.9872</v>
       </c>
       <c r="H47" t="n">
-        <v>15.651</v>
+        <v>15.8973</v>
       </c>
       <c r="I47" t="n">
         <v>0.7445000000000001</v>
@@ -6586,22 +6586,22 @@
         <v>136</v>
       </c>
       <c r="K47" t="n">
-        <v>97.521</v>
+        <v>97.523</v>
       </c>
       <c r="L47" t="n">
         <v>0.0646</v>
       </c>
       <c r="M47" t="n">
-        <v>0.4004</v>
+        <v>0.3975</v>
       </c>
       <c r="N47" t="n">
-        <v>0.1243</v>
+        <v>0.1255</v>
       </c>
       <c r="O47" t="n">
-        <v>9.4682</v>
+        <v>9.4863</v>
       </c>
       <c r="P47" t="n">
-        <v>0.1082</v>
+        <v>0.1095</v>
       </c>
       <c r="Q47" t="n">
         <v>20</v>
@@ -6619,10 +6619,10 @@
         <v>0.5775</v>
       </c>
       <c r="V47" t="n">
-        <v>0.1028</v>
+        <v>0.104</v>
       </c>
       <c r="W47" t="n">
-        <v>0.0625</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="X47" t="n">
         <v>0</v>
@@ -6649,16 +6649,16 @@
         <v>4.1724</v>
       </c>
       <c r="AF47" t="n">
-        <v>2.196</v>
+        <v>2.2683</v>
       </c>
       <c r="AG47" t="n">
-        <v>2.554</v>
+        <v>2.6085</v>
       </c>
       <c r="AH47" t="n">
-        <v>1.4106</v>
+        <v>1.4749</v>
       </c>
       <c r="AI47" t="n">
-        <v>1.5996</v>
+        <v>1.6541</v>
       </c>
       <c r="AJ47" t="n">
         <v>0</v>
@@ -6673,16 +6673,16 @@
         <v>0</v>
       </c>
       <c r="AN47" t="n">
-        <v>42.0689</v>
+        <v>43.4545</v>
       </c>
       <c r="AO47" t="n">
-        <v>48.9281</v>
+        <v>49.9716</v>
       </c>
       <c r="AP47" t="n">
-        <v>27.0225</v>
+        <v>28.2551</v>
       </c>
       <c r="AQ47" t="n">
-        <v>30.6446</v>
+        <v>31.6881</v>
       </c>
     </row>
     <row r="48">
@@ -6690,7 +6690,7 @@
         <v>45429</v>
       </c>
       <c r="B48" t="n">
-        <v>3.5915</v>
+        <v>4.1583</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -6699,16 +6699,16 @@
         <v>278.6875</v>
       </c>
       <c r="E48" t="n">
-        <v>20.5875</v>
+        <v>20.6389</v>
       </c>
       <c r="F48" t="n">
-        <v>76.9448</v>
+        <v>76.625</v>
       </c>
       <c r="G48" t="n">
-        <v>2.4247</v>
+        <v>2.4324</v>
       </c>
       <c r="H48" t="n">
-        <v>18.6567</v>
+        <v>18.6381</v>
       </c>
       <c r="I48" t="n">
         <v>0.7445000000000001</v>
@@ -6717,22 +6717,22 @@
         <v>137</v>
       </c>
       <c r="K48" t="n">
-        <v>97.54900000000001</v>
+        <v>97.55</v>
       </c>
       <c r="L48" t="n">
         <v>0.0648</v>
       </c>
       <c r="M48" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5686</v>
       </c>
       <c r="N48" t="n">
-        <v>0.1494</v>
+        <v>0.1498</v>
       </c>
       <c r="O48" t="n">
-        <v>13.3657</v>
+        <v>13.3588</v>
       </c>
       <c r="P48" t="n">
-        <v>0.1568</v>
+        <v>0.1595</v>
       </c>
       <c r="Q48" t="n">
         <v>20</v>
@@ -6750,10 +6750,10 @@
         <v>0.5775</v>
       </c>
       <c r="V48" t="n">
-        <v>0.149</v>
+        <v>0.1515</v>
       </c>
       <c r="W48" t="n">
-        <v>0.0906</v>
+        <v>0.0921</v>
       </c>
       <c r="X48" t="n">
         <v>0</v>
@@ -6780,16 +6780,16 @@
         <v>4.2676</v>
       </c>
       <c r="AF48" t="n">
-        <v>2.345</v>
+        <v>2.4199</v>
       </c>
       <c r="AG48" t="n">
-        <v>2.6446</v>
+        <v>2.7006</v>
       </c>
       <c r="AH48" t="n">
-        <v>1.5595</v>
+        <v>1.6264</v>
       </c>
       <c r="AI48" t="n">
-        <v>1.6902</v>
+        <v>1.7462</v>
       </c>
       <c r="AJ48" t="n">
         <v>0</v>
@@ -6804,16 +6804,16 @@
         <v>0</v>
       </c>
       <c r="AN48" t="n">
-        <v>44.9225</v>
+        <v>46.3574</v>
       </c>
       <c r="AO48" t="n">
-        <v>50.6628</v>
+        <v>51.7363</v>
       </c>
       <c r="AP48" t="n">
-        <v>29.8761</v>
+        <v>31.158</v>
       </c>
       <c r="AQ48" t="n">
-        <v>32.3792</v>
+        <v>33.4527</v>
       </c>
     </row>
     <row r="49">
@@ -6821,7 +6821,7 @@
         <v>45430</v>
       </c>
       <c r="B49" t="n">
-        <v>3.28</v>
+        <v>3.7729</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -6830,16 +6830,16 @@
         <v>287.9167</v>
       </c>
       <c r="E49" t="n">
-        <v>22.6271</v>
+        <v>22.6481</v>
       </c>
       <c r="F49" t="n">
-        <v>69.5354</v>
+        <v>69.35420000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>2.7467</v>
+        <v>2.7502</v>
       </c>
       <c r="H49" t="n">
-        <v>19.0992</v>
+        <v>19.0738</v>
       </c>
       <c r="I49" t="n">
         <v>0.7445000000000001</v>
@@ -6854,16 +6854,16 @@
         <v>0.0649</v>
       </c>
       <c r="M49" t="n">
-        <v>0.8368</v>
+        <v>0.8428</v>
       </c>
       <c r="N49" t="n">
-        <v>0.1666</v>
+        <v>0.1668</v>
       </c>
       <c r="O49" t="n">
-        <v>13.6799</v>
+        <v>13.6735</v>
       </c>
       <c r="P49" t="n">
-        <v>0.1842</v>
+        <v>0.1885</v>
       </c>
       <c r="Q49" t="n">
         <v>20</v>
@@ -6881,10 +6881,10 @@
         <v>0.5775</v>
       </c>
       <c r="V49" t="n">
-        <v>0.175</v>
+        <v>0.1791</v>
       </c>
       <c r="W49" t="n">
-        <v>0.1064</v>
+        <v>0.1089</v>
       </c>
       <c r="X49" t="n">
         <v>0</v>
@@ -6911,16 +6911,16 @@
         <v>4.3629</v>
       </c>
       <c r="AF49" t="n">
-        <v>2.5199</v>
+        <v>2.5989</v>
       </c>
       <c r="AG49" t="n">
-        <v>2.751</v>
+        <v>2.8095</v>
       </c>
       <c r="AH49" t="n">
-        <v>1.7345</v>
+        <v>1.8055</v>
       </c>
       <c r="AI49" t="n">
-        <v>1.7966</v>
+        <v>1.8551</v>
       </c>
       <c r="AJ49" t="n">
         <v>0</v>
@@ -6935,16 +6935,16 @@
         <v>0</v>
       </c>
       <c r="AN49" t="n">
-        <v>48.2743</v>
+        <v>49.7882</v>
       </c>
       <c r="AO49" t="n">
-        <v>52.7003</v>
+        <v>53.8219</v>
       </c>
       <c r="AP49" t="n">
-        <v>33.2279</v>
+        <v>34.5888</v>
       </c>
       <c r="AQ49" t="n">
-        <v>34.4167</v>
+        <v>35.5383</v>
       </c>
     </row>
     <row r="50">
@@ -6952,7 +6952,7 @@
         <v>45431</v>
       </c>
       <c r="B50" t="n">
-        <v>5.0131</v>
+        <v>5.725</v>
       </c>
       <c r="C50" t="n">
         <v>0.762</v>
@@ -6961,16 +6961,16 @@
         <v>263.6458</v>
       </c>
       <c r="E50" t="n">
-        <v>23.7</v>
+        <v>23.7095</v>
       </c>
       <c r="F50" t="n">
-        <v>66.5073</v>
+        <v>67.04170000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>2.9306</v>
+        <v>2.9323</v>
       </c>
       <c r="H50" t="n">
-        <v>19.4907</v>
+        <v>19.6585</v>
       </c>
       <c r="I50" t="n">
         <v>0.7445000000000001</v>
@@ -6979,22 +6979,22 @@
         <v>139</v>
       </c>
       <c r="K50" t="n">
-        <v>97.574</v>
+        <v>97.575</v>
       </c>
       <c r="L50" t="n">
         <v>0.065</v>
       </c>
       <c r="M50" t="n">
-        <v>0.9815</v>
+        <v>0.9664</v>
       </c>
       <c r="N50" t="n">
-        <v>0.1763</v>
+        <v>0.1764</v>
       </c>
       <c r="O50" t="n">
-        <v>12.6856</v>
+        <v>12.7132</v>
       </c>
       <c r="P50" t="n">
-        <v>0.2045</v>
+        <v>0.2089</v>
       </c>
       <c r="Q50" t="n">
         <v>20</v>
@@ -7012,10 +7012,10 @@
         <v>0.5775</v>
       </c>
       <c r="V50" t="n">
-        <v>0.1943</v>
+        <v>0.1985</v>
       </c>
       <c r="W50" t="n">
-        <v>0.1181</v>
+        <v>0.1206</v>
       </c>
       <c r="X50" t="n">
         <v>0</v>
@@ -7042,16 +7042,16 @@
         <v>4.4581</v>
       </c>
       <c r="AF50" t="n">
-        <v>2.6842</v>
+        <v>2.7674</v>
       </c>
       <c r="AG50" t="n">
-        <v>2.8391</v>
+        <v>2.9001</v>
       </c>
       <c r="AH50" t="n">
-        <v>1.8988</v>
+        <v>1.974</v>
       </c>
       <c r="AI50" t="n">
-        <v>1.8847</v>
+        <v>1.9457</v>
       </c>
       <c r="AJ50" t="n">
         <v>0</v>
@@ -7066,16 +7066,16 @@
         <v>0</v>
       </c>
       <c r="AN50" t="n">
-        <v>51.4218</v>
+        <v>53.0154</v>
       </c>
       <c r="AO50" t="n">
-        <v>54.3883</v>
+        <v>55.5583</v>
       </c>
       <c r="AP50" t="n">
-        <v>36.3754</v>
+        <v>37.8161</v>
       </c>
       <c r="AQ50" t="n">
-        <v>36.1047</v>
+        <v>37.2748</v>
       </c>
     </row>
     <row r="51">
@@ -7083,7 +7083,7 @@
         <v>45432</v>
       </c>
       <c r="B51" t="n">
-        <v>6.2042</v>
+        <v>7.1875</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -7092,16 +7092,16 @@
         <v>317.0417</v>
       </c>
       <c r="E51" t="n">
-        <v>24.4771</v>
+        <v>24.5949</v>
       </c>
       <c r="F51" t="n">
-        <v>62.7127</v>
+        <v>61.6667</v>
       </c>
       <c r="G51" t="n">
-        <v>3.0704</v>
+        <v>3.0921</v>
       </c>
       <c r="H51" t="n">
-        <v>19.2556</v>
+        <v>19.0682</v>
       </c>
       <c r="I51" t="n">
         <v>0.7445000000000001</v>
@@ -7110,22 +7110,22 @@
         <v>140</v>
       </c>
       <c r="K51" t="n">
-        <v>97.581</v>
+        <v>97.58199999999999</v>
       </c>
       <c r="L51" t="n">
-        <v>0.065</v>
+        <v>0.06510000000000001</v>
       </c>
       <c r="M51" t="n">
-        <v>1.1448</v>
+        <v>1.1853</v>
       </c>
       <c r="N51" t="n">
-        <v>0.1836</v>
+        <v>0.1847</v>
       </c>
       <c r="O51" t="n">
-        <v>14.7502</v>
+        <v>14.6988</v>
       </c>
       <c r="P51" t="n">
-        <v>0.2497</v>
+        <v>0.2627</v>
       </c>
       <c r="Q51" t="n">
         <v>21</v>
@@ -7143,10 +7143,10 @@
         <v>0.73</v>
       </c>
       <c r="V51" t="n">
-        <v>0.2382</v>
+        <v>0.2507</v>
       </c>
       <c r="W51" t="n">
-        <v>0.1823</v>
+        <v>0.1918</v>
       </c>
       <c r="X51" t="n">
         <v>0</v>
@@ -7173,16 +7173,16 @@
         <v>4.5533</v>
       </c>
       <c r="AF51" t="n">
-        <v>2.9224</v>
+        <v>3.0181</v>
       </c>
       <c r="AG51" t="n">
-        <v>3.0213</v>
+        <v>3.0919</v>
       </c>
       <c r="AH51" t="n">
-        <v>2.137</v>
+        <v>2.2247</v>
       </c>
       <c r="AI51" t="n">
-        <v>2.0669</v>
+        <v>2.1375</v>
       </c>
       <c r="AJ51" t="n">
         <v>0</v>
@@ -7197,16 +7197,16 @@
         <v>0</v>
       </c>
       <c r="AN51" t="n">
-        <v>55.9854</v>
+        <v>57.8179</v>
       </c>
       <c r="AO51" t="n">
-        <v>57.8798</v>
+        <v>59.2325</v>
       </c>
       <c r="AP51" t="n">
-        <v>40.939</v>
+        <v>42.6185</v>
       </c>
       <c r="AQ51" t="n">
-        <v>39.5963</v>
+        <v>40.949</v>
       </c>
     </row>
     <row r="52">
@@ -7214,25 +7214,25 @@
         <v>45433</v>
       </c>
       <c r="B52" t="n">
-        <v>6.4715</v>
+        <v>9.4938</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>393.9375</v>
+        <v>315.4792</v>
       </c>
       <c r="E52" t="n">
-        <v>25.1479</v>
+        <v>25.8669</v>
       </c>
       <c r="F52" t="n">
-        <v>60.5671</v>
+        <v>57.7083</v>
       </c>
       <c r="G52" t="n">
-        <v>3.1958</v>
+        <v>3.3351</v>
       </c>
       <c r="H52" t="n">
-        <v>19.356</v>
+        <v>19.2462</v>
       </c>
       <c r="I52" t="n">
         <v>0.7445000000000001</v>
@@ -7241,22 +7241,22 @@
         <v>141</v>
       </c>
       <c r="K52" t="n">
-        <v>97.586</v>
+        <v>97.592</v>
       </c>
       <c r="L52" t="n">
         <v>0.06510000000000001</v>
       </c>
       <c r="M52" t="n">
-        <v>1.2602</v>
+        <v>1.4105</v>
       </c>
       <c r="N52" t="n">
-        <v>0.1901</v>
+        <v>0.1973</v>
       </c>
       <c r="O52" t="n">
-        <v>17.808</v>
+        <v>14.5678</v>
       </c>
       <c r="P52" t="n">
-        <v>0.2891</v>
+        <v>0.3114</v>
       </c>
       <c r="Q52" t="n">
         <v>21</v>
@@ -7274,10 +7274,10 @@
         <v>0.73</v>
       </c>
       <c r="V52" t="n">
-        <v>0.2759</v>
+        <v>0.2972</v>
       </c>
       <c r="W52" t="n">
-        <v>0.2111</v>
+        <v>0.2274</v>
       </c>
       <c r="X52" t="n">
         <v>0</v>
@@ -7304,16 +7304,16 @@
         <v>4.6486</v>
       </c>
       <c r="AF52" t="n">
-        <v>3.1983</v>
+        <v>3.3153</v>
       </c>
       <c r="AG52" t="n">
-        <v>3.2324</v>
+        <v>3.3193</v>
       </c>
       <c r="AH52" t="n">
-        <v>2.4129</v>
+        <v>2.5219</v>
       </c>
       <c r="AI52" t="n">
-        <v>2.278</v>
+        <v>2.3649</v>
       </c>
       <c r="AJ52" t="n">
         <v>0</v>
@@ -7328,16 +7328,16 @@
         <v>0</v>
       </c>
       <c r="AN52" t="n">
-        <v>61.2704</v>
+        <v>63.5108</v>
       </c>
       <c r="AO52" t="n">
-        <v>61.9231</v>
+        <v>63.5879</v>
       </c>
       <c r="AP52" t="n">
-        <v>46.224</v>
+        <v>48.3114</v>
       </c>
       <c r="AQ52" t="n">
-        <v>43.6396</v>
+        <v>45.3044</v>
       </c>
     </row>
     <row r="53">
@@ -7345,7 +7345,7 @@
         <v>45434</v>
       </c>
       <c r="B53" t="n">
-        <v>11.8013</v>
+        <v>11.2687</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -7354,16 +7354,16 @@
         <v>339.375</v>
       </c>
       <c r="E53" t="n">
-        <v>24.6583</v>
+        <v>22.7743</v>
       </c>
       <c r="F53" t="n">
-        <v>55.6621</v>
+        <v>56.3333</v>
       </c>
       <c r="G53" t="n">
-        <v>3.1039</v>
+        <v>2.7713</v>
       </c>
       <c r="H53" t="n">
-        <v>17.2768</v>
+        <v>15.6117</v>
       </c>
       <c r="I53" t="n">
         <v>0.7445000000000001</v>
@@ -7372,22 +7372,22 @@
         <v>142</v>
       </c>
       <c r="K53" t="n">
-        <v>97.58199999999999</v>
+        <v>97.56699999999999</v>
       </c>
       <c r="L53" t="n">
-        <v>0.06510000000000001</v>
+        <v>0.0649</v>
       </c>
       <c r="M53" t="n">
-        <v>1.3762</v>
+        <v>1.2101</v>
       </c>
       <c r="N53" t="n">
-        <v>0.1854</v>
+        <v>0.1679</v>
       </c>
       <c r="O53" t="n">
-        <v>15.1485</v>
+        <v>14.9127</v>
       </c>
       <c r="P53" t="n">
-        <v>0.3298</v>
+        <v>0.2996</v>
       </c>
       <c r="Q53" t="n">
         <v>21</v>
@@ -7405,10 +7405,10 @@
         <v>0.73</v>
       </c>
       <c r="V53" t="n">
-        <v>0.3147</v>
+        <v>0.2859</v>
       </c>
       <c r="W53" t="n">
-        <v>0.2407</v>
+        <v>0.2187</v>
       </c>
       <c r="X53" t="n">
         <v>0</v>
@@ -7435,16 +7435,16 @@
         <v>4.7438</v>
       </c>
       <c r="AF53" t="n">
-        <v>3.513</v>
+        <v>3.6011</v>
       </c>
       <c r="AG53" t="n">
-        <v>3.4731</v>
+        <v>3.538</v>
       </c>
       <c r="AH53" t="n">
-        <v>2.7276</v>
+        <v>2.8077</v>
       </c>
       <c r="AI53" t="n">
-        <v>2.5187</v>
+        <v>2.5836</v>
       </c>
       <c r="AJ53" t="n">
         <v>0</v>
@@ -7459,16 +7459,16 @@
         <v>0</v>
       </c>
       <c r="AN53" t="n">
-        <v>67.2984</v>
+        <v>68.98699999999999</v>
       </c>
       <c r="AO53" t="n">
-        <v>66.53489999999999</v>
+        <v>67.77760000000001</v>
       </c>
       <c r="AP53" t="n">
-        <v>52.252</v>
+        <v>53.7876</v>
       </c>
       <c r="AQ53" t="n">
-        <v>48.2514</v>
+        <v>49.4941</v>
       </c>
     </row>
     <row r="54">
@@ -7476,25 +7476,25 @@
         <v>45435</v>
       </c>
       <c r="B54" t="n">
-        <v>2.7548</v>
+        <v>3.9312</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>66.2069</v>
+        <v>356.7083</v>
       </c>
       <c r="E54" t="n">
-        <v>16.9172</v>
+        <v>21.2535</v>
       </c>
       <c r="F54" t="n">
-        <v>69.2276</v>
+        <v>55.4167</v>
       </c>
       <c r="G54" t="n">
-        <v>1.9276</v>
+        <v>2.526</v>
       </c>
       <c r="H54" t="n">
-        <v>13.3442</v>
+        <v>13.9982</v>
       </c>
       <c r="I54" t="n">
         <v>0.7445000000000001</v>
@@ -7503,22 +7503,22 @@
         <v>143</v>
       </c>
       <c r="K54" t="n">
-        <v>97.518</v>
+        <v>97.55500000000001</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0645</v>
+        <v>0.0648</v>
       </c>
       <c r="M54" t="n">
-        <v>0.5931999999999999</v>
+        <v>1.1262</v>
       </c>
       <c r="N54" t="n">
-        <v>0.1222</v>
+        <v>0.1548</v>
       </c>
       <c r="O54" t="n">
-        <v>4.6537</v>
+        <v>15.2812</v>
       </c>
       <c r="P54" t="n">
-        <v>0.0832</v>
+        <v>0.2309</v>
       </c>
       <c r="Q54" t="n">
         <v>21</v>
@@ -7536,10 +7536,10 @@
         <v>0.73</v>
       </c>
       <c r="V54" t="n">
-        <v>0.0794</v>
+        <v>0.2203</v>
       </c>
       <c r="W54" t="n">
-        <v>0.0607</v>
+        <v>0.1685</v>
       </c>
       <c r="X54" t="n">
         <v>0</v>
@@ -7566,16 +7566,16 @@
         <v>4.839</v>
       </c>
       <c r="AF54" t="n">
-        <v>3.5923</v>
+        <v>3.8214</v>
       </c>
       <c r="AG54" t="n">
-        <v>3.5338</v>
+        <v>3.7065</v>
       </c>
       <c r="AH54" t="n">
-        <v>2.8069</v>
+        <v>3.028</v>
       </c>
       <c r="AI54" t="n">
-        <v>2.5794</v>
+        <v>2.7521</v>
       </c>
       <c r="AJ54" t="n">
         <v>0</v>
@@ -7590,16 +7590,3291 @@
         <v>0</v>
       </c>
       <c r="AN54" t="n">
-        <v>68.8189</v>
+        <v>73.2069</v>
       </c>
       <c r="AO54" t="n">
-        <v>67.6982</v>
+        <v>71.0061</v>
       </c>
       <c r="AP54" t="n">
-        <v>53.7725</v>
+        <v>58.0075</v>
       </c>
       <c r="AQ54" t="n">
-        <v>49.4147</v>
+        <v>52.7226</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B55" t="n">
+        <v>7.0104</v>
+      </c>
+      <c r="C55" t="n">
+        <v>14.986</v>
+      </c>
+      <c r="D55" t="n">
+        <v>190.7292</v>
+      </c>
+      <c r="E55" t="n">
+        <v>20.8877</v>
+      </c>
+      <c r="F55" t="n">
+        <v>78.625</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.4699</v>
+      </c>
+      <c r="H55" t="n">
+        <v>19.4196</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.7445000000000001</v>
+      </c>
+      <c r="J55" t="n">
+        <v>144</v>
+      </c>
+      <c r="K55" t="n">
+        <v>97.55200000000001</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.0648</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.5279</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.1518</v>
+      </c>
+      <c r="O55" t="n">
+        <v>9.8161</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.1375</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>21</v>
+      </c>
+      <c r="R55" t="n">
+        <v>8</v>
+      </c>
+      <c r="S55" t="n">
+        <v>6</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.9542</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.1312</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.1004</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>29.2381</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>22.5714</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>4.9343</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>3.8214</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>3.7065</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>2.7521</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>0.4588</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>0.4896</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>0.4588</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>0.4896</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>73.2069</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>71.0061</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>58.0075</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>52.7226</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45437</v>
+      </c>
+      <c r="B56" t="n">
+        <v>5.1729</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>359.1042</v>
+      </c>
+      <c r="E56" t="n">
+        <v>20.5405</v>
+      </c>
+      <c r="F56" t="n">
+        <v>61.0208</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.4177</v>
+      </c>
+      <c r="H56" t="n">
+        <v>14.7528</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.7445000000000001</v>
+      </c>
+      <c r="J56" t="n">
+        <v>145</v>
+      </c>
+      <c r="K56" t="n">
+        <v>97.54900000000001</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.0648</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.9424</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="O56" t="n">
+        <v>15.6655</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.2253</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>21</v>
+      </c>
+      <c r="R56" t="n">
+        <v>8</v>
+      </c>
+      <c r="S56" t="n">
+        <v>6</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.9542</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.1645</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>29.7143</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>23.0476</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>5.0295</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>4.0364</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>3.871</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>3.243</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>2.9166</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>77.32510000000001</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>74.1568</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>62.1257</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>55.8733</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45438</v>
+      </c>
+      <c r="B57" t="n">
+        <v>6.6708</v>
+      </c>
+      <c r="C57" t="n">
+        <v>18.034</v>
+      </c>
+      <c r="D57" t="n">
+        <v>141.75</v>
+      </c>
+      <c r="E57" t="n">
+        <v>19.7488</v>
+      </c>
+      <c r="F57" t="n">
+        <v>72.04170000000001</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.3022</v>
+      </c>
+      <c r="H57" t="n">
+        <v>16.5852</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.7445000000000001</v>
+      </c>
+      <c r="J57" t="n">
+        <v>146</v>
+      </c>
+      <c r="K57" t="n">
+        <v>97.542</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.06469999999999999</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.6437</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="O57" t="n">
+        <v>7.6307</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.1395</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>21</v>
+      </c>
+      <c r="R57" t="n">
+        <v>8</v>
+      </c>
+      <c r="S57" t="n">
+        <v>6</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.9542</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.1331</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.1018</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>30.1905</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>23.5238</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>5.1248</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>4.0364</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>3.871</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>3.243</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>2.9166</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>0.5769</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>0.6082</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>0.5769</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>0.6082</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>77.32510000000001</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>74.1568</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>62.1257</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>55.8733</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="B58" t="n">
+        <v>10.7729</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2.286</v>
+      </c>
+      <c r="D58" t="n">
+        <v>178.625</v>
+      </c>
+      <c r="E58" t="n">
+        <v>18.6273</v>
+      </c>
+      <c r="F58" t="n">
+        <v>73.125</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.1468</v>
+      </c>
+      <c r="H58" t="n">
+        <v>15.6986</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.7445000000000001</v>
+      </c>
+      <c r="J58" t="n">
+        <v>147</v>
+      </c>
+      <c r="K58" t="n">
+        <v>97.533</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.0646</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.5769</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.1343</v>
+      </c>
+      <c r="O58" t="n">
+        <v>9.0505</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.1532</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>22</v>
+      </c>
+      <c r="R58" t="n">
+        <v>9</v>
+      </c>
+      <c r="S58" t="n">
+        <v>7</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.9583</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.1468</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>30.6667</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>4.0931</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>3.2997</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>2.9606</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>78.4128</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>75</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>63.2134</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>56.7165</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45440</v>
+      </c>
+      <c r="B59" t="n">
+        <v>8.0062</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="D59" t="n">
+        <v>300.0625</v>
+      </c>
+      <c r="E59" t="n">
+        <v>17.5729</v>
+      </c>
+      <c r="F59" t="n">
+        <v>69.66670000000001</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.0092</v>
+      </c>
+      <c r="H59" t="n">
+        <v>13.9975</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.7445000000000001</v>
+      </c>
+      <c r="J59" t="n">
+        <v>148</v>
+      </c>
+      <c r="K59" t="n">
+        <v>97.524</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.0646</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.6094000000000001</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.1268</v>
+      </c>
+      <c r="O59" t="n">
+        <v>13.543</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.1756</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>22</v>
+      </c>
+      <c r="R59" t="n">
+        <v>9</v>
+      </c>
+      <c r="S59" t="n">
+        <v>7</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.9583</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.1683</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.1537</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>31.1429</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>24.4762</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>4.2415</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>4.0487</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>3.4481</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>3.0943</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>81.2543</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>77.5611</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>66.0549</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>59.2775</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B60" t="n">
+        <v>9.293799999999999</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>321.9167</v>
+      </c>
+      <c r="E60" t="n">
+        <v>16.6076</v>
+      </c>
+      <c r="F60" t="n">
+        <v>66.1875</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.8901</v>
+      </c>
+      <c r="H60" t="n">
+        <v>12.5099</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.7445000000000001</v>
+      </c>
+      <c r="J60" t="n">
+        <v>149</v>
+      </c>
+      <c r="K60" t="n">
+        <v>97.51600000000001</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.0645</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.6391</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.1201</v>
+      </c>
+      <c r="O60" t="n">
+        <v>14.106</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>22</v>
+      </c>
+      <c r="R60" t="n">
+        <v>9</v>
+      </c>
+      <c r="S60" t="n">
+        <v>7</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.9583</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.1793</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.1637</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>31.619</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>24.9524</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>4.4207</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>4.2124</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>3.6273</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>3.258</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>84.68819999999999</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>80.6964</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>69.4888</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>62.4129</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45442</v>
+      </c>
+      <c r="B61" t="n">
+        <v>3.3021</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>386.8333</v>
+      </c>
+      <c r="E61" t="n">
+        <v>17.0579</v>
+      </c>
+      <c r="F61" t="n">
+        <v>51.4375</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.9448</v>
+      </c>
+      <c r="H61" t="n">
+        <v>10.0038</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.7445000000000001</v>
+      </c>
+      <c r="J61" t="n">
+        <v>150</v>
+      </c>
+      <c r="K61" t="n">
+        <v>97.52</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.0645</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.9444</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.1232</v>
+      </c>
+      <c r="O61" t="n">
+        <v>15.6072</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.2075</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>22</v>
+      </c>
+      <c r="R61" t="n">
+        <v>9</v>
+      </c>
+      <c r="S61" t="n">
+        <v>7</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.9583</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.1989</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.1816</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>32.0952</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>25.4286</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>4.6196</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>4.3939</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>3.8262</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>3.4395</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>88.4982</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>84.1751</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>73.2988</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>65.8916</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B62" t="n">
+        <v>6.1396</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>336.25</v>
+      </c>
+      <c r="E62" t="n">
+        <v>20.1076</v>
+      </c>
+      <c r="F62" t="n">
+        <v>46.9167</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2.3539</v>
+      </c>
+      <c r="H62" t="n">
+        <v>11.0437</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.7445000000000001</v>
+      </c>
+      <c r="J62" t="n">
+        <v>151</v>
+      </c>
+      <c r="K62" t="n">
+        <v>97.545</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.06469999999999999</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.2495</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.1456</v>
+      </c>
+      <c r="O62" t="n">
+        <v>13.8347</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.2624</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>22</v>
+      </c>
+      <c r="R62" t="n">
+        <v>9</v>
+      </c>
+      <c r="S62" t="n">
+        <v>7</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.9583</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.2296</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>32.5714</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>25.9048</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>4.8711</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>4.6235</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>4.0777</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>3.6691</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>93.31570000000001</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>88.5737</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>78.1163</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>70.2901</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B63" t="n">
+        <v>6.5854</v>
+      </c>
+      <c r="C63" t="n">
+        <v>5.842</v>
+      </c>
+      <c r="D63" t="n">
+        <v>101.7708</v>
+      </c>
+      <c r="E63" t="n">
+        <v>18.7083</v>
+      </c>
+      <c r="F63" t="n">
+        <v>72.4375</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2.1577</v>
+      </c>
+      <c r="H63" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="J63" t="n">
+        <v>152</v>
+      </c>
+      <c r="K63" t="n">
+        <v>97.53400000000001</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.06469999999999999</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.5947</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.1349</v>
+      </c>
+      <c r="O63" t="n">
+        <v>6.0321</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.1247</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>22</v>
+      </c>
+      <c r="R63" t="n">
+        <v>9</v>
+      </c>
+      <c r="S63" t="n">
+        <v>7</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.9583</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0.1195</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0.1091</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>33.0476</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>26.381</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>4.8711</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>4.6235</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>4.0777</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>3.6691</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>0.1105</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>0.1209</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>0.1105</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>0.1209</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>93.31570000000001</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>88.5737</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>78.1163</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>70.2901</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45445</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3.9917</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="D64" t="n">
+        <v>220.0417</v>
+      </c>
+      <c r="E64" t="n">
+        <v>19.8762</v>
+      </c>
+      <c r="F64" t="n">
+        <v>82.33329999999999</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2.3204</v>
+      </c>
+      <c r="H64" t="n">
+        <v>19.1048</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="J64" t="n">
+        <v>153</v>
+      </c>
+      <c r="K64" t="n">
+        <v>97.54300000000001</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.06469999999999999</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.4099</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.1438</v>
+      </c>
+      <c r="O64" t="n">
+        <v>11.0482</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.1261</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>22</v>
+      </c>
+      <c r="R64" t="n">
+        <v>9</v>
+      </c>
+      <c r="S64" t="n">
+        <v>7</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.9583</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0.1208</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0.1103</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>33.5238</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>26.8571</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>4.9819</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>4.7239</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>4.1885</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>3.7695</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>95.4389</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>90.4956</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>80.2396</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>72.21210000000001</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B65" t="n">
+        <v>4.4083</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>342.4583</v>
+      </c>
+      <c r="E65" t="n">
+        <v>22.8183</v>
+      </c>
+      <c r="F65" t="n">
+        <v>68.77079999999999</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2.7787</v>
+      </c>
+      <c r="H65" t="n">
+        <v>19.1094</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="J65" t="n">
+        <v>154</v>
+      </c>
+      <c r="K65" t="n">
+        <v>97.56699999999999</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.0649</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.8678</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.1683</v>
+      </c>
+      <c r="O65" t="n">
+        <v>15.8959</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.2166</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>23</v>
+      </c>
+      <c r="R65" t="n">
+        <v>10</v>
+      </c>
+      <c r="S65" t="n">
+        <v>8</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.9558</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0.2058</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>27.3333</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>5.1889</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>4.9296</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>4.3955</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>3.9752</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>99.405</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>94.4376</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>84.2056</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>76.1541</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45447</v>
+      </c>
+      <c r="B66" t="n">
+        <v>5.6896</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>269.75</v>
+      </c>
+      <c r="E66" t="n">
+        <v>24.7118</v>
+      </c>
+      <c r="F66" t="n">
+        <v>65.72920000000001</v>
+      </c>
+      <c r="G66" t="n">
+        <v>3.1138</v>
+      </c>
+      <c r="H66" t="n">
+        <v>20.4668</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="J66" t="n">
+        <v>155</v>
+      </c>
+      <c r="K66" t="n">
+        <v>97.583</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.06510000000000001</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1.0671</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.1859</v>
+      </c>
+      <c r="O66" t="n">
+        <v>13.0365</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.2248</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>23</v>
+      </c>
+      <c r="R66" t="n">
+        <v>10</v>
+      </c>
+      <c r="S66" t="n">
+        <v>8</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.9558</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0.2148</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0.2135</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>34.4762</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>27.8095</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>5.4038</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>5.1432</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>4.6104</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>4.1888</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>98.5283</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>88.32129999999999</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>80.2448</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45448</v>
+      </c>
+      <c r="B67" t="n">
+        <v>7.4083</v>
+      </c>
+      <c r="C67" t="n">
+        <v>10.414</v>
+      </c>
+      <c r="D67" t="n">
+        <v>146.4167</v>
+      </c>
+      <c r="E67" t="n">
+        <v>22.2106</v>
+      </c>
+      <c r="F67" t="n">
+        <v>81.375</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2.6781</v>
+      </c>
+      <c r="H67" t="n">
+        <v>21.7928</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="J67" t="n">
+        <v>156</v>
+      </c>
+      <c r="K67" t="n">
+        <v>97.562</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.0649</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.4988</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="O67" t="n">
+        <v>8.0763</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.1248</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>23</v>
+      </c>
+      <c r="R67" t="n">
+        <v>10</v>
+      </c>
+      <c r="S67" t="n">
+        <v>8</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.9558</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0.1193</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0.1186</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>34.9524</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>28.2857</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>5.4038</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>5.1432</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>4.6104</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>4.1888</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>0.2907</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>0.2914</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>0.2907</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>0.2914</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>98.5283</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>88.32129999999999</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>80.2448</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45449</v>
+      </c>
+      <c r="B68" t="n">
+        <v>10.1583</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>366.25</v>
+      </c>
+      <c r="E68" t="n">
+        <v>22.0463</v>
+      </c>
+      <c r="F68" t="n">
+        <v>52.7292</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2.6514</v>
+      </c>
+      <c r="H68" t="n">
+        <v>13.9806</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="J68" t="n">
+        <v>157</v>
+      </c>
+      <c r="K68" t="n">
+        <v>97.56100000000001</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.0649</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1.2533</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.1615</v>
+      </c>
+      <c r="O68" t="n">
+        <v>15.5217</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.3072</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>23</v>
+      </c>
+      <c r="R68" t="n">
+        <v>10</v>
+      </c>
+      <c r="S68" t="n">
+        <v>8</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.9558</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0.2936</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0.2918</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>35.4286</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>28.7619</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>5.6974</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>5.435</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>4.904</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>4.4806</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>93.94629999999999</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>85.8356</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45450</v>
+      </c>
+      <c r="B69" t="n">
+        <v>9.7812</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>371.9583</v>
+      </c>
+      <c r="E69" t="n">
+        <v>20.7894</v>
+      </c>
+      <c r="F69" t="n">
+        <v>48.1042</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2.455</v>
+      </c>
+      <c r="H69" t="n">
+        <v>11.8096</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="J69" t="n">
+        <v>158</v>
+      </c>
+      <c r="K69" t="n">
+        <v>97.551</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.0648</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1.274</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="O69" t="n">
+        <v>15.1987</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.3089</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>23</v>
+      </c>
+      <c r="R69" t="n">
+        <v>10</v>
+      </c>
+      <c r="S69" t="n">
+        <v>8</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.9558</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0.2953</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0.2935</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>35.9048</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>29.2381</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>5.9927</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>5.7285</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>5.1993</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>4.7741</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>99.60299999999999</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>91.458</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45451</v>
+      </c>
+      <c r="B70" t="n">
+        <v>6.4854</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>208.875</v>
+      </c>
+      <c r="E70" t="n">
+        <v>19.9826</v>
+      </c>
+      <c r="F70" t="n">
+        <v>63.9792</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2.3358</v>
+      </c>
+      <c r="H70" t="n">
+        <v>14.9441</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="J70" t="n">
+        <v>159</v>
+      </c>
+      <c r="K70" t="n">
+        <v>97.544</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.06469999999999999</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.8414</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.1446</v>
+      </c>
+      <c r="O70" t="n">
+        <v>10.0652</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>23</v>
+      </c>
+      <c r="R70" t="n">
+        <v>10</v>
+      </c>
+      <c r="S70" t="n">
+        <v>8</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.9558</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0.1768</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0.1757</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>36.381</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>29.7143</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>6.1695</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>5.9042</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>5.3761</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>4.9498</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>100</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>94.82470000000001</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45452</v>
+      </c>
+      <c r="B71" t="n">
+        <v>9.2271</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>343.6667</v>
+      </c>
+      <c r="E71" t="n">
+        <v>19.941</v>
+      </c>
+      <c r="F71" t="n">
+        <v>54.3333</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2.3298</v>
+      </c>
+      <c r="H71" t="n">
+        <v>12.6583</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="J71" t="n">
+        <v>160</v>
+      </c>
+      <c r="K71" t="n">
+        <v>97.544</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.06469999999999999</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1.064</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.1443</v>
+      </c>
+      <c r="O71" t="n">
+        <v>14.5658</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.2661</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>23</v>
+      </c>
+      <c r="R71" t="n">
+        <v>10</v>
+      </c>
+      <c r="S71" t="n">
+        <v>8</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.9558</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0.2543</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>36.8571</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>30.1905</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>6.4238</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>6.1571</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>5.6304</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>5.2027</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>100</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>99.66759999999999</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B72" t="n">
+        <v>8.1083</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>259.4167</v>
+      </c>
+      <c r="E72" t="n">
+        <v>15.2245</v>
+      </c>
+      <c r="F72" t="n">
+        <v>59.3333</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.7302</v>
+      </c>
+      <c r="H72" t="n">
+        <v>10.2656</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="J72" t="n">
+        <v>161</v>
+      </c>
+      <c r="K72" t="n">
+        <v>97.504</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.0644</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.7036</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.1112</v>
+      </c>
+      <c r="O72" t="n">
+        <v>11.459</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.1838</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>24</v>
+      </c>
+      <c r="R72" t="n">
+        <v>11</v>
+      </c>
+      <c r="S72" t="n">
+        <v>9</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.9493</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0.1744</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0.1746</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>37.3333</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>30.6667</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>6.5983</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>6.3316</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>5.8049</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>5.3772</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>100</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45454</v>
+      </c>
+      <c r="B73" t="n">
+        <v>3.1979</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>386.5833</v>
+      </c>
+      <c r="E73" t="n">
+        <v>17.0822</v>
+      </c>
+      <c r="F73" t="n">
+        <v>49.8125</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1.9478</v>
+      </c>
+      <c r="H73" t="n">
+        <v>9.7027</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="J73" t="n">
+        <v>162</v>
+      </c>
+      <c r="K73" t="n">
+        <v>97.52</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.0645</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.1234</v>
+      </c>
+      <c r="O73" t="n">
+        <v>15.4691</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.2111</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>24</v>
+      </c>
+      <c r="R73" t="n">
+        <v>11</v>
+      </c>
+      <c r="S73" t="n">
+        <v>9</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.9493</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0.2004</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0.2005</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>37.8095</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>31.1429</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>6.7987</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>6.5321</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>6.0052</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>5.5777</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>100</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45455</v>
+      </c>
+      <c r="B74" t="n">
+        <v>7.6229</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>345.4792</v>
+      </c>
+      <c r="E74" t="n">
+        <v>23.1574</v>
+      </c>
+      <c r="F74" t="n">
+        <v>47.6667</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2.8363</v>
+      </c>
+      <c r="H74" t="n">
+        <v>13.5197</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="J74" t="n">
+        <v>163</v>
+      </c>
+      <c r="K74" t="n">
+        <v>97.56999999999999</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1.4843</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.1713</v>
+      </c>
+      <c r="O74" t="n">
+        <v>14.5049</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.3131</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>24</v>
+      </c>
+      <c r="R74" t="n">
+        <v>11</v>
+      </c>
+      <c r="S74" t="n">
+        <v>9</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.9493</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0.2973</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0.2975</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>38.2857</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>31.619</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>7.0959</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>6.8296</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>6.3025</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>5.8752</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>100</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45456</v>
+      </c>
+      <c r="B75" t="n">
+        <v>8.7417</v>
+      </c>
+      <c r="C75" t="n">
+        <v>14.478</v>
+      </c>
+      <c r="D75" t="n">
+        <v>351.875</v>
+      </c>
+      <c r="E75" t="n">
+        <v>25.456</v>
+      </c>
+      <c r="F75" t="n">
+        <v>54.3542</v>
+      </c>
+      <c r="G75" t="n">
+        <v>3.2548</v>
+      </c>
+      <c r="H75" t="n">
+        <v>17.6915</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="J75" t="n">
+        <v>164</v>
+      </c>
+      <c r="K75" t="n">
+        <v>97.589</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.06510000000000001</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1.4856</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.1932</v>
+      </c>
+      <c r="O75" t="n">
+        <v>15.6396</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0.3267</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>24</v>
+      </c>
+      <c r="R75" t="n">
+        <v>11</v>
+      </c>
+      <c r="S75" t="n">
+        <v>9</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0.9493</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0.3102</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0.3104</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>38.7619</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>32.0952</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>7.0959</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>6.8296</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>6.3025</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>5.8752</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>0.2598</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>0.2596</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>0.2598</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>0.2596</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>100</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45457</v>
+      </c>
+      <c r="B76" t="n">
+        <v>4.9042</v>
+      </c>
+      <c r="C76" t="n">
+        <v>4.572</v>
+      </c>
+      <c r="D76" t="n">
+        <v>381.7083</v>
+      </c>
+      <c r="E76" t="n">
+        <v>23.9074</v>
+      </c>
+      <c r="F76" t="n">
+        <v>66.79170000000001</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2.9674</v>
+      </c>
+      <c r="H76" t="n">
+        <v>19.8196</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="J76" t="n">
+        <v>165</v>
+      </c>
+      <c r="K76" t="n">
+        <v>97.57599999999999</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.9854000000000001</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.1782</v>
+      </c>
+      <c r="O76" t="n">
+        <v>17.5604</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0.2462</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>24</v>
+      </c>
+      <c r="R76" t="n">
+        <v>11</v>
+      </c>
+      <c r="S76" t="n">
+        <v>9</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.9493</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0.2337</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0.2339</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>39.2381</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>32.5714</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>7.1496</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>6.8835</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>6.3562</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>5.9291</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>100</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45458</v>
+      </c>
+      <c r="B77" t="n">
+        <v>4.9104</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>357.625</v>
+      </c>
+      <c r="E77" t="n">
+        <v>23.2269</v>
+      </c>
+      <c r="F77" t="n">
+        <v>55.9792</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2.8482</v>
+      </c>
+      <c r="H77" t="n">
+        <v>15.9441</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="J77" t="n">
+        <v>166</v>
+      </c>
+      <c r="K77" t="n">
+        <v>97.571</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1.2538</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="O77" t="n">
+        <v>15.6202</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0.2601</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>24</v>
+      </c>
+      <c r="R77" t="n">
+        <v>11</v>
+      </c>
+      <c r="S77" t="n">
+        <v>9</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0.9493</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0.2469</v>
+      </c>
+      <c r="W77" t="n">
+        <v>0.2471</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>39.7143</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>33.0476</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>7.3965</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>7.1306</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>6.6031</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>6.1762</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>100</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45459</v>
+      </c>
+      <c r="B78" t="n">
+        <v>7.5562</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>356.2708</v>
+      </c>
+      <c r="E78" t="n">
+        <v>26.6921</v>
+      </c>
+      <c r="F78" t="n">
+        <v>51.0625</v>
+      </c>
+      <c r="G78" t="n">
+        <v>3.5014</v>
+      </c>
+      <c r="H78" t="n">
+        <v>17.8793</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="J78" t="n">
+        <v>167</v>
+      </c>
+      <c r="K78" t="n">
+        <v>97.598</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.06519999999999999</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1.7135</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.2059</v>
+      </c>
+      <c r="O78" t="n">
+        <v>15.7246</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>24</v>
+      </c>
+      <c r="R78" t="n">
+        <v>11</v>
+      </c>
+      <c r="S78" t="n">
+        <v>9</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.9493</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0.3256</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0.3258</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>40.1905</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>33.5238</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>7.7221</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>7.4564</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>6.9287</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>6.502</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>100</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B79" t="n">
+        <v>6.3567</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>382.6</v>
+      </c>
+      <c r="E79" t="n">
+        <v>27.6037</v>
+      </c>
+      <c r="F79" t="n">
+        <v>69.16670000000001</v>
+      </c>
+      <c r="G79" t="n">
+        <v>3.6936</v>
+      </c>
+      <c r="H79" t="n">
+        <v>25.5473</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="J79" t="n">
+        <v>168</v>
+      </c>
+      <c r="K79" t="n">
+        <v>97.60599999999999</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.0653</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1.1389</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.2157</v>
+      </c>
+      <c r="O79" t="n">
+        <v>18.7359</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0.2824</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>25</v>
+      </c>
+      <c r="R79" t="n">
+        <v>12</v>
+      </c>
+      <c r="S79" t="n">
+        <v>10</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0.9423</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0.2661</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0.2623</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>40.6667</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>7.9882</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>7.7188</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>7.1948</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>6.7644</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>100</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Weather_for_Penman/Penman_irrigation_results.xlsx
+++ b/Weather_for_Penman/Penman_irrigation_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Penman_irrigation_results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Penman_irrigation_results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ79"/>
+  <dimension ref="A1:AW79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -620,42 +620,72 @@
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
+          <t>CRWD (inch)</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>SRWD (inch)</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
           <t>CIWL (inch)</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>SIWL (inch)</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>CFWL (inch)</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>SFWL (inch)</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>CRWL (inch)</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>SRWL (inch)</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>CIWDP (%)</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>SIWDP (%)</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>CFWDP (%)</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>SFWDP (%)</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>CRWDP (%)</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>SRWDP (%)</t>
         </is>
       </c>
     </row>
@@ -664,7 +694,7 @@
         <v>45383</v>
       </c>
       <c r="B2" t="n">
-        <v>10.034</v>
+        <v>4.4856</v>
       </c>
       <c r="C2" t="n">
         <v>16.51</v>
@@ -706,7 +736,7 @@
         <v>4.2499</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0322</v>
+        <v>0.0315</v>
       </c>
       <c r="Q2" t="n">
         <v>14</v>
@@ -724,10 +754,10 @@
         <v>0.2</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0064</v>
+        <v>0.0063</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0064</v>
+        <v>0.0063</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -787,6 +817,24 @@
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -795,7 +843,7 @@
         <v>45384</v>
       </c>
       <c r="B3" t="n">
-        <v>11.4458</v>
+        <v>5.1167</v>
       </c>
       <c r="C3" t="n">
         <v>25.146</v>
@@ -837,7 +885,7 @@
         <v>5.2948</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0429</v>
+        <v>0.0421</v>
       </c>
       <c r="Q3" t="n">
         <v>14</v>
@@ -855,10 +903,10 @@
         <v>0.2</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0086</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0086</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -897,27 +945,45 @@
         <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.9814000000000001</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.9814000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.9814000000000001</v>
+        <v>0.9816</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9814000000000001</v>
+        <v>0.9816</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>0.9816</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>0.9816</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>0.9816</v>
       </c>
       <c r="AQ3" t="n">
+        <v>0.9816</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -926,7 +992,7 @@
         <v>45385</v>
       </c>
       <c r="B4" t="n">
-        <v>15.2021</v>
+        <v>6.7959</v>
       </c>
       <c r="C4" t="n">
         <v>4.064</v>
@@ -968,7 +1034,7 @@
         <v>6.0664</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0371</v>
+        <v>0.0373</v>
       </c>
       <c r="Q4" t="n">
         <v>14</v>
@@ -986,10 +1052,10 @@
         <v>0.2</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0074</v>
+        <v>0.0075</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0074</v>
+        <v>0.0075</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -1028,27 +1094,45 @@
         <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.1526</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.1526</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.1526</v>
+        <v>0.1525</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.1526</v>
+        <v>0.1525</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>0.1525</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>0.1525</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>0.1525</v>
       </c>
       <c r="AQ4" t="n">
+        <v>0.1525</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1057,7 +1141,7 @@
         <v>45386</v>
       </c>
       <c r="B5" t="n">
-        <v>12.8583</v>
+        <v>5.7482</v>
       </c>
       <c r="C5" t="n">
         <v>3.556</v>
@@ -1099,7 +1183,7 @@
         <v>4.6859</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0345</v>
+        <v>0.0329</v>
       </c>
       <c r="Q5" t="n">
         <v>14</v>
@@ -1117,10 +1201,10 @@
         <v>0.2</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0069</v>
+        <v>0.0066</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0069</v>
+        <v>0.0066</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1159,27 +1243,45 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.1331</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.1331</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.1331</v>
+        <v>0.1334</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.1331</v>
+        <v>0.1334</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>0.1334</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>0.1334</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>0.1334</v>
       </c>
       <c r="AQ5" t="n">
+        <v>0.1334</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,7 +1290,7 @@
         <v>45387</v>
       </c>
       <c r="B6" t="n">
-        <v>9.6938</v>
+        <v>4.3335</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1230,7 +1332,7 @@
         <v>7.3442</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0636</v>
+        <v>0.0595</v>
       </c>
       <c r="Q6" t="n">
         <v>14</v>
@@ -1248,10 +1350,10 @@
         <v>0.2</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0127</v>
+        <v>0.0119</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0127</v>
+        <v>0.0119</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1278,22 +1380,22 @@
         <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.0127</v>
+        <v>0.0119</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.0127</v>
+        <v>0.0119</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.0127</v>
+        <v>0.0119</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.0127</v>
+        <v>0.0119</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>0.0119</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>0.0119</v>
       </c>
       <c r="AL6" t="n">
         <v>0</v>
@@ -1302,16 +1404,34 @@
         <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.9368</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.9368</v>
+        <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.9368</v>
+        <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.9368</v>
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.8759</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.8759</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.8759</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.8759</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.8759</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.8759</v>
       </c>
     </row>
     <row r="7">
@@ -1319,7 +1439,7 @@
         <v>45388</v>
       </c>
       <c r="B7" t="n">
-        <v>3.8125</v>
+        <v>1.7043</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1361,7 +1481,7 @@
         <v>12.1686</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1067</v>
+        <v>0.1005</v>
       </c>
       <c r="Q7" t="n">
         <v>14</v>
@@ -1379,10 +1499,10 @@
         <v>0.2</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0213</v>
+        <v>0.0201</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0213</v>
+        <v>0.0201</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1409,22 +1529,22 @@
         <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.0341</v>
+        <v>0.032</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.0341</v>
+        <v>0.032</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.0341</v>
+        <v>0.032</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.0341</v>
+        <v>0.032</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="AL7" t="n">
         <v>0</v>
@@ -1433,16 +1553,34 @@
         <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.3205</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>2.3205</v>
+        <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.3205</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.3205</v>
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>2.1795</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>2.1795</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.1795</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>2.1795</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>2.1795</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>2.1795</v>
       </c>
     </row>
     <row r="8">
@@ -1450,7 +1588,7 @@
         <v>45389</v>
       </c>
       <c r="B8" t="n">
-        <v>10.1562</v>
+        <v>4.5402</v>
       </c>
       <c r="C8" t="n">
         <v>4.826</v>
@@ -1492,7 +1630,7 @@
         <v>6.4765</v>
       </c>
       <c r="P8" t="n">
-        <v>0.124</v>
+        <v>0.0998</v>
       </c>
       <c r="Q8" t="n">
         <v>14</v>
@@ -1510,10 +1648,10 @@
         <v>0.2</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0248</v>
+        <v>0.02</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0248</v>
+        <v>0.02</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1540,40 +1678,58 @@
         <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0341</v>
+        <v>0.032</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.0341</v>
+        <v>0.032</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.0341</v>
+        <v>0.032</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.0341</v>
+        <v>0.032</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.1652</v>
+        <v>0.032</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.1652</v>
+        <v>0.032</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.1652</v>
+        <v>0.17</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.1652</v>
+        <v>0.17</v>
       </c>
       <c r="AN8" t="n">
-        <v>2.1593</v>
+        <v>0.17</v>
       </c>
       <c r="AO8" t="n">
-        <v>2.1593</v>
+        <v>0.17</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.1593</v>
+        <v>0.17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2.1593</v>
+        <v>0.17</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>2.0281</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>2.0281</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.0281</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>2.0281</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>2.0281</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>2.0281</v>
       </c>
     </row>
     <row r="9">
@@ -1581,7 +1737,7 @@
         <v>45390</v>
       </c>
       <c r="B9" t="n">
-        <v>6.683</v>
+        <v>2.9876</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1623,7 +1779,7 @@
         <v>10.352</v>
       </c>
       <c r="P9" t="n">
-        <v>0.181</v>
+        <v>0.1472</v>
       </c>
       <c r="Q9" t="n">
         <v>15</v>
@@ -1641,10 +1797,10 @@
         <v>0.2</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0362</v>
+        <v>0.0294</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0362</v>
+        <v>0.0294</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1671,22 +1827,22 @@
         <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.0703</v>
+        <v>0.0614</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.0703</v>
+        <v>0.0614</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.0703</v>
+        <v>0.0614</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.0703</v>
+        <v>0.0614</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>0.0614</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>0.0614</v>
       </c>
       <c r="AL9" t="n">
         <v>0</v>
@@ -1695,16 +1851,34 @@
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.1653</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>4.1653</v>
+        <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>4.1653</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>4.1653</v>
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>3.6413</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>3.6413</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.6413</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>3.6413</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>3.6413</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>3.6413</v>
       </c>
     </row>
     <row r="10">
@@ -1712,7 +1886,7 @@
         <v>45391</v>
       </c>
       <c r="B10" t="n">
-        <v>7.0625</v>
+        <v>3.1572</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1754,7 +1928,7 @@
         <v>11.5227</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2051</v>
+        <v>0.1673</v>
       </c>
       <c r="Q10" t="n">
         <v>15</v>
@@ -1772,10 +1946,10 @@
         <v>0.2</v>
       </c>
       <c r="V10" t="n">
-        <v>0.041</v>
+        <v>0.0335</v>
       </c>
       <c r="W10" t="n">
-        <v>0.041</v>
+        <v>0.0335</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1802,22 +1976,22 @@
         <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.1113</v>
+        <v>0.0949</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.1113</v>
+        <v>0.0949</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.1113</v>
+        <v>0.0949</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.1113</v>
+        <v>0.0949</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>0.0949</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>0.0949</v>
       </c>
       <c r="AL10" t="n">
         <v>0</v>
@@ -1826,16 +2000,34 @@
         <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.1949</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>6.1949</v>
+        <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>6.1949</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>6.1949</v>
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>5.2818</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>5.2818</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>5.2818</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>5.2818</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>5.2818</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>5.2818</v>
       </c>
     </row>
     <row r="11">
@@ -1843,7 +2035,7 @@
         <v>45392</v>
       </c>
       <c r="B11" t="n">
-        <v>5.4542</v>
+        <v>2.4382</v>
       </c>
       <c r="C11" t="n">
         <v>10.414</v>
@@ -1885,7 +2077,7 @@
         <v>7.2027</v>
       </c>
       <c r="P11" t="n">
-        <v>0.09810000000000001</v>
+        <v>0.0829</v>
       </c>
       <c r="Q11" t="n">
         <v>15</v>
@@ -1903,10 +2095,10 @@
         <v>0.2</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0196</v>
+        <v>0.0166</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0196</v>
+        <v>0.0166</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1933,40 +2125,58 @@
         <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.1113</v>
+        <v>0.0949</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.1113</v>
+        <v>0.0949</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.1113</v>
+        <v>0.0949</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.1113</v>
+        <v>0.0949</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.3904</v>
+        <v>0.0949</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.3904</v>
+        <v>0.0949</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.3904</v>
+        <v>0.3934</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.3904</v>
+        <v>0.3934</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.8389</v>
+        <v>0.3934</v>
       </c>
       <c r="AO11" t="n">
-        <v>5.8389</v>
+        <v>0.3934</v>
       </c>
       <c r="AP11" t="n">
-        <v>5.8389</v>
+        <v>0.3934</v>
       </c>
       <c r="AQ11" t="n">
-        <v>5.8389</v>
+        <v>0.3934</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>4.9782</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>4.9782</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>4.9782</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>4.9782</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>4.9782</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.9782</v>
       </c>
     </row>
     <row r="12">
@@ -1974,7 +2184,7 @@
         <v>45393</v>
       </c>
       <c r="B12" t="n">
-        <v>12.0667</v>
+        <v>5.3943</v>
       </c>
       <c r="C12" t="n">
         <v>16.51</v>
@@ -2016,7 +2226,7 @@
         <v>4.0014</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0393</v>
+        <v>0.036</v>
       </c>
       <c r="Q12" t="n">
         <v>15</v>
@@ -2034,10 +2244,10 @@
         <v>0.2</v>
       </c>
       <c r="V12" t="n">
-        <v>0.007900000000000001</v>
+        <v>0.0072</v>
       </c>
       <c r="W12" t="n">
-        <v>0.007900000000000001</v>
+        <v>0.0072</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -2064,40 +2274,58 @@
         <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.1113</v>
+        <v>0.0949</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.1113</v>
+        <v>0.0949</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.1113</v>
+        <v>0.0949</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.1113</v>
+        <v>0.0949</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.6421</v>
+        <v>0.0949</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.6421</v>
+        <v>0.0949</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.6421</v>
+        <v>0.6428</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.6421</v>
+        <v>0.6428</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.5215</v>
+        <v>0.6428</v>
       </c>
       <c r="AO12" t="n">
-        <v>5.5215</v>
+        <v>0.6428</v>
       </c>
       <c r="AP12" t="n">
-        <v>5.5215</v>
+        <v>0.6428</v>
       </c>
       <c r="AQ12" t="n">
-        <v>5.5215</v>
+        <v>0.6428</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>4.7077</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>4.7077</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>4.7077</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>4.7077</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>4.7077</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4.7077</v>
       </c>
     </row>
     <row r="13">
@@ -2105,7 +2333,7 @@
         <v>45394</v>
       </c>
       <c r="B13" t="n">
-        <v>14.2604</v>
+        <v>6.375</v>
       </c>
       <c r="C13" t="n">
         <v>4.572</v>
@@ -2147,7 +2375,7 @@
         <v>10.3176</v>
       </c>
       <c r="P13" t="n">
-        <v>0.1066</v>
+        <v>0.1012</v>
       </c>
       <c r="Q13" t="n">
         <v>15</v>
@@ -2165,10 +2393,10 @@
         <v>0.2</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0213</v>
+        <v>0.0202</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0213</v>
+        <v>0.0202</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -2195,40 +2423,58 @@
         <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.1113</v>
+        <v>0.0949</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.1113</v>
+        <v>0.0949</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.1113</v>
+        <v>0.0949</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.1113</v>
+        <v>0.0949</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.1587</v>
+        <v>0.0949</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.1587</v>
+        <v>0.0949</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.1587</v>
+        <v>0.1598</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.1587</v>
+        <v>0.1598</v>
       </c>
       <c r="AN13" t="n">
-        <v>5.2369</v>
+        <v>0.1598</v>
       </c>
       <c r="AO13" t="n">
-        <v>5.2369</v>
+        <v>0.1598</v>
       </c>
       <c r="AP13" t="n">
-        <v>5.2369</v>
+        <v>0.1598</v>
       </c>
       <c r="AQ13" t="n">
-        <v>5.2369</v>
+        <v>0.1598</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>4.465</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>4.465</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>4.465</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>4.465</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>4.465</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4.465</v>
       </c>
     </row>
     <row r="14">
@@ -2236,7 +2482,7 @@
         <v>45395</v>
       </c>
       <c r="B14" t="n">
-        <v>7.0271</v>
+        <v>3.1414</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -2278,7 +2524,7 @@
         <v>12.6238</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1776</v>
+        <v>0.153</v>
       </c>
       <c r="Q14" t="n">
         <v>15</v>
@@ -2296,10 +2542,10 @@
         <v>0.2</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0355</v>
+        <v>0.0306</v>
       </c>
       <c r="W14" t="n">
-        <v>0.0355</v>
+        <v>0.0306</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -2326,22 +2572,22 @@
         <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.1468</v>
+        <v>0.1255</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.1468</v>
+        <v>0.1255</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.1468</v>
+        <v>0.1255</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.1468</v>
+        <v>0.1255</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>0.1255</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>0.1255</v>
       </c>
       <c r="AL14" t="n">
         <v>0</v>
@@ -2350,16 +2596,34 @@
         <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.5703</v>
+        <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>6.5703</v>
+        <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>6.5703</v>
+        <v>0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>6.5703</v>
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>5.616</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>5.616</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>5.616</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>5.616</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>5.616</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5.616</v>
       </c>
     </row>
     <row r="15">
@@ -2367,7 +2631,7 @@
         <v>45396</v>
       </c>
       <c r="B15" t="n">
-        <v>12.1021</v>
+        <v>5.4101</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -2409,7 +2673,7 @@
         <v>12.2753</v>
       </c>
       <c r="P15" t="n">
-        <v>0.2966</v>
+        <v>0.2366</v>
       </c>
       <c r="Q15" t="n">
         <v>15</v>
@@ -2427,10 +2691,10 @@
         <v>0.2</v>
       </c>
       <c r="V15" t="n">
-        <v>0.0593</v>
+        <v>0.0473</v>
       </c>
       <c r="W15" t="n">
-        <v>0.0593</v>
+        <v>0.0473</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -2457,22 +2721,22 @@
         <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>0.1728</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>0.1728</v>
       </c>
       <c r="AL15" t="n">
         <v>0</v>
@@ -2481,16 +2745,34 @@
         <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>8.793900000000001</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>8.793900000000001</v>
+        <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>8.793900000000001</v>
+        <v>0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>8.793900000000001</v>
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>7.3721</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>7.3721</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>7.3721</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>7.3721</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>7.3721</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>7.3721</v>
       </c>
     </row>
     <row r="16">
@@ -2498,7 +2780,7 @@
         <v>45397</v>
       </c>
       <c r="B16" t="n">
-        <v>6.1062</v>
+        <v>2.7297</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -2540,7 +2822,7 @@
         <v>13.2267</v>
       </c>
       <c r="P16" t="n">
-        <v>0.2133</v>
+        <v>0.1798</v>
       </c>
       <c r="Q16" t="n">
         <v>16</v>
@@ -2558,10 +2840,10 @@
         <v>0.2</v>
       </c>
       <c r="V16" t="n">
-        <v>0.0545</v>
+        <v>0.046</v>
       </c>
       <c r="W16" t="n">
-        <v>0.0427</v>
+        <v>0.036</v>
       </c>
       <c r="X16" t="n">
         <v>0.228</v>
@@ -2588,40 +2870,58 @@
         <v>0.92</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.1735</v>
+        <v>0.2188</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.1853</v>
+        <v>0.2087</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.1735</v>
+        <v>0.182</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.1853</v>
+        <v>0.192</v>
       </c>
       <c r="AN16" t="n">
-        <v>8.401300000000001</v>
+        <v>0.182</v>
       </c>
       <c r="AO16" t="n">
-        <v>8.401300000000001</v>
+        <v>0.192</v>
       </c>
       <c r="AP16" t="n">
-        <v>8.401300000000001</v>
+        <v>0</v>
       </c>
       <c r="AQ16" t="n">
-        <v>8.401300000000001</v>
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>7.043</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>7.043</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>7.043</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>7.043</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>8.916700000000001</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>8.5085</v>
       </c>
     </row>
     <row r="17">
@@ -2629,7 +2929,7 @@
         <v>45398</v>
       </c>
       <c r="B17" t="n">
-        <v>10.3125</v>
+        <v>4.6101</v>
       </c>
       <c r="C17" t="n">
         <v>0.508</v>
@@ -2671,7 +2971,7 @@
         <v>9.5517</v>
       </c>
       <c r="P17" t="n">
-        <v>0.2763</v>
+        <v>0.2091</v>
       </c>
       <c r="Q17" t="n">
         <v>16</v>
@@ -2689,10 +2989,10 @@
         <v>0.2</v>
       </c>
       <c r="V17" t="n">
-        <v>0.0706</v>
+        <v>0.0535</v>
       </c>
       <c r="W17" t="n">
-        <v>0.0553</v>
+        <v>0.0418</v>
       </c>
       <c r="X17" t="n">
         <v>0.0456</v>
@@ -2719,40 +3019,58 @@
         <v>1.0295</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.2112</v>
+        <v>0.1728</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.2112</v>
+        <v>0.1728</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>0.2522</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.1927</v>
+        <v>0.2306</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>0.0121</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.1927</v>
+        <v>0.2062</v>
       </c>
       <c r="AN17" t="n">
-        <v>8.2392</v>
+        <v>0.0121</v>
       </c>
       <c r="AO17" t="n">
-        <v>8.042299999999999</v>
+        <v>0.2062</v>
       </c>
       <c r="AP17" t="n">
-        <v>8.2392</v>
+        <v>0</v>
       </c>
       <c r="AQ17" t="n">
-        <v>8.042299999999999</v>
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>6.742</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>6.742</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>6.742</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>6.742</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>9.8415</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>8.9961</v>
       </c>
     </row>
     <row r="18">
@@ -2760,7 +3078,7 @@
         <v>45399</v>
       </c>
       <c r="B18" t="n">
-        <v>14.4646</v>
+        <v>6.4662</v>
       </c>
       <c r="C18" t="n">
         <v>1.016</v>
@@ -2802,7 +3120,7 @@
         <v>8.2217</v>
       </c>
       <c r="P18" t="n">
-        <v>0.1804</v>
+        <v>0.148</v>
       </c>
       <c r="Q18" t="n">
         <v>16</v>
@@ -2820,10 +3138,10 @@
         <v>0.2</v>
       </c>
       <c r="V18" t="n">
-        <v>0.0461</v>
+        <v>0.0378</v>
       </c>
       <c r="W18" t="n">
-        <v>0.0361</v>
+        <v>0.0296</v>
       </c>
       <c r="X18" t="n">
         <v>0.228</v>
@@ -2850,40 +3168,58 @@
         <v>1.139</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.2112</v>
+        <v>0.1728</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.2112</v>
+        <v>0.1728</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.2219</v>
+        <v>0.2522</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.2319</v>
+        <v>0.2306</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.2219</v>
+        <v>0.2302</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.2319</v>
+        <v>0.2384</v>
       </c>
       <c r="AN18" t="n">
-        <v>7.9015</v>
+        <v>0.2302</v>
       </c>
       <c r="AO18" t="n">
-        <v>7.7127</v>
+        <v>0.2384</v>
       </c>
       <c r="AP18" t="n">
-        <v>7.9015</v>
+        <v>0.0022</v>
       </c>
       <c r="AQ18" t="n">
-        <v>7.7127</v>
+        <v>0.0104</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>6.4657</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>6.4657</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>6.4657</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>6.4657</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>9.4381</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>8.6274</v>
       </c>
     </row>
     <row r="19">
@@ -2891,7 +3227,7 @@
         <v>45400</v>
       </c>
       <c r="B19" t="n">
-        <v>6.1167</v>
+        <v>2.7344</v>
       </c>
       <c r="C19" t="n">
         <v>11.176</v>
@@ -2933,7 +3269,7 @@
         <v>9.088800000000001</v>
       </c>
       <c r="P19" t="n">
-        <v>0.1323</v>
+        <v>0.1119</v>
       </c>
       <c r="Q19" t="n">
         <v>16</v>
@@ -2951,10 +3287,10 @@
         <v>0.2</v>
       </c>
       <c r="V19" t="n">
-        <v>0.0338</v>
+        <v>0.0286</v>
       </c>
       <c r="W19" t="n">
-        <v>0.0265</v>
+        <v>0.0224</v>
       </c>
       <c r="X19" t="n">
         <v>0.0912</v>
@@ -2981,40 +3317,58 @@
         <v>1.2486</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.2112</v>
+        <v>0.1728</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.2112</v>
+        <v>0.1728</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.4974</v>
+        <v>0.2522</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.5047</v>
+        <v>0.2306</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.4974</v>
+        <v>0.5026</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.6415</v>
+        <v>0.5088</v>
       </c>
       <c r="AN19" t="n">
-        <v>7.5956</v>
+        <v>0.5026</v>
       </c>
       <c r="AO19" t="n">
-        <v>7.4141</v>
+        <v>0.6456</v>
       </c>
       <c r="AP19" t="n">
-        <v>7.5956</v>
+        <v>0.4114</v>
       </c>
       <c r="AQ19" t="n">
-        <v>7.4141</v>
+        <v>0.4176</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>6.2154</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>6.2154</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>6.2154</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>6.2154</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>9.072800000000001</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>8.2935</v>
       </c>
     </row>
     <row r="20">
@@ -3022,7 +3376,7 @@
         <v>45401</v>
       </c>
       <c r="B20" t="n">
-        <v>11.3438</v>
+        <v>5.0711</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -3064,7 +3418,7 @@
         <v>10.4186</v>
       </c>
       <c r="P20" t="n">
-        <v>0.1247</v>
+        <v>0.1126</v>
       </c>
       <c r="Q20" t="n">
         <v>16</v>
@@ -3082,10 +3436,10 @@
         <v>0.2</v>
       </c>
       <c r="V20" t="n">
-        <v>0.0319</v>
+        <v>0.0288</v>
       </c>
       <c r="W20" t="n">
-        <v>0.0249</v>
+        <v>0.0225</v>
       </c>
       <c r="X20" t="n">
         <v>0.0912</v>
@@ -3112,40 +3466,58 @@
         <v>1.3581</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.2112</v>
+        <v>0.1728</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.2112</v>
+        <v>0.1728</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.0593</v>
+        <v>0.281</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.0663</v>
+        <v>0.2531</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.1505</v>
+        <v>0.0624</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.2031</v>
+        <v>0.0687</v>
       </c>
       <c r="AN20" t="n">
-        <v>7.3319</v>
+        <v>0.1536</v>
       </c>
       <c r="AO20" t="n">
-        <v>7.1566</v>
+        <v>0.2055</v>
       </c>
       <c r="AP20" t="n">
-        <v>7.3319</v>
+        <v>0</v>
       </c>
       <c r="AQ20" t="n">
-        <v>7.1566</v>
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>5.9996</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>5.9996</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>5.9996</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>5.9996</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>9.757300000000001</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>8.7873</v>
       </c>
     </row>
     <row r="21">
@@ -3153,7 +3525,7 @@
         <v>45402</v>
       </c>
       <c r="B21" t="n">
-        <v>11.1688</v>
+        <v>4.9929</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -3195,7 +3567,7 @@
         <v>10.6635</v>
       </c>
       <c r="P21" t="n">
-        <v>0.1328</v>
+        <v>0.1168</v>
       </c>
       <c r="Q21" t="n">
         <v>16</v>
@@ -3213,10 +3585,10 @@
         <v>0.2</v>
       </c>
       <c r="V21" t="n">
-        <v>0.034</v>
+        <v>0.0299</v>
       </c>
       <c r="W21" t="n">
-        <v>0.0266</v>
+        <v>0.0234</v>
       </c>
       <c r="X21" t="n">
         <v>0.228</v>
@@ -3243,40 +3615,58 @@
         <v>1.4676</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.2112</v>
+        <v>0.1728</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.2112</v>
+        <v>0.1728</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.194</v>
+        <v>0.3109</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.019</v>
+        <v>0.2764</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.1028</v>
+        <v>0.1981</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.019</v>
+        <v>0.0222</v>
       </c>
       <c r="AN21" t="n">
-        <v>7.0858</v>
+        <v>0.1069</v>
       </c>
       <c r="AO21" t="n">
-        <v>6.9165</v>
+        <v>0.0222</v>
       </c>
       <c r="AP21" t="n">
-        <v>7.0858</v>
+        <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>6.9165</v>
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>5.7983</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>5.7983</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>5.7983</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>5.7983</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>10.4324</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>9.2765</v>
       </c>
     </row>
     <row r="22">
@@ -3284,7 +3674,7 @@
         <v>45403</v>
       </c>
       <c r="B22" t="n">
-        <v>6.9188</v>
+        <v>3.093</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -3326,7 +3716,7 @@
         <v>12.725</v>
       </c>
       <c r="P22" t="n">
-        <v>0.1384</v>
+        <v>0.1236</v>
       </c>
       <c r="Q22" t="n">
         <v>16</v>
@@ -3344,10 +3734,10 @@
         <v>0.2</v>
       </c>
       <c r="V22" t="n">
-        <v>0.0354</v>
+        <v>0.0316</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0277</v>
+        <v>0.0247</v>
       </c>
       <c r="X22" t="n">
         <v>0.228</v>
@@ -3374,40 +3764,58 @@
         <v>1.5771</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.2112</v>
+        <v>0.1728</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.2112</v>
+        <v>0.1728</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0.1926</v>
+        <v>0.3425</v>
       </c>
       <c r="AK22" t="n">
-        <v>0.1547</v>
+        <v>0.3012</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.1014</v>
+        <v>0.1964</v>
       </c>
       <c r="AM22" t="n">
-        <v>0.2003</v>
+        <v>0.1577</v>
       </c>
       <c r="AN22" t="n">
-        <v>6.8558</v>
+        <v>0.1052</v>
       </c>
       <c r="AO22" t="n">
-        <v>6.6919</v>
+        <v>0.2033</v>
       </c>
       <c r="AP22" t="n">
-        <v>6.8558</v>
+        <v>0</v>
       </c>
       <c r="AQ22" t="n">
-        <v>6.6919</v>
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>11.1196</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>9.777699999999999</v>
       </c>
     </row>
     <row r="23">
@@ -3415,7 +3823,7 @@
         <v>45404</v>
       </c>
       <c r="B23" t="n">
-        <v>6.7896</v>
+        <v>3.0352</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -3457,7 +3865,7 @@
         <v>12.2243</v>
       </c>
       <c r="P23" t="n">
-        <v>0.1723</v>
+        <v>0.1463</v>
       </c>
       <c r="Q23" t="n">
         <v>17</v>
@@ -3475,10 +3883,10 @@
         <v>0.23</v>
       </c>
       <c r="V23" t="n">
-        <v>0.0675</v>
+        <v>0.0573</v>
       </c>
       <c r="W23" t="n">
-        <v>0.0396</v>
+        <v>0.0337</v>
       </c>
       <c r="X23" t="n">
         <v>0.0912</v>
@@ -3505,40 +3913,58 @@
         <v>1.6867</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.2112</v>
+        <v>0.1728</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.2112</v>
+        <v>0.1728</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.0237</v>
+        <v>0.3998</v>
       </c>
       <c r="AK23" t="n">
-        <v>0.1884</v>
+        <v>0.3348</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.0693</v>
+        <v>0.0339</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.0516</v>
+        <v>0.1943</v>
       </c>
       <c r="AN23" t="n">
-        <v>6.6402</v>
+        <v>0.0795</v>
       </c>
       <c r="AO23" t="n">
-        <v>6.4815</v>
+        <v>0.0575</v>
       </c>
       <c r="AP23" t="n">
-        <v>6.6402</v>
+        <v>0</v>
       </c>
       <c r="AQ23" t="n">
-        <v>6.4815</v>
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>5.4336</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>5.4336</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>5.4336</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>5.4336</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>12.571</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>10.5286</v>
       </c>
     </row>
     <row r="24">
@@ -3546,7 +3972,7 @@
         <v>45405</v>
       </c>
       <c r="B24" t="n">
-        <v>9.7521</v>
+        <v>4.3596</v>
       </c>
       <c r="C24" t="n">
         <v>30.48</v>
@@ -3588,7 +4014,7 @@
         <v>3.8894</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0806</v>
+        <v>0.06270000000000001</v>
       </c>
       <c r="Q24" t="n">
         <v>17</v>
@@ -3606,10 +4032,10 @@
         <v>0.23</v>
       </c>
       <c r="V24" t="n">
-        <v>0.0316</v>
+        <v>0.0245</v>
       </c>
       <c r="W24" t="n">
-        <v>0.0185</v>
+        <v>0.0144</v>
       </c>
       <c r="X24" t="n">
         <v>0.0456</v>
@@ -3636,40 +4062,58 @@
         <v>1.7962</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.2112</v>
+        <v>0.1728</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.2112</v>
+        <v>0.1728</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1.214</v>
+        <v>0.3998</v>
       </c>
       <c r="AK24" t="n">
-        <v>1.2271</v>
+        <v>0.3348</v>
       </c>
       <c r="AL24" t="n">
-        <v>1.214</v>
+        <v>1.2211</v>
       </c>
       <c r="AM24" t="n">
-        <v>1.4095</v>
+        <v>1.2312</v>
       </c>
       <c r="AN24" t="n">
-        <v>6.4377</v>
+        <v>1.2211</v>
       </c>
       <c r="AO24" t="n">
-        <v>6.2839</v>
+        <v>1.4136</v>
       </c>
       <c r="AP24" t="n">
-        <v>6.4377</v>
+        <v>1.1755</v>
       </c>
       <c r="AQ24" t="n">
-        <v>6.2839</v>
+        <v>1.1856</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>5.2679</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>5.2679</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>5.2679</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>5.2679</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>12.1878</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>10.2076</v>
       </c>
     </row>
     <row r="25">
@@ -3677,7 +4121,7 @@
         <v>45406</v>
       </c>
       <c r="B25" t="n">
-        <v>9.5875</v>
+        <v>4.286</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -3719,7 +4163,7 @@
         <v>9.507099999999999</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0693</v>
+        <v>0.0697</v>
       </c>
       <c r="Q25" t="n">
         <v>17</v>
@@ -3737,10 +4181,10 @@
         <v>0.23</v>
       </c>
       <c r="V25" t="n">
-        <v>0.0271</v>
+        <v>0.0273</v>
       </c>
       <c r="W25" t="n">
-        <v>0.0159</v>
+        <v>0.016</v>
       </c>
       <c r="X25" t="n">
         <v>0.228</v>
@@ -3767,40 +4211,58 @@
         <v>1.9057</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.2112</v>
+        <v>0.1728</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.2112</v>
+        <v>0.1728</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.2009</v>
+        <v>0.427</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.2121</v>
+        <v>0.3508</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.2009</v>
+        <v>0.2007</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.07530000000000001</v>
+        <v>0.212</v>
       </c>
       <c r="AN25" t="n">
-        <v>6.2473</v>
+        <v>0.2007</v>
       </c>
       <c r="AO25" t="n">
-        <v>6.098</v>
+        <v>0.0752</v>
       </c>
       <c r="AP25" t="n">
-        <v>6.2473</v>
+        <v>0</v>
       </c>
       <c r="AQ25" t="n">
-        <v>6.098</v>
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>5.1121</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>5.1121</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>5.1121</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>5.1121</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>12.6339</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>10.3796</v>
       </c>
     </row>
     <row r="26">
@@ -3808,7 +4270,7 @@
         <v>45407</v>
       </c>
       <c r="B26" t="n">
-        <v>6.1719</v>
+        <v>2.7456</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -3850,7 +4312,7 @@
         <v>13.5611</v>
       </c>
       <c r="P26" t="n">
-        <v>0.1141</v>
+        <v>0.1114</v>
       </c>
       <c r="Q26" t="n">
         <v>17</v>
@@ -3868,10 +4330,10 @@
         <v>0.23</v>
       </c>
       <c r="V26" t="n">
-        <v>0.0446</v>
+        <v>0.0436</v>
       </c>
       <c r="W26" t="n">
-        <v>0.0262</v>
+        <v>0.0256</v>
       </c>
       <c r="X26" t="n">
         <v>0.228</v>
@@ -3898,40 +4360,58 @@
         <v>2.0152</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.2112</v>
+        <v>0.1728</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.2112</v>
+        <v>0.1728</v>
       </c>
       <c r="AI26" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0.1834</v>
+        <v>0.4706</v>
       </c>
       <c r="AK26" t="n">
-        <v>0.0194</v>
+        <v>0.3764</v>
       </c>
       <c r="AL26" t="n">
-        <v>0.1378</v>
+        <v>0.1844</v>
       </c>
       <c r="AM26" t="n">
-        <v>0.2018</v>
+        <v>0.02</v>
       </c>
       <c r="AN26" t="n">
-        <v>6.0678</v>
+        <v>0.1388</v>
       </c>
       <c r="AO26" t="n">
-        <v>5.9227</v>
+        <v>0.2024</v>
       </c>
       <c r="AP26" t="n">
-        <v>6.0678</v>
+        <v>0</v>
       </c>
       <c r="AQ26" t="n">
-        <v>5.9227</v>
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>4.9652</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>4.9652</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>4.9652</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>4.9652</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>13.5234</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>10.8173</v>
       </c>
     </row>
     <row r="27">
@@ -3939,7 +4419,7 @@
         <v>45408</v>
       </c>
       <c r="B27" t="n">
-        <v>9.033300000000001</v>
+        <v>4.0383</v>
       </c>
       <c r="C27" t="n">
         <v>6.35</v>
@@ -3981,7 +4461,7 @@
         <v>7.3527</v>
       </c>
       <c r="P27" t="n">
-        <v>0.1172</v>
+        <v>0.0975</v>
       </c>
       <c r="Q27" t="n">
         <v>17</v>
@@ -3999,10 +4479,10 @@
         <v>0.23</v>
       </c>
       <c r="V27" t="n">
-        <v>0.0459</v>
+        <v>0.0382</v>
       </c>
       <c r="W27" t="n">
-        <v>0.027</v>
+        <v>0.0224</v>
       </c>
       <c r="X27" t="n">
         <v>0.0912</v>
@@ -4029,40 +4509,58 @@
         <v>2.1248</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.2112</v>
+        <v>0.1728</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.2112</v>
+        <v>0.1728</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0.2953</v>
+        <v>0.4706</v>
       </c>
       <c r="AK27" t="n">
-        <v>0.3598</v>
+        <v>0.3764</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.3409</v>
+        <v>0.303</v>
       </c>
       <c r="AM27" t="n">
-        <v>0.3142</v>
+        <v>0.3644</v>
       </c>
       <c r="AN27" t="n">
-        <v>5.8983</v>
+        <v>0.3486</v>
       </c>
       <c r="AO27" t="n">
-        <v>5.7573</v>
+        <v>0.3188</v>
       </c>
       <c r="AP27" t="n">
-        <v>5.8983</v>
+        <v>0.2118</v>
       </c>
       <c r="AQ27" t="n">
-        <v>5.7573</v>
+        <v>0.2276</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>4.8265</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>4.8265</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>4.8265</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>4.8265</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>13.1457</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>10.5152</v>
       </c>
     </row>
     <row r="28">
@@ -4070,7 +4568,7 @@
         <v>45409</v>
       </c>
       <c r="B28" t="n">
-        <v>11.4125</v>
+        <v>5.1018</v>
       </c>
       <c r="C28" t="n">
         <v>5.588</v>
@@ -4112,7 +4610,7 @@
         <v>10.4697</v>
       </c>
       <c r="P28" t="n">
-        <v>0.1551</v>
+        <v>0.1376</v>
       </c>
       <c r="Q28" t="n">
         <v>17</v>
@@ -4130,10 +4628,10 @@
         <v>0.23</v>
       </c>
       <c r="V28" t="n">
-        <v>0.0607</v>
+        <v>0.0539</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0357</v>
+        <v>0.0317</v>
       </c>
       <c r="X28" t="n">
         <v>0.0912</v>
@@ -4160,40 +4658,58 @@
         <v>2.2343</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.2112</v>
+        <v>0.1728</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.2112</v>
+        <v>0.1728</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0.2505</v>
+        <v>0.4706</v>
       </c>
       <c r="AK28" t="n">
-        <v>0.4123</v>
+        <v>0.3764</v>
       </c>
       <c r="AL28" t="n">
-        <v>0.2049</v>
+        <v>0.2573</v>
       </c>
       <c r="AM28" t="n">
-        <v>0.4123</v>
+        <v>0.4163</v>
       </c>
       <c r="AN28" t="n">
-        <v>5.738</v>
+        <v>0.2117</v>
       </c>
       <c r="AO28" t="n">
-        <v>5.6009</v>
+        <v>0.4163</v>
       </c>
       <c r="AP28" t="n">
-        <v>5.738</v>
+        <v>0.1661</v>
       </c>
       <c r="AQ28" t="n">
-        <v>5.6009</v>
+        <v>0.1883</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>4.6953</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>4.6953</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>4.6953</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>4.6953</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>12.7885</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>10.2294</v>
       </c>
     </row>
     <row r="29">
@@ -4201,7 +4717,7 @@
         <v>45410</v>
       </c>
       <c r="B29" t="n">
-        <v>11.5083</v>
+        <v>5.1447</v>
       </c>
       <c r="C29" t="n">
         <v>1.27</v>
@@ -4243,7 +4759,7 @@
         <v>10.5953</v>
       </c>
       <c r="P29" t="n">
-        <v>0.2062</v>
+        <v>0.1712</v>
       </c>
       <c r="Q29" t="n">
         <v>17</v>
@@ -4261,10 +4777,10 @@
         <v>0.23</v>
       </c>
       <c r="V29" t="n">
-        <v>0.08069999999999999</v>
+        <v>0.067</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0474</v>
+        <v>0.0394</v>
       </c>
       <c r="X29" t="n">
         <v>0.0912</v>
@@ -4291,40 +4807,58 @@
         <v>2.3438</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.2112</v>
+        <v>0.1728</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.2112</v>
+        <v>0.1728</v>
       </c>
       <c r="AI29" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0.0605</v>
+        <v>0.4876</v>
       </c>
       <c r="AK29" t="n">
-        <v>0.1394</v>
+        <v>0.3764</v>
       </c>
       <c r="AL29" t="n">
-        <v>0.1973</v>
+        <v>0.0742</v>
       </c>
       <c r="AM29" t="n">
-        <v>0.2306</v>
+        <v>0.1474</v>
       </c>
       <c r="AN29" t="n">
-        <v>5.5862</v>
+        <v>0.211</v>
       </c>
       <c r="AO29" t="n">
-        <v>5.4527</v>
+        <v>0.2386</v>
       </c>
       <c r="AP29" t="n">
-        <v>5.5862</v>
+        <v>0</v>
       </c>
       <c r="AQ29" t="n">
-        <v>5.4527</v>
+        <v>0.0106</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>4.5711</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>4.5711</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>4.5711</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>4.5711</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>12.9004</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>9.9588</v>
       </c>
     </row>
     <row r="30">
@@ -4332,7 +4866,7 @@
         <v>45411</v>
       </c>
       <c r="B30" t="n">
-        <v>7.5271</v>
+        <v>3.3649</v>
       </c>
       <c r="C30" t="n">
         <v>6.604</v>
@@ -4374,7 +4908,7 @@
         <v>4.802</v>
       </c>
       <c r="P30" t="n">
-        <v>0.073</v>
+        <v>0.0606</v>
       </c>
       <c r="Q30" t="n">
         <v>18</v>
@@ -4392,10 +4926,10 @@
         <v>0.3275</v>
       </c>
       <c r="V30" t="n">
-        <v>0.0417</v>
+        <v>0.0346</v>
       </c>
       <c r="W30" t="n">
-        <v>0.0239</v>
+        <v>0.0198</v>
       </c>
       <c r="X30" t="n">
         <v>0.228</v>
@@ -4422,40 +4956,58 @@
         <v>2.4533</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.2112</v>
+        <v>0.1728</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.2112</v>
+        <v>0.1728</v>
       </c>
       <c r="AI30" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0.4463</v>
+        <v>0.4876</v>
       </c>
       <c r="AK30" t="n">
-        <v>0.4641</v>
+        <v>0.3764</v>
       </c>
       <c r="AL30" t="n">
-        <v>0.2639</v>
+        <v>0.4534</v>
       </c>
       <c r="AM30" t="n">
-        <v>0.4185</v>
+        <v>0.4682</v>
       </c>
       <c r="AN30" t="n">
-        <v>5.4422</v>
+        <v>0.271</v>
       </c>
       <c r="AO30" t="n">
-        <v>5.3122</v>
+        <v>0.4226</v>
       </c>
       <c r="AP30" t="n">
-        <v>5.4422</v>
+        <v>0.2254</v>
       </c>
       <c r="AQ30" t="n">
-        <v>5.3122</v>
+        <v>0.2402</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>4.4533</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>4.4533</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>4.4533</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>4.4533</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>12.5679</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>9.7021</v>
       </c>
     </row>
     <row r="31">
@@ -4463,7 +5015,7 @@
         <v>45412</v>
       </c>
       <c r="B31" t="n">
-        <v>4.4667</v>
+        <v>1.9968</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -4505,7 +5057,7 @@
         <v>14.9791</v>
       </c>
       <c r="P31" t="n">
-        <v>0.1747</v>
+        <v>0.1639</v>
       </c>
       <c r="Q31" t="n">
         <v>18</v>
@@ -4523,10 +5075,10 @@
         <v>0.3275</v>
       </c>
       <c r="V31" t="n">
-        <v>0.0998</v>
+        <v>0.09370000000000001</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0572</v>
+        <v>0.0537</v>
       </c>
       <c r="X31" t="n">
         <v>0.228</v>
@@ -4553,40 +5105,58 @@
         <v>2.5629</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.2112</v>
+        <v>0.1728</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.2112</v>
+        <v>0.1728</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.2061</v>
+        <v>0.1728</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0.1282</v>
+        <v>0.5813</v>
       </c>
       <c r="AK31" t="n">
-        <v>0.034</v>
+        <v>0.4301</v>
       </c>
       <c r="AL31" t="n">
-        <v>0.1282</v>
+        <v>0.1343</v>
       </c>
       <c r="AM31" t="n">
-        <v>0.1708</v>
+        <v>0.0375</v>
       </c>
       <c r="AN31" t="n">
-        <v>5.3055</v>
+        <v>0.1343</v>
       </c>
       <c r="AO31" t="n">
-        <v>5.1787</v>
+        <v>0.1743</v>
       </c>
       <c r="AP31" t="n">
-        <v>5.3055</v>
+        <v>0</v>
       </c>
       <c r="AQ31" t="n">
-        <v>5.1787</v>
+        <v>0</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>4.3414</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>4.3414</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>4.3414</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>4.3414</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>14.6053</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>10.807</v>
       </c>
     </row>
     <row r="32">
@@ -4594,7 +5164,7 @@
         <v>45413</v>
       </c>
       <c r="B32" t="n">
-        <v>7.0854</v>
+        <v>3.1675</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -4636,7 +5206,7 @@
         <v>13.9901</v>
       </c>
       <c r="P32" t="n">
-        <v>0.2316</v>
+        <v>0.1965</v>
       </c>
       <c r="Q32" t="n">
         <v>18</v>
@@ -4654,10 +5224,10 @@
         <v>0.3275</v>
       </c>
       <c r="V32" t="n">
-        <v>0.1323</v>
+        <v>0.1123</v>
       </c>
       <c r="W32" t="n">
-        <v>0.07580000000000001</v>
+        <v>0.0643</v>
       </c>
       <c r="X32" t="n">
         <v>0.228</v>
@@ -4684,40 +5254,58 @@
         <v>2.6724</v>
       </c>
       <c r="AF32" t="n">
-        <v>1</v>
+        <v>0.1728</v>
       </c>
       <c r="AG32" t="n">
-        <v>2</v>
+        <v>0.1728</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.2979</v>
+        <v>0.2394</v>
       </c>
       <c r="AI32" t="n">
-        <v>1</v>
+        <v>0.1728</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0.09569999999999999</v>
+        <v>0.6935</v>
       </c>
       <c r="AK32" t="n">
-        <v>0.1522</v>
+        <v>0.4945</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>0.1157</v>
       </c>
       <c r="AM32" t="n">
-        <v>0.061</v>
+        <v>0.1637</v>
       </c>
       <c r="AN32" t="n">
-        <v>24.527</v>
+        <v>0</v>
       </c>
       <c r="AO32" t="n">
-        <v>49.054</v>
+        <v>0.0725</v>
       </c>
       <c r="AP32" t="n">
-        <v>7.3066</v>
+        <v>0</v>
       </c>
       <c r="AQ32" t="n">
-        <v>24.527</v>
+        <v>0</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>4.238</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>4.238</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>5.8729</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>4.238</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>17.0107</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>12.1275</v>
       </c>
     </row>
     <row r="33">
@@ -4725,7 +5313,7 @@
         <v>45414</v>
       </c>
       <c r="B33" t="n">
-        <v>6.4854</v>
+        <v>2.8992</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -4767,7 +5355,7 @@
         <v>12.7498</v>
       </c>
       <c r="P33" t="n">
-        <v>0.2396</v>
+        <v>0.1955</v>
       </c>
       <c r="Q33" t="n">
         <v>18</v>
@@ -4785,10 +5373,10 @@
         <v>0.3275</v>
       </c>
       <c r="V33" t="n">
-        <v>0.1369</v>
+        <v>0.1117</v>
       </c>
       <c r="W33" t="n">
-        <v>0.0785</v>
+        <v>0.064</v>
       </c>
       <c r="X33" t="n">
         <v>0.0456</v>
@@ -4815,40 +5403,58 @@
         <v>2.78</v>
       </c>
       <c r="AF33" t="n">
-        <v>1.0913</v>
+        <v>0.2389</v>
       </c>
       <c r="AG33" t="n">
-        <v>1.9417</v>
+        <v>0.1728</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.2979</v>
+        <v>0.2394</v>
       </c>
       <c r="AI33" t="n">
-        <v>0.9873</v>
+        <v>0.1728</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>0.8052</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>0.5585</v>
       </c>
       <c r="AL33" t="n">
-        <v>0.0911</v>
+        <v>0</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>0.0728</v>
       </c>
       <c r="AN33" t="n">
-        <v>26.1555</v>
+        <v>0.1163</v>
       </c>
       <c r="AO33" t="n">
-        <v>46.5361</v>
+        <v>0.0272</v>
       </c>
       <c r="AP33" t="n">
-        <v>7.1398</v>
+        <v>0</v>
       </c>
       <c r="AQ33" t="n">
-        <v>23.6619</v>
+        <v>0</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>5.7252</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>4.1412</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>5.7388</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>4.1412</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>19.2992</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>13.3849</v>
       </c>
     </row>
     <row r="34">
@@ -4856,7 +5462,7 @@
         <v>45415</v>
       </c>
       <c r="B34" t="n">
-        <v>6.675</v>
+        <v>2.984</v>
       </c>
       <c r="C34" t="n">
         <v>0.508</v>
@@ -4898,7 +5504,7 @@
         <v>11.3699</v>
       </c>
       <c r="P34" t="n">
-        <v>0.1618</v>
+        <v>0.1432</v>
       </c>
       <c r="Q34" t="n">
         <v>18</v>
@@ -4916,10 +5522,10 @@
         <v>0.3275</v>
       </c>
       <c r="V34" t="n">
-        <v>0.0924</v>
+        <v>0.0818</v>
       </c>
       <c r="W34" t="n">
-        <v>0.053</v>
+        <v>0.0469</v>
       </c>
       <c r="X34" t="n">
         <v>0.228</v>
@@ -4946,40 +5552,58 @@
         <v>2.88</v>
       </c>
       <c r="AF34" t="n">
-        <v>1.0913</v>
+        <v>0.2389</v>
       </c>
       <c r="AG34" t="n">
-        <v>1.9417</v>
+        <v>0.1728</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.2979</v>
+        <v>0.2394</v>
       </c>
       <c r="AI34" t="n">
-        <v>0.9873</v>
+        <v>0.1728</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0.1556</v>
+        <v>0.867</v>
       </c>
       <c r="AK34" t="n">
-        <v>0.195</v>
+        <v>0.5854</v>
       </c>
       <c r="AL34" t="n">
-        <v>0.1556</v>
+        <v>0.1662</v>
       </c>
       <c r="AM34" t="n">
-        <v>0.195</v>
+        <v>0.2011</v>
       </c>
       <c r="AN34" t="n">
-        <v>25.5718</v>
+        <v>0.1662</v>
       </c>
       <c r="AO34" t="n">
-        <v>45.4976</v>
+        <v>0.2011</v>
       </c>
       <c r="AP34" t="n">
-        <v>6.9805</v>
+        <v>0</v>
       </c>
       <c r="AQ34" t="n">
-        <v>23.1339</v>
+        <v>0</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>5.5974</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>4.0488</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>5.6108</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>4.0488</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>20.3168</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>13.7162</v>
       </c>
     </row>
     <row r="35">
@@ -4987,7 +5611,7 @@
         <v>45416</v>
       </c>
       <c r="B35" t="n">
-        <v>4.3979</v>
+        <v>1.966</v>
       </c>
       <c r="C35" t="n">
         <v>0.762</v>
@@ -5029,7 +5653,7 @@
         <v>14.1462</v>
       </c>
       <c r="P35" t="n">
-        <v>0.1981</v>
+        <v>0.1762</v>
       </c>
       <c r="Q35" t="n">
         <v>18</v>
@@ -5047,10 +5671,10 @@
         <v>0.3275</v>
       </c>
       <c r="V35" t="n">
-        <v>0.1132</v>
+        <v>0.1007</v>
       </c>
       <c r="W35" t="n">
-        <v>0.0649</v>
+        <v>0.0577</v>
       </c>
       <c r="X35" t="n">
         <v>0.228</v>
@@ -5077,40 +5701,58 @@
         <v>2.98</v>
       </c>
       <c r="AF35" t="n">
-        <v>1.0913</v>
+        <v>0.2389</v>
       </c>
       <c r="AG35" t="n">
-        <v>1.9417</v>
+        <v>0.1728</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.2979</v>
+        <v>0.2394</v>
       </c>
       <c r="AI35" t="n">
-        <v>0.9873</v>
+        <v>0.1728</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0.1448</v>
+        <v>0.9377</v>
       </c>
       <c r="AK35" t="n">
-        <v>0.1931</v>
+        <v>0.6131</v>
       </c>
       <c r="AL35" t="n">
-        <v>0.1448</v>
+        <v>0.1573</v>
       </c>
       <c r="AM35" t="n">
-        <v>0.1931</v>
+        <v>0.2003</v>
       </c>
       <c r="AN35" t="n">
-        <v>25.0136</v>
+        <v>0.1573</v>
       </c>
       <c r="AO35" t="n">
-        <v>44.5044</v>
+        <v>0.2003</v>
       </c>
       <c r="AP35" t="n">
-        <v>6.8281</v>
+        <v>0</v>
       </c>
       <c r="AQ35" t="n">
-        <v>22.6289</v>
+        <v>0</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>5.4752</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>3.9604</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>5.4883</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>3.9604</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>21.4934</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>14.0517</v>
       </c>
     </row>
     <row r="36">
@@ -5118,7 +5760,7 @@
         <v>45417</v>
       </c>
       <c r="B36" t="n">
-        <v>6.8833</v>
+        <v>3.0771</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -5160,7 +5802,7 @@
         <v>13.1199</v>
       </c>
       <c r="P36" t="n">
-        <v>0.1542</v>
+        <v>0.1439</v>
       </c>
       <c r="Q36" t="n">
         <v>18</v>
@@ -5178,10 +5820,10 @@
         <v>0.3275</v>
       </c>
       <c r="V36" t="n">
-        <v>0.0881</v>
+        <v>0.0822</v>
       </c>
       <c r="W36" t="n">
-        <v>0.0505</v>
+        <v>0.0471</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -5208,22 +5850,22 @@
         <v>3.08</v>
       </c>
       <c r="AF36" t="n">
-        <v>1.1794</v>
+        <v>0.3211</v>
       </c>
       <c r="AG36" t="n">
-        <v>1.9921</v>
+        <v>0.2199</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.386</v>
+        <v>0.3217</v>
       </c>
       <c r="AI36" t="n">
-        <v>1.0377</v>
+        <v>0.2199</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0</v>
+        <v>1.0199</v>
       </c>
       <c r="AK36" t="n">
-        <v>0</v>
+        <v>0.6602</v>
       </c>
       <c r="AL36" t="n">
         <v>0</v>
@@ -5232,16 +5874,34 @@
         <v>0</v>
       </c>
       <c r="AN36" t="n">
-        <v>26.4551</v>
+        <v>0</v>
       </c>
       <c r="AO36" t="n">
-        <v>44.6861</v>
+        <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>8.658099999999999</v>
+        <v>0</v>
       </c>
       <c r="AQ36" t="n">
-        <v>23.2779</v>
+        <v>0</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>7.2023</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>4.9327</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>7.2151</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>4.9327</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>22.8783</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>14.8084</v>
       </c>
     </row>
     <row r="37">
@@ -5249,7 +5909,7 @@
         <v>45418</v>
       </c>
       <c r="B37" t="n">
-        <v>7.7146</v>
+        <v>3.4487</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -5291,7 +5951,7 @@
         <v>12.2872</v>
       </c>
       <c r="P37" t="n">
-        <v>0.1711</v>
+        <v>0.1523</v>
       </c>
       <c r="Q37" t="n">
         <v>19</v>
@@ -5309,10 +5969,10 @@
         <v>0.45</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1344</v>
+        <v>0.1196</v>
       </c>
       <c r="W37" t="n">
-        <v>0.077</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -5339,22 +5999,22 @@
         <v>3.18</v>
       </c>
       <c r="AF37" t="n">
-        <v>1.3138</v>
+        <v>0.4407</v>
       </c>
       <c r="AG37" t="n">
-        <v>2.0691</v>
+        <v>0.2884</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.5204</v>
+        <v>0.4413</v>
       </c>
       <c r="AI37" t="n">
-        <v>1.1147</v>
+        <v>0.2884</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0</v>
+        <v>1.1396</v>
       </c>
       <c r="AK37" t="n">
-        <v>0</v>
+        <v>0.7287</v>
       </c>
       <c r="AL37" t="n">
         <v>0</v>
@@ -5363,16 +6023,34 @@
         <v>0</v>
       </c>
       <c r="AN37" t="n">
-        <v>28.8539</v>
+        <v>0</v>
       </c>
       <c r="AO37" t="n">
-        <v>45.4422</v>
+        <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>11.4291</v>
+        <v>0</v>
       </c>
       <c r="AQ37" t="n">
-        <v>24.4817</v>
+        <v>0</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>9.6791</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>6.3343</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>9.691599999999999</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>6.3343</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>25.0272</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>16.0035</v>
       </c>
     </row>
     <row r="38">
@@ -5380,7 +6058,7 @@
         <v>45419</v>
       </c>
       <c r="B38" t="n">
-        <v>8.722899999999999</v>
+        <v>3.8995</v>
       </c>
       <c r="C38" t="n">
         <v>3.81</v>
@@ -5422,7 +6100,7 @@
         <v>10.3463</v>
       </c>
       <c r="P38" t="n">
-        <v>0.1793</v>
+        <v>0.151</v>
       </c>
       <c r="Q38" t="n">
         <v>19</v>
@@ -5440,10 +6118,10 @@
         <v>0.45</v>
       </c>
       <c r="V38" t="n">
-        <v>0.1408</v>
+        <v>0.1186</v>
       </c>
       <c r="W38" t="n">
-        <v>0.08069999999999999</v>
+        <v>0.0679</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -5470,40 +6148,58 @@
         <v>3.28</v>
       </c>
       <c r="AF38" t="n">
-        <v>1.3138</v>
+        <v>0.4407</v>
       </c>
       <c r="AG38" t="n">
-        <v>2.0691</v>
+        <v>0.2884</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.5204</v>
+        <v>0.4413</v>
       </c>
       <c r="AI38" t="n">
-        <v>1.1147</v>
+        <v>0.2884</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0.0092</v>
+        <v>1.1396</v>
       </c>
       <c r="AK38" t="n">
-        <v>0.0693</v>
+        <v>0.7287</v>
       </c>
       <c r="AL38" t="n">
-        <v>0.0092</v>
+        <v>0.0314</v>
       </c>
       <c r="AM38" t="n">
-        <v>0.0693</v>
+        <v>0.08210000000000001</v>
       </c>
       <c r="AN38" t="n">
-        <v>28.2627</v>
+        <v>0.0314</v>
       </c>
       <c r="AO38" t="n">
-        <v>44.5112</v>
+        <v>0.08210000000000001</v>
       </c>
       <c r="AP38" t="n">
-        <v>11.195</v>
+        <v>0.0314</v>
       </c>
       <c r="AQ38" t="n">
-        <v>23.9802</v>
+        <v>0.08210000000000001</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>9.4808</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>6.2046</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>9.4931</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>6.2046</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>24.5144</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>15.6756</v>
       </c>
     </row>
     <row r="39">
@@ -5511,7 +6207,7 @@
         <v>45420</v>
       </c>
       <c r="B39" t="n">
-        <v>4.0938</v>
+        <v>1.8301</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -5553,7 +6249,7 @@
         <v>11.2926</v>
       </c>
       <c r="P39" t="n">
-        <v>0.1867</v>
+        <v>0.1548</v>
       </c>
       <c r="Q39" t="n">
         <v>19</v>
@@ -5571,10 +6267,10 @@
         <v>0.45</v>
       </c>
       <c r="V39" t="n">
-        <v>0.1467</v>
+        <v>0.1217</v>
       </c>
       <c r="W39" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.0697</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -5601,22 +6297,22 @@
         <v>3.38</v>
       </c>
       <c r="AF39" t="n">
-        <v>1.4605</v>
+        <v>0.5624</v>
       </c>
       <c r="AG39" t="n">
-        <v>2.1531</v>
+        <v>0.3581</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.6671</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="AI39" t="n">
-        <v>1.1987</v>
+        <v>0.3581</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0</v>
+        <v>1.2612</v>
       </c>
       <c r="AK39" t="n">
-        <v>0</v>
+        <v>0.7984</v>
       </c>
       <c r="AL39" t="n">
         <v>0</v>
@@ -5625,16 +6321,34 @@
         <v>0</v>
       </c>
       <c r="AN39" t="n">
-        <v>30.787</v>
+        <v>0</v>
       </c>
       <c r="AO39" t="n">
-        <v>45.3883</v>
+        <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>14.0619</v>
+        <v>0</v>
       </c>
       <c r="AQ39" t="n">
-        <v>25.2694</v>
+        <v>0</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>11.8551</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>7.5488</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>11.8671</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>7.5488</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>26.5869</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>16.8297</v>
       </c>
     </row>
     <row r="40">
@@ -5642,7 +6356,7 @@
         <v>45421</v>
       </c>
       <c r="B40" t="n">
-        <v>7.9292</v>
+        <v>3.5447</v>
       </c>
       <c r="C40" t="n">
         <v>5.588</v>
@@ -5684,7 +6398,7 @@
         <v>4.0334</v>
       </c>
       <c r="P40" t="n">
-        <v>0.0512</v>
+        <v>0.0444</v>
       </c>
       <c r="Q40" t="n">
         <v>19</v>
@@ -5702,10 +6416,10 @@
         <v>0.45</v>
       </c>
       <c r="V40" t="n">
-        <v>0.0403</v>
+        <v>0.0349</v>
       </c>
       <c r="W40" t="n">
-        <v>0.0231</v>
+        <v>0.02</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -5732,40 +6446,58 @@
         <v>3.48</v>
       </c>
       <c r="AF40" t="n">
-        <v>1.4605</v>
+        <v>0.5624</v>
       </c>
       <c r="AG40" t="n">
-        <v>2.1531</v>
+        <v>0.3581</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.6671</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="AI40" t="n">
-        <v>1.1987</v>
+        <v>0.3581</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0.1797</v>
+        <v>1.2612</v>
       </c>
       <c r="AK40" t="n">
-        <v>0.1969</v>
+        <v>0.7984</v>
       </c>
       <c r="AL40" t="n">
-        <v>0.1797</v>
+        <v>0.1851</v>
       </c>
       <c r="AM40" t="n">
-        <v>0.1969</v>
+        <v>0.2</v>
       </c>
       <c r="AN40" t="n">
-        <v>30.181</v>
+        <v>0.1851</v>
       </c>
       <c r="AO40" t="n">
-        <v>44.495</v>
+        <v>0.2</v>
       </c>
       <c r="AP40" t="n">
-        <v>13.7851</v>
+        <v>0.1851</v>
       </c>
       <c r="AQ40" t="n">
-        <v>24.7721</v>
+        <v>0.2</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>11.6218</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>7.4003</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>11.6336</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>7.4003</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>26.0636</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>16.4985</v>
       </c>
     </row>
     <row r="41">
@@ -5773,7 +6505,7 @@
         <v>45422</v>
       </c>
       <c r="B41" t="n">
-        <v>6.0208</v>
+        <v>2.6916</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -5815,7 +6547,7 @@
         <v>11.7744</v>
       </c>
       <c r="P41" t="n">
-        <v>0.1313</v>
+        <v>0.1224</v>
       </c>
       <c r="Q41" t="n">
         <v>19</v>
@@ -5833,10 +6565,10 @@
         <v>0.45</v>
       </c>
       <c r="V41" t="n">
-        <v>0.1032</v>
+        <v>0.09619999999999999</v>
       </c>
       <c r="W41" t="n">
-        <v>0.0591</v>
+        <v>0.0551</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -5863,22 +6595,22 @@
         <v>3.58</v>
       </c>
       <c r="AF41" t="n">
-        <v>1.5637</v>
+        <v>0.6586</v>
       </c>
       <c r="AG41" t="n">
-        <v>2.2122</v>
+        <v>0.4132</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.7703</v>
+        <v>0.6592</v>
       </c>
       <c r="AI41" t="n">
-        <v>1.2578</v>
+        <v>0.4132</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0</v>
+        <v>1.3574</v>
       </c>
       <c r="AK41" t="n">
-        <v>0</v>
+        <v>0.8535</v>
       </c>
       <c r="AL41" t="n">
         <v>0</v>
@@ -5887,16 +6619,34 @@
         <v>0</v>
       </c>
       <c r="AN41" t="n">
-        <v>31.6899</v>
+        <v>0</v>
       </c>
       <c r="AO41" t="n">
-        <v>44.8339</v>
+        <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>15.6104</v>
+        <v>0</v>
       </c>
       <c r="AQ41" t="n">
-        <v>25.4917</v>
+        <v>0</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>13.3471</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>8.374000000000001</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>13.3586</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>8.374000000000001</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>27.5102</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>17.2966</v>
       </c>
     </row>
     <row r="42">
@@ -5904,7 +6654,7 @@
         <v>45423</v>
       </c>
       <c r="B42" t="n">
-        <v>11.5312</v>
+        <v>5.1549</v>
       </c>
       <c r="C42" t="n">
         <v>1.016</v>
@@ -5946,7 +6696,7 @@
         <v>14.0791</v>
       </c>
       <c r="P42" t="n">
-        <v>0.224</v>
+        <v>0.1948</v>
       </c>
       <c r="Q42" t="n">
         <v>19</v>
@@ -5964,10 +6714,10 @@
         <v>0.45</v>
       </c>
       <c r="V42" t="n">
-        <v>0.176</v>
+        <v>0.153</v>
       </c>
       <c r="W42" t="n">
-        <v>0.1008</v>
+        <v>0.0876</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -5994,22 +6744,22 @@
         <v>3.68</v>
       </c>
       <c r="AF42" t="n">
-        <v>1.6996</v>
+        <v>0.7716</v>
       </c>
       <c r="AG42" t="n">
-        <v>2.273</v>
+        <v>0.4608</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.9062</v>
+        <v>0.7722</v>
       </c>
       <c r="AI42" t="n">
-        <v>1.3186</v>
+        <v>0.4608</v>
       </c>
       <c r="AJ42" t="n">
-        <v>0</v>
+        <v>1.4705</v>
       </c>
       <c r="AK42" t="n">
-        <v>0</v>
+        <v>0.9011</v>
       </c>
       <c r="AL42" t="n">
         <v>0</v>
@@ -6018,16 +6768,34 @@
         <v>0</v>
       </c>
       <c r="AN42" t="n">
-        <v>33.7931</v>
+        <v>0</v>
       </c>
       <c r="AO42" t="n">
-        <v>45.1934</v>
+        <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>18.0181</v>
+        <v>0</v>
       </c>
       <c r="AQ42" t="n">
-        <v>26.2175</v>
+        <v>0</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>15.3416</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>9.162699999999999</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>15.353</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>9.162699999999999</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>29.2366</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>17.9164</v>
       </c>
     </row>
     <row r="43">
@@ -6035,7 +6803,7 @@
         <v>45424</v>
       </c>
       <c r="B43" t="n">
-        <v>5.5646</v>
+        <v>2.4876</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -6077,7 +6845,7 @@
         <v>14.5199</v>
       </c>
       <c r="P43" t="n">
-        <v>0.2272</v>
+        <v>0.1934</v>
       </c>
       <c r="Q43" t="n">
         <v>19</v>
@@ -6095,10 +6863,10 @@
         <v>0.45</v>
       </c>
       <c r="V43" t="n">
-        <v>0.1785</v>
+        <v>0.152</v>
       </c>
       <c r="W43" t="n">
-        <v>0.1023</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -6125,22 +6893,22 @@
         <v>3.78</v>
       </c>
       <c r="AF43" t="n">
-        <v>1.8782</v>
+        <v>0.9236</v>
       </c>
       <c r="AG43" t="n">
-        <v>2.3753</v>
+        <v>0.5479000000000001</v>
       </c>
       <c r="AH43" t="n">
-        <v>1.0848</v>
+        <v>0.9242</v>
       </c>
       <c r="AI43" t="n">
-        <v>1.4209</v>
+        <v>0.5479000000000001</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0</v>
+        <v>1.6224</v>
       </c>
       <c r="AK43" t="n">
-        <v>0</v>
+        <v>0.9882</v>
       </c>
       <c r="AL43" t="n">
         <v>0</v>
@@ -6149,16 +6917,34 @@
         <v>0</v>
       </c>
       <c r="AN43" t="n">
-        <v>36.6488</v>
+        <v>0</v>
       </c>
       <c r="AO43" t="n">
-        <v>46.3488</v>
+        <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>21.167</v>
+        <v>0</v>
       </c>
       <c r="AQ43" t="n">
-        <v>27.7255</v>
+        <v>0</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>18.0222</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>10.691</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>18.0334</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>10.691</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>31.659</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>19.282</v>
       </c>
     </row>
     <row r="44">
@@ -6166,7 +6952,7 @@
         <v>45425</v>
       </c>
       <c r="B44" t="n">
-        <v>7.2188</v>
+        <v>3.2271</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -6208,7 +6994,7 @@
         <v>11.2427</v>
       </c>
       <c r="P44" t="n">
-        <v>0.2247</v>
+        <v>0.1803</v>
       </c>
       <c r="Q44" t="n">
         <v>20</v>
@@ -6226,10 +7012,10 @@
         <v>0.5775</v>
       </c>
       <c r="V44" t="n">
-        <v>0.2135</v>
+        <v>0.1713</v>
       </c>
       <c r="W44" t="n">
-        <v>0.1298</v>
+        <v>0.1041</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -6256,22 +7042,22 @@
         <v>3.88</v>
       </c>
       <c r="AF44" t="n">
-        <v>2.0917</v>
+        <v>1.0949</v>
       </c>
       <c r="AG44" t="n">
-        <v>2.5051</v>
+        <v>0.652</v>
       </c>
       <c r="AH44" t="n">
-        <v>1.2983</v>
+        <v>1.0954</v>
       </c>
       <c r="AI44" t="n">
-        <v>1.5507</v>
+        <v>0.652</v>
       </c>
       <c r="AJ44" t="n">
-        <v>0</v>
+        <v>1.7937</v>
       </c>
       <c r="AK44" t="n">
-        <v>0</v>
+        <v>1.0923</v>
       </c>
       <c r="AL44" t="n">
         <v>0</v>
@@ -6280,16 +7066,34 @@
         <v>0</v>
       </c>
       <c r="AN44" t="n">
-        <v>40.0703</v>
+        <v>0</v>
       </c>
       <c r="AO44" t="n">
-        <v>47.9895</v>
+        <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>24.8709</v>
+        <v>0</v>
       </c>
       <c r="AQ44" t="n">
-        <v>29.706</v>
+        <v>0</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>20.9745</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>12.4905</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>20.9854</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>12.4905</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>34.3624</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>20.9247</v>
       </c>
     </row>
     <row r="45">
@@ -6297,7 +7101,7 @@
         <v>45426</v>
       </c>
       <c r="B45" t="n">
-        <v>5.2583</v>
+        <v>2.3507</v>
       </c>
       <c r="C45" t="n">
         <v>0.254</v>
@@ -6339,7 +7143,7 @@
         <v>6.7729</v>
       </c>
       <c r="P45" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.0772</v>
       </c>
       <c r="Q45" t="n">
         <v>20</v>
@@ -6357,10 +7161,10 @@
         <v>0.5775</v>
       </c>
       <c r="V45" t="n">
-        <v>0.08260000000000001</v>
+        <v>0.0733</v>
       </c>
       <c r="W45" t="n">
-        <v>0.0502</v>
+        <v>0.0446</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -6387,22 +7191,22 @@
         <v>3.98</v>
       </c>
       <c r="AF45" t="n">
-        <v>2.1643</v>
+        <v>1.1582</v>
       </c>
       <c r="AG45" t="n">
-        <v>2.5453</v>
+        <v>0.6866</v>
       </c>
       <c r="AH45" t="n">
-        <v>1.3709</v>
+        <v>1.1588</v>
       </c>
       <c r="AI45" t="n">
-        <v>1.5909</v>
+        <v>0.6866</v>
       </c>
       <c r="AJ45" t="n">
-        <v>0</v>
+        <v>1.857</v>
       </c>
       <c r="AK45" t="n">
-        <v>0</v>
+        <v>1.1268</v>
       </c>
       <c r="AL45" t="n">
         <v>0</v>
@@ -6411,16 +7215,34 @@
         <v>0</v>
       </c>
       <c r="AN45" t="n">
-        <v>41.4619</v>
+        <v>0</v>
       </c>
       <c r="AO45" t="n">
-        <v>48.7603</v>
+        <v>0</v>
       </c>
       <c r="AP45" t="n">
-        <v>26.2625</v>
+        <v>0</v>
       </c>
       <c r="AQ45" t="n">
-        <v>30.4768</v>
+        <v>0</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>22.1877</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>13.1529</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>22.1986</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>13.1529</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>35.5756</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>21.5871</v>
       </c>
     </row>
     <row r="46">
@@ -6428,7 +7250,7 @@
         <v>45427</v>
       </c>
       <c r="B46" t="n">
-        <v>7.85</v>
+        <v>3.5093</v>
       </c>
       <c r="C46" t="n">
         <v>5.842</v>
@@ -6470,7 +7292,7 @@
         <v>8.766</v>
       </c>
       <c r="P46" t="n">
-        <v>0.0959</v>
+        <v>0.0916</v>
       </c>
       <c r="Q46" t="n">
         <v>20</v>
@@ -6488,10 +7310,10 @@
         <v>0.5775</v>
       </c>
       <c r="V46" t="n">
-        <v>0.0911</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="W46" t="n">
-        <v>0.0554</v>
+        <v>0.0529</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -6518,40 +7340,58 @@
         <v>4.0771</v>
       </c>
       <c r="AF46" t="n">
-        <v>2.1643</v>
+        <v>1.1582</v>
       </c>
       <c r="AG46" t="n">
-        <v>2.5453</v>
+        <v>0.6866</v>
       </c>
       <c r="AH46" t="n">
-        <v>1.3709</v>
+        <v>1.1588</v>
       </c>
       <c r="AI46" t="n">
-        <v>1.5909</v>
+        <v>0.6866</v>
       </c>
       <c r="AJ46" t="n">
-        <v>0.1389</v>
+        <v>1.857</v>
       </c>
       <c r="AK46" t="n">
-        <v>0.1746</v>
+        <v>1.1268</v>
       </c>
       <c r="AL46" t="n">
-        <v>0.1389</v>
+        <v>0.143</v>
       </c>
       <c r="AM46" t="n">
-        <v>0.1746</v>
+        <v>0.1771</v>
       </c>
       <c r="AN46" t="n">
-        <v>41.4619</v>
+        <v>0.143</v>
       </c>
       <c r="AO46" t="n">
-        <v>48.7603</v>
+        <v>0.1771</v>
       </c>
       <c r="AP46" t="n">
-        <v>26.2625</v>
+        <v>0.143</v>
       </c>
       <c r="AQ46" t="n">
-        <v>30.4768</v>
+        <v>0.1771</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>22.1877</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>13.1529</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>22.1986</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>13.1529</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>35.5756</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>21.5871</v>
       </c>
     </row>
     <row r="47">
@@ -6559,7 +7399,7 @@
         <v>45428</v>
       </c>
       <c r="B47" t="n">
-        <v>4.3792</v>
+        <v>1.9577</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -6601,7 +7441,7 @@
         <v>9.4863</v>
       </c>
       <c r="P47" t="n">
-        <v>0.1095</v>
+        <v>0.1019</v>
       </c>
       <c r="Q47" t="n">
         <v>20</v>
@@ -6619,10 +7459,10 @@
         <v>0.5775</v>
       </c>
       <c r="V47" t="n">
-        <v>0.104</v>
+        <v>0.0968</v>
       </c>
       <c r="W47" t="n">
-        <v>0.06320000000000001</v>
+        <v>0.0589</v>
       </c>
       <c r="X47" t="n">
         <v>0</v>
@@ -6649,22 +7489,22 @@
         <v>4.1724</v>
       </c>
       <c r="AF47" t="n">
-        <v>2.2683</v>
+        <v>1.255</v>
       </c>
       <c r="AG47" t="n">
-        <v>2.6085</v>
+        <v>0.7454</v>
       </c>
       <c r="AH47" t="n">
-        <v>1.4749</v>
+        <v>1.2556</v>
       </c>
       <c r="AI47" t="n">
-        <v>1.6541</v>
+        <v>0.7454</v>
       </c>
       <c r="AJ47" t="n">
-        <v>0</v>
+        <v>1.9539</v>
       </c>
       <c r="AK47" t="n">
-        <v>0</v>
+        <v>1.1857</v>
       </c>
       <c r="AL47" t="n">
         <v>0</v>
@@ -6673,16 +7513,34 @@
         <v>0</v>
       </c>
       <c r="AN47" t="n">
-        <v>43.4545</v>
+        <v>0</v>
       </c>
       <c r="AO47" t="n">
-        <v>49.9716</v>
+        <v>0</v>
       </c>
       <c r="AP47" t="n">
-        <v>28.2551</v>
+        <v>0</v>
       </c>
       <c r="AQ47" t="n">
-        <v>31.6881</v>
+        <v>0</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>24.0427</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>14.2805</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>24.0537</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>14.2805</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>37.4306</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>22.7148</v>
       </c>
     </row>
     <row r="48">
@@ -6690,7 +7548,7 @@
         <v>45429</v>
       </c>
       <c r="B48" t="n">
-        <v>4.1583</v>
+        <v>1.8589</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -6732,7 +7590,7 @@
         <v>13.3588</v>
       </c>
       <c r="P48" t="n">
-        <v>0.1595</v>
+        <v>0.1511</v>
       </c>
       <c r="Q48" t="n">
         <v>20</v>
@@ -6750,10 +7608,10 @@
         <v>0.5775</v>
       </c>
       <c r="V48" t="n">
-        <v>0.1515</v>
+        <v>0.1436</v>
       </c>
       <c r="W48" t="n">
-        <v>0.0921</v>
+        <v>0.0873</v>
       </c>
       <c r="X48" t="n">
         <v>0</v>
@@ -6780,22 +7638,22 @@
         <v>4.2676</v>
       </c>
       <c r="AF48" t="n">
-        <v>2.4199</v>
+        <v>1.3986</v>
       </c>
       <c r="AG48" t="n">
-        <v>2.7006</v>
+        <v>0.8327</v>
       </c>
       <c r="AH48" t="n">
-        <v>1.6264</v>
+        <v>1.3992</v>
       </c>
       <c r="AI48" t="n">
-        <v>1.7462</v>
+        <v>0.8327</v>
       </c>
       <c r="AJ48" t="n">
-        <v>0</v>
+        <v>2.0974</v>
       </c>
       <c r="AK48" t="n">
-        <v>0</v>
+        <v>1.273</v>
       </c>
       <c r="AL48" t="n">
         <v>0</v>
@@ -6804,16 +7662,34 @@
         <v>0</v>
       </c>
       <c r="AN48" t="n">
-        <v>46.3574</v>
+        <v>0</v>
       </c>
       <c r="AO48" t="n">
-        <v>51.7363</v>
+        <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>31.158</v>
+        <v>0</v>
       </c>
       <c r="AQ48" t="n">
-        <v>33.4527</v>
+        <v>0</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>26.793</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>15.9524</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>26.804</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>15.9524</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>40.181</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>24.3867</v>
       </c>
     </row>
     <row r="49">
@@ -6821,7 +7697,7 @@
         <v>45430</v>
       </c>
       <c r="B49" t="n">
-        <v>3.7729</v>
+        <v>1.6866</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -6863,7 +7739,7 @@
         <v>13.6735</v>
       </c>
       <c r="P49" t="n">
-        <v>0.1885</v>
+        <v>0.1699</v>
       </c>
       <c r="Q49" t="n">
         <v>20</v>
@@ -6881,10 +7757,10 @@
         <v>0.5775</v>
       </c>
       <c r="V49" t="n">
-        <v>0.1791</v>
+        <v>0.1614</v>
       </c>
       <c r="W49" t="n">
-        <v>0.1089</v>
+        <v>0.09810000000000001</v>
       </c>
       <c r="X49" t="n">
         <v>0</v>
@@ -6911,22 +7787,22 @@
         <v>4.3629</v>
       </c>
       <c r="AF49" t="n">
-        <v>2.5989</v>
+        <v>1.56</v>
       </c>
       <c r="AG49" t="n">
-        <v>2.8095</v>
+        <v>0.9308</v>
       </c>
       <c r="AH49" t="n">
-        <v>1.8055</v>
+        <v>1.5606</v>
       </c>
       <c r="AI49" t="n">
-        <v>1.8551</v>
+        <v>0.9308</v>
       </c>
       <c r="AJ49" t="n">
-        <v>0</v>
+        <v>2.2589</v>
       </c>
       <c r="AK49" t="n">
-        <v>0</v>
+        <v>1.3711</v>
       </c>
       <c r="AL49" t="n">
         <v>0</v>
@@ -6935,16 +7811,34 @@
         <v>0</v>
       </c>
       <c r="AN49" t="n">
-        <v>49.7882</v>
+        <v>0</v>
       </c>
       <c r="AO49" t="n">
-        <v>53.8219</v>
+        <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>34.5888</v>
+        <v>0</v>
       </c>
       <c r="AQ49" t="n">
-        <v>35.5383</v>
+        <v>0</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>29.8855</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>17.8323</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>29.8964</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>17.8323</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>43.2734</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>26.2666</v>
       </c>
     </row>
     <row r="50">
@@ -6952,7 +7846,7 @@
         <v>45431</v>
       </c>
       <c r="B50" t="n">
-        <v>5.725</v>
+        <v>2.5593</v>
       </c>
       <c r="C50" t="n">
         <v>0.762</v>
@@ -6994,7 +7888,7 @@
         <v>12.7132</v>
       </c>
       <c r="P50" t="n">
-        <v>0.2089</v>
+        <v>0.1783</v>
       </c>
       <c r="Q50" t="n">
         <v>20</v>
@@ -7012,10 +7906,10 @@
         <v>0.5775</v>
       </c>
       <c r="V50" t="n">
-        <v>0.1985</v>
+        <v>0.1693</v>
       </c>
       <c r="W50" t="n">
-        <v>0.1206</v>
+        <v>0.1029</v>
       </c>
       <c r="X50" t="n">
         <v>0</v>
@@ -7042,22 +7936,22 @@
         <v>4.4581</v>
       </c>
       <c r="AF50" t="n">
-        <v>2.7674</v>
+        <v>1.6994</v>
       </c>
       <c r="AG50" t="n">
-        <v>2.9001</v>
+        <v>1.0038</v>
       </c>
       <c r="AH50" t="n">
-        <v>1.974</v>
+        <v>1.6999</v>
       </c>
       <c r="AI50" t="n">
-        <v>1.9457</v>
+        <v>1.0038</v>
       </c>
       <c r="AJ50" t="n">
-        <v>0</v>
+        <v>2.3982</v>
       </c>
       <c r="AK50" t="n">
-        <v>0</v>
+        <v>1.4441</v>
       </c>
       <c r="AL50" t="n">
         <v>0</v>
@@ -7066,16 +7960,34 @@
         <v>0</v>
       </c>
       <c r="AN50" t="n">
-        <v>53.0154</v>
+        <v>0</v>
       </c>
       <c r="AO50" t="n">
-        <v>55.5583</v>
+        <v>0</v>
       </c>
       <c r="AP50" t="n">
-        <v>37.8161</v>
+        <v>0</v>
       </c>
       <c r="AQ50" t="n">
-        <v>37.2748</v>
+        <v>0</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>32.5549</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>19.2297</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>32.5658</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>19.2297</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>45.9428</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>27.6639</v>
       </c>
     </row>
     <row r="51">
@@ -7083,7 +7995,7 @@
         <v>45432</v>
       </c>
       <c r="B51" t="n">
-        <v>7.1875</v>
+        <v>3.2131</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -7125,7 +8037,7 @@
         <v>14.6988</v>
       </c>
       <c r="P51" t="n">
-        <v>0.2627</v>
+        <v>0.221</v>
       </c>
       <c r="Q51" t="n">
         <v>21</v>
@@ -7143,10 +8055,10 @@
         <v>0.73</v>
       </c>
       <c r="V51" t="n">
-        <v>0.2507</v>
+        <v>0.2109</v>
       </c>
       <c r="W51" t="n">
-        <v>0.1918</v>
+        <v>0.1613</v>
       </c>
       <c r="X51" t="n">
         <v>0</v>
@@ -7173,22 +8085,22 @@
         <v>4.5533</v>
       </c>
       <c r="AF51" t="n">
-        <v>3.0181</v>
+        <v>1.9102</v>
       </c>
       <c r="AG51" t="n">
-        <v>3.0919</v>
+        <v>1.1651</v>
       </c>
       <c r="AH51" t="n">
-        <v>2.2247</v>
+        <v>1.9108</v>
       </c>
       <c r="AI51" t="n">
-        <v>2.1375</v>
+        <v>1.1651</v>
       </c>
       <c r="AJ51" t="n">
-        <v>0</v>
+        <v>2.6091</v>
       </c>
       <c r="AK51" t="n">
-        <v>0</v>
+        <v>1.6054</v>
       </c>
       <c r="AL51" t="n">
         <v>0</v>
@@ -7197,16 +8109,34 @@
         <v>0</v>
       </c>
       <c r="AN51" t="n">
-        <v>57.8179</v>
+        <v>0</v>
       </c>
       <c r="AO51" t="n">
-        <v>59.2325</v>
+        <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>42.6185</v>
+        <v>0</v>
       </c>
       <c r="AQ51" t="n">
-        <v>40.949</v>
+        <v>0</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>36.5944</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>22.3202</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>36.6053</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>22.3202</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>49.9823</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>30.7544</v>
       </c>
     </row>
     <row r="52">
@@ -7214,7 +8144,7 @@
         <v>45433</v>
       </c>
       <c r="B52" t="n">
-        <v>9.4938</v>
+        <v>4.2441</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -7256,7 +8186,7 @@
         <v>14.5678</v>
       </c>
       <c r="P52" t="n">
-        <v>0.3114</v>
+        <v>0.2526</v>
       </c>
       <c r="Q52" t="n">
         <v>21</v>
@@ -7274,10 +8204,10 @@
         <v>0.73</v>
       </c>
       <c r="V52" t="n">
-        <v>0.2972</v>
+        <v>0.241</v>
       </c>
       <c r="W52" t="n">
-        <v>0.2274</v>
+        <v>0.1844</v>
       </c>
       <c r="X52" t="n">
         <v>0</v>
@@ -7304,22 +8234,22 @@
         <v>4.6486</v>
       </c>
       <c r="AF52" t="n">
-        <v>3.3153</v>
+        <v>2.1513</v>
       </c>
       <c r="AG52" t="n">
-        <v>3.3193</v>
+        <v>1.3495</v>
       </c>
       <c r="AH52" t="n">
-        <v>2.5219</v>
+        <v>2.1518</v>
       </c>
       <c r="AI52" t="n">
-        <v>2.3649</v>
+        <v>1.3495</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0</v>
+        <v>2.8501</v>
       </c>
       <c r="AK52" t="n">
-        <v>0</v>
+        <v>1.7898</v>
       </c>
       <c r="AL52" t="n">
         <v>0</v>
@@ -7328,16 +8258,34 @@
         <v>0</v>
       </c>
       <c r="AN52" t="n">
-        <v>63.5108</v>
+        <v>0</v>
       </c>
       <c r="AO52" t="n">
-        <v>63.5879</v>
+        <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>48.3114</v>
+        <v>0</v>
       </c>
       <c r="AQ52" t="n">
-        <v>45.3044</v>
+        <v>0</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>41.2118</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>25.8528</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>41.2228</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>25.8528</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>54.5997</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>34.2871</v>
       </c>
     </row>
     <row r="53">
@@ -7345,7 +8293,7 @@
         <v>45434</v>
       </c>
       <c r="B53" t="n">
-        <v>11.2687</v>
+        <v>5.0376</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -7387,7 +8335,7 @@
         <v>14.9127</v>
       </c>
       <c r="P53" t="n">
-        <v>0.2996</v>
+        <v>0.2489</v>
       </c>
       <c r="Q53" t="n">
         <v>21</v>
@@ -7405,10 +8353,10 @@
         <v>0.73</v>
       </c>
       <c r="V53" t="n">
-        <v>0.2859</v>
+        <v>0.2375</v>
       </c>
       <c r="W53" t="n">
-        <v>0.2187</v>
+        <v>0.1817</v>
       </c>
       <c r="X53" t="n">
         <v>0</v>
@@ -7435,22 +8383,22 @@
         <v>4.7438</v>
       </c>
       <c r="AF53" t="n">
-        <v>3.6011</v>
+        <v>2.3887</v>
       </c>
       <c r="AG53" t="n">
-        <v>3.538</v>
+        <v>1.5312</v>
       </c>
       <c r="AH53" t="n">
-        <v>2.8077</v>
+        <v>2.3893</v>
       </c>
       <c r="AI53" t="n">
-        <v>2.5836</v>
+        <v>1.5312</v>
       </c>
       <c r="AJ53" t="n">
-        <v>0</v>
+        <v>3.0876</v>
       </c>
       <c r="AK53" t="n">
-        <v>0</v>
+        <v>1.9715</v>
       </c>
       <c r="AL53" t="n">
         <v>0</v>
@@ -7459,16 +8407,34 @@
         <v>0</v>
       </c>
       <c r="AN53" t="n">
-        <v>68.98699999999999</v>
+        <v>0</v>
       </c>
       <c r="AO53" t="n">
-        <v>67.77760000000001</v>
+        <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>53.7876</v>
+        <v>0</v>
       </c>
       <c r="AQ53" t="n">
-        <v>49.4941</v>
+        <v>0</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>45.7614</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>29.3335</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>45.7723</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>29.3335</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>59.1493</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>37.7678</v>
       </c>
     </row>
     <row r="54">
@@ -7476,7 +8442,7 @@
         <v>45435</v>
       </c>
       <c r="B54" t="n">
-        <v>3.9312</v>
+        <v>1.7574</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -7518,7 +8484,7 @@
         <v>15.2812</v>
       </c>
       <c r="P54" t="n">
-        <v>0.2309</v>
+        <v>0.1997</v>
       </c>
       <c r="Q54" t="n">
         <v>21</v>
@@ -7536,10 +8502,10 @@
         <v>0.73</v>
       </c>
       <c r="V54" t="n">
-        <v>0.2203</v>
+        <v>0.1906</v>
       </c>
       <c r="W54" t="n">
-        <v>0.1685</v>
+        <v>0.1458</v>
       </c>
       <c r="X54" t="n">
         <v>0</v>
@@ -7566,22 +8532,22 @@
         <v>4.839</v>
       </c>
       <c r="AF54" t="n">
-        <v>3.8214</v>
+        <v>2.5793</v>
       </c>
       <c r="AG54" t="n">
-        <v>3.7065</v>
+        <v>1.677</v>
       </c>
       <c r="AH54" t="n">
-        <v>3.028</v>
+        <v>2.5799</v>
       </c>
       <c r="AI54" t="n">
-        <v>2.7521</v>
+        <v>1.677</v>
       </c>
       <c r="AJ54" t="n">
-        <v>0</v>
+        <v>3.2781</v>
       </c>
       <c r="AK54" t="n">
-        <v>0</v>
+        <v>2.1173</v>
       </c>
       <c r="AL54" t="n">
         <v>0</v>
@@ -7590,16 +8556,34 @@
         <v>0</v>
       </c>
       <c r="AN54" t="n">
-        <v>73.2069</v>
+        <v>0</v>
       </c>
       <c r="AO54" t="n">
-        <v>71.0061</v>
+        <v>0</v>
       </c>
       <c r="AP54" t="n">
-        <v>58.0075</v>
+        <v>0</v>
       </c>
       <c r="AQ54" t="n">
-        <v>52.7226</v>
+        <v>0</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>49.4119</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>32.1264</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>49.4228</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>32.1264</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>62.7998</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>40.5606</v>
       </c>
     </row>
     <row r="55">
@@ -7607,7 +8591,7 @@
         <v>45436</v>
       </c>
       <c r="B55" t="n">
-        <v>7.0104</v>
+        <v>3.1339</v>
       </c>
       <c r="C55" t="n">
         <v>14.986</v>
@@ -7649,7 +8633,7 @@
         <v>9.8161</v>
       </c>
       <c r="P55" t="n">
-        <v>0.1375</v>
+        <v>0.1227</v>
       </c>
       <c r="Q55" t="n">
         <v>21</v>
@@ -7667,10 +8651,10 @@
         <v>0.73</v>
       </c>
       <c r="V55" t="n">
-        <v>0.1312</v>
+        <v>0.1171</v>
       </c>
       <c r="W55" t="n">
-        <v>0.1004</v>
+        <v>0.0896</v>
       </c>
       <c r="X55" t="n">
         <v>0</v>
@@ -7697,40 +8681,58 @@
         <v>4.9343</v>
       </c>
       <c r="AF55" t="n">
-        <v>3.8214</v>
+        <v>2.5793</v>
       </c>
       <c r="AG55" t="n">
-        <v>3.7065</v>
+        <v>1.677</v>
       </c>
       <c r="AH55" t="n">
-        <v>3.028</v>
+        <v>2.5799</v>
       </c>
       <c r="AI55" t="n">
-        <v>2.7521</v>
+        <v>1.677</v>
       </c>
       <c r="AJ55" t="n">
-        <v>0.4588</v>
+        <v>3.2781</v>
       </c>
       <c r="AK55" t="n">
-        <v>0.4896</v>
+        <v>2.1173</v>
       </c>
       <c r="AL55" t="n">
-        <v>0.4588</v>
+        <v>0.4729</v>
       </c>
       <c r="AM55" t="n">
-        <v>0.4896</v>
+        <v>0.5004</v>
       </c>
       <c r="AN55" t="n">
-        <v>73.2069</v>
+        <v>0.4729</v>
       </c>
       <c r="AO55" t="n">
-        <v>71.0061</v>
+        <v>0.5004</v>
       </c>
       <c r="AP55" t="n">
-        <v>58.0075</v>
+        <v>0.4729</v>
       </c>
       <c r="AQ55" t="n">
-        <v>52.7226</v>
+        <v>0.5004</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>49.4119</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>32.1264</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>49.4228</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>32.1264</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>62.7998</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>40.5606</v>
       </c>
     </row>
     <row r="56">
@@ -7738,7 +8740,7 @@
         <v>45437</v>
       </c>
       <c r="B56" t="n">
-        <v>5.1729</v>
+        <v>2.3125</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -7780,7 +8782,7 @@
         <v>15.6655</v>
       </c>
       <c r="P56" t="n">
-        <v>0.2253</v>
+        <v>0.1993</v>
       </c>
       <c r="Q56" t="n">
         <v>21</v>
@@ -7798,10 +8800,10 @@
         <v>0.73</v>
       </c>
       <c r="V56" t="n">
-        <v>0.215</v>
+        <v>0.1902</v>
       </c>
       <c r="W56" t="n">
-        <v>0.1645</v>
+        <v>0.1455</v>
       </c>
       <c r="X56" t="n">
         <v>0</v>
@@ -7828,22 +8830,22 @@
         <v>5.0295</v>
       </c>
       <c r="AF56" t="n">
-        <v>4.0364</v>
+        <v>2.7695</v>
       </c>
       <c r="AG56" t="n">
-        <v>3.871</v>
+        <v>1.8225</v>
       </c>
       <c r="AH56" t="n">
-        <v>3.243</v>
+        <v>2.77</v>
       </c>
       <c r="AI56" t="n">
-        <v>2.9166</v>
+        <v>1.8225</v>
       </c>
       <c r="AJ56" t="n">
-        <v>0</v>
+        <v>3.4683</v>
       </c>
       <c r="AK56" t="n">
-        <v>0</v>
+        <v>2.2627</v>
       </c>
       <c r="AL56" t="n">
         <v>0</v>
@@ -7852,16 +8854,34 @@
         <v>0</v>
       </c>
       <c r="AN56" t="n">
-        <v>77.32510000000001</v>
+        <v>0</v>
       </c>
       <c r="AO56" t="n">
-        <v>74.1568</v>
+        <v>0</v>
       </c>
       <c r="AP56" t="n">
-        <v>62.1257</v>
+        <v>0</v>
       </c>
       <c r="AQ56" t="n">
-        <v>55.8733</v>
+        <v>0</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>53.0547</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>34.9134</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>53.0656</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>34.9134</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>66.4426</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>43.3476</v>
       </c>
     </row>
     <row r="57">
@@ -7869,7 +8889,7 @@
         <v>45438</v>
       </c>
       <c r="B57" t="n">
-        <v>6.6708</v>
+        <v>2.9821</v>
       </c>
       <c r="C57" t="n">
         <v>18.034</v>
@@ -7911,7 +8931,7 @@
         <v>7.6307</v>
       </c>
       <c r="P57" t="n">
-        <v>0.1395</v>
+        <v>0.1129</v>
       </c>
       <c r="Q57" t="n">
         <v>21</v>
@@ -7929,10 +8949,10 @@
         <v>0.73</v>
       </c>
       <c r="V57" t="n">
-        <v>0.1331</v>
+        <v>0.1077</v>
       </c>
       <c r="W57" t="n">
-        <v>0.1018</v>
+        <v>0.0824</v>
       </c>
       <c r="X57" t="n">
         <v>0</v>
@@ -7959,40 +8979,58 @@
         <v>5.1248</v>
       </c>
       <c r="AF57" t="n">
-        <v>4.0364</v>
+        <v>2.7695</v>
       </c>
       <c r="AG57" t="n">
-        <v>3.871</v>
+        <v>1.8225</v>
       </c>
       <c r="AH57" t="n">
-        <v>3.243</v>
+        <v>2.77</v>
       </c>
       <c r="AI57" t="n">
-        <v>2.9166</v>
+        <v>1.8225</v>
       </c>
       <c r="AJ57" t="n">
-        <v>0.5769</v>
+        <v>3.4683</v>
       </c>
       <c r="AK57" t="n">
-        <v>0.6082</v>
+        <v>2.2627</v>
       </c>
       <c r="AL57" t="n">
-        <v>0.5769</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="AM57" t="n">
-        <v>0.6082</v>
+        <v>0.6276</v>
       </c>
       <c r="AN57" t="n">
-        <v>77.32510000000001</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="AO57" t="n">
-        <v>74.1568</v>
+        <v>0.6276</v>
       </c>
       <c r="AP57" t="n">
-        <v>62.1257</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="AQ57" t="n">
-        <v>55.8733</v>
+        <v>0.6276</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>53.0547</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>34.9134</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>53.0656</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>34.9134</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>66.4426</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>43.3476</v>
       </c>
     </row>
     <row r="58">
@@ -8000,7 +9038,7 @@
         <v>45439</v>
       </c>
       <c r="B58" t="n">
-        <v>10.7729</v>
+        <v>4.8159</v>
       </c>
       <c r="C58" t="n">
         <v>2.286</v>
@@ -8042,7 +9080,7 @@
         <v>9.0505</v>
       </c>
       <c r="P58" t="n">
-        <v>0.1532</v>
+        <v>0.1304</v>
       </c>
       <c r="Q58" t="n">
         <v>22</v>
@@ -8060,10 +9098,10 @@
         <v>0.875</v>
       </c>
       <c r="V58" t="n">
-        <v>0.1468</v>
+        <v>0.125</v>
       </c>
       <c r="W58" t="n">
-        <v>0.134</v>
+        <v>0.1141</v>
       </c>
       <c r="X58" t="n">
         <v>0</v>
@@ -8090,22 +9128,22 @@
         <v>5.22</v>
       </c>
       <c r="AF58" t="n">
-        <v>4.0931</v>
+        <v>2.8044</v>
       </c>
       <c r="AG58" t="n">
-        <v>3.915</v>
+        <v>1.8466</v>
       </c>
       <c r="AH58" t="n">
-        <v>3.2997</v>
+        <v>2.805</v>
       </c>
       <c r="AI58" t="n">
-        <v>2.9606</v>
+        <v>1.8466</v>
       </c>
       <c r="AJ58" t="n">
-        <v>0</v>
+        <v>3.5033</v>
       </c>
       <c r="AK58" t="n">
-        <v>0</v>
+        <v>2.2868</v>
       </c>
       <c r="AL58" t="n">
         <v>0</v>
@@ -8114,16 +9152,34 @@
         <v>0</v>
       </c>
       <c r="AN58" t="n">
-        <v>78.4128</v>
+        <v>0</v>
       </c>
       <c r="AO58" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AP58" t="n">
-        <v>63.2134</v>
+        <v>0</v>
       </c>
       <c r="AQ58" t="n">
-        <v>56.7165</v>
+        <v>0</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>53.7243</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>35.3749</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>53.7353</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>35.3749</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>67.1123</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>43.8091</v>
       </c>
     </row>
     <row r="59">
@@ -8131,7 +9187,7 @@
         <v>45440</v>
       </c>
       <c r="B59" t="n">
-        <v>8.0062</v>
+        <v>3.5791</v>
       </c>
       <c r="C59" t="n">
         <v>0.508</v>
@@ -8173,7 +9229,7 @@
         <v>13.543</v>
       </c>
       <c r="P59" t="n">
-        <v>0.1756</v>
+        <v>0.1602</v>
       </c>
       <c r="Q59" t="n">
         <v>22</v>
@@ -8191,10 +9247,10 @@
         <v>0.875</v>
       </c>
       <c r="V59" t="n">
-        <v>0.1683</v>
+        <v>0.1535</v>
       </c>
       <c r="W59" t="n">
-        <v>0.1537</v>
+        <v>0.1402</v>
       </c>
       <c r="X59" t="n">
         <v>0</v>
@@ -8221,22 +9277,22 @@
         <v>5.22</v>
       </c>
       <c r="AF59" t="n">
-        <v>4.2415</v>
+        <v>2.9379</v>
       </c>
       <c r="AG59" t="n">
-        <v>4.0487</v>
+        <v>1.9667</v>
       </c>
       <c r="AH59" t="n">
-        <v>3.4481</v>
+        <v>2.9385</v>
       </c>
       <c r="AI59" t="n">
-        <v>3.0943</v>
+        <v>1.9667</v>
       </c>
       <c r="AJ59" t="n">
-        <v>0</v>
+        <v>3.6368</v>
       </c>
       <c r="AK59" t="n">
-        <v>0</v>
+        <v>2.407</v>
       </c>
       <c r="AL59" t="n">
         <v>0</v>
@@ -8245,16 +9301,34 @@
         <v>0</v>
       </c>
       <c r="AN59" t="n">
-        <v>81.2543</v>
+        <v>0</v>
       </c>
       <c r="AO59" t="n">
-        <v>77.5611</v>
+        <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>66.0549</v>
+        <v>0</v>
       </c>
       <c r="AQ59" t="n">
-        <v>59.2775</v>
+        <v>0</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>56.2819</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>37.6767</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>56.2929</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>37.6767</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>69.6698</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>46.111</v>
       </c>
     </row>
     <row r="60">
@@ -8262,7 +9336,7 @@
         <v>45441</v>
       </c>
       <c r="B60" t="n">
-        <v>9.293799999999999</v>
+        <v>4.1547</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -8304,7 +9378,7 @@
         <v>14.106</v>
       </c>
       <c r="P60" t="n">
-        <v>0.187</v>
+        <v>0.1695</v>
       </c>
       <c r="Q60" t="n">
         <v>22</v>
@@ -8322,10 +9396,10 @@
         <v>0.875</v>
       </c>
       <c r="V60" t="n">
-        <v>0.1793</v>
+        <v>0.1624</v>
       </c>
       <c r="W60" t="n">
-        <v>0.1637</v>
+        <v>0.1483</v>
       </c>
       <c r="X60" t="n">
         <v>0</v>
@@ -8352,22 +9426,22 @@
         <v>5.22</v>
       </c>
       <c r="AF60" t="n">
-        <v>4.4207</v>
+        <v>3.1003</v>
       </c>
       <c r="AG60" t="n">
-        <v>4.2124</v>
+        <v>2.115</v>
       </c>
       <c r="AH60" t="n">
-        <v>3.6273</v>
+        <v>3.1009</v>
       </c>
       <c r="AI60" t="n">
-        <v>3.258</v>
+        <v>2.115</v>
       </c>
       <c r="AJ60" t="n">
-        <v>0</v>
+        <v>3.7992</v>
       </c>
       <c r="AK60" t="n">
-        <v>0</v>
+        <v>2.5553</v>
       </c>
       <c r="AL60" t="n">
         <v>0</v>
@@ -8376,16 +9450,34 @@
         <v>0</v>
       </c>
       <c r="AN60" t="n">
-        <v>84.68819999999999</v>
+        <v>0</v>
       </c>
       <c r="AO60" t="n">
-        <v>80.6964</v>
+        <v>0</v>
       </c>
       <c r="AP60" t="n">
-        <v>69.4888</v>
+        <v>0</v>
       </c>
       <c r="AQ60" t="n">
-        <v>62.4129</v>
+        <v>0</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>59.3936</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>40.5179</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>59.4046</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>40.5179</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>72.7816</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>48.9521</v>
       </c>
     </row>
     <row r="61">
@@ -8393,7 +9485,7 @@
         <v>45442</v>
       </c>
       <c r="B61" t="n">
-        <v>3.3021</v>
+        <v>1.4762</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -8435,7 +9527,7 @@
         <v>15.6072</v>
       </c>
       <c r="P61" t="n">
-        <v>0.2075</v>
+        <v>0.1835</v>
       </c>
       <c r="Q61" t="n">
         <v>22</v>
@@ -8453,10 +9545,10 @@
         <v>0.875</v>
       </c>
       <c r="V61" t="n">
-        <v>0.1989</v>
+        <v>0.1759</v>
       </c>
       <c r="W61" t="n">
-        <v>0.1816</v>
+        <v>0.1606</v>
       </c>
       <c r="X61" t="n">
         <v>0</v>
@@ -8483,22 +9575,22 @@
         <v>5.22</v>
       </c>
       <c r="AF61" t="n">
-        <v>4.6196</v>
+        <v>3.2762</v>
       </c>
       <c r="AG61" t="n">
-        <v>4.3939</v>
+        <v>2.2756</v>
       </c>
       <c r="AH61" t="n">
-        <v>3.8262</v>
+        <v>3.2768</v>
       </c>
       <c r="AI61" t="n">
-        <v>3.4395</v>
+        <v>2.2756</v>
       </c>
       <c r="AJ61" t="n">
-        <v>0</v>
+        <v>3.9751</v>
       </c>
       <c r="AK61" t="n">
-        <v>0</v>
+        <v>2.7159</v>
       </c>
       <c r="AL61" t="n">
         <v>0</v>
@@ -8507,16 +9599,34 @@
         <v>0</v>
       </c>
       <c r="AN61" t="n">
-        <v>88.4982</v>
+        <v>0</v>
       </c>
       <c r="AO61" t="n">
-        <v>84.1751</v>
+        <v>0</v>
       </c>
       <c r="AP61" t="n">
-        <v>73.2988</v>
+        <v>0</v>
       </c>
       <c r="AQ61" t="n">
-        <v>65.8916</v>
+        <v>0</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>62.7632</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>43.5945</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>62.7742</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>43.5945</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>76.1512</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>52.0287</v>
       </c>
     </row>
     <row r="62">
@@ -8524,7 +9634,7 @@
         <v>45443</v>
       </c>
       <c r="B62" t="n">
-        <v>6.1396</v>
+        <v>2.7446</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -8566,7 +9676,7 @@
         <v>13.8347</v>
       </c>
       <c r="P62" t="n">
-        <v>0.2624</v>
+        <v>0.2122</v>
       </c>
       <c r="Q62" t="n">
         <v>22</v>
@@ -8584,10 +9694,10 @@
         <v>0.875</v>
       </c>
       <c r="V62" t="n">
-        <v>0.2515</v>
+        <v>0.2034</v>
       </c>
       <c r="W62" t="n">
-        <v>0.2296</v>
+        <v>0.1857</v>
       </c>
       <c r="X62" t="n">
         <v>0</v>
@@ -8614,22 +9724,22 @@
         <v>5.22</v>
       </c>
       <c r="AF62" t="n">
-        <v>4.8711</v>
+        <v>3.4796</v>
       </c>
       <c r="AG62" t="n">
-        <v>4.6235</v>
+        <v>2.4613</v>
       </c>
       <c r="AH62" t="n">
-        <v>4.0777</v>
+        <v>3.4802</v>
       </c>
       <c r="AI62" t="n">
-        <v>3.6691</v>
+        <v>2.4613</v>
       </c>
       <c r="AJ62" t="n">
-        <v>0</v>
+        <v>4.1785</v>
       </c>
       <c r="AK62" t="n">
-        <v>0</v>
+        <v>2.9016</v>
       </c>
       <c r="AL62" t="n">
         <v>0</v>
@@ -8638,16 +9748,34 @@
         <v>0</v>
       </c>
       <c r="AN62" t="n">
-        <v>93.31570000000001</v>
+        <v>0</v>
       </c>
       <c r="AO62" t="n">
-        <v>88.5737</v>
+        <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>78.1163</v>
+        <v>0</v>
       </c>
       <c r="AQ62" t="n">
-        <v>70.2901</v>
+        <v>0</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>66.6591</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>47.1515</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>47.1515</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>80.047</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>55.5858</v>
       </c>
     </row>
     <row r="63">
@@ -8655,7 +9783,7 @@
         <v>45444</v>
       </c>
       <c r="B63" t="n">
-        <v>6.5854</v>
+        <v>2.9439</v>
       </c>
       <c r="C63" t="n">
         <v>5.842</v>
@@ -8697,7 +9825,7 @@
         <v>6.0321</v>
       </c>
       <c r="P63" t="n">
-        <v>0.1247</v>
+        <v>0.09810000000000001</v>
       </c>
       <c r="Q63" t="n">
         <v>22</v>
@@ -8715,10 +9843,10 @@
         <v>0.875</v>
       </c>
       <c r="V63" t="n">
-        <v>0.1195</v>
+        <v>0.094</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1091</v>
+        <v>0.0858</v>
       </c>
       <c r="X63" t="n">
         <v>0</v>
@@ -8745,40 +9873,58 @@
         <v>5.22</v>
       </c>
       <c r="AF63" t="n">
-        <v>4.8711</v>
+        <v>3.4796</v>
       </c>
       <c r="AG63" t="n">
-        <v>4.6235</v>
+        <v>2.4613</v>
       </c>
       <c r="AH63" t="n">
-        <v>4.0777</v>
+        <v>3.4802</v>
       </c>
       <c r="AI63" t="n">
-        <v>3.6691</v>
+        <v>2.4613</v>
       </c>
       <c r="AJ63" t="n">
-        <v>0.1105</v>
+        <v>4.1785</v>
       </c>
       <c r="AK63" t="n">
-        <v>0.1209</v>
+        <v>2.9016</v>
       </c>
       <c r="AL63" t="n">
-        <v>0.1105</v>
+        <v>0.136</v>
       </c>
       <c r="AM63" t="n">
-        <v>0.1209</v>
+        <v>0.1442</v>
       </c>
       <c r="AN63" t="n">
-        <v>93.31570000000001</v>
+        <v>0.136</v>
       </c>
       <c r="AO63" t="n">
-        <v>88.5737</v>
+        <v>0.1442</v>
       </c>
       <c r="AP63" t="n">
-        <v>78.1163</v>
+        <v>0.136</v>
       </c>
       <c r="AQ63" t="n">
-        <v>70.2901</v>
+        <v>0.1442</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>66.6591</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>47.1515</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>47.1515</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>80.047</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>55.5858</v>
       </c>
     </row>
     <row r="64">
@@ -8786,7 +9932,7 @@
         <v>45445</v>
       </c>
       <c r="B64" t="n">
-        <v>3.9917</v>
+        <v>1.7844</v>
       </c>
       <c r="C64" t="n">
         <v>0.254</v>
@@ -8828,7 +9974,7 @@
         <v>11.0482</v>
       </c>
       <c r="P64" t="n">
-        <v>0.1261</v>
+        <v>0.1222</v>
       </c>
       <c r="Q64" t="n">
         <v>22</v>
@@ -8846,10 +9992,10 @@
         <v>0.875</v>
       </c>
       <c r="V64" t="n">
-        <v>0.1208</v>
+        <v>0.1171</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1103</v>
+        <v>0.1069</v>
       </c>
       <c r="X64" t="n">
         <v>0</v>
@@ -8876,22 +10022,22 @@
         <v>5.22</v>
       </c>
       <c r="AF64" t="n">
-        <v>4.9819</v>
+        <v>3.5867</v>
       </c>
       <c r="AG64" t="n">
-        <v>4.7239</v>
+        <v>2.5582</v>
       </c>
       <c r="AH64" t="n">
-        <v>4.1885</v>
+        <v>3.5873</v>
       </c>
       <c r="AI64" t="n">
-        <v>3.7695</v>
+        <v>2.5582</v>
       </c>
       <c r="AJ64" t="n">
-        <v>0</v>
+        <v>4.2856</v>
       </c>
       <c r="AK64" t="n">
-        <v>0</v>
+        <v>2.9985</v>
       </c>
       <c r="AL64" t="n">
         <v>0</v>
@@ -8900,16 +10046,34 @@
         <v>0</v>
       </c>
       <c r="AN64" t="n">
-        <v>95.4389</v>
+        <v>0</v>
       </c>
       <c r="AO64" t="n">
-        <v>90.4956</v>
+        <v>0</v>
       </c>
       <c r="AP64" t="n">
-        <v>80.2396</v>
+        <v>0</v>
       </c>
       <c r="AQ64" t="n">
-        <v>72.21210000000001</v>
+        <v>0</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>68.7111</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>49.0085</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>68.7221</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>49.0085</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>82.099</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>57.4427</v>
       </c>
     </row>
     <row r="65">
@@ -8917,7 +10081,7 @@
         <v>45446</v>
       </c>
       <c r="B65" t="n">
-        <v>4.4083</v>
+        <v>1.9707</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -8959,7 +10123,7 @@
         <v>15.8959</v>
       </c>
       <c r="P65" t="n">
-        <v>0.2166</v>
+        <v>0.1993</v>
       </c>
       <c r="Q65" t="n">
         <v>23</v>
@@ -8977,10 +10141,10 @@
         <v>0.95</v>
       </c>
       <c r="V65" t="n">
-        <v>0.207</v>
+        <v>0.1905</v>
       </c>
       <c r="W65" t="n">
-        <v>0.2058</v>
+        <v>0.1893</v>
       </c>
       <c r="X65" t="n">
         <v>0</v>
@@ -9007,22 +10171,22 @@
         <v>5.22</v>
       </c>
       <c r="AF65" t="n">
-        <v>5.1889</v>
+        <v>3.7772</v>
       </c>
       <c r="AG65" t="n">
-        <v>4.9296</v>
+        <v>2.7476</v>
       </c>
       <c r="AH65" t="n">
-        <v>4.3955</v>
+        <v>3.7778</v>
       </c>
       <c r="AI65" t="n">
-        <v>3.9752</v>
+        <v>2.7476</v>
       </c>
       <c r="AJ65" t="n">
-        <v>0</v>
+        <v>4.476</v>
       </c>
       <c r="AK65" t="n">
-        <v>0</v>
+        <v>3.1878</v>
       </c>
       <c r="AL65" t="n">
         <v>0</v>
@@ -9031,16 +10195,34 @@
         <v>0</v>
       </c>
       <c r="AN65" t="n">
-        <v>99.405</v>
+        <v>0</v>
       </c>
       <c r="AO65" t="n">
-        <v>94.4376</v>
+        <v>0</v>
       </c>
       <c r="AP65" t="n">
-        <v>84.2056</v>
+        <v>0</v>
       </c>
       <c r="AQ65" t="n">
-        <v>76.1541</v>
+        <v>0</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>72.3599</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>52.6351</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>72.3708</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>52.6351</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>85.7478</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>61.0693</v>
       </c>
     </row>
     <row r="66">
@@ -9048,7 +10230,7 @@
         <v>45447</v>
       </c>
       <c r="B66" t="n">
-        <v>5.6896</v>
+        <v>2.5435</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -9090,7 +10272,7 @@
         <v>13.0365</v>
       </c>
       <c r="P66" t="n">
-        <v>0.2248</v>
+        <v>0.1911</v>
       </c>
       <c r="Q66" t="n">
         <v>23</v>
@@ -9108,10 +10290,10 @@
         <v>0.95</v>
       </c>
       <c r="V66" t="n">
-        <v>0.2148</v>
+        <v>0.1826</v>
       </c>
       <c r="W66" t="n">
-        <v>0.2135</v>
+        <v>0.1815</v>
       </c>
       <c r="X66" t="n">
         <v>0</v>
@@ -9138,22 +10320,22 @@
         <v>5.22</v>
       </c>
       <c r="AF66" t="n">
-        <v>5.4038</v>
+        <v>3.9598</v>
       </c>
       <c r="AG66" t="n">
-        <v>5.1432</v>
+        <v>2.9291</v>
       </c>
       <c r="AH66" t="n">
-        <v>4.6104</v>
+        <v>3.9604</v>
       </c>
       <c r="AI66" t="n">
-        <v>4.1888</v>
+        <v>2.9291</v>
       </c>
       <c r="AJ66" t="n">
-        <v>0</v>
+        <v>4.6587</v>
       </c>
       <c r="AK66" t="n">
-        <v>0</v>
+        <v>3.3693</v>
       </c>
       <c r="AL66" t="n">
         <v>0</v>
@@ -9162,16 +10344,34 @@
         <v>0</v>
       </c>
       <c r="AN66" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AO66" t="n">
-        <v>98.5283</v>
+        <v>0</v>
       </c>
       <c r="AP66" t="n">
-        <v>88.32129999999999</v>
+        <v>0</v>
       </c>
       <c r="AQ66" t="n">
-        <v>80.2448</v>
+        <v>0</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>75.8584</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>56.1124</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>75.8694</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>56.1124</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>89.24630000000001</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>64.5467</v>
       </c>
     </row>
     <row r="67">
@@ -9179,7 +10379,7 @@
         <v>45448</v>
       </c>
       <c r="B67" t="n">
-        <v>7.4083</v>
+        <v>3.3118</v>
       </c>
       <c r="C67" t="n">
         <v>10.414</v>
@@ -9221,7 +10421,7 @@
         <v>8.0763</v>
       </c>
       <c r="P67" t="n">
-        <v>0.1248</v>
+        <v>0.1094</v>
       </c>
       <c r="Q67" t="n">
         <v>23</v>
@@ -9239,10 +10439,10 @@
         <v>0.95</v>
       </c>
       <c r="V67" t="n">
-        <v>0.1193</v>
+        <v>0.1046</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1186</v>
+        <v>0.1039</v>
       </c>
       <c r="X67" t="n">
         <v>0</v>
@@ -9269,40 +10469,58 @@
         <v>5.22</v>
       </c>
       <c r="AF67" t="n">
-        <v>5.4038</v>
+        <v>3.9598</v>
       </c>
       <c r="AG67" t="n">
-        <v>5.1432</v>
+        <v>2.9291</v>
       </c>
       <c r="AH67" t="n">
-        <v>4.6104</v>
+        <v>3.9604</v>
       </c>
       <c r="AI67" t="n">
-        <v>4.1888</v>
+        <v>2.9291</v>
       </c>
       <c r="AJ67" t="n">
-        <v>0.2907</v>
+        <v>4.6587</v>
       </c>
       <c r="AK67" t="n">
-        <v>0.2914</v>
+        <v>3.3693</v>
       </c>
       <c r="AL67" t="n">
-        <v>0.2907</v>
+        <v>0.3054</v>
       </c>
       <c r="AM67" t="n">
-        <v>0.2914</v>
+        <v>0.3061</v>
       </c>
       <c r="AN67" t="n">
-        <v>100</v>
+        <v>0.3054</v>
       </c>
       <c r="AO67" t="n">
-        <v>98.5283</v>
+        <v>0.3061</v>
       </c>
       <c r="AP67" t="n">
-        <v>88.32129999999999</v>
+        <v>0.3054</v>
       </c>
       <c r="AQ67" t="n">
-        <v>80.2448</v>
+        <v>0.3061</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>75.8584</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>56.1124</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>75.8694</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>56.1124</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>89.24630000000001</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>64.5467</v>
       </c>
     </row>
     <row r="68">
@@ -9310,7 +10528,7 @@
         <v>45449</v>
       </c>
       <c r="B68" t="n">
-        <v>10.1583</v>
+        <v>4.5412</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -9352,7 +10570,7 @@
         <v>15.5217</v>
       </c>
       <c r="P68" t="n">
-        <v>0.3072</v>
+        <v>0.2558</v>
       </c>
       <c r="Q68" t="n">
         <v>23</v>
@@ -9370,10 +10588,10 @@
         <v>0.95</v>
       </c>
       <c r="V68" t="n">
-        <v>0.2936</v>
+        <v>0.2445</v>
       </c>
       <c r="W68" t="n">
-        <v>0.2918</v>
+        <v>0.243</v>
       </c>
       <c r="X68" t="n">
         <v>0</v>
@@ -9400,22 +10618,22 @@
         <v>5.22</v>
       </c>
       <c r="AF68" t="n">
-        <v>5.6974</v>
+        <v>4.2043</v>
       </c>
       <c r="AG68" t="n">
-        <v>5.435</v>
+        <v>3.1721</v>
       </c>
       <c r="AH68" t="n">
-        <v>4.904</v>
+        <v>4.2049</v>
       </c>
       <c r="AI68" t="n">
-        <v>4.4806</v>
+        <v>3.1721</v>
       </c>
       <c r="AJ68" t="n">
-        <v>0</v>
+        <v>4.9031</v>
       </c>
       <c r="AK68" t="n">
-        <v>0</v>
+        <v>3.6123</v>
       </c>
       <c r="AL68" t="n">
         <v>0</v>
@@ -9424,16 +10642,34 @@
         <v>0</v>
       </c>
       <c r="AN68" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AO68" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AP68" t="n">
-        <v>93.94629999999999</v>
+        <v>0</v>
       </c>
       <c r="AQ68" t="n">
-        <v>85.8356</v>
+        <v>0</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>80.5421</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>60.7677</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>80.5531</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>60.7677</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>93.9301</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>69.202</v>
       </c>
     </row>
     <row r="69">
@@ -9441,7 +10677,7 @@
         <v>45450</v>
       </c>
       <c r="B69" t="n">
-        <v>9.7812</v>
+        <v>4.3726</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -9483,7 +10719,7 @@
         <v>15.1987</v>
       </c>
       <c r="P69" t="n">
-        <v>0.3089</v>
+        <v>0.2543</v>
       </c>
       <c r="Q69" t="n">
         <v>23</v>
@@ -9501,10 +10737,10 @@
         <v>0.95</v>
       </c>
       <c r="V69" t="n">
-        <v>0.2953</v>
+        <v>0.2431</v>
       </c>
       <c r="W69" t="n">
-        <v>0.2935</v>
+        <v>0.2416</v>
       </c>
       <c r="X69" t="n">
         <v>0</v>
@@ -9531,22 +10767,22 @@
         <v>5.22</v>
       </c>
       <c r="AF69" t="n">
-        <v>5.9927</v>
+        <v>4.4474</v>
       </c>
       <c r="AG69" t="n">
-        <v>5.7285</v>
+        <v>3.4137</v>
       </c>
       <c r="AH69" t="n">
-        <v>5.1993</v>
+        <v>4.448</v>
       </c>
       <c r="AI69" t="n">
-        <v>4.7741</v>
+        <v>3.4137</v>
       </c>
       <c r="AJ69" t="n">
-        <v>0</v>
+        <v>5.1463</v>
       </c>
       <c r="AK69" t="n">
-        <v>0</v>
+        <v>3.854</v>
       </c>
       <c r="AL69" t="n">
         <v>0</v>
@@ -9555,16 +10791,34 @@
         <v>0</v>
       </c>
       <c r="AN69" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AO69" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AP69" t="n">
-        <v>99.60299999999999</v>
+        <v>0</v>
       </c>
       <c r="AQ69" t="n">
-        <v>91.458</v>
+        <v>0</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>85.19929999999999</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>65.3967</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>85.2103</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>65.3967</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>98.5873</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>73.8309</v>
       </c>
     </row>
     <row r="70">
@@ -9572,7 +10826,7 @@
         <v>45451</v>
       </c>
       <c r="B70" t="n">
-        <v>6.4854</v>
+        <v>2.8992</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -9614,7 +10868,7 @@
         <v>10.0652</v>
       </c>
       <c r="P70" t="n">
-        <v>0.185</v>
+        <v>0.152</v>
       </c>
       <c r="Q70" t="n">
         <v>23</v>
@@ -9632,10 +10886,10 @@
         <v>0.95</v>
       </c>
       <c r="V70" t="n">
-        <v>0.1768</v>
+        <v>0.1452</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1757</v>
+        <v>0.1444</v>
       </c>
       <c r="X70" t="n">
         <v>0</v>
@@ -9662,22 +10916,22 @@
         <v>5.22</v>
       </c>
       <c r="AF70" t="n">
-        <v>6.1695</v>
+        <v>4.5927</v>
       </c>
       <c r="AG70" t="n">
-        <v>5.9042</v>
+        <v>3.5581</v>
       </c>
       <c r="AH70" t="n">
-        <v>5.3761</v>
+        <v>4.5932</v>
       </c>
       <c r="AI70" t="n">
-        <v>4.9498</v>
+        <v>3.5581</v>
       </c>
       <c r="AJ70" t="n">
-        <v>0</v>
+        <v>5.2915</v>
       </c>
       <c r="AK70" t="n">
-        <v>0</v>
+        <v>3.9983</v>
       </c>
       <c r="AL70" t="n">
         <v>0</v>
@@ -9686,16 +10940,34 @@
         <v>0</v>
       </c>
       <c r="AN70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>87.9819</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>68.1623</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>87.9928</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>68.1623</v>
+      </c>
+      <c r="AV70" t="n">
         <v>100</v>
       </c>
-      <c r="AO70" t="n">
-        <v>100</v>
-      </c>
-      <c r="AP70" t="n">
-        <v>100</v>
-      </c>
-      <c r="AQ70" t="n">
-        <v>94.82470000000001</v>
+      <c r="AW70" t="n">
+        <v>76.59650000000001</v>
       </c>
     </row>
     <row r="71">
@@ -9703,7 +10975,7 @@
         <v>45452</v>
       </c>
       <c r="B71" t="n">
-        <v>9.2271</v>
+        <v>4.1249</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -9745,7 +11017,7 @@
         <v>14.5658</v>
       </c>
       <c r="P71" t="n">
-        <v>0.2661</v>
+        <v>0.224</v>
       </c>
       <c r="Q71" t="n">
         <v>23</v>
@@ -9763,10 +11035,10 @@
         <v>0.95</v>
       </c>
       <c r="V71" t="n">
-        <v>0.2543</v>
+        <v>0.2141</v>
       </c>
       <c r="W71" t="n">
-        <v>0.2528</v>
+        <v>0.2128</v>
       </c>
       <c r="X71" t="n">
         <v>0</v>
@@ -9793,22 +11065,22 @@
         <v>5.22</v>
       </c>
       <c r="AF71" t="n">
-        <v>6.4238</v>
+        <v>4.8068</v>
       </c>
       <c r="AG71" t="n">
-        <v>6.1571</v>
+        <v>3.7709</v>
       </c>
       <c r="AH71" t="n">
-        <v>5.6304</v>
+        <v>4.8073</v>
       </c>
       <c r="AI71" t="n">
-        <v>5.2027</v>
+        <v>3.7709</v>
       </c>
       <c r="AJ71" t="n">
-        <v>0</v>
+        <v>5.5056</v>
       </c>
       <c r="AK71" t="n">
-        <v>0</v>
+        <v>4.2111</v>
       </c>
       <c r="AL71" t="n">
         <v>0</v>
@@ -9817,16 +11089,34 @@
         <v>0</v>
       </c>
       <c r="AN71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>92.0834</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>72.2389</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>92.0943</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>72.2389</v>
+      </c>
+      <c r="AV71" t="n">
         <v>100</v>
       </c>
-      <c r="AO71" t="n">
-        <v>100</v>
-      </c>
-      <c r="AP71" t="n">
-        <v>100</v>
-      </c>
-      <c r="AQ71" t="n">
-        <v>99.66759999999999</v>
+      <c r="AW71" t="n">
+        <v>80.67319999999999</v>
       </c>
     </row>
     <row r="72">
@@ -9834,7 +11124,7 @@
         <v>45453</v>
       </c>
       <c r="B72" t="n">
-        <v>8.1083</v>
+        <v>3.6247</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -9876,7 +11166,7 @@
         <v>11.459</v>
       </c>
       <c r="P72" t="n">
-        <v>0.1838</v>
+        <v>0.1566</v>
       </c>
       <c r="Q72" t="n">
         <v>24</v>
@@ -9894,10 +11184,10 @@
         <v>0.95</v>
       </c>
       <c r="V72" t="n">
-        <v>0.1744</v>
+        <v>0.1486</v>
       </c>
       <c r="W72" t="n">
-        <v>0.1746</v>
+        <v>0.1487</v>
       </c>
       <c r="X72" t="n">
         <v>0</v>
@@ -9924,22 +11214,22 @@
         <v>5.22</v>
       </c>
       <c r="AF72" t="n">
-        <v>6.5983</v>
+        <v>4.9554</v>
       </c>
       <c r="AG72" t="n">
-        <v>6.3316</v>
+        <v>3.9196</v>
       </c>
       <c r="AH72" t="n">
-        <v>5.8049</v>
+        <v>4.9559</v>
       </c>
       <c r="AI72" t="n">
-        <v>5.3772</v>
+        <v>3.9196</v>
       </c>
       <c r="AJ72" t="n">
-        <v>0</v>
+        <v>5.6542</v>
       </c>
       <c r="AK72" t="n">
-        <v>0</v>
+        <v>4.3599</v>
       </c>
       <c r="AL72" t="n">
         <v>0</v>
@@ -9948,16 +11238,34 @@
         <v>0</v>
       </c>
       <c r="AN72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>94.93040000000001</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>75.08799999999999</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>94.9413</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>75.08799999999999</v>
+      </c>
+      <c r="AV72" t="n">
         <v>100</v>
       </c>
-      <c r="AO72" t="n">
-        <v>100</v>
-      </c>
-      <c r="AP72" t="n">
-        <v>100</v>
-      </c>
-      <c r="AQ72" t="n">
-        <v>100</v>
+      <c r="AW72" t="n">
+        <v>83.5223</v>
       </c>
     </row>
     <row r="73">
@@ -9965,7 +11273,7 @@
         <v>45454</v>
       </c>
       <c r="B73" t="n">
-        <v>3.1979</v>
+        <v>1.4296</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -10007,7 +11315,7 @@
         <v>15.4691</v>
       </c>
       <c r="P73" t="n">
-        <v>0.2111</v>
+        <v>0.1863</v>
       </c>
       <c r="Q73" t="n">
         <v>24</v>
@@ -10025,10 +11333,10 @@
         <v>0.95</v>
       </c>
       <c r="V73" t="n">
-        <v>0.2004</v>
+        <v>0.1768</v>
       </c>
       <c r="W73" t="n">
-        <v>0.2005</v>
+        <v>0.177</v>
       </c>
       <c r="X73" t="n">
         <v>0</v>
@@ -10055,22 +11363,22 @@
         <v>5.22</v>
       </c>
       <c r="AF73" t="n">
-        <v>6.7987</v>
+        <v>5.1322</v>
       </c>
       <c r="AG73" t="n">
-        <v>6.5321</v>
+        <v>4.0965</v>
       </c>
       <c r="AH73" t="n">
-        <v>6.0052</v>
+        <v>5.1328</v>
       </c>
       <c r="AI73" t="n">
-        <v>5.5777</v>
+        <v>4.0965</v>
       </c>
       <c r="AJ73" t="n">
-        <v>0</v>
+        <v>5.831</v>
       </c>
       <c r="AK73" t="n">
-        <v>0</v>
+        <v>4.5368</v>
       </c>
       <c r="AL73" t="n">
         <v>0</v>
@@ -10079,16 +11387,34 @@
         <v>0</v>
       </c>
       <c r="AN73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>98.31780000000001</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>78.47799999999999</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>98.3288</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>78.47799999999999</v>
+      </c>
+      <c r="AV73" t="n">
         <v>100</v>
       </c>
-      <c r="AO73" t="n">
-        <v>100</v>
-      </c>
-      <c r="AP73" t="n">
-        <v>100</v>
-      </c>
-      <c r="AQ73" t="n">
-        <v>100</v>
+      <c r="AW73" t="n">
+        <v>86.9122</v>
       </c>
     </row>
     <row r="74">
@@ -10096,7 +11422,7 @@
         <v>45455</v>
       </c>
       <c r="B74" t="n">
-        <v>7.6229</v>
+        <v>3.4077</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -10138,7 +11464,7 @@
         <v>14.5049</v>
       </c>
       <c r="P74" t="n">
-        <v>0.3131</v>
+        <v>0.2506</v>
       </c>
       <c r="Q74" t="n">
         <v>24</v>
@@ -10156,10 +11482,10 @@
         <v>0.95</v>
       </c>
       <c r="V74" t="n">
-        <v>0.2973</v>
+        <v>0.2379</v>
       </c>
       <c r="W74" t="n">
-        <v>0.2975</v>
+        <v>0.2381</v>
       </c>
       <c r="X74" t="n">
         <v>0</v>
@@ -10186,22 +11512,22 @@
         <v>5.22</v>
       </c>
       <c r="AF74" t="n">
-        <v>7.0959</v>
+        <v>5.3701</v>
       </c>
       <c r="AG74" t="n">
-        <v>6.8296</v>
+        <v>4.3346</v>
       </c>
       <c r="AH74" t="n">
-        <v>6.3025</v>
+        <v>5.3707</v>
       </c>
       <c r="AI74" t="n">
-        <v>5.8752</v>
+        <v>4.3346</v>
       </c>
       <c r="AJ74" t="n">
-        <v>0</v>
+        <v>6.069</v>
       </c>
       <c r="AK74" t="n">
-        <v>0</v>
+        <v>4.7749</v>
       </c>
       <c r="AL74" t="n">
         <v>0</v>
@@ -10210,16 +11536,34 @@
         <v>0</v>
       </c>
       <c r="AN74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR74" t="n">
         <v>100</v>
       </c>
-      <c r="AO74" t="n">
+      <c r="AS74" t="n">
+        <v>83.0391</v>
+      </c>
+      <c r="AT74" t="n">
         <v>100</v>
       </c>
-      <c r="AP74" t="n">
+      <c r="AU74" t="n">
+        <v>83.0391</v>
+      </c>
+      <c r="AV74" t="n">
         <v>100</v>
       </c>
-      <c r="AQ74" t="n">
-        <v>100</v>
+      <c r="AW74" t="n">
+        <v>91.4734</v>
       </c>
     </row>
     <row r="75">
@@ -10227,7 +11571,7 @@
         <v>45456</v>
       </c>
       <c r="B75" t="n">
-        <v>8.7417</v>
+        <v>3.9079</v>
       </c>
       <c r="C75" t="n">
         <v>14.478</v>
@@ -10269,7 +11613,7 @@
         <v>15.6396</v>
       </c>
       <c r="P75" t="n">
-        <v>0.3267</v>
+        <v>0.2672</v>
       </c>
       <c r="Q75" t="n">
         <v>24</v>
@@ -10287,10 +11631,10 @@
         <v>0.95</v>
       </c>
       <c r="V75" t="n">
-        <v>0.3102</v>
+        <v>0.2536</v>
       </c>
       <c r="W75" t="n">
-        <v>0.3104</v>
+        <v>0.2538</v>
       </c>
       <c r="X75" t="n">
         <v>0</v>
@@ -10317,40 +11661,58 @@
         <v>5.22</v>
       </c>
       <c r="AF75" t="n">
-        <v>7.0959</v>
+        <v>5.3701</v>
       </c>
       <c r="AG75" t="n">
-        <v>6.8296</v>
+        <v>4.3346</v>
       </c>
       <c r="AH75" t="n">
-        <v>6.3025</v>
+        <v>5.3707</v>
       </c>
       <c r="AI75" t="n">
-        <v>5.8752</v>
+        <v>4.3346</v>
       </c>
       <c r="AJ75" t="n">
-        <v>0.2598</v>
+        <v>6.069</v>
       </c>
       <c r="AK75" t="n">
-        <v>0.2596</v>
+        <v>4.7749</v>
       </c>
       <c r="AL75" t="n">
-        <v>0.2598</v>
+        <v>0.3164</v>
       </c>
       <c r="AM75" t="n">
-        <v>0.2596</v>
+        <v>0.3162</v>
       </c>
       <c r="AN75" t="n">
+        <v>0.3164</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>0.3162</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>0.3164</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>0.3162</v>
+      </c>
+      <c r="AR75" t="n">
         <v>100</v>
       </c>
-      <c r="AO75" t="n">
+      <c r="AS75" t="n">
+        <v>83.0391</v>
+      </c>
+      <c r="AT75" t="n">
         <v>100</v>
       </c>
-      <c r="AP75" t="n">
+      <c r="AU75" t="n">
+        <v>83.0391</v>
+      </c>
+      <c r="AV75" t="n">
         <v>100</v>
       </c>
-      <c r="AQ75" t="n">
-        <v>100</v>
+      <c r="AW75" t="n">
+        <v>91.4734</v>
       </c>
     </row>
     <row r="76">
@@ -10358,7 +11720,7 @@
         <v>45457</v>
       </c>
       <c r="B76" t="n">
-        <v>4.9042</v>
+        <v>2.1924</v>
       </c>
       <c r="C76" t="n">
         <v>4.572</v>
@@ -10400,7 +11762,7 @@
         <v>17.5604</v>
       </c>
       <c r="P76" t="n">
-        <v>0.2462</v>
+        <v>0.2257</v>
       </c>
       <c r="Q76" t="n">
         <v>24</v>
@@ -10418,10 +11780,10 @@
         <v>0.95</v>
       </c>
       <c r="V76" t="n">
-        <v>0.2337</v>
+        <v>0.2143</v>
       </c>
       <c r="W76" t="n">
-        <v>0.2339</v>
+        <v>0.2144</v>
       </c>
       <c r="X76" t="n">
         <v>0</v>
@@ -10448,22 +11810,22 @@
         <v>5.22</v>
       </c>
       <c r="AF76" t="n">
-        <v>7.1496</v>
+        <v>5.4044</v>
       </c>
       <c r="AG76" t="n">
-        <v>6.8835</v>
+        <v>4.3691</v>
       </c>
       <c r="AH76" t="n">
-        <v>6.3562</v>
+        <v>5.405</v>
       </c>
       <c r="AI76" t="n">
-        <v>5.9291</v>
+        <v>4.3691</v>
       </c>
       <c r="AJ76" t="n">
-        <v>0</v>
+        <v>6.1032</v>
       </c>
       <c r="AK76" t="n">
-        <v>0</v>
+        <v>4.8093</v>
       </c>
       <c r="AL76" t="n">
         <v>0</v>
@@ -10472,16 +11834,34 @@
         <v>0</v>
       </c>
       <c r="AN76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR76" t="n">
         <v>100</v>
       </c>
-      <c r="AO76" t="n">
+      <c r="AS76" t="n">
+        <v>83.69880000000001</v>
+      </c>
+      <c r="AT76" t="n">
         <v>100</v>
       </c>
-      <c r="AP76" t="n">
+      <c r="AU76" t="n">
+        <v>83.69880000000001</v>
+      </c>
+      <c r="AV76" t="n">
         <v>100</v>
       </c>
-      <c r="AQ76" t="n">
-        <v>100</v>
+      <c r="AW76" t="n">
+        <v>92.1331</v>
       </c>
     </row>
     <row r="77">
@@ -10489,7 +11869,7 @@
         <v>45458</v>
       </c>
       <c r="B77" t="n">
-        <v>4.9104</v>
+        <v>2.1952</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -10531,7 +11911,7 @@
         <v>15.6202</v>
       </c>
       <c r="P77" t="n">
-        <v>0.2601</v>
+        <v>0.2221</v>
       </c>
       <c r="Q77" t="n">
         <v>24</v>
@@ -10549,10 +11929,10 @@
         <v>0.95</v>
       </c>
       <c r="V77" t="n">
-        <v>0.2469</v>
+        <v>0.2108</v>
       </c>
       <c r="W77" t="n">
-        <v>0.2471</v>
+        <v>0.211</v>
       </c>
       <c r="X77" t="n">
         <v>0</v>
@@ -10579,22 +11959,22 @@
         <v>5.22</v>
       </c>
       <c r="AF77" t="n">
-        <v>7.3965</v>
+        <v>5.6152</v>
       </c>
       <c r="AG77" t="n">
-        <v>7.1306</v>
+        <v>4.5801</v>
       </c>
       <c r="AH77" t="n">
-        <v>6.6031</v>
+        <v>5.6158</v>
       </c>
       <c r="AI77" t="n">
-        <v>6.1762</v>
+        <v>4.5801</v>
       </c>
       <c r="AJ77" t="n">
-        <v>0</v>
+        <v>6.3141</v>
       </c>
       <c r="AK77" t="n">
-        <v>0</v>
+        <v>5.0203</v>
       </c>
       <c r="AL77" t="n">
         <v>0</v>
@@ -10603,16 +11983,34 @@
         <v>0</v>
       </c>
       <c r="AN77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR77" t="n">
         <v>100</v>
       </c>
-      <c r="AO77" t="n">
+      <c r="AS77" t="n">
+        <v>87.74039999999999</v>
+      </c>
+      <c r="AT77" t="n">
         <v>100</v>
       </c>
-      <c r="AP77" t="n">
+      <c r="AU77" t="n">
+        <v>87.74039999999999</v>
+      </c>
+      <c r="AV77" t="n">
         <v>100</v>
       </c>
-      <c r="AQ77" t="n">
-        <v>100</v>
+      <c r="AW77" t="n">
+        <v>96.1747</v>
       </c>
     </row>
     <row r="78">
@@ -10620,7 +12018,7 @@
         <v>45459</v>
       </c>
       <c r="B78" t="n">
-        <v>7.5562</v>
+        <v>3.3779</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -10662,7 +12060,7 @@
         <v>15.7246</v>
       </c>
       <c r="P78" t="n">
-        <v>0.343</v>
+        <v>0.2753</v>
       </c>
       <c r="Q78" t="n">
         <v>24</v>
@@ -10680,10 +12078,10 @@
         <v>0.95</v>
       </c>
       <c r="V78" t="n">
-        <v>0.3256</v>
+        <v>0.2613</v>
       </c>
       <c r="W78" t="n">
-        <v>0.3258</v>
+        <v>0.2615</v>
       </c>
       <c r="X78" t="n">
         <v>0</v>
@@ -10710,22 +12108,22 @@
         <v>5.22</v>
       </c>
       <c r="AF78" t="n">
-        <v>7.7221</v>
+        <v>5.8765</v>
       </c>
       <c r="AG78" t="n">
-        <v>7.4564</v>
+        <v>4.8416</v>
       </c>
       <c r="AH78" t="n">
-        <v>6.9287</v>
+        <v>5.8771</v>
       </c>
       <c r="AI78" t="n">
-        <v>6.502</v>
+        <v>4.8416</v>
       </c>
       <c r="AJ78" t="n">
-        <v>0</v>
+        <v>6.5754</v>
       </c>
       <c r="AK78" t="n">
-        <v>0</v>
+        <v>5.2818</v>
       </c>
       <c r="AL78" t="n">
         <v>0</v>
@@ -10734,15 +12132,33 @@
         <v>0</v>
       </c>
       <c r="AN78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR78" t="n">
         <v>100</v>
       </c>
-      <c r="AO78" t="n">
+      <c r="AS78" t="n">
+        <v>92.7505</v>
+      </c>
+      <c r="AT78" t="n">
         <v>100</v>
       </c>
-      <c r="AP78" t="n">
+      <c r="AU78" t="n">
+        <v>92.7505</v>
+      </c>
+      <c r="AV78" t="n">
         <v>100</v>
       </c>
-      <c r="AQ78" t="n">
+      <c r="AW78" t="n">
         <v>100</v>
       </c>
     </row>
@@ -10751,7 +12167,7 @@
         <v>45460</v>
       </c>
       <c r="B79" t="n">
-        <v>6.3567</v>
+        <v>2.8417</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -10793,7 +12209,7 @@
         <v>18.7359</v>
       </c>
       <c r="P79" t="n">
-        <v>0.2824</v>
+        <v>0.2569</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -10811,10 +12227,10 @@
         <v>0.929</v>
       </c>
       <c r="V79" t="n">
-        <v>0.2661</v>
+        <v>0.2421</v>
       </c>
       <c r="W79" t="n">
-        <v>0.2623</v>
+        <v>0.2386</v>
       </c>
       <c r="X79" t="n">
         <v>0</v>
@@ -10841,22 +12257,22 @@
         <v>5.22</v>
       </c>
       <c r="AF79" t="n">
-        <v>7.9882</v>
+        <v>6.1186</v>
       </c>
       <c r="AG79" t="n">
-        <v>7.7188</v>
+        <v>5.0802</v>
       </c>
       <c r="AH79" t="n">
-        <v>7.1948</v>
+        <v>6.1192</v>
       </c>
       <c r="AI79" t="n">
-        <v>6.7644</v>
+        <v>5.0802</v>
       </c>
       <c r="AJ79" t="n">
-        <v>0</v>
+        <v>6.8174</v>
       </c>
       <c r="AK79" t="n">
-        <v>0</v>
+        <v>5.5205</v>
       </c>
       <c r="AL79" t="n">
         <v>0</v>
@@ -10865,15 +12281,33 @@
         <v>0</v>
       </c>
       <c r="AN79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR79" t="n">
         <v>100</v>
       </c>
-      <c r="AO79" t="n">
+      <c r="AS79" t="n">
+        <v>97.32210000000001</v>
+      </c>
+      <c r="AT79" t="n">
         <v>100</v>
       </c>
-      <c r="AP79" t="n">
+      <c r="AU79" t="n">
+        <v>97.32210000000001</v>
+      </c>
+      <c r="AV79" t="n">
         <v>100</v>
       </c>
-      <c r="AQ79" t="n">
+      <c r="AW79" t="n">
         <v>100</v>
       </c>
     </row>

--- a/Weather_for_Penman/Penman_irrigation_results.xlsx
+++ b/Weather_for_Penman/Penman_irrigation_results.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW47"/>
+  <dimension ref="A1:BC47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -443,11 +443,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Time (LST)</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>AVG_WS (mps)</t>
@@ -560,130 +555,160 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
+          <t>CIUF (inch)</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>CFUF (inch)</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>CRUF (inch)</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>SIUF (inch)</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>SFUF (inch)</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>SRUF (inch)</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
           <t>CIRR (inch)</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>SIRR (inch)</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>CFRT (inch)</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>SFRT (inch)</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>CRZ (inch)</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>SRZ (inch)</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>AWHC (inch)</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>AWHS (inch)</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>CIWD (inch)</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>SIWD (inch)</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>CFWD (inch)</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>SFWD (inch)</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>CRWD (inch)</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>SRWD (inch)</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>CIWL (inch)</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>SIWL (inch)</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>CFWL (inch)</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>SFWL (inch)</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>CRWL (inch)</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>SRWL (inch)</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>CIWDP (%)</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>SIWDP (%)</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>CFWDP (%)</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>SFWDP (%)</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>CRWDP (%)</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>SRWDP (%)</t>
         </is>
@@ -759,45 +784,33 @@
       <c r="W2" t="n">
         <v>0.039</v>
       </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
         <v>4</v>
       </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>0.92</v>
       </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
@@ -835,6 +848,24 @@
         <v>0</v>
       </c>
       <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -918,72 +949,90 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
         <v>4.4762</v>
       </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>1.0295</v>
       </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
         <v>0.0387</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AM3" t="n">
+        <v>0.0327</v>
+      </c>
+      <c r="AN3" t="n">
         <v>0.0387</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AO3" t="n">
         <v>0.0387</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AP3" t="n">
         <v>0.0387</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AQ3" t="n">
         <v>0.0387</v>
       </c>
-      <c r="AK3" t="n">
-        <v>0.0387</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
       <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
         <v>3.7578</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AY3" t="n">
+        <v>3.175</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>3.7578</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="BA3" t="n">
         <v>3.7578</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="BB3" t="n">
         <v>3.7578</v>
       </c>
-      <c r="AV3" t="n">
-        <v>3.7578</v>
-      </c>
-      <c r="AW3" t="n">
+      <c r="BC3" t="n">
         <v>3.7578</v>
       </c>
     </row>
@@ -1067,72 +1116,90 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
         <v>4.9524</v>
       </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>1.139</v>
       </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
         <v>0.0747</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AM4" t="n">
+        <v>0.0567</v>
+      </c>
+      <c r="AN4" t="n">
         <v>0.0747</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AO4" t="n">
         <v>0.0747</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AP4" t="n">
         <v>0.0747</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AQ4" t="n">
         <v>0.0747</v>
       </c>
-      <c r="AK4" t="n">
-        <v>0.0747</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0</v>
-      </c>
       <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
         <v>6.562</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AY4" t="n">
+        <v>4.9817</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>6.562</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="BA4" t="n">
         <v>6.562</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="BB4" t="n">
         <v>6.562</v>
       </c>
-      <c r="AV4" t="n">
-        <v>6.562</v>
-      </c>
-      <c r="AW4" t="n">
+      <c r="BC4" t="n">
         <v>6.562</v>
       </c>
     </row>
@@ -1216,72 +1283,90 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
         <v>5.4286</v>
       </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>1.2486</v>
       </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
         <v>0.08019999999999999</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AM5" t="n">
+        <v>0.0502</v>
+      </c>
+      <c r="AN5" t="n">
         <v>0.08019999999999999</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AO5" t="n">
         <v>0.08019999999999999</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AP5" t="n">
         <v>0.08019999999999999</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AQ5" t="n">
         <v>0.08019999999999999</v>
       </c>
-      <c r="AK5" t="n">
-        <v>0.08019999999999999</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>0</v>
-      </c>
       <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
         <v>6.4219</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AY5" t="n">
+        <v>4.0191</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>6.4219</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="BA5" t="n">
         <v>6.4219</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="BB5" t="n">
         <v>6.4219</v>
       </c>
-      <c r="AV5" t="n">
-        <v>6.4219</v>
-      </c>
-      <c r="AW5" t="n">
+      <c r="BC5" t="n">
         <v>6.4219</v>
       </c>
     </row>
@@ -1365,72 +1450,90 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
         <v>5.9048</v>
       </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>1.3581</v>
       </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
         <v>0.08019999999999999</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AM6" t="n">
+        <v>0.0442</v>
+      </c>
+      <c r="AN6" t="n">
         <v>0.08019999999999999</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AO6" t="n">
         <v>0.08019999999999999</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AP6" t="n">
         <v>0.08019999999999999</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AQ6" t="n">
         <v>0.08019999999999999</v>
       </c>
-      <c r="AK6" t="n">
-        <v>0.08019999999999999</v>
-      </c>
-      <c r="AL6" t="n">
+      <c r="AR6" t="n">
         <v>0.2117</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AS6" t="n">
         <v>0.2117</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AT6" t="n">
         <v>0.2117</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AU6" t="n">
         <v>0.2117</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AV6" t="n">
         <v>0.2117</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AW6" t="n">
         <v>0.2117</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AX6" t="n">
         <v>5.904</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AY6" t="n">
+        <v>3.2532</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>5.904</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="BA6" t="n">
         <v>5.904</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="BB6" t="n">
         <v>5.904</v>
       </c>
-      <c r="AV6" t="n">
-        <v>5.904</v>
-      </c>
-      <c r="AW6" t="n">
+      <c r="BC6" t="n">
         <v>5.904</v>
       </c>
     </row>
@@ -1514,72 +1617,90 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
         <v>6.381</v>
       </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>1.4676</v>
       </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
         <v>0.1006</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AM7" t="n">
+        <v>0.0286</v>
+      </c>
+      <c r="AN7" t="n">
         <v>0.1006</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AO7" t="n">
         <v>0.1006</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AP7" t="n">
         <v>0.1006</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AQ7" t="n">
         <v>0.1006</v>
       </c>
-      <c r="AK7" t="n">
-        <v>0.1006</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
       <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
         <v>6.8524</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AY7" t="n">
+        <v>1.9465</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>6.8524</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="BA7" t="n">
         <v>6.8524</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="BB7" t="n">
         <v>6.8524</v>
       </c>
-      <c r="AV7" t="n">
-        <v>6.8524</v>
-      </c>
-      <c r="AW7" t="n">
+      <c r="BC7" t="n">
         <v>6.8524</v>
       </c>
     </row>
@@ -1663,72 +1784,90 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>-0.042</v>
       </c>
       <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
         <v>6.8571</v>
       </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>1.5771</v>
       </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
         <v>0.1308</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AM8" t="n">
+        <v>0.1008</v>
+      </c>
+      <c r="AN8" t="n">
         <v>0.1308</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AO8" t="n">
         <v>0.1308</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AP8" t="n">
         <v>0.1308</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AQ8" t="n">
         <v>0.1308</v>
       </c>
-      <c r="AK8" t="n">
-        <v>0.1308</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
       <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
         <v>8.292999999999999</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AY8" t="n">
+        <v>6.3908</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>8.292999999999999</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="BA8" t="n">
         <v>8.292999999999999</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="BB8" t="n">
         <v>8.292999999999999</v>
       </c>
-      <c r="AV8" t="n">
-        <v>8.292999999999999</v>
-      </c>
-      <c r="AW8" t="n">
+      <c r="BC8" t="n">
         <v>8.292999999999999</v>
       </c>
     </row>
@@ -1812,72 +1951,90 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
         <v>7.3333</v>
       </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>1.6867</v>
       </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
         <v>0.1648</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AM9" t="n">
+        <v>0.1228</v>
+      </c>
+      <c r="AN9" t="n">
         <v>0.1648</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AO9" t="n">
         <v>0.1648</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AP9" t="n">
         <v>0.1648</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AQ9" t="n">
         <v>0.1648</v>
       </c>
-      <c r="AK9" t="n">
-        <v>0.1648</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
       <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
         <v>9.769399999999999</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="AY9" t="n">
+        <v>7.2793</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>9.769399999999999</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="BA9" t="n">
         <v>9.769399999999999</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="BB9" t="n">
         <v>9.769399999999999</v>
       </c>
-      <c r="AV9" t="n">
-        <v>9.769399999999999</v>
-      </c>
-      <c r="AW9" t="n">
+      <c r="BC9" t="n">
         <v>9.769399999999999</v>
       </c>
     </row>
@@ -1961,72 +2118,90 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
         <v>7.8095</v>
       </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>1.7962</v>
       </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
         <v>0.1704</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AM10" t="n">
+        <v>0.1044</v>
+      </c>
+      <c r="AN10" t="n">
         <v>0.1704</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AO10" t="n">
         <v>0.1704</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AP10" t="n">
         <v>0.1704</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AQ10" t="n">
         <v>0.1704</v>
       </c>
-      <c r="AK10" t="n">
-        <v>0.1704</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
       <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
         <v>9.488300000000001</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AY10" t="n">
+        <v>5.8139</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>9.488300000000001</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="BA10" t="n">
         <v>9.488300000000001</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="BB10" t="n">
         <v>9.488300000000001</v>
       </c>
-      <c r="AV10" t="n">
-        <v>9.488300000000001</v>
-      </c>
-      <c r="AW10" t="n">
+      <c r="BC10" t="n">
         <v>9.488300000000001</v>
       </c>
     </row>
@@ -2110,72 +2285,90 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
         <v>8.2857</v>
       </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>1.9057</v>
       </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
         <v>0.2269</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AM11" t="n">
+        <v>0.1246</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.2269</v>
+      </c>
+      <c r="AO11" t="n">
         <v>0.2146</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AP11" t="n">
         <v>0.2269</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AQ11" t="n">
         <v>0.2146</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>0.2269</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0.2146</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
       <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
         <v>11.9083</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="AY11" t="n">
+        <v>6.5396</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>11.9083</v>
+      </c>
+      <c r="BA11" t="n">
         <v>11.2622</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="BB11" t="n">
         <v>11.9083</v>
       </c>
-      <c r="AU11" t="n">
-        <v>11.2622</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>11.9083</v>
-      </c>
-      <c r="AW11" t="n">
+      <c r="BC11" t="n">
         <v>11.2622</v>
       </c>
     </row>
@@ -2250,7 +2443,7 @@
         <v>0.0505</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>0.054</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -2259,73 +2452,91 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="AB12" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
         <v>8.761900000000001</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AI12" t="n">
         <v>4</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AJ12" t="n">
         <v>2.0152</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AK12" t="n">
         <v>0.92</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AL12" t="n">
+        <v>0.2375</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.1511</v>
+      </c>
+      <c r="AN12" t="n">
         <v>0.2915</v>
       </c>
-      <c r="AG12" t="n">
-        <v>0.2651</v>
-      </c>
-      <c r="AH12" t="n">
+      <c r="AO12" t="n">
+        <v>0.2111</v>
+      </c>
+      <c r="AP12" t="n">
         <v>0.2915</v>
       </c>
-      <c r="AI12" t="n">
-        <v>0.2651</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0.2915</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0.2651</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>0.2051</v>
       </c>
       <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>11.7869</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>7.5002</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>14.4665</v>
       </c>
-      <c r="AS12" t="n">
-        <v>13.1571</v>
-      </c>
-      <c r="AT12" t="n">
+      <c r="BA12" t="n">
+        <v>10.4776</v>
+      </c>
+      <c r="BB12" t="n">
         <v>14.4665</v>
       </c>
-      <c r="AU12" t="n">
-        <v>13.1571</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>14.4665</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>13.1571</v>
+      <c r="BC12" t="n">
+        <v>10.1798</v>
       </c>
     </row>
     <row r="13">
@@ -2399,82 +2610,100 @@
         <v>0.0498</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-1.002</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>0.057</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>0.057</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>-0.708</v>
       </c>
       <c r="AB13" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>-0.168</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
         <v>9.238099999999999</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AI13" t="n">
         <v>4.4762</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AJ13" t="n">
         <v>2.1248</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AK13" t="n">
         <v>1.0295</v>
       </c>
-      <c r="AF13" t="n">
-        <v>0.3552</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0.3149</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0.3552</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0.3149</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0.3552</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0.3149</v>
-      </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1.3032</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>0.9089</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>0.2982</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>0.1829</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>0.2982</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>0.4229</v>
       </c>
       <c r="AR13" t="n">
-        <v>16.7162</v>
+        <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>14.8217</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>16.7162</v>
+        <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>14.8217</v>
+        <v>0</v>
       </c>
       <c r="AV13" t="n">
-        <v>16.7162</v>
+        <v>0</v>
       </c>
       <c r="AW13" t="n">
-        <v>14.8217</v>
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>61.333</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>42.7778</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>14.0336</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>8.609299999999999</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>14.0336</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>19.9046</v>
       </c>
     </row>
     <row r="14">
@@ -2548,82 +2777,100 @@
         <v>0.0399</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>0.078</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>0.141</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>0.126</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>0.075</v>
       </c>
       <c r="AB14" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
         <v>9.7143</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AI14" t="n">
         <v>4.9524</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AJ14" t="n">
         <v>2.2343</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AK14" t="n">
         <v>1.139</v>
       </c>
-      <c r="AF14" t="n">
-        <v>0.4062</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0.3549</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0.4062</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0.3549</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0.4062</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0.3549</v>
-      </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1.2762</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>0.8739</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>0.2082</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>0.1659</v>
       </c>
       <c r="AP14" t="n">
-        <v>0</v>
+        <v>0.2232</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>0.3849</v>
       </c>
       <c r="AR14" t="n">
-        <v>18.1825</v>
+        <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>15.8829</v>
+        <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>18.1825</v>
+        <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>15.8829</v>
+        <v>0</v>
       </c>
       <c r="AV14" t="n">
-        <v>18.1825</v>
+        <v>0</v>
       </c>
       <c r="AW14" t="n">
-        <v>15.8829</v>
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>57.1211</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>39.1118</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>9.320600000000001</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>7.4238</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>9.991899999999999</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>17.2256</v>
       </c>
     </row>
     <row r="15">
@@ -2697,82 +2944,100 @@
         <v>0.0245</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>0.057</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>0.054</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="AB15" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
         <v>10.1905</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AI15" t="n">
         <v>5.4286</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AJ15" t="n">
         <v>2.3438</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AK15" t="n">
         <v>1.2486</v>
       </c>
-      <c r="AF15" t="n">
-        <v>0.4062</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0.3549</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0.4062</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0.3549</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0.4062</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0.3549</v>
-      </c>
       <c r="AL15" t="n">
+        <v>1.2552</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.8289</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.1329</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.1692</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0.3489</v>
+      </c>
+      <c r="AR15" t="n">
         <v>0.5586</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AS15" t="n">
         <v>0.5655</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AT15" t="n">
         <v>0.5586</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AU15" t="n">
         <v>0.5655</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AV15" t="n">
         <v>0.5586</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AW15" t="n">
         <v>0.5655</v>
       </c>
-      <c r="AR15" t="n">
-        <v>17.3328</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>15.1407</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>17.3328</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>15.1407</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>17.3328</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>15.1407</v>
+      <c r="AX15" t="n">
+        <v>53.5559</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>35.3642</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>6.4531</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>5.6689</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>7.2211</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>14.8847</v>
       </c>
     </row>
     <row r="16">
@@ -2846,82 +3111,100 @@
         <v>0.0399</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>0.501</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>0.783</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="AB16" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
         <v>10.6667</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AI16" t="n">
         <v>5.9048</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AJ16" t="n">
         <v>2.4533</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AK16" t="n">
         <v>1.3581</v>
       </c>
-      <c r="AF16" t="n">
-        <v>0.4572</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0.3947</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0.4572</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0.3947</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0.4572</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0.3947</v>
-      </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>-0.1038</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>0.3287</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>-0.2988</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>0.0227</v>
       </c>
       <c r="AP16" t="n">
-        <v>0</v>
+        <v>-0.5628</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>-0.0163</v>
       </c>
       <c r="AR16" t="n">
-        <v>18.6362</v>
+        <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>16.0894</v>
+        <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>18.6362</v>
+        <v>0</v>
       </c>
       <c r="AU16" t="n">
-        <v>16.0894</v>
+        <v>0</v>
       </c>
       <c r="AV16" t="n">
-        <v>18.6362</v>
+        <v>0</v>
       </c>
       <c r="AW16" t="n">
-        <v>16.0894</v>
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>-4.2306</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>13.3992</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>-12.179</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0.9263</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>-22.9398</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>-0.6633</v>
       </c>
     </row>
     <row r="17">
@@ -2995,82 +3278,100 @@
         <v>0.0226</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-0.003</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>-0.5669999999999999</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>-0.081</v>
       </c>
       <c r="AB17" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>-0.285</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
         <v>11.1429</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AI17" t="n">
         <v>6.381</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AJ17" t="n">
         <v>2.5629</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AK17" t="n">
         <v>1.4676</v>
       </c>
-      <c r="AF17" t="n">
-        <v>0.4572</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0.3947</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0.4572</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0.3947</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0.4572</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0.3947</v>
-      </c>
       <c r="AL17" t="n">
+        <v>-0.1068</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.4097</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>-0.2958</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>-0.0433</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.0042</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.2687</v>
+      </c>
+      <c r="AR17" t="n">
         <v>0.6811</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AS17" t="n">
         <v>0.6874</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AT17" t="n">
         <v>0.6811</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AU17" t="n">
         <v>0.6874</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AV17" t="n">
         <v>0.6811</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AW17" t="n">
         <v>0.6874</v>
       </c>
-      <c r="AR17" t="n">
-        <v>17.8398</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>15.4018</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>17.8398</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>15.4018</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>17.8398</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>15.4018</v>
+      <c r="AX17" t="n">
+        <v>-4.1669</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>15.9871</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>-11.5414</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>-1.6885</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0.1642</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>10.4854</v>
       </c>
     </row>
     <row r="18">
@@ -3144,82 +3445,100 @@
         <v>0.03</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>0.126</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>0.054</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>0.099</v>
       </c>
       <c r="AB18" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
         <v>11.619</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AI18" t="n">
         <v>6.8571</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AJ18" t="n">
         <v>2.6724</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AK18" t="n">
         <v>1.5771</v>
       </c>
-      <c r="AF18" t="n">
-        <v>0.4572</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0.3947</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0.4572</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0.3947</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>0.4572</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>0.3947</v>
-      </c>
       <c r="AL18" t="n">
+        <v>-0.2328</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0.3107</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>-0.3498</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>-0.1963</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>-0.0138</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0.1247</v>
+      </c>
+      <c r="AR18" t="n">
         <v>0.039</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AS18" t="n">
         <v>0.06</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AT18" t="n">
         <v>0.039</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AU18" t="n">
         <v>0.06</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AV18" t="n">
         <v>0.039</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AW18" t="n">
         <v>0.06</v>
       </c>
-      <c r="AR18" t="n">
-        <v>17.1087</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>14.7706</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>17.1087</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>14.7706</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>17.1087</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>14.7706</v>
+      <c r="AX18" t="n">
+        <v>-8.711</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>11.6273</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>-13.0891</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>-7.3445</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>-0.516</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>4.6672</v>
       </c>
     </row>
     <row r="19">
@@ -3293,82 +3612,100 @@
         <v>0.0368</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="AB19" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>-0.105</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
         <v>12.0952</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AI19" t="n">
         <v>7.3333</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AJ19" t="n">
         <v>2.78</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AK19" t="n">
         <v>1.6867</v>
       </c>
-      <c r="AF19" t="n">
-        <v>0.4999</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0.4999</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0.4999</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0.4116</v>
-      </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>-0.2021</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>0.3126</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>-0.3131</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>-0.2754</v>
       </c>
       <c r="AP19" t="n">
-        <v>0</v>
+        <v>0.0289</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0</v>
+        <v>0.2466</v>
       </c>
       <c r="AR19" t="n">
-        <v>17.9823</v>
+        <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>14.8046</v>
+        <v>0</v>
       </c>
       <c r="AT19" t="n">
-        <v>17.9823</v>
+        <v>0</v>
       </c>
       <c r="AU19" t="n">
-        <v>14.8046</v>
+        <v>0</v>
       </c>
       <c r="AV19" t="n">
-        <v>17.9823</v>
+        <v>0</v>
       </c>
       <c r="AW19" t="n">
-        <v>14.8046</v>
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>-7.2695</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>11.2434</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>-11.2623</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>-9.9076</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>1.0399</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>8.869300000000001</v>
       </c>
     </row>
     <row r="20">
@@ -3442,82 +3779,100 @@
         <v>0.039</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-0.024</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-0.033</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>-0.054</v>
       </c>
       <c r="AB20" t="n">
+        <v>-0.057</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>-0.018</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
         <v>12.5714</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AI20" t="n">
         <v>7.8095</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AJ20" t="n">
         <v>2.88</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AK20" t="n">
         <v>1.7962</v>
       </c>
-      <c r="AF20" t="n">
-        <v>0.5663</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0.4506</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0.5663</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0.4506</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0.5663</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0.4506</v>
-      </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>-0.1117</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>0.4056</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>-0.2137</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>-0.1794</v>
       </c>
       <c r="AP20" t="n">
-        <v>0</v>
+        <v>0.0953</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0</v>
+        <v>0.3036</v>
       </c>
       <c r="AR20" t="n">
-        <v>19.6616</v>
+        <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>15.6441</v>
+        <v>0</v>
       </c>
       <c r="AT20" t="n">
-        <v>19.6616</v>
+        <v>0</v>
       </c>
       <c r="AU20" t="n">
-        <v>15.6441</v>
+        <v>0</v>
       </c>
       <c r="AV20" t="n">
-        <v>19.6616</v>
+        <v>0</v>
       </c>
       <c r="AW20" t="n">
-        <v>15.6441</v>
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>-3.8801</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>14.0816</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>-7.4218</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>-6.2309</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>3.3074</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>10.54</v>
       </c>
     </row>
     <row r="21">
@@ -3591,82 +3946,100 @@
         <v>0.0422</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>-0.012</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>-0.222</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>-0.048</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>-0.06900000000000001</v>
       </c>
       <c r="AB21" t="n">
+        <v>-0.102</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
         <v>13.0476</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AI21" t="n">
         <v>8.2857</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AJ21" t="n">
         <v>2.98</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AK21" t="n">
         <v>1.9057</v>
       </c>
-      <c r="AF21" t="n">
-        <v>0.6381</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0.4928</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0.6381</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0.4928</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0.6381</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0.4928</v>
-      </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>-0.0279</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>0.5168</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>0.0801</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>-0.0352</v>
       </c>
       <c r="AP21" t="n">
-        <v>0</v>
+        <v>0.2151</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0</v>
+        <v>0.3488</v>
       </c>
       <c r="AR21" t="n">
-        <v>21.4126</v>
+        <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>16.5358</v>
+        <v>0</v>
       </c>
       <c r="AT21" t="n">
-        <v>21.4126</v>
+        <v>0</v>
       </c>
       <c r="AU21" t="n">
-        <v>16.5358</v>
+        <v>0</v>
       </c>
       <c r="AV21" t="n">
-        <v>21.4126</v>
+        <v>0</v>
       </c>
       <c r="AW21" t="n">
-        <v>16.5358</v>
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>-0.9364</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>17.3411</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>2.6878</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>-1.1824</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>7.218</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>11.7035</v>
       </c>
     </row>
     <row r="22">
@@ -3740,82 +4113,100 @@
         <v>0.0488</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-0.018</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>-0.003</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="AB22" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
         <v>13.5238</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AI22" t="n">
         <v>8.761900000000001</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AJ22" t="n">
         <v>3.08</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AK22" t="n">
         <v>2.0152</v>
       </c>
-      <c r="AF22" t="n">
-        <v>0.7212</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0.5416</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>0.7212</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0.5416</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>0.7212</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>0.5416</v>
-      </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>0.0432</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>0.5506</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>0.1812</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>0.0106</v>
       </c>
       <c r="AP22" t="n">
-        <v>0</v>
+        <v>0.3012</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0</v>
+        <v>0.3976</v>
       </c>
       <c r="AR22" t="n">
-        <v>23.4142</v>
+        <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>17.5835</v>
+        <v>0</v>
       </c>
       <c r="AT22" t="n">
-        <v>23.4142</v>
+        <v>0</v>
       </c>
       <c r="AU22" t="n">
-        <v>17.5835</v>
+        <v>0</v>
       </c>
       <c r="AV22" t="n">
-        <v>23.4142</v>
+        <v>0</v>
       </c>
       <c r="AW22" t="n">
-        <v>17.5835</v>
+        <v>0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>1.4013</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>17.8757</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>5.8818</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0.3433</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>9.777900000000001</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>12.9082</v>
       </c>
     </row>
     <row r="23">
@@ -3889,82 +4280,100 @@
         <v>0.0226</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AB23" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
         <v>14</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AI23" t="n">
         <v>9.238099999999999</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AJ23" t="n">
         <v>3.18</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AK23" t="n">
         <v>2.1248</v>
       </c>
-      <c r="AF23" t="n">
-        <v>0.7212</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0.5416</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>0.7212</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0.5416</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0.7212</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>0.5416</v>
-      </c>
       <c r="AL23" t="n">
+        <v>-0.0198</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0.5206</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0.1752</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>-0.0074</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0.2742</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0.3856</v>
+      </c>
+      <c r="AR23" t="n">
         <v>0.1916</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AS23" t="n">
         <v>0.2074</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AT23" t="n">
         <v>0.1916</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AU23" t="n">
         <v>0.2074</v>
       </c>
-      <c r="AP23" t="n">
+      <c r="AV23" t="n">
         <v>0.1916</v>
       </c>
-      <c r="AQ23" t="n">
+      <c r="AW23" t="n">
         <v>0.2074</v>
       </c>
-      <c r="AR23" t="n">
-        <v>22.6779</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>17.0306</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>22.6779</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>17.0306</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>22.6779</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>17.0306</v>
+      <c r="AX23" t="n">
+        <v>-0.6239</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>16.3702</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>5.5081</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>-0.2336</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>8.6213</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>12.1249</v>
       </c>
     </row>
     <row r="24">
@@ -4038,82 +4447,100 @@
         <v>0.0281</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>0.039</v>
       </c>
       <c r="AB24" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
         <v>14.4762</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AI24" t="n">
         <v>9.7143</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AJ24" t="n">
         <v>3.28</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AK24" t="n">
         <v>2.2343</v>
       </c>
-      <c r="AF24" t="n">
-        <v>0.759</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0.5597</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0.759</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0.5597</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0.759</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>0.5597</v>
-      </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>0.4997</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>0.207</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>-0.0073</v>
       </c>
       <c r="AP24" t="n">
-        <v>0</v>
+        <v>0.306</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0</v>
+        <v>0.1637</v>
       </c>
       <c r="AR24" t="n">
-        <v>23.1401</v>
+        <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>17.0634</v>
+        <v>0</v>
       </c>
       <c r="AT24" t="n">
-        <v>23.1401</v>
+        <v>0</v>
       </c>
       <c r="AU24" t="n">
-        <v>17.0634</v>
+        <v>0</v>
       </c>
       <c r="AV24" t="n">
-        <v>23.1401</v>
+        <v>0</v>
       </c>
       <c r="AW24" t="n">
-        <v>17.0634</v>
+        <v>0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0.09130000000000001</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>15.2342</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>6.3108</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>-0.2231</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>9.3291</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>4.9903</v>
       </c>
     </row>
     <row r="25">
@@ -4187,82 +4614,100 @@
         <v>0.0653</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>-0.015</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>-0.003</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
       </c>
       <c r="AB25" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>-0.237</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
         <v>14.9524</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AI25" t="n">
         <v>10.1905</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AJ25" t="n">
         <v>3.38</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AK25" t="n">
         <v>2.3438</v>
       </c>
-      <c r="AF25" t="n">
-        <v>0.8729</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0.6249</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0.8729</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0.6249</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>0.8729</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>0.6249</v>
-      </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>0.1319</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>0.5649</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>0.3059</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>0.0429</v>
       </c>
       <c r="AP25" t="n">
-        <v>0</v>
+        <v>0.4229</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0</v>
+        <v>0.4659</v>
       </c>
       <c r="AR25" t="n">
-        <v>25.8244</v>
+        <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>18.4894</v>
+        <v>0</v>
       </c>
       <c r="AT25" t="n">
-        <v>25.8244</v>
+        <v>0</v>
       </c>
       <c r="AU25" t="n">
-        <v>18.4894</v>
+        <v>0</v>
       </c>
       <c r="AV25" t="n">
-        <v>25.8244</v>
+        <v>0</v>
       </c>
       <c r="AW25" t="n">
-        <v>18.4894</v>
+        <v>0</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>3.9013</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>16.7143</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>9.049300000000001</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>1.2705</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>12.5108</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>13.7853</v>
       </c>
     </row>
     <row r="26">
@@ -4345,73 +4790,91 @@
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="AB26" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
         <v>15.4286</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AI26" t="n">
         <v>10.6667</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AJ26" t="n">
         <v>3.48</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AK26" t="n">
         <v>2.4533</v>
       </c>
-      <c r="AF26" t="n">
-        <v>0.982</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0.982</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>0.982</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>0.6875</v>
-      </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>0.241</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>0.6005</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>0.415</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>0.0905</v>
       </c>
       <c r="AP26" t="n">
-        <v>0</v>
+        <v>0.532</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0</v>
+        <v>0.5195</v>
       </c>
       <c r="AR26" t="n">
-        <v>28.2198</v>
+        <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>19.7562</v>
+        <v>0</v>
       </c>
       <c r="AT26" t="n">
-        <v>28.2198</v>
+        <v>0</v>
       </c>
       <c r="AU26" t="n">
-        <v>19.7562</v>
+        <v>0</v>
       </c>
       <c r="AV26" t="n">
-        <v>28.2198</v>
+        <v>0</v>
       </c>
       <c r="AW26" t="n">
-        <v>19.7562</v>
+        <v>0</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>6.9266</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>17.2562</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>11.9266</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>2.6011</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>15.2887</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>14.9287</v>
       </c>
     </row>
     <row r="27">
@@ -4494,73 +4957,91 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="AB27" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
         <v>15.9048</v>
       </c>
-      <c r="AC27" t="n">
+      <c r="AI27" t="n">
         <v>11.1429</v>
       </c>
-      <c r="AD27" t="n">
+      <c r="AJ27" t="n">
         <v>3.58</v>
       </c>
-      <c r="AE27" t="n">
+      <c r="AK27" t="n">
         <v>2.5629</v>
       </c>
-      <c r="AF27" t="n">
-        <v>0.982</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0.982</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>0.982</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>0.6875</v>
-      </c>
       <c r="AL27" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.5645</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0.0635</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0.5014999999999999</v>
+      </c>
+      <c r="AR27" t="n">
         <v>0.3475</v>
       </c>
-      <c r="AM27" t="n">
+      <c r="AS27" t="n">
         <v>0.3742</v>
       </c>
-      <c r="AN27" t="n">
+      <c r="AT27" t="n">
         <v>0.3475</v>
       </c>
-      <c r="AO27" t="n">
+      <c r="AU27" t="n">
         <v>0.3742</v>
       </c>
-      <c r="AP27" t="n">
+      <c r="AV27" t="n">
         <v>0.3475</v>
       </c>
-      <c r="AQ27" t="n">
+      <c r="AW27" t="n">
         <v>0.3742</v>
       </c>
-      <c r="AR27" t="n">
-        <v>27.4315</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>19.2044</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>27.4315</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>19.2044</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>27.4315</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>19.2044</v>
+      <c r="AX27" t="n">
+        <v>6.7332</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>15.7686</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>11.5935</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>1.7742</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>14.8617</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>14.0089</v>
       </c>
     </row>
     <row r="28">
@@ -4634,82 +5115,100 @@
         <v>0.0838</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>0.273</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>0.138</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="AB28" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
         <v>16.381</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="AI28" t="n">
         <v>11.619</v>
       </c>
-      <c r="AD28" t="n">
+      <c r="AJ28" t="n">
         <v>3.68</v>
       </c>
-      <c r="AE28" t="n">
+      <c r="AK28" t="n">
         <v>2.6724</v>
       </c>
-      <c r="AF28" t="n">
-        <v>1.1282</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0.7713</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>1.1282</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0.7713</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>1.1282</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>0.7713</v>
-      </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>0.2372</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>0.6123</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>0.2882</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>0.1083</v>
       </c>
       <c r="AP28" t="n">
-        <v>0</v>
+        <v>0.5402</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0</v>
+        <v>0.5493</v>
       </c>
       <c r="AR28" t="n">
-        <v>30.6581</v>
+        <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>20.959</v>
+        <v>0</v>
       </c>
       <c r="AT28" t="n">
-        <v>30.6581</v>
+        <v>0</v>
       </c>
       <c r="AU28" t="n">
-        <v>20.959</v>
+        <v>0</v>
       </c>
       <c r="AV28" t="n">
-        <v>30.6581</v>
+        <v>0</v>
       </c>
       <c r="AW28" t="n">
-        <v>20.959</v>
+        <v>0</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>6.4461</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>16.6383</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>7.832</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>2.9427</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>14.6798</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>14.9264</v>
       </c>
     </row>
     <row r="29">
@@ -4783,82 +5282,100 @@
         <v>0.0833</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>-0.012</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>-0.171</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>-0.006</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="AB29" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>-0.018</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
         <v>16.8571</v>
       </c>
-      <c r="AC29" t="n">
+      <c r="AI29" t="n">
         <v>12.0952</v>
       </c>
-      <c r="AD29" t="n">
+      <c r="AJ29" t="n">
         <v>3.78</v>
       </c>
-      <c r="AE29" t="n">
+      <c r="AK29" t="n">
         <v>2.78</v>
       </c>
-      <c r="AF29" t="n">
-        <v>1.2736</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0.8546</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>1.2736</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0.8546</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>1.2736</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>0.8546</v>
-      </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>0.3946</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>0.6866</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>0.6046</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>0.1976</v>
       </c>
       <c r="AP29" t="n">
-        <v>0</v>
+        <v>0.6916</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0</v>
+        <v>0.6506</v>
       </c>
       <c r="AR29" t="n">
-        <v>33.692</v>
+        <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>22.6082</v>
+        <v>0</v>
       </c>
       <c r="AT29" t="n">
-        <v>33.692</v>
+        <v>0</v>
       </c>
       <c r="AU29" t="n">
-        <v>22.6082</v>
+        <v>0</v>
       </c>
       <c r="AV29" t="n">
-        <v>33.692</v>
+        <v>0</v>
       </c>
       <c r="AW29" t="n">
-        <v>22.6082</v>
+        <v>0</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>10.4381</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>18.1638</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>15.9936</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>5.2272</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>18.2952</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>17.2114</v>
       </c>
     </row>
     <row r="30">
@@ -4932,82 +5449,100 @@
         <v>0.0498</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>-0.039</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>-0.012</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>-0.021</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="AB30" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
         <v>17.3333</v>
       </c>
-      <c r="AC30" t="n">
+      <c r="AI30" t="n">
         <v>12.5714</v>
       </c>
-      <c r="AD30" t="n">
+      <c r="AJ30" t="n">
         <v>3.88</v>
       </c>
-      <c r="AE30" t="n">
+      <c r="AK30" t="n">
         <v>2.88</v>
       </c>
-      <c r="AF30" t="n">
-        <v>1.3604</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0.9044</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>1.3604</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>0.9044</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>1.3604</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>0.9044</v>
-      </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>0.5204</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>0.7244</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>0.7034</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>0.2444</v>
       </c>
       <c r="AP30" t="n">
-        <v>0</v>
+        <v>0.7994</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0</v>
+        <v>0.7004</v>
       </c>
       <c r="AR30" t="n">
-        <v>35.0617</v>
+        <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>23.3082</v>
+        <v>0</v>
       </c>
       <c r="AT30" t="n">
-        <v>35.0617</v>
+        <v>0</v>
       </c>
       <c r="AU30" t="n">
-        <v>23.3082</v>
+        <v>0</v>
       </c>
       <c r="AV30" t="n">
-        <v>35.0617</v>
+        <v>0</v>
       </c>
       <c r="AW30" t="n">
-        <v>23.3082</v>
+        <v>0</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>13.4123</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>18.669</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>18.1288</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>6.2979</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>20.603</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>18.0505</v>
       </c>
     </row>
     <row r="31">
@@ -5081,82 +5616,100 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>-0.003</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>-0.051</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="AB31" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
         <v>17.8095</v>
       </c>
-      <c r="AC31" t="n">
+      <c r="AI31" t="n">
         <v>13.0476</v>
       </c>
-      <c r="AD31" t="n">
+      <c r="AJ31" t="n">
         <v>3.98</v>
       </c>
-      <c r="AE31" t="n">
+      <c r="AK31" t="n">
         <v>2.98</v>
       </c>
-      <c r="AF31" t="n">
-        <v>1.4884</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0.9777</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>1.4884</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>0.9777</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>1.4884</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>0.9777</v>
-      </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>0.6424</v>
       </c>
       <c r="AM31" t="n">
-        <v>0</v>
+        <v>0.7766999999999999</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>0.8344</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>0.3087</v>
       </c>
       <c r="AP31" t="n">
-        <v>0</v>
+        <v>0.9784</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0</v>
+        <v>0.7737000000000001</v>
       </c>
       <c r="AR31" t="n">
-        <v>37.3969</v>
+        <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>24.5658</v>
+        <v>0</v>
       </c>
       <c r="AT31" t="n">
-        <v>37.3969</v>
+        <v>0</v>
       </c>
       <c r="AU31" t="n">
-        <v>24.5658</v>
+        <v>0</v>
       </c>
       <c r="AV31" t="n">
-        <v>37.3969</v>
+        <v>0</v>
       </c>
       <c r="AW31" t="n">
-        <v>24.5658</v>
+        <v>0</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>16.1406</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>19.5155</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>20.9647</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>7.7567</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>24.5828</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>19.4402</v>
       </c>
     </row>
     <row r="32">
@@ -5230,82 +5783,100 @@
         <v>0.0704</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>-0.006</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="AB32" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
         <v>18.2857</v>
       </c>
-      <c r="AC32" t="n">
+      <c r="AI32" t="n">
         <v>13.5238</v>
       </c>
-      <c r="AD32" t="n">
+      <c r="AJ32" t="n">
         <v>4.0771</v>
       </c>
-      <c r="AE32" t="n">
+      <c r="AK32" t="n">
         <v>3.08</v>
       </c>
-      <c r="AF32" t="n">
-        <v>1.6114</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>1.0482</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>1.6114</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>1.0482</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>1.6114</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>1.0482</v>
-      </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>0.7534</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>0.8322000000000001</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>0.9634</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>0.3702</v>
       </c>
       <c r="AP32" t="n">
-        <v>0</v>
+        <v>1.1104</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0</v>
+        <v>0.8442</v>
       </c>
       <c r="AR32" t="n">
-        <v>39.5228</v>
+        <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>25.7084</v>
+        <v>0</v>
       </c>
       <c r="AT32" t="n">
-        <v>39.5228</v>
+        <v>0</v>
       </c>
       <c r="AU32" t="n">
-        <v>25.7084</v>
+        <v>0</v>
       </c>
       <c r="AV32" t="n">
-        <v>39.5228</v>
+        <v>0</v>
       </c>
       <c r="AW32" t="n">
-        <v>25.7084</v>
+        <v>0</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>18.4786</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>20.4105</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>23.6293</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>9.0791</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>27.2348</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>20.7048</v>
       </c>
     </row>
     <row r="33">
@@ -5379,82 +5950,100 @@
         <v>0.0838</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="AB33" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
         <v>18.7619</v>
       </c>
-      <c r="AC33" t="n">
+      <c r="AI33" t="n">
         <v>14</v>
       </c>
-      <c r="AD33" t="n">
+      <c r="AJ33" t="n">
         <v>4.1724</v>
       </c>
-      <c r="AE33" t="n">
+      <c r="AK33" t="n">
         <v>3.18</v>
       </c>
-      <c r="AF33" t="n">
-        <v>1.7578</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>1.132</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>1.7578</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>1.132</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>1.7578</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>1.132</v>
-      </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>0.8938</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>0.904</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>1.1098</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>0.448</v>
       </c>
       <c r="AP33" t="n">
-        <v>0</v>
+        <v>1.2538</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0</v>
+        <v>0.928</v>
       </c>
       <c r="AR33" t="n">
-        <v>42.1283</v>
+        <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>27.1305</v>
+        <v>0</v>
       </c>
       <c r="AT33" t="n">
-        <v>42.1283</v>
+        <v>0</v>
       </c>
       <c r="AU33" t="n">
-        <v>27.1305</v>
+        <v>0</v>
       </c>
       <c r="AV33" t="n">
-        <v>42.1283</v>
+        <v>0</v>
       </c>
       <c r="AW33" t="n">
-        <v>27.1305</v>
+        <v>0</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>21.4207</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>21.666</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>26.5976</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>10.737</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>30.0489</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>22.2412</v>
       </c>
     </row>
     <row r="34">
@@ -5528,82 +6117,100 @@
         <v>0.1128</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>-0.006</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>-0.018</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>-0.006</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="AB34" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
         <v>19.2381</v>
       </c>
-      <c r="AC34" t="n">
+      <c r="AI34" t="n">
         <v>14.4762</v>
       </c>
-      <c r="AD34" t="n">
+      <c r="AJ34" t="n">
         <v>4.2676</v>
       </c>
-      <c r="AE34" t="n">
+      <c r="AK34" t="n">
         <v>3.28</v>
       </c>
-      <c r="AF34" t="n">
-        <v>1.9547</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>1.2448</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>1.9547</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>1.2448</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>1.9547</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>1.2448</v>
-      </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>1.0967</v>
       </c>
       <c r="AM34" t="n">
-        <v>0</v>
+        <v>1.0108</v>
       </c>
       <c r="AN34" t="n">
-        <v>0</v>
+        <v>1.3247</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>0.5578</v>
       </c>
       <c r="AP34" t="n">
-        <v>0</v>
+        <v>1.4567</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0</v>
+        <v>1.0438</v>
       </c>
       <c r="AR34" t="n">
-        <v>45.8024</v>
+        <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>29.1677</v>
+        <v>0</v>
       </c>
       <c r="AT34" t="n">
-        <v>45.8024</v>
+        <v>0</v>
       </c>
       <c r="AU34" t="n">
-        <v>29.1677</v>
+        <v>0</v>
       </c>
       <c r="AV34" t="n">
-        <v>45.8024</v>
+        <v>0</v>
       </c>
       <c r="AW34" t="n">
-        <v>29.1677</v>
+        <v>0</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>25.6975</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>23.6846</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>31.0401</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>13.0698</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>34.1332</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>24.4579</v>
       </c>
     </row>
     <row r="35">
@@ -5677,82 +6284,100 @@
         <v>0.1202</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-0.021</v>
       </c>
       <c r="Z35" t="n">
-        <v>0</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="AB35" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
         <v>19.7143</v>
       </c>
-      <c r="AC35" t="n">
+      <c r="AI35" t="n">
         <v>14.9524</v>
       </c>
-      <c r="AD35" t="n">
+      <c r="AJ35" t="n">
         <v>4.3629</v>
       </c>
-      <c r="AE35" t="n">
+      <c r="AK35" t="n">
         <v>3.38</v>
       </c>
-      <c r="AF35" t="n">
-        <v>1.9547</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>1.2448</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>1.9547</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>1.2448</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>1.9547</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>1.2448</v>
-      </c>
       <c r="AL35" t="n">
+        <v>1.0937</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0.9868</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1.3457</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.5368000000000001</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>1.4477</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>1.0348</v>
+      </c>
+      <c r="AR35" t="n">
         <v>0.3601</v>
       </c>
-      <c r="AM35" t="n">
+      <c r="AS35" t="n">
         <v>0.4498</v>
       </c>
-      <c r="AN35" t="n">
+      <c r="AT35" t="n">
         <v>0.3601</v>
       </c>
-      <c r="AO35" t="n">
+      <c r="AU35" t="n">
         <v>0.4498</v>
       </c>
-      <c r="AP35" t="n">
+      <c r="AV35" t="n">
         <v>0.3601</v>
       </c>
-      <c r="AQ35" t="n">
+      <c r="AW35" t="n">
         <v>0.4498</v>
       </c>
-      <c r="AR35" t="n">
-        <v>44.8026</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>28.531</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>44.8026</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>28.531</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>44.8026</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>28.531</v>
+      <c r="AX35" t="n">
+        <v>25.0678</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>22.6175</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>30.8439</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>12.3031</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>33.1818</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>23.7177</v>
       </c>
     </row>
     <row r="36">
@@ -5826,82 +6451,100 @@
         <v>0.1016</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>0.555</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="AB36" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
         <v>20.1905</v>
       </c>
-      <c r="AC36" t="n">
+      <c r="AI36" t="n">
         <v>15.4286</v>
       </c>
-      <c r="AD36" t="n">
+      <c r="AJ36" t="n">
         <v>4.4581</v>
       </c>
-      <c r="AE36" t="n">
+      <c r="AK36" t="n">
         <v>3.48</v>
       </c>
-      <c r="AF36" t="n">
-        <v>1.9547</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>1.2448</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>1.9547</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>1.2448</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>1.9547</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>1.2448</v>
-      </c>
       <c r="AL36" t="n">
+        <v>1.0097</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0.9388</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1.0757</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.4978</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0.8927</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.7558</v>
+      </c>
+      <c r="AR36" t="n">
         <v>0.0026</v>
       </c>
-      <c r="AM36" t="n">
+      <c r="AS36" t="n">
         <v>0.0784</v>
       </c>
-      <c r="AN36" t="n">
+      <c r="AT36" t="n">
         <v>0.0026</v>
       </c>
-      <c r="AO36" t="n">
+      <c r="AU36" t="n">
         <v>0.0784</v>
       </c>
-      <c r="AP36" t="n">
+      <c r="AV36" t="n">
         <v>0.0026</v>
       </c>
-      <c r="AQ36" t="n">
+      <c r="AW36" t="n">
         <v>0.0784</v>
       </c>
-      <c r="AR36" t="n">
-        <v>43.8455</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>27.9215</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>43.8455</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>27.9215</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>43.8455</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>27.9215</v>
+      <c r="AX36" t="n">
+        <v>22.6481</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>21.0576</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>24.1285</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>11.1655</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>20.0236</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>16.9527</v>
       </c>
     </row>
     <row r="37">
@@ -5975,82 +6618,100 @@
         <v>0.0999</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>-0.045</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>-0.186</v>
       </c>
       <c r="Z37" t="n">
-        <v>0</v>
+        <v>-0.465</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="AB37" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>-0.231</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
         <v>20.6667</v>
       </c>
-      <c r="AC37" t="n">
+      <c r="AI37" t="n">
         <v>15.9048</v>
       </c>
-      <c r="AD37" t="n">
+      <c r="AJ37" t="n">
         <v>4.5533</v>
       </c>
-      <c r="AE37" t="n">
+      <c r="AK37" t="n">
         <v>3.58</v>
       </c>
-      <c r="AF37" t="n">
-        <v>2.1292</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>1.3447</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>2.1292</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>1.3447</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>2.1292</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>1.3447</v>
-      </c>
       <c r="AL37" t="n">
-        <v>0</v>
+        <v>1.2292</v>
       </c>
       <c r="AM37" t="n">
-        <v>0</v>
+        <v>0.9907</v>
       </c>
       <c r="AN37" t="n">
-        <v>0</v>
+        <v>1.4362</v>
       </c>
       <c r="AO37" t="n">
-        <v>0</v>
+        <v>0.5557</v>
       </c>
       <c r="AP37" t="n">
-        <v>0</v>
+        <v>1.5322</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0</v>
+        <v>1.0867</v>
       </c>
       <c r="AR37" t="n">
-        <v>46.7605</v>
+        <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>29.5323</v>
+        <v>0</v>
       </c>
       <c r="AT37" t="n">
-        <v>46.7605</v>
+        <v>0</v>
       </c>
       <c r="AU37" t="n">
-        <v>29.5323</v>
+        <v>0</v>
       </c>
       <c r="AV37" t="n">
-        <v>46.7605</v>
+        <v>0</v>
       </c>
       <c r="AW37" t="n">
-        <v>29.5323</v>
+        <v>0</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>26.9947</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>21.7577</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>31.5409</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>12.2043</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>33.6492</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>23.8661</v>
       </c>
     </row>
     <row r="38">
@@ -6124,82 +6785,100 @@
         <v>0.1239</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-0.021</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>-0.08699999999999999</v>
       </c>
       <c r="Z38" t="n">
-        <v>0</v>
+        <v>-0.036</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
+        <v>-0.024</v>
       </c>
       <c r="AB38" t="n">
+        <v>-0.021</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="n">
         <v>21.1429</v>
       </c>
-      <c r="AC38" t="n">
+      <c r="AI38" t="n">
         <v>16.381</v>
       </c>
-      <c r="AD38" t="n">
+      <c r="AJ38" t="n">
         <v>4.6486</v>
       </c>
-      <c r="AE38" t="n">
+      <c r="AK38" t="n">
         <v>3.68</v>
       </c>
-      <c r="AF38" t="n">
-        <v>2.3455</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>1.4686</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>2.3455</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>1.4686</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>2.3455</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>1.4686</v>
-      </c>
       <c r="AL38" t="n">
-        <v>0</v>
+        <v>1.4665</v>
       </c>
       <c r="AM38" t="n">
-        <v>0</v>
+        <v>1.1386</v>
       </c>
       <c r="AN38" t="n">
-        <v>0</v>
+        <v>1.7395</v>
       </c>
       <c r="AO38" t="n">
-        <v>0</v>
+        <v>0.7006</v>
       </c>
       <c r="AP38" t="n">
-        <v>0</v>
+        <v>1.7845</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0</v>
+        <v>1.2016</v>
       </c>
       <c r="AR38" t="n">
-        <v>50.4556</v>
+        <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>31.5922</v>
+        <v>0</v>
       </c>
       <c r="AT38" t="n">
-        <v>50.4556</v>
+        <v>0</v>
       </c>
       <c r="AU38" t="n">
-        <v>31.5922</v>
+        <v>0</v>
       </c>
       <c r="AV38" t="n">
-        <v>50.4556</v>
+        <v>0</v>
       </c>
       <c r="AW38" t="n">
-        <v>31.5922</v>
+        <v>0</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>31.5465</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>24.4932</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>37.4193</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>15.071</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>38.3873</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>25.8485</v>
       </c>
     </row>
     <row r="39">
@@ -6273,82 +6952,100 @@
         <v>0.1478</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>-0.048</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>-0.111</v>
       </c>
       <c r="Z39" t="n">
-        <v>0</v>
+        <v>-0.012</v>
       </c>
       <c r="AA39" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="AB39" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
         <v>21.619</v>
       </c>
-      <c r="AC39" t="n">
+      <c r="AI39" t="n">
         <v>16.8571</v>
       </c>
-      <c r="AD39" t="n">
+      <c r="AJ39" t="n">
         <v>4.7438</v>
       </c>
-      <c r="AE39" t="n">
+      <c r="AK39" t="n">
         <v>3.78</v>
       </c>
-      <c r="AF39" t="n">
-        <v>2.5886</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>1.6164</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>2.5886</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>1.6164</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>2.5886</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>1.6164</v>
-      </c>
       <c r="AL39" t="n">
-        <v>0</v>
+        <v>1.7576</v>
       </c>
       <c r="AM39" t="n">
-        <v>0</v>
+        <v>1.2744</v>
       </c>
       <c r="AN39" t="n">
-        <v>0</v>
+        <v>2.0936</v>
       </c>
       <c r="AO39" t="n">
-        <v>0</v>
+        <v>0.8334</v>
       </c>
       <c r="AP39" t="n">
-        <v>0</v>
+        <v>2.0396</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0</v>
+        <v>1.3554</v>
       </c>
       <c r="AR39" t="n">
-        <v>54.5672</v>
+        <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>34.0731</v>
+        <v>0</v>
       </c>
       <c r="AT39" t="n">
-        <v>54.5672</v>
+        <v>0</v>
       </c>
       <c r="AU39" t="n">
-        <v>34.0731</v>
+        <v>0</v>
       </c>
       <c r="AV39" t="n">
-        <v>54.5672</v>
+        <v>0</v>
       </c>
       <c r="AW39" t="n">
-        <v>34.0731</v>
+        <v>0</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>37.0497</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>26.8637</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>44.1326</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>17.5674</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>42.9943</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>28.5712</v>
       </c>
     </row>
     <row r="40">
@@ -6422,82 +7119,100 @@
         <v>0.1099</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>-0.066</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>-0.123</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>-0.003</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="AB40" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
         <v>22.0952</v>
       </c>
-      <c r="AC40" t="n">
+      <c r="AI40" t="n">
         <v>17.3333</v>
       </c>
-      <c r="AD40" t="n">
+      <c r="AJ40" t="n">
         <v>4.839</v>
       </c>
-      <c r="AE40" t="n">
+      <c r="AK40" t="n">
         <v>3.88</v>
       </c>
-      <c r="AF40" t="n">
-        <v>2.7593</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>1.7162</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>2.7593</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>1.7162</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>2.7593</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>1.7162</v>
-      </c>
       <c r="AL40" t="n">
-        <v>0</v>
+        <v>1.9943</v>
       </c>
       <c r="AM40" t="n">
-        <v>0</v>
+        <v>1.3562</v>
       </c>
       <c r="AN40" t="n">
-        <v>0</v>
+        <v>2.3873</v>
       </c>
       <c r="AO40" t="n">
-        <v>0</v>
+        <v>0.9062</v>
       </c>
       <c r="AP40" t="n">
-        <v>0</v>
+        <v>2.2133</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0</v>
+        <v>1.4432</v>
       </c>
       <c r="AR40" t="n">
-        <v>57.0215</v>
+        <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>35.4663</v>
+        <v>0</v>
       </c>
       <c r="AT40" t="n">
-        <v>57.0215</v>
+        <v>0</v>
       </c>
       <c r="AU40" t="n">
-        <v>35.4663</v>
+        <v>0</v>
       </c>
       <c r="AV40" t="n">
-        <v>57.0215</v>
+        <v>0</v>
       </c>
       <c r="AW40" t="n">
-        <v>35.4663</v>
+        <v>0</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>41.2126</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>28.0268</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>49.334</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>18.7275</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>45.7383</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>29.8247</v>
       </c>
     </row>
     <row r="41">
@@ -6571,82 +7286,100 @@
         <v>0.116</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>-0.066</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="Z41" t="n">
-        <v>0</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="AB41" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
         <v>22.5714</v>
       </c>
-      <c r="AC41" t="n">
+      <c r="AI41" t="n">
         <v>17.8095</v>
       </c>
-      <c r="AD41" t="n">
+      <c r="AJ41" t="n">
         <v>4.9343</v>
       </c>
-      <c r="AE41" t="n">
+      <c r="AK41" t="n">
         <v>3.98</v>
       </c>
-      <c r="AF41" t="n">
-        <v>2.9501</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>1.8322</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>2.9501</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>1.8322</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>2.9501</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>1.8322</v>
-      </c>
       <c r="AL41" t="n">
-        <v>0</v>
+        <v>2.2511</v>
       </c>
       <c r="AM41" t="n">
-        <v>0</v>
+        <v>1.4572</v>
       </c>
       <c r="AN41" t="n">
-        <v>0</v>
+        <v>2.6381</v>
       </c>
       <c r="AO41" t="n">
-        <v>0</v>
+        <v>1.0012</v>
       </c>
       <c r="AP41" t="n">
-        <v>0</v>
+        <v>2.3951</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0</v>
+        <v>1.5652</v>
       </c>
       <c r="AR41" t="n">
-        <v>59.7885</v>
+        <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>37.1329</v>
+        <v>0</v>
       </c>
       <c r="AT41" t="n">
-        <v>59.7885</v>
+        <v>0</v>
       </c>
       <c r="AU41" t="n">
-        <v>37.1329</v>
+        <v>0</v>
       </c>
       <c r="AV41" t="n">
-        <v>59.7885</v>
+        <v>0</v>
       </c>
       <c r="AW41" t="n">
-        <v>37.1329</v>
+        <v>0</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>45.6224</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>29.533</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>53.4654</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>20.2915</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>48.5407</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>31.7217</v>
       </c>
     </row>
     <row r="42">
@@ -6720,82 +7453,100 @@
         <v>0.1371</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>-0.135</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>-0.117</v>
       </c>
       <c r="Z42" t="n">
-        <v>0</v>
+        <v>-0.048</v>
       </c>
       <c r="AA42" t="n">
-        <v>0</v>
+        <v>-0.012</v>
       </c>
       <c r="AB42" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
         <v>23.0476</v>
       </c>
-      <c r="AC42" t="n">
+      <c r="AI42" t="n">
         <v>18.2857</v>
       </c>
-      <c r="AD42" t="n">
+      <c r="AJ42" t="n">
         <v>5.0295</v>
       </c>
-      <c r="AE42" t="n">
+      <c r="AK42" t="n">
         <v>4.0771</v>
       </c>
-      <c r="AF42" t="n">
-        <v>3.1756</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>1.9693</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>3.1756</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>1.9693</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>3.1756</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>1.9693</v>
-      </c>
       <c r="AL42" t="n">
-        <v>0</v>
+        <v>2.6116</v>
       </c>
       <c r="AM42" t="n">
-        <v>0</v>
+        <v>1.6063</v>
       </c>
       <c r="AN42" t="n">
-        <v>0</v>
+        <v>2.9806</v>
       </c>
       <c r="AO42" t="n">
-        <v>0</v>
+        <v>1.1503</v>
       </c>
       <c r="AP42" t="n">
-        <v>0</v>
+        <v>2.6686</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0</v>
+        <v>1.7143</v>
       </c>
       <c r="AR42" t="n">
-        <v>63.14</v>
+        <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>39.1553</v>
+        <v>0</v>
       </c>
       <c r="AT42" t="n">
-        <v>63.14</v>
+        <v>0</v>
       </c>
       <c r="AU42" t="n">
-        <v>39.1553</v>
+        <v>0</v>
       </c>
       <c r="AV42" t="n">
-        <v>63.14</v>
+        <v>0</v>
       </c>
       <c r="AW42" t="n">
-        <v>39.1553</v>
+        <v>0</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>51.9262</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>31.9379</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>59.2629</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>22.8714</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>53.0595</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>34.0852</v>
       </c>
     </row>
     <row r="43">
@@ -6869,82 +7620,100 @@
         <v>0.1353</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>-0.156</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>-0.126</v>
       </c>
       <c r="Z43" t="n">
-        <v>0</v>
+        <v>-0.08699999999999999</v>
       </c>
       <c r="AA43" t="n">
-        <v>0</v>
+        <v>-0.027</v>
       </c>
       <c r="AB43" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="n">
         <v>23.5238</v>
       </c>
-      <c r="AC43" t="n">
+      <c r="AI43" t="n">
         <v>18.7619</v>
       </c>
-      <c r="AD43" t="n">
+      <c r="AJ43" t="n">
         <v>5.1248</v>
       </c>
-      <c r="AE43" t="n">
+      <c r="AK43" t="n">
         <v>4.1724</v>
       </c>
-      <c r="AF43" t="n">
-        <v>3.3982</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>2.1046</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>3.3982</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>2.1046</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>3.3982</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>2.1046</v>
-      </c>
       <c r="AL43" t="n">
-        <v>0</v>
+        <v>2.9902</v>
       </c>
       <c r="AM43" t="n">
-        <v>0</v>
+        <v>1.7686</v>
       </c>
       <c r="AN43" t="n">
-        <v>0</v>
+        <v>3.3292</v>
       </c>
       <c r="AO43" t="n">
-        <v>0</v>
+        <v>1.2766</v>
       </c>
       <c r="AP43" t="n">
-        <v>0</v>
+        <v>2.9782</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0</v>
+        <v>1.8556</v>
       </c>
       <c r="AR43" t="n">
-        <v>66.3099</v>
+        <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>41.0679</v>
+        <v>0</v>
       </c>
       <c r="AT43" t="n">
-        <v>66.3099</v>
+        <v>0</v>
       </c>
       <c r="AU43" t="n">
-        <v>41.0679</v>
+        <v>0</v>
       </c>
       <c r="AV43" t="n">
-        <v>66.3099</v>
+        <v>0</v>
       </c>
       <c r="AW43" t="n">
-        <v>41.0679</v>
+        <v>0</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>58.3485</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>34.5115</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>64.9635</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>24.911</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>58.1144</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>36.2091</v>
       </c>
     </row>
     <row r="44">
@@ -7018,82 +7787,100 @@
         <v>0.1365</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>-0.138</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>-0.096</v>
       </c>
       <c r="Z44" t="n">
-        <v>0</v>
+        <v>-0.09</v>
       </c>
       <c r="AA44" t="n">
-        <v>0</v>
+        <v>-0.045</v>
       </c>
       <c r="AB44" t="n">
+        <v>-0.015</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="n">
         <v>24</v>
       </c>
-      <c r="AC44" t="n">
+      <c r="AI44" t="n">
         <v>19.2381</v>
       </c>
-      <c r="AD44" t="n">
+      <c r="AJ44" t="n">
         <v>5.22</v>
       </c>
-      <c r="AE44" t="n">
+      <c r="AK44" t="n">
         <v>4.2676</v>
       </c>
-      <c r="AF44" t="n">
-        <v>3.6228</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>2.2412</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>3.6228</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>2.2412</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>3.6228</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>2.2412</v>
-      </c>
       <c r="AL44" t="n">
-        <v>0</v>
+        <v>3.3528</v>
       </c>
       <c r="AM44" t="n">
-        <v>0</v>
+        <v>1.9502</v>
       </c>
       <c r="AN44" t="n">
-        <v>0</v>
+        <v>3.6498</v>
       </c>
       <c r="AO44" t="n">
-        <v>0</v>
+        <v>1.4282</v>
       </c>
       <c r="AP44" t="n">
-        <v>0</v>
+        <v>3.2928</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0</v>
+        <v>1.9982</v>
       </c>
       <c r="AR44" t="n">
-        <v>69.4029</v>
+        <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>42.9343</v>
+        <v>0</v>
       </c>
       <c r="AT44" t="n">
-        <v>69.4029</v>
+        <v>0</v>
       </c>
       <c r="AU44" t="n">
-        <v>42.9343</v>
+        <v>0</v>
       </c>
       <c r="AV44" t="n">
-        <v>69.4029</v>
+        <v>0</v>
       </c>
       <c r="AW44" t="n">
-        <v>42.9343</v>
+        <v>0</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>64.23050000000001</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>37.3595</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>69.92010000000001</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>27.3595</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>63.081</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>38.2791</v>
       </c>
     </row>
     <row r="45">
@@ -7167,82 +7954,100 @@
         <v>0.1127</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>-0.105</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="Z45" t="n">
-        <v>0</v>
+        <v>-0.06900000000000001</v>
       </c>
       <c r="AA45" t="n">
-        <v>0</v>
+        <v>-0.057</v>
       </c>
       <c r="AB45" t="n">
+        <v>-0.027</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>-0.008999999999999999</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" t="n">
         <v>24.4762</v>
       </c>
-      <c r="AC45" t="n">
+      <c r="AI45" t="n">
         <v>19.7143</v>
       </c>
-      <c r="AD45" t="n">
+      <c r="AJ45" t="n">
         <v>5.22</v>
       </c>
-      <c r="AE45" t="n">
+      <c r="AK45" t="n">
         <v>4.3629</v>
       </c>
-      <c r="AF45" t="n">
-        <v>3.6228</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>2.2412</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>3.6228</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>2.2412</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>3.6228</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>2.2412</v>
-      </c>
       <c r="AL45" t="n">
+        <v>3.4578</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>2.0072</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>3.7098</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1.4552</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>3.3618</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>2.0072</v>
+      </c>
+      <c r="AR45" t="n">
         <v>0.1246</v>
       </c>
-      <c r="AM45" t="n">
+      <c r="AS45" t="n">
         <v>0.1973</v>
       </c>
-      <c r="AN45" t="n">
+      <c r="AT45" t="n">
         <v>0.1246</v>
       </c>
-      <c r="AO45" t="n">
+      <c r="AU45" t="n">
         <v>0.1973</v>
       </c>
-      <c r="AP45" t="n">
+      <c r="AV45" t="n">
         <v>0.1246</v>
       </c>
-      <c r="AQ45" t="n">
+      <c r="AW45" t="n">
         <v>0.1973</v>
       </c>
-      <c r="AR45" t="n">
-        <v>69.4029</v>
-      </c>
-      <c r="AS45" t="n">
-        <v>42.9343</v>
-      </c>
-      <c r="AT45" t="n">
-        <v>69.4029</v>
-      </c>
-      <c r="AU45" t="n">
-        <v>42.9343</v>
-      </c>
-      <c r="AV45" t="n">
-        <v>69.4029</v>
-      </c>
-      <c r="AW45" t="n">
-        <v>42.9343</v>
+      <c r="AX45" t="n">
+        <v>66.242</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>38.4515</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>71.06959999999999</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>27.8768</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>64.4029</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>38.4515</v>
       </c>
     </row>
     <row r="46">
@@ -7316,82 +8121,100 @@
         <v>0.1538</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>0.042</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>0.042</v>
       </c>
       <c r="Z46" t="n">
-        <v>0</v>
+        <v>0.096</v>
       </c>
       <c r="AA46" t="n">
-        <v>0</v>
+        <v>-0.039</v>
       </c>
       <c r="AB46" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>-0.021</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="n">
         <v>24.9524</v>
       </c>
-      <c r="AC46" t="n">
+      <c r="AI46" t="n">
         <v>20.1905</v>
       </c>
-      <c r="AD46" t="n">
+      <c r="AJ46" t="n">
         <v>5.22</v>
       </c>
-      <c r="AE46" t="n">
+      <c r="AK46" t="n">
         <v>4.4581</v>
       </c>
-      <c r="AF46" t="n">
-        <v>3.8239</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>2.395</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>3.8239</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>2.395</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>3.8239</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>2.395</v>
-      </c>
       <c r="AL46" t="n">
-        <v>0</v>
+        <v>3.6169</v>
       </c>
       <c r="AM46" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AN46" t="n">
-        <v>0</v>
+        <v>3.8689</v>
       </c>
       <c r="AO46" t="n">
-        <v>0</v>
+        <v>1.567</v>
       </c>
       <c r="AP46" t="n">
-        <v>0</v>
+        <v>3.4669</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0</v>
+        <v>2.182</v>
       </c>
       <c r="AR46" t="n">
-        <v>73.2542</v>
+        <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>45.8808</v>
+        <v>0</v>
       </c>
       <c r="AT46" t="n">
-        <v>73.2542</v>
+        <v>0</v>
       </c>
       <c r="AU46" t="n">
-        <v>45.8808</v>
+        <v>0</v>
       </c>
       <c r="AV46" t="n">
-        <v>73.2542</v>
+        <v>0</v>
       </c>
       <c r="AW46" t="n">
-        <v>45.8808</v>
+        <v>0</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>69.28870000000001</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>42.1452</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>74.1163</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>30.0187</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>66.4152</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>41.8003</v>
       </c>
     </row>
     <row r="47">
@@ -7465,82 +8288,100 @@
         <v>0.0716</v>
       </c>
       <c r="X47" t="n">
-        <v>0</v>
+        <v>-0.07199999999999999</v>
       </c>
       <c r="Y47" t="n">
-        <v>0</v>
+        <v>-0.063</v>
       </c>
       <c r="Z47" t="n">
-        <v>0</v>
+        <v>-0.141</v>
       </c>
       <c r="AA47" t="n">
-        <v>0</v>
+        <v>-0.081</v>
       </c>
       <c r="AB47" t="n">
+        <v>-0.039</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>-0.042</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" t="n">
         <v>25.4286</v>
       </c>
-      <c r="AC47" t="n">
+      <c r="AI47" t="n">
         <v>20.6667</v>
       </c>
-      <c r="AD47" t="n">
+      <c r="AJ47" t="n">
         <v>5.22</v>
       </c>
-      <c r="AE47" t="n">
+      <c r="AK47" t="n">
         <v>4.5533</v>
       </c>
-      <c r="AF47" t="n">
-        <v>3.8575</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>2.4066</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>3.8575</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>2.4066</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>3.8575</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>2.4066</v>
-      </c>
       <c r="AL47" t="n">
-        <v>0</v>
+        <v>3.7225</v>
       </c>
       <c r="AM47" t="n">
-        <v>0</v>
+        <v>2.2926</v>
       </c>
       <c r="AN47" t="n">
-        <v>0</v>
+        <v>3.9655</v>
       </c>
       <c r="AO47" t="n">
-        <v>0</v>
+        <v>1.6176</v>
       </c>
       <c r="AP47" t="n">
-        <v>0</v>
+        <v>3.6415</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0</v>
+        <v>2.2356</v>
       </c>
       <c r="AR47" t="n">
-        <v>73.89830000000001</v>
+        <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>46.1035</v>
+        <v>0</v>
       </c>
       <c r="AT47" t="n">
-        <v>73.89830000000001</v>
+        <v>0</v>
       </c>
       <c r="AU47" t="n">
-        <v>46.1035</v>
+        <v>0</v>
       </c>
       <c r="AV47" t="n">
-        <v>73.89830000000001</v>
+        <v>0</v>
       </c>
       <c r="AW47" t="n">
-        <v>46.1035</v>
+        <v>0</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>71.3121</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>43.9196</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>75.96729999999999</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>30.9886</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>69.7604</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>42.8277</v>
       </c>
     </row>
   </sheetData>
